--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="1357">
   <si>
     <t>data set</t>
   </si>
@@ -33307,7 +33307,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33454,9 +33454,15 @@
       <c r="F4" s="27">
         <v>-1</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>965</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>336</v>
+      </c>
       <c r="J4" s="29">
         <v>0.21299999999999999</v>
       </c>
@@ -33486,16 +33492,36 @@
       <c r="B6" s="26" t="s">
         <v>1000</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="74"/>
+      <c r="C6" s="27">
+        <v>-2631.21</v>
+      </c>
+      <c r="D6" s="27">
+        <v>-2688.9670000000001</v>
+      </c>
+      <c r="E6" s="27">
+        <v>79.7</v>
+      </c>
+      <c r="F6" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>963</v>
+      </c>
+      <c r="I6" s="78">
+        <v>75.522000000000006</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0.79</v>
+      </c>
+      <c r="L6" s="74">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="26" customFormat="1">
       <c r="B7" s="26" t="s">
@@ -36519,7 +36545,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="37.5">
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10">
         <v>9</v>
       </c>
@@ -36575,7 +36601,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="37.5">
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14">
         <v>13</v>
       </c>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1357">
   <si>
     <t>data set</t>
   </si>
@@ -31406,7 +31406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
@@ -33306,8 +33306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33477,16 +33477,36 @@
       <c r="B5" s="26" t="s">
         <v>999</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="74"/>
+      <c r="C5" s="27">
+        <v>-2708.69</v>
+      </c>
+      <c r="D5" s="27">
+        <v>-2708.9</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1.24</v>
+      </c>
+      <c r="F5" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>965</v>
+      </c>
+      <c r="I5" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0.214</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0.79</v>
+      </c>
+      <c r="L5" s="74">
+        <v>7.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="26" customFormat="1">
       <c r="B6" s="26" t="s">
@@ -33527,16 +33547,36 @@
       <c r="B7" s="26" t="s">
         <v>1001</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="74"/>
+      <c r="C7" s="27">
+        <v>-2698.25</v>
+      </c>
+      <c r="D7" s="27">
+        <v>-2704.9524999999999</v>
+      </c>
+      <c r="E7" s="27">
+        <v>12</v>
+      </c>
+      <c r="F7" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>963</v>
+      </c>
+      <c r="I7" s="78">
+        <v>11.269</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L7" s="74">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1">
       <c r="B8" s="26" t="s">

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="1358">
   <si>
     <t>data set</t>
   </si>
@@ -30727,6 +30727,9 @@
       </rPr>
       <t>). SB I reverses the trajectory to counter-clockwise, but SB II immediately restores it to clockwise. Both are either absent or present simultaneously in all taxa considered in this study and are thus treated as a single character.</t>
     </r>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
 </sst>
 </file>
@@ -31406,9 +31409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33304,10 +33307,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33322,7 +33328,7 @@
     <col min="9" max="9" width="6.85546875" style="61" customWidth="1"/>
     <col min="10" max="11" width="8.5703125" style="7" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="73" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -33582,16 +33588,36 @@
       <c r="B8" s="26" t="s">
         <v>1002</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="74"/>
+      <c r="C8" s="27">
+        <v>-2708.63</v>
+      </c>
+      <c r="D8" s="27">
+        <v>-2709.0075000000002</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0.79</v>
+      </c>
+      <c r="L8" s="74">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="16" customFormat="1">
       <c r="B9" s="16" t="s">
@@ -34858,7 +34884,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Run outputs" sheetId="3" r:id="rId2"/>
     <sheet name="Bat Characters 1" sheetId="5" r:id="rId3"/>
-    <sheet name="Bat Chars 2" sheetId="6" r:id="rId4"/>
+    <sheet name="Spider Chars" sheetId="6" r:id="rId4"/>
     <sheet name="Hyolith Characters" sheetId="4" r:id="rId5"/>
     <sheet name="Weevil Characters" sheetId="2" r:id="rId6"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="1360">
   <si>
     <t>data set</t>
   </si>
@@ -3141,19 +3141,6 @@
   </si>
   <si>
     <r>
-      <t>53. SDT SB I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF2A2A2A"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t> : (0) separate; (1) touching. The two arms of the switchback may be separated, or so close that they nearly touch.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>54. SDT SB II</t>
     </r>
     <r>
@@ -30730,6 +30717,25 @@
   </si>
   <si>
     <t>0.4</t>
+  </si>
+  <si>
+    <t>(0) separate; (1) touching</t>
+  </si>
+  <si>
+    <r>
+      <t>SDT SB I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> : . </t>
+    </r>
+  </si>
+  <si>
+    <t>The two arms of the switchback may be separated, or so close that they nearly touch.</t>
   </si>
 </sst>
 </file>
@@ -33312,7 +33318,7 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -33604,7 +33610,7 @@
         <v>349</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="I8" s="78" t="s">
         <v>336</v>
@@ -36484,8 +36490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36499,13 +36505,13 @@
         <v>980</v>
       </c>
       <c r="B1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1" t="s">
         <v>1214</v>
       </c>
-      <c r="C1" t="s">
-        <v>1215</v>
-      </c>
       <c r="D1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75">
@@ -36513,13 +36519,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75">
@@ -36527,13 +36533,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75">
@@ -36541,13 +36547,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75">
@@ -36555,13 +36561,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75">
@@ -36569,10 +36575,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
@@ -36580,10 +36586,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C7" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -36591,13 +36597,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
@@ -36605,10 +36611,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C9" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -36616,13 +36622,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C10" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -36630,13 +36636,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
@@ -36644,13 +36650,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
@@ -36658,13 +36664,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D13" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
@@ -36672,13 +36678,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -36686,13 +36692,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C15" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D15" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75">
@@ -36700,13 +36706,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D16" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
@@ -36714,13 +36720,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C17" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D17" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
@@ -36728,13 +36734,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C18" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D18" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75">
@@ -36742,13 +36748,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75">
@@ -36756,10 +36762,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C20" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
@@ -36767,13 +36773,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C21" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D21" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
@@ -36781,13 +36787,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C22" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D22" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75">
@@ -36795,13 +36801,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C23" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D23" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75">
@@ -36809,13 +36815,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="79" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C24" t="s">
         <v>1280</v>
       </c>
-      <c r="C24" t="s">
-        <v>1281</v>
-      </c>
       <c r="D24" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75">
@@ -36823,10 +36829,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="79" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C25" t="s">
         <v>1282</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75">
@@ -36834,13 +36840,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C26" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D26" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75">
@@ -36848,13 +36854,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C27" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D27" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75">
@@ -36862,10 +36868,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C28" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75">
@@ -36873,13 +36879,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="79" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C29" t="s">
         <v>1293</v>
       </c>
-      <c r="C29" t="s">
-        <v>1294</v>
-      </c>
       <c r="D29" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75">
@@ -36887,13 +36893,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="79" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C30" t="s">
         <v>1296</v>
       </c>
-      <c r="C30" t="s">
-        <v>1297</v>
-      </c>
       <c r="D30" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75">
@@ -36901,13 +36907,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C31" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D31" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75">
@@ -36915,13 +36921,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C32" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D32" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75">
@@ -36929,10 +36935,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C33" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75">
@@ -36940,13 +36946,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C34" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75">
@@ -36954,10 +36960,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="79" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C35" t="s">
         <v>1309</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75">
@@ -36965,10 +36971,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C36" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75">
@@ -36976,13 +36982,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="79" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C37" t="s">
         <v>1314</v>
       </c>
-      <c r="C37" t="s">
-        <v>1315</v>
-      </c>
       <c r="D37" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75">
@@ -36990,13 +36996,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C38" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D38" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75">
@@ -37004,13 +37010,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="79" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C39" t="s">
         <v>1320</v>
       </c>
-      <c r="C39" t="s">
-        <v>1321</v>
-      </c>
       <c r="D39" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75">
@@ -37018,13 +37024,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="79" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C40" t="s">
         <v>1323</v>
       </c>
-      <c r="C40" t="s">
-        <v>1324</v>
-      </c>
       <c r="D40" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75">
@@ -37032,13 +37038,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="79" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C41" t="s">
         <v>1326</v>
       </c>
-      <c r="C41" t="s">
-        <v>1327</v>
-      </c>
       <c r="D41" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75">
@@ -37046,13 +37052,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="79" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C42" t="s">
         <v>1329</v>
       </c>
-      <c r="C42" t="s">
-        <v>1330</v>
-      </c>
       <c r="D42" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75">
@@ -37060,13 +37066,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="79" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C43" t="s">
         <v>1332</v>
       </c>
-      <c r="C43" t="s">
-        <v>1333</v>
-      </c>
       <c r="D43" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75">
@@ -37074,10 +37080,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="79" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C44" t="s">
         <v>1334</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75">
@@ -37085,10 +37091,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="79" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C45" t="s">
         <v>1336</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75">
@@ -37096,13 +37102,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="79" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C46" t="s">
         <v>1339</v>
       </c>
-      <c r="C46" t="s">
-        <v>1340</v>
-      </c>
       <c r="D46" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75">
@@ -37110,13 +37116,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="79" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C47" t="s">
         <v>1342</v>
       </c>
-      <c r="C47" t="s">
-        <v>1343</v>
-      </c>
       <c r="D47" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.75">
@@ -37124,13 +37130,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="79" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C48" t="s">
         <v>1345</v>
       </c>
-      <c r="C48" t="s">
-        <v>1346</v>
-      </c>
       <c r="D48" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75">
@@ -37138,13 +37144,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C49" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D49" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
@@ -37152,13 +37158,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="79" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C50" t="s">
         <v>1351</v>
       </c>
-      <c r="C50" t="s">
-        <v>1352</v>
-      </c>
       <c r="D50" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75">
@@ -37166,10 +37172,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="79" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C51" t="s">
         <v>1353</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="126.75">
@@ -37177,18 +37183,24 @@
         <v>51</v>
       </c>
       <c r="B52" s="79" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D52" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="36.75">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1023</v>
+        <v>1358</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="55.5">
@@ -37196,7 +37208,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="73.5">
@@ -37204,7 +37216,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="90.75">
@@ -37212,7 +37224,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="36.75">
@@ -37220,7 +37232,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="90.75">
@@ -37228,7 +37240,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="128.25">
@@ -37236,7 +37248,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="54.75">
@@ -37244,7 +37256,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="36.75">
@@ -37252,7 +37264,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="90.75">
@@ -37260,7 +37272,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="409.5">
@@ -37268,7 +37280,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="146.25">
@@ -37276,7 +37288,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="36.75">
@@ -37284,7 +37296,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="73.5">
@@ -37292,7 +37304,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="110.25">
@@ -37300,7 +37312,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="79" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18.75">
@@ -37308,7 +37320,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="79" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="90.75">
@@ -37316,7 +37328,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="79" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="108.75">
@@ -37324,7 +37336,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="79" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="218.25">
@@ -37332,7 +37344,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="79" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="291">
@@ -37340,7 +37352,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="183">
@@ -37348,7 +37360,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="79" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="36.75">
@@ -37356,7 +37368,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="79" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="181.5">
@@ -37364,7 +37376,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="55.5">
@@ -37372,7 +37384,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="79" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="164.25">
@@ -37380,7 +37392,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="79" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="55.5">
@@ -37388,7 +37400,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="79" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="90.75">
@@ -37396,7 +37408,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="79" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="36.75">
@@ -37404,7 +37416,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="79" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="399.75">
@@ -37412,7 +37424,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="79" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
@@ -37420,7 +37432,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="79" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="55.5">
@@ -37428,7 +37440,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="79" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="37.5">
@@ -37436,7 +37448,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="79" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="73.5">
@@ -37444,7 +37456,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="79" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="73.5">
@@ -37452,7 +37464,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="79" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="72.75">
@@ -37460,7 +37472,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="79" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="73.5">
@@ -37468,7 +37480,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="79" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="37.5">
@@ -37476,7 +37488,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="79" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="145.5">
@@ -37484,7 +37496,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="79" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="36.75">
@@ -37492,7 +37504,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="79" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="36.75">
@@ -37500,7 +37512,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="79" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="109.5">
@@ -37508,7 +37520,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="79" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="91.5">
@@ -37516,7 +37528,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="79" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="92.25">
@@ -37524,7 +37536,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="79" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="128.25">
@@ -37532,7 +37544,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="79" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="92.25">
@@ -37540,7 +37552,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="79" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="255.75">
@@ -37548,7 +37560,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="79" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="165">
@@ -37556,7 +37568,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="79" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="111">
@@ -37564,7 +37576,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="79" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="91.5">
@@ -37572,7 +37584,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="79" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="145.5">
@@ -37580,7 +37592,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="79" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="74.25">
@@ -37588,7 +37600,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="79" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="147.75">
@@ -37596,7 +37608,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="79" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="36.75">
@@ -37604,7 +37616,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="79" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="37.5">
@@ -37612,7 +37624,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="79" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="91.5">
@@ -37620,7 +37632,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="79" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="110.25">
@@ -37628,7 +37640,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="79" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="73.5">
@@ -37636,7 +37648,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="79" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="109.5">
@@ -37644,7 +37656,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="79" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="145.5">
@@ -37652,7 +37664,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="90.75">
@@ -37660,7 +37672,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="79" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="109.5">
@@ -37668,7 +37680,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="74.25">
@@ -37676,7 +37688,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="92.25">
@@ -37684,7 +37696,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="36.75">
@@ -37692,7 +37704,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="79" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="37.5">
@@ -37700,7 +37712,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="129">
@@ -37708,7 +37720,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="162.75">
@@ -37716,7 +37728,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="55.5">
@@ -37724,7 +37736,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="202.5">
@@ -37732,7 +37744,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="110.25">
@@ -37740,7 +37752,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="165">
@@ -37748,7 +37760,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="79" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="182.25">
@@ -37756,7 +37768,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="79" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="72.75">
@@ -37764,7 +37776,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="79" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="54.75">
@@ -37772,7 +37784,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="79" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="54.75">
@@ -37780,7 +37792,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="79" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="91.5">
@@ -37788,7 +37800,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="79" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="344.25">
@@ -37796,7 +37808,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="79" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="72.75">
@@ -37804,7 +37816,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="79" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="92.25">
@@ -37812,7 +37824,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="79" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="92.25">
@@ -37820,7 +37832,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="79" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="73.5">
@@ -37828,7 +37840,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="79" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="348">
@@ -37836,7 +37848,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="79" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="200.25">
@@ -37844,7 +37856,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="79" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="144.75">
@@ -37852,7 +37864,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="79" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="75">
@@ -37860,7 +37872,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="79" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="36.75">
@@ -37868,7 +37880,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="79" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="74.25">
@@ -37876,7 +37888,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="79" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="73.5">
@@ -37884,7 +37896,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="79" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="182.25">
@@ -37892,7 +37904,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="79" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="145.5">
@@ -37900,7 +37912,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="79" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="36.75">
@@ -37908,7 +37920,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="79" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="108.75">
@@ -37916,7 +37928,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="79" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="72.75">
@@ -37924,7 +37936,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="79" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="55.5">
@@ -37932,7 +37944,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="79" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="55.5">
@@ -37940,7 +37952,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="79" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="72.75">
@@ -37948,7 +37960,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="79" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="36.75">
@@ -37956,7 +37968,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="79" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="145.5">
@@ -37964,7 +37976,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="79" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="345">
@@ -37972,7 +37984,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="79" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="36.75">
@@ -37980,7 +37992,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="79" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18.75">
@@ -37988,7 +38000,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="79" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="73.5">
@@ -37996,7 +38008,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="79" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="54.75">
@@ -38004,7 +38016,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="79" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="55.5">
@@ -38012,7 +38024,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="79" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="36.75">
@@ -38020,7 +38032,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="91.5">
@@ -38028,7 +38040,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="79" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="55.5">
@@ -38036,7 +38048,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="79" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="91.5">
@@ -38044,7 +38056,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="79" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="73.5">
@@ -38052,7 +38064,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="79" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="36.75">
@@ -38060,7 +38072,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="79" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="54.75">
@@ -38068,7 +38080,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="79" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="409.5">
@@ -38076,7 +38088,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="79" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="108.75">
@@ -38084,7 +38096,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="79" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="90.75">
@@ -38092,7 +38104,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="79" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="73.5">
@@ -38100,7 +38112,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="79" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="108.75">
@@ -38108,7 +38120,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="79" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="198.75">
@@ -38116,7 +38128,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="79" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="291">
@@ -38124,7 +38136,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="79" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="180.75">
@@ -38132,7 +38144,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="79" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="74.25">
@@ -38140,7 +38152,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="79" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="147.75">
@@ -38148,7 +38160,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="79" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="203.25">
@@ -38156,7 +38168,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="79" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="127.5">
@@ -38164,7 +38176,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="79" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="109.5">
@@ -38172,7 +38184,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="79" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="74.25">
@@ -38180,7 +38192,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="79" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="164.25">
@@ -38188,7 +38200,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="79" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="54.75">
@@ -38196,7 +38208,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="79" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="36.75">
@@ -38204,7 +38216,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="79" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="18.75">
@@ -38212,7 +38224,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="79" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="109.5">
@@ -38220,7 +38232,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="79" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="36.75">
@@ -38228,7 +38240,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="79" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="109.5">
@@ -38236,7 +38248,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="79" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="128.25">
@@ -38244,7 +38256,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="79" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="54.75">
@@ -38252,7 +38264,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="79" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="36.75">
@@ -38260,7 +38272,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="79" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="73.5">
@@ -38268,7 +38280,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="79" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="74.25">
@@ -38276,7 +38288,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="79" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="36.75">
@@ -38284,7 +38296,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="79" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="18.75">
@@ -38292,7 +38304,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="79" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="18.75">
@@ -38300,7 +38312,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="79" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="72.75">
@@ -38308,7 +38320,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="79" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="164.25">
@@ -38316,7 +38328,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="79" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="91.5">
@@ -38324,7 +38336,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="79" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="91.5">
@@ -38332,7 +38344,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="79" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="91.5">
@@ -38340,7 +38352,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="79" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="163.5">
@@ -38348,7 +38360,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="79" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="126.75">
@@ -38356,7 +38368,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="79" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="108.75">
@@ -38364,7 +38376,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="79" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="144.75">
@@ -38372,7 +38384,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="79" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="144.75">
@@ -38380,7 +38392,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="79" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="55.5">
@@ -38388,7 +38400,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="79" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="204">
@@ -38396,7 +38408,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="79" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="55.5">
@@ -38404,7 +38416,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="79" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="202.5">
@@ -38412,7 +38424,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="79" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="36.75">
@@ -38420,7 +38432,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="79" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="128.25">
@@ -38428,7 +38440,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="79" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="90.75">
@@ -38436,7 +38448,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="79" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="36.75">
@@ -38444,7 +38456,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="79" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="74.25">
@@ -38452,7 +38464,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="79" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="111">
@@ -38460,7 +38472,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="79" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="275.25">
@@ -38468,7 +38480,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="79" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="167.25">
@@ -38476,7 +38488,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="79" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="203.25">
@@ -38484,7 +38496,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="79" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="91.5">
@@ -38492,7 +38504,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="79" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="203.25">
@@ -38500,7 +38512,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="79" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="405.75">
@@ -38508,7 +38520,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="79" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="162.75">
@@ -38516,7 +38528,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="79" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="182.25">
@@ -38524,7 +38536,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="79" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="128.25">
@@ -38532,7 +38544,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="79" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="36.75">
@@ -38540,7 +38552,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="79" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="291.75">
@@ -38548,7 +38560,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="79" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="72.75">
@@ -38556,7 +38568,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="79" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="309.75">
@@ -38564,7 +38576,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="79" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="409.5">
@@ -38572,7 +38584,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="79" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="18.75">
@@ -38580,7 +38592,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="79" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="329.25">
@@ -38588,7 +38600,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="79" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="91.5">
@@ -38596,7 +38608,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="79" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="275.25">
@@ -38604,7 +38616,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="79" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="72.75">
@@ -38612,7 +38624,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="79" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="183.75">
@@ -38620,7 +38632,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="79" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="110.25">
@@ -38628,7 +38640,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="79" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="221.25">
@@ -38636,7 +38648,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="79" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="54.75">
@@ -38644,7 +38656,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="79" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="201.75">
@@ -38652,7 +38664,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="79" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="147">
@@ -38660,7 +38672,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="79" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="73.5">
@@ -38668,7 +38680,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="79" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="239.25">
@@ -38676,7 +38688,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="79" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="259.5">
@@ -38684,7 +38696,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="79" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="72.75">
@@ -38692,7 +38704,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="79" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="36.75">
@@ -38700,7 +38712,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="79" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="36.75">
@@ -38708,7 +38720,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="79" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="244" spans="1:2">

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="1365">
   <si>
     <t>data set</t>
   </si>
@@ -30736,6 +30736,21 @@
   </si>
   <si>
     <t>The two arms of the switchback may be separated, or so close that they nearly touch.</t>
+  </si>
+  <si>
+    <t>hyo_bodyFP_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_neotransFP_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_devFP_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_bodyFP_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_neotransFP_ss.nex</t>
   </si>
 </sst>
 </file>
@@ -33316,10 +33331,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33625,53 +33640,33 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="16" customFormat="1">
-      <c r="B9" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="17">
-        <v>-2241.16</v>
-      </c>
-      <c r="D9" s="17">
-        <v>-2245.3000000000002</v>
-      </c>
-      <c r="E9" s="17">
-        <v>8.34</v>
-      </c>
-      <c r="F9" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>958</v>
-      </c>
-      <c r="I9" s="59">
-        <v>221.18</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0.215</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="L9" s="71">
-        <v>0.17499999999999999</v>
-      </c>
+    <row r="9" spans="1:13" s="26" customFormat="1">
+      <c r="B9" s="26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1">
       <c r="B10" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C10" s="17">
-        <v>-2471.73</v>
+        <v>-2241.16</v>
       </c>
       <c r="D10" s="17">
-        <v>-2554.5</v>
+        <v>-2245.3000000000002</v>
       </c>
       <c r="E10" s="17">
-        <v>147.72999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="F10" s="17">
         <v>-1</v>
@@ -33683,100 +33678,100 @@
         <v>958</v>
       </c>
       <c r="I10" s="59">
-        <v>120.89</v>
+        <v>221.18</v>
       </c>
       <c r="J10" s="19">
-        <v>0.22500000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="K10" s="19">
-        <v>0.79300000000000004</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="L10" s="71">
-        <v>0.22750000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1">
-      <c r="B11" s="32" t="s">
-        <v>940</v>
+      <c r="B11" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="C11" s="17">
-        <v>-2622.36</v>
+        <v>-2471.73</v>
       </c>
       <c r="D11" s="17">
-        <v>-2635.76</v>
+        <v>-2554.5</v>
       </c>
       <c r="E11" s="17">
-        <v>54.19</v>
+        <v>147.72999999999999</v>
       </c>
       <c r="F11" s="17">
         <v>-1</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="18" t="s">
         <v>351</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="I11" s="59">
-        <v>52.55</v>
+        <v>120.89</v>
       </c>
       <c r="J11" s="19">
         <v>0.22500000000000001</v>
       </c>
       <c r="K11" s="19">
-        <v>0.79700000000000004</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="L11" s="71">
-        <v>0.18</v>
+        <v>0.22750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="16" customFormat="1">
       <c r="B12" s="32" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C12" s="17">
         <v>-2622.36</v>
       </c>
       <c r="D12" s="17">
-        <v>-2649.35</v>
+        <v>-2635.76</v>
       </c>
       <c r="E12" s="17">
-        <v>55.91</v>
+        <v>54.19</v>
       </c>
       <c r="F12" s="17">
         <v>-1</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="31" t="s">
         <v>351</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>961</v>
-      </c>
-      <c r="I12" s="17">
-        <v>52.6</v>
-      </c>
-      <c r="J12" s="62">
-        <v>0.22600000000000001</v>
+        <v>957</v>
+      </c>
+      <c r="I12" s="59">
+        <v>52.55</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.22500000000000001</v>
       </c>
       <c r="K12" s="19">
         <v>0.79700000000000004</v>
       </c>
       <c r="L12" s="71">
-        <v>8.2500000000000004E-2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="16" customFormat="1">
       <c r="B13" s="32" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C13" s="17">
-        <v>-2525.58</v>
+        <v>-2622.36</v>
       </c>
       <c r="D13" s="17">
-        <v>-2611.0100000000002</v>
+        <v>-2649.35</v>
       </c>
       <c r="E13" s="17">
-        <v>57.44</v>
+        <v>55.91</v>
       </c>
       <c r="F13" s="17">
         <v>-1</v>
@@ -33785,33 +33780,33 @@
         <v>351</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>957</v>
-      </c>
-      <c r="I13" s="59">
-        <v>87.99</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0.218</v>
+        <v>961</v>
+      </c>
+      <c r="I13" s="17">
+        <v>52.6</v>
+      </c>
+      <c r="J13" s="62">
+        <v>0.22600000000000001</v>
       </c>
       <c r="K13" s="19">
         <v>0.79700000000000004</v>
       </c>
       <c r="L13" s="71">
-        <v>0.39500000000000002</v>
+        <v>8.2500000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="16" customFormat="1">
       <c r="B14" s="32" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C14" s="17">
-        <v>-2621.79</v>
+        <v>-2525.58</v>
       </c>
       <c r="D14" s="17">
-        <v>-2635.48</v>
+        <v>-2611.0100000000002</v>
       </c>
       <c r="E14" s="17">
-        <v>56</v>
+        <v>57.44</v>
       </c>
       <c r="F14" s="17">
         <v>-1</v>
@@ -33823,30 +33818,30 @@
         <v>957</v>
       </c>
       <c r="I14" s="59">
-        <v>52.68</v>
+        <v>87.99</v>
       </c>
       <c r="J14" s="19">
-        <v>0.224</v>
+        <v>0.218</v>
       </c>
       <c r="K14" s="19">
         <v>0.79700000000000004</v>
       </c>
       <c r="L14" s="71">
-        <v>8.7499999999999994E-2</v>
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="16" customFormat="1">
       <c r="B15" s="32" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C15" s="17">
-        <v>-2623.67</v>
+        <v>-2621.79</v>
       </c>
       <c r="D15" s="17">
-        <v>-2663.12</v>
+        <v>-2635.48</v>
       </c>
       <c r="E15" s="17">
-        <v>54.96</v>
+        <v>56</v>
       </c>
       <c r="F15" s="17">
         <v>-1</v>
@@ -33855,103 +33850,83 @@
         <v>351</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="I15" s="59">
-        <v>52.17</v>
+        <v>52.68</v>
       </c>
       <c r="J15" s="19">
-        <v>0.22600000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="K15" s="19">
         <v>0.79700000000000004</v>
       </c>
       <c r="L15" s="71">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="16" customFormat="1">
+      <c r="B16" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="C16" s="17">
+        <v>-2623.67</v>
+      </c>
+      <c r="D16" s="17">
+        <v>-2663.12</v>
+      </c>
+      <c r="E16" s="17">
+        <v>54.96</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>963</v>
+      </c>
+      <c r="I16" s="59">
+        <v>52.17</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="L16" s="71">
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="21" customFormat="1">
-      <c r="B16" s="21" t="s">
-        <v>934</v>
-      </c>
-      <c r="C16" s="22">
-        <v>-2347.1999999999998</v>
-      </c>
-      <c r="D16" s="22">
-        <v>-2443.09</v>
-      </c>
-      <c r="E16" s="22">
-        <v>192.63</v>
-      </c>
-      <c r="F16" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>958</v>
-      </c>
-      <c r="I16" s="60">
-        <v>184.14</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0.216</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="L16" s="72">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="21" customFormat="1">
-      <c r="B17" s="21" t="s">
-        <v>971</v>
-      </c>
-      <c r="C17" s="22">
-        <v>-2538.12</v>
-      </c>
-      <c r="D17" s="22">
-        <v>-2622.3724999999999</v>
-      </c>
-      <c r="E17" s="22">
-        <v>170.89</v>
-      </c>
-      <c r="F17" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>961</v>
-      </c>
-      <c r="I17" s="60">
-        <v>111.18</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="K17" s="24">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="L17" s="72">
-        <v>0.2</v>
-      </c>
+    <row r="17" spans="1:13" s="16" customFormat="1">
+      <c r="B17" s="32" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="71"/>
     </row>
     <row r="18" spans="1:13" s="21" customFormat="1">
       <c r="B18" s="21" t="s">
-        <v>972</v>
+        <v>934</v>
       </c>
       <c r="C18" s="22">
-        <v>-2537.1999999999998</v>
+        <v>-2347.1999999999998</v>
       </c>
       <c r="D18" s="22">
-        <v>-2537.4575</v>
+        <v>-2443.09</v>
       </c>
       <c r="E18" s="22">
-        <v>2.0499999999999998</v>
+        <v>192.63</v>
       </c>
       <c r="F18" s="22">
         <v>-1</v>
@@ -33963,30 +33938,30 @@
         <v>958</v>
       </c>
       <c r="I18" s="60">
-        <v>111.116</v>
+        <v>184.14</v>
       </c>
       <c r="J18" s="24">
-        <v>0.21299999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="K18" s="24">
-        <v>0.78900000000000003</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="L18" s="72">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="21" customFormat="1">
       <c r="B19" s="21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C19" s="22">
-        <v>-2538.4</v>
+        <v>-2538.12</v>
       </c>
       <c r="D19" s="22">
-        <v>-2622.1750000000002</v>
+        <v>-2622.3724999999999</v>
       </c>
       <c r="E19" s="22">
-        <v>169.24</v>
+        <v>170.89</v>
       </c>
       <c r="F19" s="22">
         <v>-1</v>
@@ -33998,30 +33973,30 @@
         <v>961</v>
       </c>
       <c r="I19" s="60">
-        <v>111.06480000000001</v>
+        <v>111.18</v>
       </c>
       <c r="J19" s="24">
-        <v>0.214</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="K19" s="24">
-        <v>0.78900000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="L19" s="72">
-        <v>0.42749999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="21" customFormat="1">
       <c r="B20" s="21" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C20" s="22">
-        <v>-2539.4</v>
+        <v>-2537.1999999999998</v>
       </c>
       <c r="D20" s="22">
-        <v>-2664.9470000000001</v>
+        <v>-2537.4575</v>
       </c>
       <c r="E20" s="22">
-        <v>169.47</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F20" s="22">
         <v>-1</v>
@@ -34030,13 +34005,13 @@
         <v>351</v>
       </c>
       <c r="H20" s="56" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="I20" s="60">
-        <v>110.75190000000001</v>
+        <v>111.116</v>
       </c>
       <c r="J20" s="24">
-        <v>0.215</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="K20" s="24">
         <v>0.78900000000000003</v>
@@ -34047,16 +34022,16 @@
     </row>
     <row r="21" spans="1:13" s="21" customFormat="1">
       <c r="B21" s="21" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C21" s="22">
-        <v>-2348.15</v>
+        <v>-2538.4</v>
       </c>
       <c r="D21" s="22">
-        <v>-2587.0825</v>
+        <v>-2622.1750000000002</v>
       </c>
       <c r="E21" s="22">
-        <v>360.48</v>
+        <v>169.24</v>
       </c>
       <c r="F21" s="22">
         <v>-1</v>
@@ -34068,214 +34043,191 @@
         <v>961</v>
       </c>
       <c r="I21" s="60">
+        <v>111.06480000000001</v>
+      </c>
+      <c r="J21" s="24">
+        <v>0.214</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L21" s="72">
+        <v>0.42749999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="21" customFormat="1">
+      <c r="B22" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="C22" s="22">
+        <v>-2539.4</v>
+      </c>
+      <c r="D22" s="22">
+        <v>-2664.9470000000001</v>
+      </c>
+      <c r="E22" s="22">
+        <v>169.47</v>
+      </c>
+      <c r="F22" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>963</v>
+      </c>
+      <c r="I22" s="60">
+        <v>110.75190000000001</v>
+      </c>
+      <c r="J22" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L22" s="72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="21" customFormat="1">
+      <c r="B23" s="21" t="s">
+        <v>975</v>
+      </c>
+      <c r="C23" s="22">
+        <v>-2348.15</v>
+      </c>
+      <c r="D23" s="22">
+        <v>-2587.0825</v>
+      </c>
+      <c r="E23" s="22">
+        <v>360.48</v>
+      </c>
+      <c r="F23" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>961</v>
+      </c>
+      <c r="I23" s="60">
         <v>183.7098</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J23" s="24">
         <v>0.21</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K23" s="24">
         <v>0.79</v>
       </c>
-      <c r="L21" s="72">
+      <c r="L23" s="72">
         <v>0.42</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:13" s="11" customFormat="1">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:13" s="21" customFormat="1">
+      <c r="B24" s="21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="72"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:13" s="11" customFormat="1">
+      <c r="A26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C26" s="12">
         <v>-1600.82</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D26" s="12">
         <v>-1601.5</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E26" s="12">
         <v>3.75</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F26" s="12">
         <v>-1</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H26" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I26" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J26" s="14">
         <v>0.26</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K26" s="14">
         <v>0.84199999999999997</v>
       </c>
-      <c r="L23" s="70">
+      <c r="L26" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="11" customFormat="1">
-      <c r="B24" s="11" t="s">
+    <row r="27" spans="1:13" s="11" customFormat="1">
+      <c r="B27" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C27" s="12">
         <v>-1600.05</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D27" s="12">
         <v>-1600.79</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E27" s="12">
         <v>3.29</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F27" s="12">
         <v>-1</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G27" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>965</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J27" s="14">
         <v>0.26800000000000002</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K27" s="14">
         <v>0.84299999999999997</v>
       </c>
-      <c r="L24" s="70">
+      <c r="L27" s="70">
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="26" customFormat="1">
-      <c r="B25" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="27">
-        <v>-1619.98</v>
-      </c>
-      <c r="D25" s="27">
-        <v>-1622.13</v>
-      </c>
-      <c r="E25" s="27">
-        <v>5.98</v>
-      </c>
-      <c r="F25" s="27">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>965</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="J25" s="29">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="K25" s="29">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="L25" s="74">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="26" customFormat="1">
-      <c r="B26" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="27">
-        <v>-1614.56</v>
-      </c>
-      <c r="D26" s="27">
-        <v>-1615.48</v>
-      </c>
-      <c r="E26" s="27">
-        <v>4.49</v>
-      </c>
-      <c r="F26" s="27">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>965</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="J26" s="29">
-        <v>0.26</v>
-      </c>
-      <c r="K26" s="29">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="L26" s="74">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="26" customFormat="1">
-      <c r="B27" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" s="27">
-        <v>-1615.29</v>
-      </c>
-      <c r="D27" s="27">
-        <v>-1615.62</v>
-      </c>
-      <c r="E27" s="27">
-        <v>1.87</v>
-      </c>
-      <c r="F27" s="27">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>965</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="J27" s="29">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="K27" s="29">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="L27" s="74">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="26" customFormat="1">
       <c r="B28" s="26" t="s">
-        <v>347</v>
+        <v>25</v>
       </c>
       <c r="C28" s="27">
-        <v>-1613.18</v>
+        <v>-1619.98</v>
       </c>
       <c r="D28" s="27">
-        <v>-1613.94</v>
+        <v>-1622.13</v>
       </c>
       <c r="E28" s="27">
-        <v>2.09</v>
+        <v>5.98</v>
       </c>
       <c r="F28" s="27">
         <v>-1</v>
@@ -34290,7 +34242,7 @@
         <v>336</v>
       </c>
       <c r="J28" s="29">
-        <v>0.26800000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="K28" s="29">
         <v>0.84199999999999997</v>
@@ -34298,162 +34250,145 @@
       <c r="L28" s="74">
         <v>0.04</v>
       </c>
-      <c r="M28" s="26" t="s">
+    </row>
+    <row r="29" spans="1:13" s="26" customFormat="1">
+      <c r="B29" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29" s="27">
+        <v>-1614.56</v>
+      </c>
+      <c r="D29" s="27">
+        <v>-1615.48</v>
+      </c>
+      <c r="E29" s="27">
+        <v>4.49</v>
+      </c>
+      <c r="F29" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="J29" s="29">
+        <v>0.26</v>
+      </c>
+      <c r="K29" s="29">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="L29" s="74">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="26" customFormat="1">
+      <c r="B30" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="27">
+        <v>-1615.29</v>
+      </c>
+      <c r="D30" s="27">
+        <v>-1615.62</v>
+      </c>
+      <c r="E30" s="27">
+        <v>1.87</v>
+      </c>
+      <c r="F30" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="J30" s="29">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K30" s="29">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="L30" s="74">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="26" customFormat="1">
+      <c r="B31" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="27">
+        <v>-1613.18</v>
+      </c>
+      <c r="D31" s="27">
+        <v>-1613.94</v>
+      </c>
+      <c r="E31" s="27">
+        <v>2.09</v>
+      </c>
+      <c r="F31" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="J31" s="29">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K31" s="29">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="L31" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="M31" s="26" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="16" customFormat="1">
-      <c r="B29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="17">
-        <v>-1561.11</v>
-      </c>
-      <c r="D29" s="17">
-        <v>-1601.2650000000001</v>
-      </c>
-      <c r="E29" s="17">
-        <v>57.75</v>
-      </c>
-      <c r="F29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="I29" s="17">
-        <v>26.31</v>
-      </c>
-      <c r="J29" s="19">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="K29" s="19">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="L29" s="71">
-        <v>4.7500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="16" customFormat="1">
-      <c r="B30" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C30" s="17">
-        <v>-1581.38</v>
-      </c>
-      <c r="D30" s="17">
-        <v>-1604.5450000000001</v>
-      </c>
-      <c r="E30" s="17">
-        <v>33.49</v>
-      </c>
-      <c r="F30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>963</v>
-      </c>
-      <c r="I30" s="17">
-        <v>25.3</v>
-      </c>
-      <c r="J30" s="19">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="K30" s="19">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="L30" s="71">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="16" customFormat="1">
-      <c r="B31" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C31" s="17">
-        <v>-1582.34</v>
-      </c>
-      <c r="D31" s="17">
-        <v>-1598.5274999999999</v>
-      </c>
-      <c r="E31" s="17">
-        <v>33.89</v>
-      </c>
-      <c r="F31" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="I31" s="17">
-        <v>25.443999999999999</v>
-      </c>
-      <c r="J31" s="19">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="K31" s="19">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="L31" s="71">
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="16" customFormat="1">
-      <c r="B32" s="16" t="s">
-        <v>946</v>
-      </c>
-      <c r="C32" s="17">
-        <v>-1574.07</v>
-      </c>
-      <c r="D32" s="17">
-        <v>-1588.63</v>
-      </c>
-      <c r="E32" s="17">
-        <v>34.729999999999997</v>
-      </c>
-      <c r="F32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="I32" s="17">
-        <v>25.755700000000001</v>
-      </c>
-      <c r="J32" s="19">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="K32" s="19">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="L32" s="71">
-        <v>3.2500000000000001E-2</v>
-      </c>
+    <row r="32" spans="1:13" s="26" customFormat="1">
+      <c r="B32" s="26" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="74"/>
     </row>
     <row r="33" spans="2:12" s="16" customFormat="1">
       <c r="B33" s="16" t="s">
-        <v>947</v>
+        <v>30</v>
       </c>
       <c r="C33" s="17">
-        <v>-1576.7</v>
+        <v>-1561.11</v>
       </c>
       <c r="D33" s="17">
-        <v>-1592.81</v>
+        <v>-1601.2650000000001</v>
       </c>
       <c r="E33" s="17">
-        <v>33.659999999999997</v>
+        <v>57.75</v>
       </c>
       <c r="F33" s="17">
         <v>-1</v>
@@ -34462,33 +34397,33 @@
         <v>351</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="I33" s="17">
-        <v>25.21</v>
+        <v>26.31</v>
       </c>
       <c r="J33" s="19">
-        <v>0.26</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="K33" s="19">
-        <v>0.82899999999999996</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="L33" s="71">
-        <v>2.5000000000000001E-3</v>
+        <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" s="16" customFormat="1">
       <c r="B34" s="16" t="s">
-        <v>948</v>
+        <v>342</v>
       </c>
       <c r="C34" s="17">
-        <v>-1573.44</v>
+        <v>-1581.38</v>
       </c>
       <c r="D34" s="17">
-        <v>-1597.19</v>
+        <v>-1604.5450000000001</v>
       </c>
       <c r="E34" s="17">
-        <v>34.799999999999997</v>
+        <v>33.49</v>
       </c>
       <c r="F34" s="17">
         <v>-1</v>
@@ -34500,65 +34435,65 @@
         <v>963</v>
       </c>
       <c r="I34" s="17">
-        <v>25.925699999999999</v>
+        <v>25.3</v>
       </c>
       <c r="J34" s="19">
-        <v>0.26</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="K34" s="19">
-        <v>0.82899999999999996</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="L34" s="71">
-        <v>0.19500000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="35" spans="2:12" s="16" customFormat="1">
       <c r="B35" s="16" t="s">
-        <v>949</v>
+        <v>344</v>
       </c>
       <c r="C35" s="17">
-        <v>-1602.5</v>
+        <v>-1582.34</v>
       </c>
       <c r="D35" s="17">
-        <v>-1606.1849999999999</v>
+        <v>-1598.5274999999999</v>
       </c>
       <c r="E35" s="17">
-        <v>7.34</v>
+        <v>33.89</v>
       </c>
       <c r="F35" s="17">
         <v>-1</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>965</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>336</v>
+        <v>961</v>
+      </c>
+      <c r="I35" s="17">
+        <v>25.443999999999999</v>
       </c>
       <c r="J35" s="19">
-        <v>0.26100000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="K35" s="19">
-        <v>0.83</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="L35" s="71">
-        <v>5.0000000000000001E-3</v>
+        <v>4.2500000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" s="16" customFormat="1">
       <c r="B36" s="16" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C36" s="17">
-        <v>-1573.15</v>
+        <v>-1574.07</v>
       </c>
       <c r="D36" s="17">
-        <v>-1596.8025</v>
+        <v>-1588.63</v>
       </c>
       <c r="E36" s="17">
-        <v>35.36</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="F36" s="17">
         <v>-1</v>
@@ -34567,306 +34502,476 @@
         <v>351</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I36" s="17">
-        <v>25.513000000000002</v>
+        <v>25.755700000000001</v>
       </c>
       <c r="J36" s="19">
         <v>0.25800000000000001</v>
       </c>
       <c r="K36" s="19">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L36" s="71">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="16" customFormat="1">
+      <c r="B37" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="C37" s="17">
+        <v>-1576.7</v>
+      </c>
+      <c r="D37" s="17">
+        <v>-1592.81</v>
+      </c>
+      <c r="E37" s="17">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="F37" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="I37" s="17">
+        <v>25.21</v>
+      </c>
+      <c r="J37" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="K37" s="19">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L37" s="71">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="16" customFormat="1">
+      <c r="B38" s="16" t="s">
+        <v>948</v>
+      </c>
+      <c r="C38" s="17">
+        <v>-1573.44</v>
+      </c>
+      <c r="D38" s="17">
+        <v>-1597.19</v>
+      </c>
+      <c r="E38" s="17">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F38" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="I38" s="17">
+        <v>25.925699999999999</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L38" s="71">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="16" customFormat="1">
+      <c r="B39" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="C39" s="17">
+        <v>-1602.5</v>
+      </c>
+      <c r="D39" s="17">
+        <v>-1606.1849999999999</v>
+      </c>
+      <c r="E39" s="17">
+        <v>7.34</v>
+      </c>
+      <c r="F39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>965</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K39" s="19">
         <v>0.83</v>
       </c>
-      <c r="L36" s="71">
+      <c r="L39" s="71">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="16" customFormat="1">
+      <c r="B40" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="C40" s="17">
+        <v>-1573.15</v>
+      </c>
+      <c r="D40" s="17">
+        <v>-1596.8025</v>
+      </c>
+      <c r="E40" s="17">
+        <v>35.36</v>
+      </c>
+      <c r="F40" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="I40" s="17">
+        <v>25.513000000000002</v>
+      </c>
+      <c r="J40" s="19">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="K40" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="L40" s="71">
         <v>0.19</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="21" customFormat="1">
-      <c r="B37" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="22">
-        <v>-1578.28</v>
-      </c>
-      <c r="D37" s="22">
-        <v>-1578.22</v>
-      </c>
-      <c r="E37" s="22">
-        <v>4.05</v>
-      </c>
-      <c r="F37" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="I37" s="22">
-        <v>30.8</v>
-      </c>
-      <c r="J37" s="24">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="K37" s="24">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="L37" s="72">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" s="21" customFormat="1">
-      <c r="B38" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="C38" s="22">
-        <v>-1575.69</v>
-      </c>
-      <c r="D38" s="22">
-        <v>-1595.39</v>
-      </c>
-      <c r="E38" s="22">
-        <v>41.97</v>
-      </c>
-      <c r="F38" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>961</v>
-      </c>
-      <c r="I38" s="22">
-        <v>30.52</v>
-      </c>
-      <c r="J38" s="24">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="K38" s="24">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="L38" s="72">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" s="21" customFormat="1">
-      <c r="B39" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="C39" s="22">
-        <v>-1576.36</v>
-      </c>
-      <c r="D39" s="22">
-        <v>-1577.88</v>
-      </c>
-      <c r="E39" s="22">
-        <v>4.57</v>
-      </c>
-      <c r="F39" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="I39" s="22">
-        <v>30.9</v>
-      </c>
-      <c r="J39" s="24">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="K39" s="24">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="L39" s="72">
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="21" customFormat="1">
-      <c r="B40" s="21" t="s">
-        <v>966</v>
-      </c>
-      <c r="C40" s="22">
-        <v>-1573.67</v>
-      </c>
-      <c r="D40" s="22">
-        <v>-1587.4124999999999</v>
-      </c>
-      <c r="E40" s="22">
-        <v>43.79</v>
-      </c>
-      <c r="F40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="H40" s="56" t="s">
-        <v>957</v>
-      </c>
-      <c r="I40" s="60">
-        <v>31.0885</v>
-      </c>
-      <c r="J40" s="24">
-        <v>0.255</v>
-      </c>
-      <c r="K40" s="24">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="L40" s="72">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="21" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>967</v>
-      </c>
-      <c r="C41" s="22">
-        <v>-1582.11</v>
-      </c>
-      <c r="D41" s="22">
-        <v>-1608.7950000000001</v>
-      </c>
-      <c r="E41" s="22">
-        <v>39.42</v>
-      </c>
-      <c r="F41" s="22">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>963</v>
-      </c>
-      <c r="I41" s="60">
-        <v>30.580200000000001</v>
-      </c>
-      <c r="J41" s="24">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="K41" s="24">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="L41" s="72">
-        <v>0.01</v>
-      </c>
+    <row r="41" spans="2:12" s="16" customFormat="1">
+      <c r="B41" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="71"/>
     </row>
     <row r="42" spans="2:12" s="21" customFormat="1">
       <c r="B42" s="21" t="s">
-        <v>968</v>
+        <v>32</v>
       </c>
       <c r="C42" s="22">
-        <v>-1578.08</v>
+        <v>-1578.28</v>
       </c>
       <c r="D42" s="22">
-        <v>-1589</v>
+        <v>-1578.22</v>
       </c>
       <c r="E42" s="22">
-        <v>41.44</v>
+        <v>4.05</v>
       </c>
       <c r="F42" s="22">
         <v>-1</v>
       </c>
-      <c r="G42" s="75" t="s">
+      <c r="G42" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="H42" s="56" t="s">
-        <v>957</v>
-      </c>
-      <c r="I42" s="60">
-        <v>31.096699999999998</v>
+      <c r="H42" s="25" t="s">
+        <v>958</v>
+      </c>
+      <c r="I42" s="22">
+        <v>30.8</v>
       </c>
       <c r="J42" s="24">
-        <v>0.26100000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="K42" s="24">
-        <v>0.83799999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="L42" s="72">
-        <v>0.23</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="2:12" s="21" customFormat="1">
       <c r="B43" s="21" t="s">
-        <v>969</v>
+        <v>341</v>
       </c>
       <c r="C43" s="22">
-        <v>-1577.91</v>
+        <v>-1575.69</v>
       </c>
       <c r="D43" s="22">
-        <v>-1587.7925</v>
+        <v>-1595.39</v>
       </c>
       <c r="E43" s="22">
-        <v>40.4</v>
+        <v>41.97</v>
       </c>
       <c r="F43" s="22">
         <v>-1</v>
       </c>
-      <c r="G43" s="75" t="s">
+      <c r="G43" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="H43" s="56" t="s">
-        <v>957</v>
-      </c>
-      <c r="I43" s="60">
-        <v>30.961500000000001</v>
+      <c r="H43" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="I43" s="22">
+        <v>30.52</v>
       </c>
       <c r="J43" s="24">
-        <v>0.255</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="K43" s="24">
-        <v>0.83899999999999997</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="L43" s="72">
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="44" spans="2:12" s="21" customFormat="1">
       <c r="B44" s="21" t="s">
-        <v>970</v>
+        <v>343</v>
       </c>
       <c r="C44" s="22">
-        <v>-1578.14</v>
+        <v>-1576.36</v>
       </c>
       <c r="D44" s="22">
-        <v>-1596.7170000000001</v>
+        <v>-1577.88</v>
       </c>
       <c r="E44" s="22">
-        <v>39.61</v>
+        <v>4.57</v>
       </c>
       <c r="F44" s="22">
         <v>-1</v>
       </c>
-      <c r="G44" s="75" t="s">
+      <c r="G44" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="H44" s="56" t="s">
+      <c r="H44" s="25" t="s">
+        <v>958</v>
+      </c>
+      <c r="I44" s="22">
+        <v>30.9</v>
+      </c>
+      <c r="J44" s="24">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="K44" s="24">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="L44" s="72">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" s="21" customFormat="1">
+      <c r="B45" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="C45" s="22">
+        <v>-1573.67</v>
+      </c>
+      <c r="D45" s="22">
+        <v>-1587.4124999999999</v>
+      </c>
+      <c r="E45" s="22">
+        <v>43.79</v>
+      </c>
+      <c r="F45" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="H45" s="56" t="s">
+        <v>957</v>
+      </c>
+      <c r="I45" s="60">
+        <v>31.0885</v>
+      </c>
+      <c r="J45" s="24">
+        <v>0.255</v>
+      </c>
+      <c r="K45" s="24">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="L45" s="72">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="21" customFormat="1">
+      <c r="B46" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="C46" s="22">
+        <v>-1582.11</v>
+      </c>
+      <c r="D46" s="22">
+        <v>-1608.7950000000001</v>
+      </c>
+      <c r="E46" s="22">
+        <v>39.42</v>
+      </c>
+      <c r="F46" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="H46" s="56" t="s">
+        <v>963</v>
+      </c>
+      <c r="I46" s="60">
+        <v>30.580200000000001</v>
+      </c>
+      <c r="J46" s="24">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K46" s="24">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L46" s="72">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="21" customFormat="1">
+      <c r="B47" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="C47" s="22">
+        <v>-1578.08</v>
+      </c>
+      <c r="D47" s="22">
+        <v>-1589</v>
+      </c>
+      <c r="E47" s="22">
+        <v>41.44</v>
+      </c>
+      <c r="F47" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="H47" s="56" t="s">
+        <v>957</v>
+      </c>
+      <c r="I47" s="60">
+        <v>31.096699999999998</v>
+      </c>
+      <c r="J47" s="24">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="K47" s="24">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L47" s="72">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="21" customFormat="1">
+      <c r="B48" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="C48" s="22">
+        <v>-1577.91</v>
+      </c>
+      <c r="D48" s="22">
+        <v>-1587.7925</v>
+      </c>
+      <c r="E48" s="22">
+        <v>40.4</v>
+      </c>
+      <c r="F48" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="H48" s="56" t="s">
+        <v>957</v>
+      </c>
+      <c r="I48" s="60">
+        <v>30.961500000000001</v>
+      </c>
+      <c r="J48" s="24">
+        <v>0.255</v>
+      </c>
+      <c r="K48" s="24">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="L48" s="72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="21" customFormat="1">
+      <c r="B49" s="21" t="s">
+        <v>970</v>
+      </c>
+      <c r="C49" s="22">
+        <v>-1578.14</v>
+      </c>
+      <c r="D49" s="22">
+        <v>-1596.7170000000001</v>
+      </c>
+      <c r="E49" s="22">
+        <v>39.61</v>
+      </c>
+      <c r="F49" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="H49" s="56" t="s">
         <v>961</v>
       </c>
-      <c r="I44" s="60">
+      <c r="I49" s="60">
         <v>30.998000000000001</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J49" s="24">
         <v>0.25900000000000001</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K49" s="24">
         <v>0.83899999999999997</v>
       </c>
-      <c r="L44" s="72">
+      <c r="L49" s="72">
         <v>0.23250000000000001</v>
       </c>
+    </row>
+    <row r="50" spans="2:12" s="21" customFormat="1">
+      <c r="B50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G1048576 G1:G10">
+  <conditionalFormatting sqref="G13:G1048576 G1:G11">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
@@ -34879,12 +34984,12 @@
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L21 L23:L39">
+  <conditionalFormatting sqref="L2:L24 L26:L44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:L44">
+  <conditionalFormatting sqref="L45:L50">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
@@ -36490,7 +36595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -14,10 +14,12 @@
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Run outputs" sheetId="3" r:id="rId2"/>
-    <sheet name="Bat Characters 1" sheetId="5" r:id="rId3"/>
-    <sheet name="Spider Chars" sheetId="6" r:id="rId4"/>
-    <sheet name="Hyolith Characters" sheetId="4" r:id="rId5"/>
-    <sheet name="Weevil Characters" sheetId="2" r:id="rId6"/>
+    <sheet name="FromPrior Outputs" sheetId="7" r:id="rId3"/>
+    <sheet name="FromPrior Parameters" sheetId="8" r:id="rId4"/>
+    <sheet name="Bat Characters 1" sheetId="5" r:id="rId5"/>
+    <sheet name="Spider Chars" sheetId="6" r:id="rId6"/>
+    <sheet name="Hyolith Characters" sheetId="4" r:id="rId7"/>
+    <sheet name="Weevil Characters" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1370">
   <si>
     <t>data set</t>
   </si>
@@ -30751,6 +30753,21 @@
   </si>
   <si>
     <t>weev_neotransFP_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_unpartFP_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_unpartFP_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_devFP_ss.nex</t>
+  </si>
+  <si>
+    <t>0/8</t>
+  </si>
+  <si>
+    <t>1/8</t>
   </si>
 </sst>
 </file>
@@ -30877,7 +30894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -31089,6 +31106,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -31096,7 +31125,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -31428,11 +31487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31441,8 +31500,8 @@
     <col min="2" max="2" width="28.28515625" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="33"/>
@@ -31450,7 +31509,7 @@
     <col min="12" max="12" width="11.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="56" style="1" customWidth="1"/>
+    <col min="15" max="15" width="67.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="32.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="33"/>
   </cols>
@@ -31842,53 +31901,53 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="38" customFormat="1">
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:16" s="49" customFormat="1">
+      <c r="B10" s="26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>979</v>
+      </c>
+      <c r="E10" s="49">
+        <v>9</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="51">
+        <v>5000000</v>
+      </c>
+      <c r="H10" s="49">
+        <v>100</v>
+      </c>
+      <c r="I10" s="49">
+        <v>8</v>
+      </c>
+      <c r="J10" s="49">
+        <v>8</v>
+      </c>
+      <c r="K10" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="49">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="49">
+        <v>40</v>
+      </c>
+      <c r="N10" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="38" customFormat="1">
+      <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C11" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="38">
-        <v>2</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="40">
-        <v>5000000</v>
-      </c>
-      <c r="H10" s="38">
-        <v>500</v>
-      </c>
-      <c r="I10" s="38">
-        <v>4</v>
-      </c>
-      <c r="J10" s="38">
-        <v>8</v>
-      </c>
-      <c r="K10" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="38">
-        <v>100</v>
-      </c>
-      <c r="M10" s="38">
-        <v>40</v>
-      </c>
-      <c r="N10" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="38" customFormat="1" ht="30">
-      <c r="B11" s="38" t="s">
-        <v>352</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>8</v>
@@ -31897,10 +31956,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="G11" s="40">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="H11" s="38">
         <v>500</v>
@@ -31924,12 +31983,12 @@
         <v>0.1</v>
       </c>
       <c r="O11" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="38" customFormat="1" ht="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="38" t="s">
-        <v>940</v>
+        <v>352</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>8</v>
@@ -31938,25 +31997,25 @@
         <v>2</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="G12" s="40">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="H12" s="38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I12" s="38">
         <v>4</v>
       </c>
       <c r="J12" s="38">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K12" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>945</v>
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="38">
+        <v>100</v>
       </c>
       <c r="M12" s="38">
         <v>40</v>
@@ -31965,12 +32024,12 @@
         <v>0.1</v>
       </c>
       <c r="O12" s="39" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="38" customFormat="1" ht="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="B13" s="38" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>8</v>
@@ -32003,15 +32062,15 @@
         <v>40</v>
       </c>
       <c r="N13" s="65">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O13" s="39" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="38" customFormat="1" ht="30">
+    <row r="14" spans="1:16" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="B14" s="38" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>8</v>
@@ -32044,15 +32103,15 @@
         <v>40</v>
       </c>
       <c r="N14" s="65">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="O14" s="39" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="38" customFormat="1" ht="30">
+    <row r="15" spans="1:16" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="B15" s="38" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>8</v>
@@ -32073,7 +32132,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K15" s="38">
         <v>0.25</v>
@@ -32085,15 +32144,15 @@
         <v>40</v>
       </c>
       <c r="N15" s="65">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="O15" s="39" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="38" customFormat="1" ht="30">
+    <row r="16" spans="1:16" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="B16" s="38" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>8</v>
@@ -32126,97 +32185,76 @@
         <v>40</v>
       </c>
       <c r="N16" s="65">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="O16" s="39" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="42" customFormat="1" ht="30">
-      <c r="B17" s="42" t="s">
+    <row r="17" spans="1:15" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="38">
+        <v>2</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="H17" s="38">
+        <v>200</v>
+      </c>
+      <c r="I17" s="38">
+        <v>4</v>
+      </c>
+      <c r="J17" s="38">
+        <v>8</v>
+      </c>
+      <c r="K17" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>945</v>
+      </c>
+      <c r="M17" s="38">
+        <v>40</v>
+      </c>
+      <c r="N17" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="38" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="38">
+        <v>3</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="40">
+        <v>5000001</v>
+      </c>
+      <c r="L18" s="41"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="42" t="s">
         <v>951</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>952</v>
-      </c>
-      <c r="E17" s="42">
-        <v>2</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="44">
-        <v>20000000</v>
-      </c>
-      <c r="H17" s="42">
-        <v>500</v>
-      </c>
-      <c r="I17" s="42">
-        <v>4</v>
-      </c>
-      <c r="J17" s="42">
-        <v>8</v>
-      </c>
-      <c r="K17" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="L17" s="45">
-        <v>100</v>
-      </c>
-      <c r="M17" s="42">
-        <v>40</v>
-      </c>
-      <c r="N17" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="O17" s="43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="42" customFormat="1" ht="30">
-      <c r="B18" s="42" t="s">
-        <v>971</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>952</v>
-      </c>
-      <c r="E18" s="42">
-        <v>2</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="44">
-        <v>5000000</v>
-      </c>
-      <c r="H18" s="42">
-        <v>100</v>
-      </c>
-      <c r="I18" s="42">
-        <v>4</v>
-      </c>
-      <c r="J18" s="42">
-        <v>16</v>
-      </c>
-      <c r="K18" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>945</v>
-      </c>
-      <c r="M18" s="42">
-        <v>40</v>
-      </c>
-      <c r="N18" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="42" customFormat="1" ht="30">
-      <c r="B19" s="42" t="s">
-        <v>972</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>952</v>
@@ -32228,36 +32266,36 @@
         <v>10</v>
       </c>
       <c r="G19" s="44">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="H19" s="42">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I19" s="42">
         <v>4</v>
       </c>
       <c r="J19" s="42">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K19" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>945</v>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="45">
+        <v>100</v>
       </c>
       <c r="M19" s="42">
         <v>40</v>
       </c>
       <c r="N19" s="66">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O19" s="43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="42" customFormat="1" ht="30">
+    <row r="20" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="42" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>952</v>
@@ -32290,15 +32328,15 @@
         <v>40</v>
       </c>
       <c r="N20" s="66">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="O20" s="43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="42" customFormat="1" ht="30">
+    <row r="21" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="42" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>952</v>
@@ -32319,7 +32357,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K21" s="42">
         <v>0.25</v>
@@ -32337,9 +32375,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="42" customFormat="1" ht="30">
+    <row r="22" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
       <c r="B22" s="42" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>952</v>
@@ -32360,7 +32398,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K22" s="42">
         <v>0.25</v>
@@ -32378,237 +32416,201 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="46" customFormat="1">
-      <c r="A24" s="46" t="s">
+    <row r="23" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="42" t="s">
+        <v>974</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>952</v>
+      </c>
+      <c r="E23" s="42">
         <v>2</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="F23" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="H23" s="42">
+        <v>100</v>
+      </c>
+      <c r="I23" s="42">
+        <v>4</v>
+      </c>
+      <c r="J23" s="42">
+        <v>8</v>
+      </c>
+      <c r="K23" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="M23" s="42">
+        <v>40</v>
+      </c>
+      <c r="N23" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="42" t="s">
+        <v>975</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>952</v>
+      </c>
+      <c r="E24" s="42">
+        <v>2</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="H24" s="42">
+        <v>100</v>
+      </c>
+      <c r="I24" s="42">
+        <v>4</v>
+      </c>
+      <c r="J24" s="42">
+        <v>8</v>
+      </c>
+      <c r="K24" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="M24" s="42">
+        <v>40</v>
+      </c>
+      <c r="N24" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="O24" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="D25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="L25" s="45"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="43"/>
+    </row>
+    <row r="27" spans="1:15" s="46" customFormat="1">
+      <c r="A27" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C27" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D27" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E27" s="46">
         <v>1</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F27" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G27" s="48">
         <v>5000000</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H27" s="46">
         <v>500</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I27" s="46">
         <v>4</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J27" s="46">
         <v>8</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K27" s="46">
         <v>0.1</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L27" s="46">
         <v>100</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M27" s="46">
         <v>40</v>
       </c>
-      <c r="N24" s="67">
+      <c r="N27" s="67">
         <v>0.1</v>
       </c>
-      <c r="O24" s="47"/>
-    </row>
-    <row r="25" spans="1:15" s="35" customFormat="1">
-      <c r="B25" s="35" t="s">
+      <c r="O27" s="47"/>
+    </row>
+    <row r="28" spans="1:15" s="35" customFormat="1">
+      <c r="B28" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D28" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E28" s="35">
         <v>1</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F28" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G28" s="37">
         <v>20000000</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H28" s="35">
         <v>500</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I28" s="35">
         <v>4</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J28" s="35">
         <v>8</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K28" s="35">
         <v>0.1</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L28" s="35">
         <v>100</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M28" s="35">
         <v>40</v>
       </c>
-      <c r="N25" s="64">
+      <c r="N28" s="64">
         <v>0.1</v>
       </c>
-      <c r="O25" s="36"/>
-    </row>
-    <row r="26" spans="1:15" s="49" customFormat="1">
-      <c r="B26" s="49" t="s">
+      <c r="O28" s="36"/>
+    </row>
+    <row r="29" spans="1:15" s="49" customFormat="1">
+      <c r="B29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C29" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D29" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E29" s="49">
         <v>10</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F29" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G29" s="51">
         <v>5000000</v>
-      </c>
-      <c r="H26" s="49">
-        <v>500</v>
-      </c>
-      <c r="I26" s="49">
-        <v>4</v>
-      </c>
-      <c r="J26" s="49">
-        <v>8</v>
-      </c>
-      <c r="K26" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="L26" s="49">
-        <v>100</v>
-      </c>
-      <c r="M26" s="49">
-        <v>40</v>
-      </c>
-      <c r="N26" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="O26" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="49" customFormat="1" ht="30">
-      <c r="B27" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="E27" s="49">
-        <v>3</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="51">
-        <v>5000000</v>
-      </c>
-      <c r="H27" s="49">
-        <v>500</v>
-      </c>
-      <c r="I27" s="49">
-        <v>4</v>
-      </c>
-      <c r="J27" s="49">
-        <v>8</v>
-      </c>
-      <c r="K27" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="L27" s="49">
-        <v>100</v>
-      </c>
-      <c r="M27" s="49">
-        <v>40</v>
-      </c>
-      <c r="N27" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="O27" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="49" customFormat="1" ht="30">
-      <c r="B28" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="E28" s="49">
-        <v>3</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="G28" s="51">
-        <v>5000000</v>
-      </c>
-      <c r="H28" s="49">
-        <v>500</v>
-      </c>
-      <c r="I28" s="49">
-        <v>4</v>
-      </c>
-      <c r="J28" s="49">
-        <v>8</v>
-      </c>
-      <c r="K28" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="L28" s="49">
-        <v>100</v>
-      </c>
-      <c r="M28" s="49">
-        <v>40</v>
-      </c>
-      <c r="N28" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="O28" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="49" customFormat="1" ht="30">
-      <c r="B29" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="E29" s="49">
-        <v>3</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="G29" s="51">
-        <v>20000000</v>
       </c>
       <c r="H29" s="49">
         <v>500</v>
@@ -32635,135 +32637,138 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="38" customFormat="1">
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="1:15" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="E30" s="49">
+        <v>3</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="51">
+        <v>5000000</v>
+      </c>
+      <c r="H30" s="49">
+        <v>500</v>
+      </c>
+      <c r="I30" s="49">
+        <v>4</v>
+      </c>
+      <c r="J30" s="49">
+        <v>8</v>
+      </c>
+      <c r="K30" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="49">
+        <v>100</v>
+      </c>
+      <c r="M30" s="49">
+        <v>40</v>
+      </c>
+      <c r="N30" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" s="49">
+        <v>3</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" s="51">
+        <v>5000000</v>
+      </c>
+      <c r="H31" s="49">
+        <v>500</v>
+      </c>
+      <c r="I31" s="49">
+        <v>4</v>
+      </c>
+      <c r="J31" s="49">
+        <v>8</v>
+      </c>
+      <c r="K31" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="49">
+        <v>100</v>
+      </c>
+      <c r="M31" s="49">
+        <v>40</v>
+      </c>
+      <c r="N31" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="E32" s="49">
+        <v>3</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G32" s="51">
+        <v>20000000</v>
+      </c>
+      <c r="H32" s="49">
+        <v>500</v>
+      </c>
+      <c r="I32" s="49">
+        <v>4</v>
+      </c>
+      <c r="J32" s="49">
+        <v>8</v>
+      </c>
+      <c r="K32" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L32" s="49">
+        <v>100</v>
+      </c>
+      <c r="M32" s="49">
+        <v>40</v>
+      </c>
+      <c r="N32" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="O32" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="38" customFormat="1">
+      <c r="B33" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C33" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="38">
-        <v>2</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="40">
-        <v>5000000</v>
-      </c>
-      <c r="H30" s="38">
-        <v>500</v>
-      </c>
-      <c r="I30" s="38">
-        <v>4</v>
-      </c>
-      <c r="J30" s="38">
-        <v>8</v>
-      </c>
-      <c r="K30" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="L30" s="38">
-        <v>100</v>
-      </c>
-      <c r="M30" s="38">
-        <v>40</v>
-      </c>
-      <c r="N30" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="38" customFormat="1">
-      <c r="B31" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="38">
-        <v>2</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="40">
-        <v>20000000</v>
-      </c>
-      <c r="H31" s="38">
-        <v>500</v>
-      </c>
-      <c r="I31" s="38">
-        <v>4</v>
-      </c>
-      <c r="J31" s="38">
-        <v>8</v>
-      </c>
-      <c r="K31" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="L31" s="38">
-        <v>100</v>
-      </c>
-      <c r="M31" s="38">
-        <v>40</v>
-      </c>
-      <c r="N31" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="O31" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="38" customFormat="1" ht="30">
-      <c r="B32" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="38">
-        <v>2</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="G32" s="40">
-        <v>20000000</v>
-      </c>
-      <c r="H32" s="38">
-        <v>500</v>
-      </c>
-      <c r="I32" s="38">
-        <v>4</v>
-      </c>
-      <c r="J32" s="38">
-        <v>8</v>
-      </c>
-      <c r="K32" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="L32" s="38">
-        <v>100</v>
-      </c>
-      <c r="M32" s="38">
-        <v>40</v>
-      </c>
-      <c r="N32" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="O32" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="38" customFormat="1" ht="30">
-      <c r="B33" s="38" t="s">
-        <v>946</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>8</v>
@@ -32778,19 +32783,19 @@
         <v>5000000</v>
       </c>
       <c r="H33" s="38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I33" s="38">
         <v>4</v>
       </c>
       <c r="J33" s="38">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K33" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="L33" s="41" t="s">
-        <v>945</v>
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="38">
+        <v>100</v>
       </c>
       <c r="M33" s="38">
         <v>40</v>
@@ -32799,12 +32804,12 @@
         <v>0.1</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="38" customFormat="1" ht="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="38" customFormat="1">
       <c r="B34" s="38" t="s">
-        <v>947</v>
+        <v>342</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>8</v>
@@ -32816,36 +32821,36 @@
         <v>10</v>
       </c>
       <c r="G34" s="40">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="H34" s="38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I34" s="38">
         <v>4</v>
       </c>
       <c r="J34" s="38">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K34" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="L34" s="41" t="s">
-        <v>945</v>
+        <v>0.1</v>
+      </c>
+      <c r="L34" s="38">
+        <v>100</v>
       </c>
       <c r="M34" s="38">
         <v>40</v>
       </c>
       <c r="N34" s="65">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="38" customFormat="1" ht="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="B35" s="38" t="s">
-        <v>948</v>
+        <v>344</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>8</v>
@@ -32854,39 +32859,39 @@
         <v>2</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="G35" s="40">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="H35" s="38">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I35" s="38">
         <v>4</v>
       </c>
       <c r="J35" s="38">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K35" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="L35" s="41" t="s">
-        <v>945</v>
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="38">
+        <v>100</v>
       </c>
       <c r="M35" s="38">
         <v>40</v>
       </c>
       <c r="N35" s="65">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="O35" s="39" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="38" customFormat="1" ht="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="38" customFormat="1">
       <c r="B36" s="38" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>8</v>
@@ -32907,7 +32912,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K36" s="38">
         <v>0.25</v>
@@ -32919,15 +32924,15 @@
         <v>40</v>
       </c>
       <c r="N36" s="65">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O36" s="39" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="38" customFormat="1" ht="30">
+    <row r="37" spans="1:15" s="38" customFormat="1">
       <c r="B37" s="38" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>8</v>
@@ -32948,7 +32953,7 @@
         <v>4</v>
       </c>
       <c r="J37" s="38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K37" s="38">
         <v>0.25</v>
@@ -32960,149 +32965,142 @@
         <v>40</v>
       </c>
       <c r="N37" s="65">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="O37" s="39" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="42" customFormat="1">
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="1:15" s="38" customFormat="1">
+      <c r="B38" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="H38" s="38">
+        <v>200</v>
+      </c>
+      <c r="I38" s="38">
+        <v>4</v>
+      </c>
+      <c r="J38" s="38">
+        <v>16</v>
+      </c>
+      <c r="K38" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>945</v>
+      </c>
+      <c r="M38" s="38">
+        <v>40</v>
+      </c>
+      <c r="N38" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="38" customFormat="1">
+      <c r="B39" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="38">
+        <v>2</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="H39" s="38">
+        <v>200</v>
+      </c>
+      <c r="I39" s="38">
+        <v>4</v>
+      </c>
+      <c r="J39" s="38">
+        <v>8</v>
+      </c>
+      <c r="K39" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="L39" s="41" t="s">
+        <v>945</v>
+      </c>
+      <c r="M39" s="38">
+        <v>40</v>
+      </c>
+      <c r="N39" s="65">
+        <v>0.15</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="38" customFormat="1">
+      <c r="B40" s="38" t="s">
+        <v>950</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="38">
+        <v>2</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="40">
+        <v>5000000</v>
+      </c>
+      <c r="H40" s="38">
+        <v>200</v>
+      </c>
+      <c r="I40" s="38">
+        <v>4</v>
+      </c>
+      <c r="J40" s="38">
+        <v>8</v>
+      </c>
+      <c r="K40" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="L40" s="41" t="s">
+        <v>945</v>
+      </c>
+      <c r="M40" s="38">
+        <v>40</v>
+      </c>
+      <c r="N40" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="42" customFormat="1">
+      <c r="B41" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C41" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="42">
-        <v>2</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="44">
-        <v>5000000</v>
-      </c>
-      <c r="H38" s="42">
-        <v>500</v>
-      </c>
-      <c r="I38" s="42">
-        <v>4</v>
-      </c>
-      <c r="J38" s="42">
-        <v>8</v>
-      </c>
-      <c r="K38" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="L38" s="42">
-        <v>100</v>
-      </c>
-      <c r="M38" s="42">
-        <v>40</v>
-      </c>
-      <c r="N38" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="O38" s="43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="42" customFormat="1" ht="30">
-      <c r="B39" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="42">
-        <v>2</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="G39" s="44">
-        <v>5000000</v>
-      </c>
-      <c r="H39" s="42">
-        <v>500</v>
-      </c>
-      <c r="I39" s="42">
-        <v>4</v>
-      </c>
-      <c r="J39" s="42">
-        <v>8</v>
-      </c>
-      <c r="K39" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="L39" s="42">
-        <v>100</v>
-      </c>
-      <c r="M39" s="42">
-        <v>40</v>
-      </c>
-      <c r="N39" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="O39" s="43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="42" customFormat="1" ht="30">
-      <c r="B40" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="42">
-        <v>2</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="G40" s="44">
-        <v>20000000</v>
-      </c>
-      <c r="H40" s="42">
-        <v>500</v>
-      </c>
-      <c r="I40" s="42">
-        <v>4</v>
-      </c>
-      <c r="J40" s="42">
-        <v>8</v>
-      </c>
-      <c r="K40" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="L40" s="42">
-        <v>100</v>
-      </c>
-      <c r="M40" s="42">
-        <v>40</v>
-      </c>
-      <c r="N40" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="O40" s="43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="42">
-        <v>1682463</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>966</v>
-      </c>
-      <c r="C41" s="42"/>
       <c r="D41" s="43" t="s">
         <v>31</v>
       </c>
@@ -33116,19 +33114,19 @@
         <v>5000000</v>
       </c>
       <c r="H41" s="42">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I41" s="42">
         <v>4</v>
       </c>
       <c r="J41" s="42">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K41" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>945</v>
+        <v>0.1</v>
+      </c>
+      <c r="L41" s="42">
+        <v>100</v>
       </c>
       <c r="M41" s="42">
         <v>40</v>
@@ -33140,14 +33138,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="42">
-        <v>1682464</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>967</v>
-      </c>
-      <c r="C42" s="42"/>
+    <row r="42" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="B42" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="D42" s="43" t="s">
         <v>31</v>
       </c>
@@ -33155,44 +33152,40 @@
         <v>2</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="G42" s="44">
         <v>5000000</v>
       </c>
       <c r="H42" s="42">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I42" s="42">
         <v>4</v>
       </c>
       <c r="J42" s="42">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K42" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="L42" s="45" t="s">
-        <v>945</v>
+        <v>0.1</v>
+      </c>
+      <c r="L42" s="42">
+        <v>100</v>
       </c>
       <c r="M42" s="42">
         <v>40</v>
       </c>
       <c r="N42" s="66">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O42" s="43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="42">
-        <v>1682465</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>968</v>
-      </c>
-      <c r="C43" s="42"/>
+    <row r="43" spans="1:15" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="B43" s="42" t="s">
+        <v>343</v>
+      </c>
       <c r="D43" s="43" t="s">
         <v>31</v>
       </c>
@@ -33200,31 +33193,31 @@
         <v>2</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="G43" s="44">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="H43" s="42">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I43" s="42">
         <v>4</v>
       </c>
       <c r="J43" s="42">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K43" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="L43" s="45" t="s">
-        <v>945</v>
+        <v>0.1</v>
+      </c>
+      <c r="L43" s="42">
+        <v>100</v>
       </c>
       <c r="M43" s="42">
         <v>40</v>
       </c>
       <c r="N43" s="66">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="O43" s="43" t="s">
         <v>29</v>
@@ -33232,10 +33225,10 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="42">
-        <v>1682466</v>
+        <v>1682463</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="43" t="s">
@@ -33257,7 +33250,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K44" s="42">
         <v>0.25</v>
@@ -33269,7 +33262,7 @@
         <v>40</v>
       </c>
       <c r="N44" s="66">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O44" s="43" t="s">
         <v>29</v>
@@ -33277,10 +33270,10 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="42">
-        <v>1682467</v>
+        <v>1682464</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="43" t="s">
@@ -33302,7 +33295,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="42">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K45" s="42">
         <v>0.25</v>
@@ -33314,9 +33307,144 @@
         <v>40</v>
       </c>
       <c r="N45" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="42">
+        <v>1682465</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>968</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="42">
+        <v>2</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="H46" s="42">
+        <v>200</v>
+      </c>
+      <c r="I46" s="42">
+        <v>4</v>
+      </c>
+      <c r="J46" s="42">
+        <v>16</v>
+      </c>
+      <c r="K46" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="L46" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="M46" s="42">
+        <v>40</v>
+      </c>
+      <c r="N46" s="66">
         <v>0.05</v>
       </c>
-      <c r="O45" s="43" t="s">
+      <c r="O46" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="42">
+        <v>1682466</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="42">
+        <v>2</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="H47" s="42">
+        <v>200</v>
+      </c>
+      <c r="I47" s="42">
+        <v>4</v>
+      </c>
+      <c r="J47" s="42">
+        <v>8</v>
+      </c>
+      <c r="K47" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="L47" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="M47" s="42">
+        <v>40</v>
+      </c>
+      <c r="N47" s="66">
+        <v>0.15</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="42">
+        <v>1682467</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>970</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="42">
+        <v>2</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="44">
+        <v>5000000</v>
+      </c>
+      <c r="H48" s="42">
+        <v>200</v>
+      </c>
+      <c r="I48" s="42">
+        <v>4</v>
+      </c>
+      <c r="J48" s="42">
+        <v>8</v>
+      </c>
+      <c r="K48" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="L48" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="M48" s="42">
+        <v>40</v>
+      </c>
+      <c r="N48" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="O48" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -33333,8 +33461,8 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33346,7 +33474,7 @@
     <col min="6" max="6" width="16" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="61" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="61" customWidth="1"/>
     <col min="10" max="11" width="8.5703125" style="7" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="73" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="2" hidden="1" customWidth="1"/>
@@ -33381,10 +33509,10 @@
       <c r="I1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="81"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="69" t="s">
         <v>976</v>
       </c>
@@ -33644,16 +33772,36 @@
       <c r="B9" s="26" t="s">
         <v>1360</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="74"/>
+      <c r="C9" s="27">
+        <v>-2708.42</v>
+      </c>
+      <c r="D9" s="27">
+        <v>-2708.7037500000001</v>
+      </c>
+      <c r="E9" s="27">
+        <v>2.13</v>
+      </c>
+      <c r="F9" s="27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I9" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.216</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="74">
+        <v>3.6249999999999998E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1">
       <c r="B10" s="16" t="s">
@@ -33907,13 +34055,27 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="71"/>
+      <c r="F17" s="17">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I17" s="59">
+        <v>3662.0295999999998</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.221</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L17" s="71">
+        <v>0.14874999999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="21" customFormat="1">
       <c r="B18" s="21" t="s">
@@ -34971,26 +35133,26 @@
   <mergeCells count="1">
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G13:G1048576 G1:G11">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="G1:G11 G13:G1048576">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L24 L26:L44">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="L26:L44 L2:L24">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L50">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35000,6 +35162,198 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="60">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>960</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>964</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>956</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>955</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>959</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="85"/>
+      <c r="L1" s="84" t="s">
+        <v>976</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="26" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="32" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="21" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="26" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="16" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="21" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",G1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="45">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>962</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F278"/>
   <sheetViews>
@@ -36591,7 +36945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D244"/>
   <sheetViews>
@@ -38839,7 +39193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H226"/>
   <sheetViews>
@@ -44718,7 +45072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I116"/>
   <sheetViews>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -33462,7 +33462,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="1375">
   <si>
     <t>data set</t>
   </si>
@@ -30768,6 +30768,21 @@
   </si>
   <si>
     <t>1/8</t>
+  </si>
+  <si>
+    <t>AM of ln MLs without runs with pos vals</t>
+  </si>
+  <si>
+    <t>largest diff. between runs in ln ML (w/o pos val)</t>
+  </si>
+  <si>
+    <t>high acceptance rate is in run 5 which went positive</t>
+  </si>
+  <si>
+    <t>chain swap proportion calculated without run 8 which went positive</t>
+  </si>
+  <si>
+    <t>Mean marginal likelihood (ln); AM of MLs (from .out)</t>
   </si>
 </sst>
 </file>
@@ -30829,7 +30844,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -30872,6 +30887,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -30894,7 +30915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -31121,11 +31142,106 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -33461,8 +33577,8 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35134,25 +35250,25 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G11 G13:G1048576">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L44 L2:L24">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L50">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35163,25 +35279,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="61" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="61" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="93" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="57"/>
+    <col min="10" max="10" width="9.140625" style="61"/>
+    <col min="11" max="12" width="9.140625" style="98"/>
+    <col min="13" max="13" width="11.5703125" style="61" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="60">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35189,105 +35308,375 @@
         <v>3</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>960</v>
+        <v>1374</v>
       </c>
       <c r="D1" s="81" t="s">
         <v>964</v>
       </c>
       <c r="E1" s="81" t="s">
-        <v>956</v>
+        <v>1370</v>
       </c>
       <c r="F1" s="81" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G1" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="H1" s="82" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="I1" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="J1" s="81" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="K1" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="81" t="s">
         <v>976</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>1365</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="13" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="I2" s="54"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="1:14" s="26" customFormat="1">
       <c r="B3" s="26" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="C3" s="27">
+        <v>-2708.42</v>
+      </c>
+      <c r="D3" s="27">
+        <v>-2708.7037500000001</v>
+      </c>
+      <c r="E3" s="27">
+        <v>-2708.7</v>
+      </c>
+      <c r="F3" s="27">
+        <v>2.13</v>
+      </c>
+      <c r="G3" s="74">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K3" s="29">
+        <v>0.216</v>
+      </c>
+      <c r="L3" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="27">
+        <v>3.6249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="16" customFormat="1">
       <c r="B4" s="32" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="C4" s="17">
+        <v>59366.05</v>
+      </c>
+      <c r="D4" s="17">
+        <v>5078.4487499999996</v>
+      </c>
+      <c r="E4" s="17">
+        <v>-2677.22</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1.92</v>
+      </c>
+      <c r="G4" s="71">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J4" s="59">
+        <v>3662.0295999999998</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.221</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.14874999999999999</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="23" customFormat="1">
       <c r="B5" s="21" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="C5" s="60">
+        <v>-2706.67</v>
+      </c>
+      <c r="D5" s="60">
+        <v>-2706.8449999999998</v>
+      </c>
+      <c r="E5" s="60">
+        <v>-2706.8449999999998</v>
+      </c>
+      <c r="F5" s="60">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G5" s="90">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="95">
+        <v>0.224</v>
+      </c>
+      <c r="L5" s="95">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M5" s="60">
+        <v>0.16875000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="13" customFormat="1">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="89"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="58"/>
+    </row>
+    <row r="8" spans="1:14" s="28" customFormat="1">
       <c r="B8" s="26" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="16" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="91"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="78"/>
+    </row>
+    <row r="9" spans="1:14" s="86" customFormat="1">
+      <c r="B9" s="87" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="C9" s="88">
+        <v>-1614.56</v>
+      </c>
+      <c r="D9" s="88">
+        <v>-1615.74875</v>
+      </c>
+      <c r="E9" s="88">
+        <v>-1615.74875</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="92">
+        <v>3.8321000000000001E-2</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J9" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="97">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="97">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M9" s="88">
+        <v>4.1250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="23" customFormat="1">
       <c r="B10" s="21" t="s">
         <v>1367</v>
       </c>
+      <c r="C10" s="60">
+        <v>50167.29</v>
+      </c>
+      <c r="D10" s="60">
+        <v>4856.5349999999999</v>
+      </c>
+      <c r="E10" s="60">
+        <v>-1616.7271430000001</v>
+      </c>
+      <c r="F10" s="60">
+        <v>7.46</v>
+      </c>
+      <c r="G10" s="90">
+        <v>5.9514999999999998E-2</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J10" s="60">
+        <v>3104.944</v>
+      </c>
+      <c r="K10" s="95">
+        <v>0.249</v>
+      </c>
+      <c r="L10" s="95">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M10" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>1373</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",G1)))</formula>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="no" id="{79616BB0-6079-4B55-9415-A1C246267DA1}">
+            <xm:f>NOT(ISERROR(SEARCH("no",'Run outputs'!G5)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" text="no" id="{79616BB0-6079-4B55-9415-A1C246267DA1}">
+            <xm:f>NOT(ISERROR(SEARCH("no",'Run outputs'!G3)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="1394">
   <si>
     <t>data set</t>
   </si>
@@ -30776,13 +30776,70 @@
     <t>largest diff. between runs in ln ML (w/o pos val)</t>
   </si>
   <si>
-    <t>high acceptance rate is in run 5 which went positive</t>
-  </si>
-  <si>
     <t>chain swap proportion calculated without run 8 which went positive</t>
   </si>
   <si>
     <t>Mean marginal likelihood (ln); AM of MLs (from .out)</t>
+  </si>
+  <si>
+    <t>5/8</t>
+  </si>
+  <si>
+    <t>run 3 went positive. AR for Dirichlet(ratemultiplier) is 0.3%, slider(ratemultiplier)=99.4%</t>
+  </si>
+  <si>
+    <t>run 5 went positive. Chain swap 0.00, dirichlet(ratemultiplier)=99.1%, slider(ratemultiplier)=8.6%</t>
+  </si>
+  <si>
+    <t>A. mean chain swap proportion 1-2  w/o pos vals</t>
+  </si>
+  <si>
+    <t>unpartitioned</t>
+  </si>
+  <si>
+    <t>neomorphic - transformational</t>
+  </si>
+  <si>
+    <t>dev stage</t>
+  </si>
+  <si>
+    <t>prset</t>
+  </si>
+  <si>
+    <t>prset applyto=(all) symdirihyperpr=fixed(infinity); prset applyto=(all) ratepr=variable</t>
+  </si>
+  <si>
+    <t>brlenspr</t>
+  </si>
+  <si>
+    <t>unconstrained: gammadir(1, 0.34, 1, 1)</t>
+  </si>
+  <si>
+    <t>ntax</t>
+  </si>
+  <si>
+    <t>nchar</t>
+  </si>
+  <si>
+    <t>shape,pinvar</t>
+  </si>
+  <si>
+    <t>prset applyto=(1) symdirihyperpr=fixed(1.0);             prset applyto=(all) ratepr=variable;</t>
+  </si>
+  <si>
+    <t>unconstrained: gammadir(1, 0.34, 1, 1);</t>
+  </si>
+  <si>
+    <t>prset applyto=(1) symdirihyperpr=fixed(1.0);            prset applyto=(2) symdirihyperpr=fixed(infinity); prset applyto=(all) ratepr=variable</t>
+  </si>
+  <si>
+    <t>weev_neotransFP2_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_neotransFP2_ss.nex</t>
+  </si>
+  <si>
+    <t>prset applyto=(1) symdirihyperpr=fixed(1.0);        prset applyto=(2) symdirihyperpr=fixed(infinity);           prset applyto=(all) ratepr=variable;</t>
   </si>
 </sst>
 </file>
@@ -30915,7 +30972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -31139,9 +31196,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -31157,11 +31211,70 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -33625,10 +33738,10 @@
       <c r="I1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="85"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="69" t="s">
         <v>976</v>
       </c>
@@ -35250,25 +35363,25 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G11 G13:G1048576">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L44 L2:L24">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L50">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35282,7 +35395,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35291,16 +35404,16 @@
     <col min="3" max="3" width="15.85546875" style="61" customWidth="1"/>
     <col min="4" max="5" width="12.42578125" style="61" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="61" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="93" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="92" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="57"/>
     <col min="10" max="10" width="9.140625" style="61"/>
-    <col min="11" max="12" width="9.140625" style="98"/>
+    <col min="11" max="12" width="9.140625" style="97"/>
     <col min="13" max="13" width="11.5703125" style="61" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="55.42578125" style="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="60">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35308,7 +35421,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D1" s="81" t="s">
         <v>964</v>
@@ -35331,12 +35444,12 @@
       <c r="J1" s="81" t="s">
         <v>959</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="85"/>
+      <c r="L1" s="98"/>
       <c r="M1" s="81" t="s">
-        <v>976</v>
+        <v>1377</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>357</v>
@@ -35353,15 +35466,20 @@
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
-      <c r="G2" s="89"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
+        <v>351</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J2" s="58">
+        <v>8870.3217000000004</v>
+      </c>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
       <c r="M2" s="58"/>
+      <c r="N2" s="99"/>
     </row>
     <row r="3" spans="1:14" s="26" customFormat="1">
       <c r="B3" s="26" t="s">
@@ -35400,8 +35518,9 @@
       <c r="M3" s="27">
         <v>3.6249999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="16" customFormat="1">
+      <c r="N3" s="100"/>
+    </row>
+    <row r="4" spans="1:14" s="16" customFormat="1" ht="30">
       <c r="B4" s="32" t="s">
         <v>1361</v>
       </c>
@@ -35433,13 +35552,13 @@
         <v>0.221</v>
       </c>
       <c r="L4" s="19">
-        <v>0.99099999999999999</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="M4" s="17">
-        <v>0.14874999999999999</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>1372</v>
+        <v>0.17</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="23" customFormat="1">
@@ -35458,7 +35577,7 @@
       <c r="F5" s="60">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G5" s="90">
+      <c r="G5" s="89">
         <v>0.66900000000000004</v>
       </c>
       <c r="H5" s="23" t="s">
@@ -35470,86 +35589,139 @@
       <c r="J5" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="95">
+      <c r="K5" s="94">
         <v>0.224</v>
       </c>
-      <c r="L5" s="95">
+      <c r="L5" s="94">
         <v>0.79900000000000004</v>
       </c>
       <c r="M5" s="60">
         <v>0.16875000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1">
+      <c r="N5" s="102"/>
+    </row>
+    <row r="7" spans="1:14" s="13" customFormat="1" ht="30">
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>1366</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="89"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="58"/>
+      <c r="C7" s="58">
+        <v>74722.289999999994</v>
+      </c>
+      <c r="D7" s="58">
+        <v>7929.3675000000003</v>
+      </c>
+      <c r="E7" s="58">
+        <v>-1612.7756999999999</v>
+      </c>
+      <c r="F7" s="58">
+        <v>10.61</v>
+      </c>
+      <c r="G7" s="88">
+        <v>6.3192999999999999E-2</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J7" s="58">
+        <v>4612.9467070000001</v>
+      </c>
+      <c r="K7" s="93">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L7" s="93">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M7" s="58">
+        <v>0</v>
+      </c>
+      <c r="N7" s="99" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="28" customFormat="1">
       <c r="B8" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="91"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="78"/>
-    </row>
-    <row r="9" spans="1:14" s="86" customFormat="1">
-      <c r="B9" s="87" t="s">
+      <c r="C8" s="78">
+        <v>-1623.11</v>
+      </c>
+      <c r="D8" s="110">
+        <v>-1624.67875</v>
+      </c>
+      <c r="E8" s="110">
+        <v>-1624.67875</v>
+      </c>
+      <c r="F8" s="78">
+        <v>6.77</v>
+      </c>
+      <c r="G8" s="90">
+        <v>5.3823999999999997E-2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" s="95">
+        <v>0.248</v>
+      </c>
+      <c r="L8" s="95">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M8" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="85" customFormat="1">
+      <c r="B9" s="86" t="s">
         <v>1364</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="87">
         <v>-1614.56</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="87">
         <v>-1615.74875</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="87">
         <v>-1615.74875</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="92">
+      <c r="F9" s="87">
+        <v>4.21</v>
+      </c>
+      <c r="G9" s="91">
         <v>3.8321000000000001E-2</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="85" t="s">
         <v>1368</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="96">
         <v>0.25</v>
       </c>
-      <c r="L9" s="97">
+      <c r="L9" s="96">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M9" s="88">
+      <c r="M9" s="87">
         <v>4.1250000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="23" customFormat="1">
+      <c r="N9" s="103"/>
+    </row>
+    <row r="10" spans="1:14" s="23" customFormat="1" ht="30">
       <c r="B10" s="21" t="s">
         <v>1367</v>
       </c>
@@ -35565,7 +35737,7 @@
       <c r="F10" s="60">
         <v>7.46</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="89">
         <v>5.9514999999999998E-2</v>
       </c>
       <c r="H10" s="23" t="s">
@@ -35577,17 +35749,17 @@
       <c r="J10" s="60">
         <v>3104.944</v>
       </c>
-      <c r="K10" s="95">
+      <c r="K10" s="94">
         <v>0.249</v>
       </c>
-      <c r="L10" s="95">
+      <c r="L10" s="94">
         <v>0.84599999999999997</v>
       </c>
       <c r="M10" s="60">
         <v>0.04</v>
       </c>
-      <c r="N10" s="23" t="s">
-        <v>1373</v>
+      <c r="N10" s="102" t="s">
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
@@ -35595,45 +35767,55 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",H1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5 M7:M10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35643,7 +35825,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" text="no" id="{79616BB0-6079-4B55-9415-A1C246267DA1}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" text="no" id="{79616BB0-6079-4B55-9415-A1C246267DA1}">
             <xm:f>NOT(ISERROR(SEARCH("no",'Run outputs'!G5)))</xm:f>
             <x14:dxf>
               <font>
@@ -35659,7 +35841,7 @@
           <xm:sqref>H4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" text="no" id="{79616BB0-6079-4B55-9415-A1C246267DA1}">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" text="no" id="{79616BB0-6079-4B55-9415-A1C246267DA1}">
             <xm:f>NOT(ISERROR(SEARCH("no",'Run outputs'!G3)))</xm:f>
             <x14:dxf>
               <font>
@@ -35682,59 +35864,587 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="33"/>
+    <col min="2" max="2" width="23.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="6" width="12.85546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="33"/>
+    <col min="12" max="12" width="10.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="33"/>
+    <col min="15" max="15" width="9.140625" style="63"/>
+    <col min="16" max="16" width="45.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="36" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="33"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="33" customFormat="1" ht="45">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="33" t="s">
+        <v>27</v>
+      </c>
       <c r="E1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="O1" s="63" t="s">
         <v>962</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
+      <c r="P1" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="35" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35">
+        <v>54</v>
+      </c>
+      <c r="F2" s="35">
+        <v>225</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H2" s="107">
+        <v>5000000</v>
+      </c>
+      <c r="I2" s="35">
+        <v>100</v>
+      </c>
+      <c r="J2" s="35">
+        <v>8</v>
+      </c>
+      <c r="K2" s="35">
+        <v>8</v>
+      </c>
+      <c r="L2" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="35">
+        <v>40</v>
+      </c>
+      <c r="O2" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="49" customFormat="1" ht="45">
+      <c r="B3" s="49" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D3" s="49">
+        <v>8</v>
+      </c>
+      <c r="E3" s="49">
+        <v>54</v>
+      </c>
+      <c r="F3" s="49">
+        <v>225</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H3" s="109">
+        <v>5000000</v>
+      </c>
+      <c r="I3" s="49">
+        <v>100</v>
+      </c>
+      <c r="J3" s="49">
+        <v>8</v>
+      </c>
+      <c r="K3" s="49">
+        <v>8</v>
+      </c>
+      <c r="L3" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="49">
+        <v>40</v>
+      </c>
+      <c r="O3" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="38" customFormat="1" ht="30">
+      <c r="B4" s="38" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D4" s="38">
+        <v>2</v>
+      </c>
+      <c r="E4" s="38">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38">
+        <v>225</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H4" s="106">
+        <v>5000000</v>
+      </c>
+      <c r="I4" s="38">
+        <v>100</v>
+      </c>
+      <c r="J4" s="38">
+        <v>8</v>
+      </c>
+      <c r="K4" s="38">
+        <v>8</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="38">
+        <v>40</v>
+      </c>
+      <c r="O4" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="38" customFormat="1" ht="45">
+      <c r="B5" s="38" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D5" s="38">
+        <v>2</v>
+      </c>
+      <c r="E5" s="38">
+        <v>54</v>
+      </c>
+      <c r="F5" s="38">
+        <v>225</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H5" s="106">
+        <v>5000000</v>
+      </c>
+      <c r="I5" s="38">
+        <v>100</v>
+      </c>
+      <c r="J5" s="38">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38">
+        <v>8</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="38">
+        <v>40</v>
+      </c>
+      <c r="O5" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B6" s="42" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D6" s="42">
+        <v>2</v>
+      </c>
+      <c r="E6" s="42">
+        <v>54</v>
+      </c>
+      <c r="F6" s="42">
+        <v>225</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H6" s="108">
+        <v>5000000</v>
+      </c>
+      <c r="I6" s="42">
+        <v>100</v>
+      </c>
+      <c r="J6" s="42">
+        <v>8</v>
+      </c>
+      <c r="K6" s="42">
+        <v>8</v>
+      </c>
+      <c r="L6" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="42">
+        <v>40</v>
+      </c>
+      <c r="O6" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="35" customFormat="1" ht="45">
+      <c r="A8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35">
+        <v>103</v>
+      </c>
+      <c r="F8" s="35">
+        <v>115</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H8" s="107">
+        <v>5000000</v>
+      </c>
+      <c r="I8" s="35">
+        <v>100</v>
+      </c>
+      <c r="J8" s="35">
+        <v>8</v>
+      </c>
+      <c r="K8" s="35">
+        <v>8</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M8" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="35">
+        <v>40</v>
+      </c>
+      <c r="O8" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="49" customFormat="1" ht="45">
+      <c r="B9" s="49" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D9" s="49">
+        <v>3</v>
+      </c>
+      <c r="E9" s="49">
+        <v>103</v>
+      </c>
+      <c r="F9" s="49">
+        <v>115</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H9" s="109">
+        <v>5000000</v>
+      </c>
+      <c r="I9" s="49">
+        <v>100</v>
+      </c>
+      <c r="J9" s="49">
+        <v>8</v>
+      </c>
+      <c r="K9" s="49">
+        <v>8</v>
+      </c>
+      <c r="L9" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M9" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="49">
+        <v>40</v>
+      </c>
+      <c r="O9" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q9" s="49" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="38" customFormat="1" ht="30" customHeight="1">
+      <c r="B10" s="38" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D10" s="38">
+        <v>2</v>
+      </c>
+      <c r="E10" s="38">
+        <v>103</v>
+      </c>
+      <c r="F10" s="38">
+        <v>115</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H10" s="106">
+        <v>5000000</v>
+      </c>
+      <c r="I10" s="38">
+        <v>100</v>
+      </c>
+      <c r="J10" s="38">
+        <v>8</v>
+      </c>
+      <c r="K10" s="38">
+        <v>8</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="38">
+        <v>40</v>
+      </c>
+      <c r="O10" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="38" customFormat="1" ht="45">
+      <c r="B11" s="38" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D11" s="38">
+        <v>2</v>
+      </c>
+      <c r="E11" s="38">
+        <v>103</v>
+      </c>
+      <c r="F11" s="38">
+        <v>115</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H11" s="106">
+        <v>5000000</v>
+      </c>
+      <c r="I11" s="38">
+        <v>100</v>
+      </c>
+      <c r="J11" s="38">
+        <v>8</v>
+      </c>
+      <c r="K11" s="38">
+        <v>8</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="38">
+        <v>40</v>
+      </c>
+      <c r="O11" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>1390</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B12" s="42" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D12" s="42">
+        <v>2</v>
+      </c>
+      <c r="E12" s="42">
+        <v>103</v>
+      </c>
+      <c r="F12" s="42">
+        <v>115</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H12" s="108">
+        <v>5000000</v>
+      </c>
+      <c r="I12" s="42">
+        <v>100</v>
+      </c>
+      <c r="J12" s="42">
+        <v>8</v>
+      </c>
+      <c r="K12" s="42">
+        <v>8</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M12" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="42">
+        <v>40</v>
+      </c>
+      <c r="O12" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>1384</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="1395">
   <si>
     <t>data set</t>
   </si>
@@ -30755,9 +30755,6 @@
     <t>weev_neotransFP_ss.nex</t>
   </si>
   <si>
-    <t>hyo_unpartFP_ss.nex</t>
-  </si>
-  <si>
     <t>weev_unpartFP_ss.nex</t>
   </si>
   <si>
@@ -30782,9 +30779,6 @@
     <t>Mean marginal likelihood (ln); AM of MLs (from .out)</t>
   </si>
   <si>
-    <t>5/8</t>
-  </si>
-  <si>
     <t>run 3 went positive. AR for Dirichlet(ratemultiplier) is 0.3%, slider(ratemultiplier)=99.4%</t>
   </si>
   <si>
@@ -30840,6 +30834,15 @@
   </si>
   <si>
     <t>prset applyto=(1) symdirihyperpr=fixed(1.0);        prset applyto=(2) symdirihyperpr=fixed(infinity);           prset applyto=(all) ratepr=variable;</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>hyo_unpartFP2_ss.nex</t>
+  </si>
+  <si>
+    <t>pos runs: 4, 7, 8. each v low dirichlet(ratemultiplier) and v high slider(ratemultiplier)=100% in last 100. chain swap = 0.00</t>
   </si>
 </sst>
 </file>
@@ -30901,7 +30904,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -30944,12 +30947,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -30972,7 +30969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -31196,24 +31193,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -31224,9 +31211,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -31250,11 +31234,139 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -33738,10 +33850,10 @@
       <c r="I1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="98"/>
+      <c r="K1" s="104"/>
       <c r="L1" s="69" t="s">
         <v>976</v>
       </c>
@@ -34017,7 +34129,7 @@
         <v>349</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I9" s="78" t="s">
         <v>336</v>
@@ -34291,7 +34403,7 @@
         <v>351</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I17" s="59">
         <v>3662.0295999999998</v>
@@ -35363,25 +35475,25 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G11 G13:G1048576">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L44 L2:L24">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L50">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35392,10 +35504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35404,13 +35516,13 @@
     <col min="3" max="3" width="15.85546875" style="61" customWidth="1"/>
     <col min="4" max="5" width="12.42578125" style="61" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="61" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="92" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="88" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="57"/>
     <col min="10" max="10" width="9.140625" style="61"/>
-    <col min="11" max="12" width="9.140625" style="97"/>
+    <col min="11" max="12" width="9.140625" style="92"/>
     <col min="13" max="13" width="11.5703125" style="61" customWidth="1"/>
-    <col min="14" max="14" width="55.42578125" style="104" customWidth="1"/>
+    <col min="14" max="14" width="55.42578125" style="97" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="75">
@@ -35421,16 +35533,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D1" s="81" t="s">
         <v>964</v>
       </c>
       <c r="E1" s="81" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>1370</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>1371</v>
       </c>
       <c r="G1" s="84" t="s">
         <v>348</v>
@@ -35444,42 +35556,60 @@
       <c r="J1" s="81" t="s">
         <v>959</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="98"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="81" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="88"/>
+        <v>1393</v>
+      </c>
+      <c r="C2" s="58">
+        <v>144222.85999999999</v>
+      </c>
+      <c r="D2" s="58">
+        <v>52373.96875</v>
+      </c>
+      <c r="E2" s="58">
+        <v>-2694.9340000000002</v>
+      </c>
+      <c r="F2" s="58">
+        <v>4.66</v>
+      </c>
+      <c r="G2" s="85">
+        <v>0.17088200000000001</v>
+      </c>
       <c r="H2" s="13" t="s">
         <v>351</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>1374</v>
+        <v>1392</v>
       </c>
       <c r="J2" s="58">
-        <v>8870.3217000000004</v>
-      </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="99"/>
+        <v>8870.0158549999996</v>
+      </c>
+      <c r="K2" s="89">
+        <v>0.186</v>
+      </c>
+      <c r="L2" s="89">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M2" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="3" spans="1:14" s="26" customFormat="1">
       <c r="B3" s="26" t="s">
@@ -35504,7 +35634,7 @@
         <v>349</v>
       </c>
       <c r="I3" s="77" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="J3" s="78" t="s">
         <v>336</v>
@@ -35518,7 +35648,7 @@
       <c r="M3" s="27">
         <v>3.6249999999999998E-2</v>
       </c>
-      <c r="N3" s="100"/>
+      <c r="N3" s="94"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="30">
       <c r="B4" s="32" t="s">
@@ -35543,7 +35673,7 @@
         <v>351</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="J4" s="59">
         <v>3662.0295999999998</v>
@@ -35557,308 +35687,291 @@
       <c r="M4" s="17">
         <v>0.17</v>
       </c>
-      <c r="N4" s="101" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="23" customFormat="1">
-      <c r="B5" s="21" t="s">
+      <c r="N4" s="95" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="16" customFormat="1">
+      <c r="B5" s="32" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-2676.92</v>
+      </c>
+      <c r="D5" s="17">
+        <v>-2677.3125</v>
+      </c>
+      <c r="E5" s="17">
+        <v>-2677.3125</v>
+      </c>
+      <c r="F5" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="G5" s="71">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="N5" s="95"/>
+    </row>
+    <row r="6" spans="1:14" s="23" customFormat="1">
+      <c r="B6" s="21" t="s">
         <v>1362</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C6" s="60">
         <v>-2706.67</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D6" s="60">
         <v>-2706.8449999999998</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E6" s="60">
         <v>-2706.8449999999998</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F6" s="60">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G5" s="89">
+      <c r="G6" s="86">
         <v>0.66900000000000004</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I6" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="90">
+        <v>0.224</v>
+      </c>
+      <c r="L6" s="90">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M6" s="60">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="N6" s="96"/>
+    </row>
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="30">
+      <c r="A8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C8" s="58">
+        <v>74722.289999999994</v>
+      </c>
+      <c r="D8" s="58">
+        <v>7929.3675000000003</v>
+      </c>
+      <c r="E8" s="58">
+        <v>-1612.7756999999999</v>
+      </c>
+      <c r="F8" s="58">
+        <v>10.61</v>
+      </c>
+      <c r="G8" s="85">
+        <v>6.3192999999999999E-2</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" s="54" t="s">
         <v>1368</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J8" s="58">
+        <v>4612.9467070000001</v>
+      </c>
+      <c r="K8" s="89">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L8" s="89">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M8" s="58">
+        <v>0</v>
+      </c>
+      <c r="N8" s="93" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="28" customFormat="1">
+      <c r="B9" s="26" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C9" s="78">
+        <v>-1623.11</v>
+      </c>
+      <c r="D9" s="103">
+        <v>-1624.67875</v>
+      </c>
+      <c r="E9" s="103">
+        <v>-1624.67875</v>
+      </c>
+      <c r="F9" s="78">
+        <v>6.77</v>
+      </c>
+      <c r="G9" s="87">
+        <v>5.3823999999999997E-2</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J9" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="94">
-        <v>0.224</v>
-      </c>
-      <c r="L5" s="94">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="M5" s="60">
-        <v>0.16875000000000001</v>
-      </c>
-      <c r="N5" s="102"/>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="30">
-      <c r="A7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="K9" s="91">
+        <v>0.248</v>
+      </c>
+      <c r="L9" s="91">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M9" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="18" customFormat="1">
+      <c r="B10" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C10" s="59">
+        <v>-1614.56</v>
+      </c>
+      <c r="D10" s="59">
+        <v>-1615.74875</v>
+      </c>
+      <c r="E10" s="59">
+        <v>-1615.74875</v>
+      </c>
+      <c r="F10" s="59">
+        <v>4.21</v>
+      </c>
+      <c r="G10" s="105">
+        <v>3.8321000000000001E-2</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="106">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="106">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M10" s="59">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="N10" s="107"/>
+    </row>
+    <row r="11" spans="1:14" s="18" customFormat="1">
+      <c r="B11" s="16" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="105"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="107"/>
+    </row>
+    <row r="12" spans="1:14" s="23" customFormat="1" ht="30">
+      <c r="B12" s="21" t="s">
         <v>1366</v>
       </c>
-      <c r="C7" s="58">
-        <v>74722.289999999994</v>
-      </c>
-      <c r="D7" s="58">
-        <v>7929.3675000000003</v>
-      </c>
-      <c r="E7" s="58">
-        <v>-1612.7756999999999</v>
-      </c>
-      <c r="F7" s="58">
-        <v>10.61</v>
-      </c>
-      <c r="G7" s="88">
-        <v>6.3192999999999999E-2</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="C12" s="60">
+        <v>50167.29</v>
+      </c>
+      <c r="D12" s="60">
+        <v>4856.5349999999999</v>
+      </c>
+      <c r="E12" s="60">
+        <v>-1616.7271430000001</v>
+      </c>
+      <c r="F12" s="60">
+        <v>7.46</v>
+      </c>
+      <c r="G12" s="86">
+        <v>5.9514999999999998E-2</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>1369</v>
-      </c>
-      <c r="J7" s="58">
-        <v>4612.9467070000001</v>
-      </c>
-      <c r="K7" s="93">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="L7" s="93">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M7" s="58">
-        <v>0</v>
-      </c>
-      <c r="N7" s="99" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="28" customFormat="1">
-      <c r="B8" s="26" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C8" s="78">
-        <v>-1623.11</v>
-      </c>
-      <c r="D8" s="110">
-        <v>-1624.67875</v>
-      </c>
-      <c r="E8" s="110">
-        <v>-1624.67875</v>
-      </c>
-      <c r="F8" s="78">
-        <v>6.77</v>
-      </c>
-      <c r="G8" s="90">
-        <v>5.3823999999999997E-2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="I8" s="77" t="s">
+      <c r="I12" s="56" t="s">
         <v>1368</v>
       </c>
-      <c r="J8" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="K8" s="95">
-        <v>0.248</v>
-      </c>
-      <c r="L8" s="95">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M8" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="85" customFormat="1">
-      <c r="B9" s="86" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C9" s="87">
-        <v>-1614.56</v>
-      </c>
-      <c r="D9" s="87">
-        <v>-1615.74875</v>
-      </c>
-      <c r="E9" s="87">
-        <v>-1615.74875</v>
-      </c>
-      <c r="F9" s="87">
-        <v>4.21</v>
-      </c>
-      <c r="G9" s="91">
-        <v>3.8321000000000001E-2</v>
-      </c>
-      <c r="H9" s="85" t="s">
-        <v>349</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>1368</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="K9" s="96">
-        <v>0.25</v>
-      </c>
-      <c r="L9" s="96">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M9" s="87">
-        <v>4.1250000000000002E-2</v>
-      </c>
-      <c r="N9" s="103"/>
-    </row>
-    <row r="10" spans="1:14" s="23" customFormat="1" ht="30">
-      <c r="B10" s="21" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C10" s="60">
-        <v>50167.29</v>
-      </c>
-      <c r="D10" s="60">
-        <v>4856.5349999999999</v>
-      </c>
-      <c r="E10" s="60">
-        <v>-1616.7271430000001</v>
-      </c>
-      <c r="F10" s="60">
-        <v>7.46</v>
-      </c>
-      <c r="G10" s="89">
-        <v>5.9514999999999998E-2</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>1369</v>
-      </c>
-      <c r="J10" s="60">
+      <c r="J12" s="60">
         <v>3104.944</v>
       </c>
-      <c r="K10" s="94">
+      <c r="K12" s="90">
         <v>0.249</v>
       </c>
-      <c r="L10" s="94">
+      <c r="L12" s="90">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M12" s="60">
         <v>0.04</v>
       </c>
-      <c r="N10" s="102" t="s">
-        <v>1372</v>
+      <c r="N12" s="96" t="s">
+        <v>1371</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",H1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"no"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="M4:M5">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
-      <formula>"no"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M5 M7:M10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="M2:M6 M8:M12">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"no"</formula>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" text="no" id="{79616BB0-6079-4B55-9415-A1C246267DA1}">
-            <xm:f>NOT(ISERROR(SEARCH("no",'Run outputs'!G5)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" text="no" id="{79616BB0-6079-4B55-9415-A1C246267DA1}">
-            <xm:f>NOT(ISERROR(SEARCH("no",'Run outputs'!G3)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -35867,7 +35980,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35877,7 +35990,7 @@
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="6" width="12.85546875" style="33" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="98" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="33"/>
     <col min="12" max="12" width="10.140625" style="33" bestFit="1" customWidth="1"/>
@@ -35902,15 +36015,15 @@
         <v>27</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="98" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="33" t="s">
@@ -35935,10 +36048,10 @@
         <v>962</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Q1" s="33" t="s">
         <v>1381</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="35" customFormat="1" ht="30" customHeight="1">
@@ -35946,10 +36059,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1365</v>
+        <v>1393</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D2" s="35">
         <v>1</v>
@@ -35961,9 +36074,9 @@
         <v>225</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H2" s="107">
+        <v>1385</v>
+      </c>
+      <c r="H2" s="100">
         <v>5000000</v>
       </c>
       <c r="I2" s="35">
@@ -35988,10 +36101,10 @@
         <v>0.1</v>
       </c>
       <c r="P2" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q2" s="35" t="s">
         <v>1382</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="49" customFormat="1" ht="45">
@@ -36011,9 +36124,9 @@
         <v>225</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H3" s="109">
+        <v>1385</v>
+      </c>
+      <c r="H3" s="102">
         <v>5000000</v>
       </c>
       <c r="I3" s="49">
@@ -36038,10 +36151,10 @@
         <v>0.1</v>
       </c>
       <c r="P3" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q3" s="49" t="s">
         <v>1382</v>
-      </c>
-      <c r="Q3" s="49" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="38" customFormat="1" ht="30">
@@ -36049,7 +36162,7 @@
         <v>1361</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D4" s="38">
         <v>2</v>
@@ -36061,9 +36174,9 @@
         <v>225</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H4" s="106">
+        <v>1385</v>
+      </c>
+      <c r="H4" s="99">
         <v>5000000</v>
       </c>
       <c r="I4" s="38">
@@ -36088,18 +36201,18 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="38" customFormat="1" ht="45">
       <c r="B5" s="38" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D5" s="38">
         <v>2</v>
@@ -36111,9 +36224,9 @@
         <v>225</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H5" s="106">
+        <v>1385</v>
+      </c>
+      <c r="H5" s="99">
         <v>5000000</v>
       </c>
       <c r="I5" s="38">
@@ -36138,10 +36251,10 @@
         <v>0.1</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="42" customFormat="1" ht="45">
@@ -36149,7 +36262,7 @@
         <v>1362</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D6" s="42">
         <v>2</v>
@@ -36161,9 +36274,9 @@
         <v>225</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H6" s="108">
+        <v>1385</v>
+      </c>
+      <c r="H6" s="101">
         <v>5000000</v>
       </c>
       <c r="I6" s="42">
@@ -36188,10 +36301,10 @@
         <v>0.1</v>
       </c>
       <c r="P6" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q6" s="42" t="s">
         <v>1382</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="45">
@@ -36199,10 +36312,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D8" s="35">
         <v>1</v>
@@ -36214,9 +36327,9 @@
         <v>115</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H8" s="107">
+        <v>1385</v>
+      </c>
+      <c r="H8" s="100">
         <v>5000000</v>
       </c>
       <c r="I8" s="35">
@@ -36241,10 +36354,10 @@
         <v>0.1</v>
       </c>
       <c r="P8" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q8" s="35" t="s">
         <v>1382</v>
-      </c>
-      <c r="Q8" s="35" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="49" customFormat="1" ht="45">
@@ -36264,9 +36377,9 @@
         <v>115</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H9" s="109">
+        <v>1385</v>
+      </c>
+      <c r="H9" s="102">
         <v>5000000</v>
       </c>
       <c r="I9" s="49">
@@ -36291,10 +36404,10 @@
         <v>0.1</v>
       </c>
       <c r="P9" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q9" s="49" t="s">
         <v>1382</v>
-      </c>
-      <c r="Q9" s="49" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="38" customFormat="1" ht="30" customHeight="1">
@@ -36302,7 +36415,7 @@
         <v>1364</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D10" s="38">
         <v>2</v>
@@ -36314,9 +36427,9 @@
         <v>115</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H10" s="106">
+        <v>1385</v>
+      </c>
+      <c r="H10" s="99">
         <v>5000000</v>
       </c>
       <c r="I10" s="38">
@@ -36341,18 +36454,18 @@
         <v>0.1</v>
       </c>
       <c r="P10" s="39" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q10" s="38" t="s">
         <v>1382</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="45">
       <c r="B11" s="38" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D11" s="38">
         <v>2</v>
@@ -36364,9 +36477,9 @@
         <v>115</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H11" s="106">
+        <v>1385</v>
+      </c>
+      <c r="H11" s="99">
         <v>5000000</v>
       </c>
       <c r="I11" s="38">
@@ -36391,18 +36504,18 @@
         <v>0.1</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="Q11" s="38" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="42" customFormat="1" ht="45">
       <c r="B12" s="42" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D12" s="42">
         <v>2</v>
@@ -36414,9 +36527,9 @@
         <v>115</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H12" s="108">
+        <v>1385</v>
+      </c>
+      <c r="H12" s="101">
         <v>5000000</v>
       </c>
       <c r="I12" s="42">
@@ -36441,10 +36554,10 @@
         <v>0.1</v>
       </c>
       <c r="P12" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q12" s="42" t="s">
         <v>1382</v>
-      </c>
-      <c r="Q12" s="42" t="s">
-        <v>1384</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="1395">
   <si>
     <t>data set</t>
   </si>
@@ -31234,229 +31234,19 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -33850,10 +33640,10 @@
       <c r="I1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="104"/>
+      <c r="K1" s="107"/>
       <c r="L1" s="69" t="s">
         <v>976</v>
       </c>
@@ -35504,10 +35294,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35556,10 +35349,10 @@
       <c r="J1" s="81" t="s">
         <v>959</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="104"/>
+      <c r="L1" s="107"/>
       <c r="M1" s="81" t="s">
         <v>1375</v>
       </c>
@@ -35867,7 +35660,7 @@
       <c r="F10" s="59">
         <v>4.21</v>
       </c>
-      <c r="G10" s="105">
+      <c r="G10" s="104">
         <v>3.8321000000000001E-2</v>
       </c>
       <c r="H10" s="18" t="s">
@@ -35879,31 +35672,55 @@
       <c r="J10" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="K10" s="106">
+      <c r="K10" s="105">
         <v>0.25</v>
       </c>
-      <c r="L10" s="106">
+      <c r="L10" s="105">
         <v>0.84699999999999998</v>
       </c>
       <c r="M10" s="59">
         <v>4.1250000000000002E-2</v>
       </c>
-      <c r="N10" s="107"/>
+      <c r="N10" s="106"/>
     </row>
     <row r="11" spans="1:14" s="18" customFormat="1">
       <c r="B11" s="16" t="s">
         <v>1389</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="105"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="107"/>
+      <c r="C11" s="59">
+        <v>-1603.43</v>
+      </c>
+      <c r="D11" s="59">
+        <v>-1606.2725</v>
+      </c>
+      <c r="E11" s="59">
+        <v>-1606.27</v>
+      </c>
+      <c r="F11" s="59">
+        <v>9.08</v>
+      </c>
+      <c r="G11" s="104">
+        <v>4.5101000000000002E-2</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K11" s="105">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="L11" s="105">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="M11" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="N11" s="106"/>
     </row>
     <row r="12" spans="1:14" s="23" customFormat="1" ht="30">
       <c r="B12" s="21" t="s">
@@ -35971,7 +35788,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="1398">
   <si>
     <t>data set</t>
   </si>
@@ -30843,6 +30843,15 @@
   </si>
   <si>
     <t>pos runs: 4, 7, 8. each v low dirichlet(ratemultiplier) and v high slider(ratemultiplier)=100% in last 100. chain swap = 0.00</t>
+  </si>
+  <si>
+    <t>weev_devFPexp_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_neotransFPexp_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_bodyFPexp_ss.nex</t>
   </si>
 </sst>
 </file>
@@ -35297,10 +35306,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35404,380 +35413,566 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="26" customFormat="1">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B3" s="11"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="85"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="93"/>
+    </row>
+    <row r="4" spans="1:14" s="26" customFormat="1">
+      <c r="B4" s="26" t="s">
         <v>1360</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C4" s="27">
         <v>-2708.42</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D4" s="27">
         <v>-2708.7037500000001</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E4" s="27">
         <v>-2708.7</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F4" s="27">
         <v>2.13</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G4" s="74">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H4" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I4" s="77" t="s">
         <v>1367</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J4" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K4" s="29">
         <v>0.216</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L4" s="29">
         <v>0.8</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M4" s="27">
         <v>3.6249999999999998E-2</v>
       </c>
-      <c r="N3" s="94"/>
-    </row>
-    <row r="4" spans="1:14" s="16" customFormat="1" ht="30">
-      <c r="B4" s="32" t="s">
+      <c r="N4" s="94"/>
+    </row>
+    <row r="5" spans="1:14" s="26" customFormat="1">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="94"/>
+    </row>
+    <row r="6" spans="1:14" s="16" customFormat="1" ht="30">
+      <c r="B6" s="32" t="s">
         <v>1361</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C6" s="17">
         <v>59366.05</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D6" s="17">
         <v>5078.4487499999996</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E6" s="17">
         <v>-2677.22</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F6" s="17">
         <v>1.92</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G6" s="71">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I6" s="55" t="s">
         <v>1368</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J6" s="59">
         <v>3662.0295999999998</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K6" s="19">
         <v>0.221</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L6" s="19">
         <v>0.80700000000000005</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M6" s="17">
         <v>0.17</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N6" s="95" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="16" customFormat="1">
-      <c r="B5" s="32" t="s">
+    <row r="7" spans="1:14" s="16" customFormat="1">
+      <c r="B7" s="32" t="s">
         <v>1390</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C7" s="16">
         <v>-2676.92</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D7" s="17">
         <v>-2677.3125</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E7" s="17">
         <v>-2677.3125</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F7" s="17">
         <v>2.8</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G7" s="71">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H7" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I7" s="55" t="s">
         <v>1367</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J7" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K7" s="19">
         <v>0.23100000000000001</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L7" s="19">
         <v>0.80700000000000005</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M7" s="17">
         <v>0.17</v>
       </c>
-      <c r="N5" s="95"/>
-    </row>
-    <row r="6" spans="1:14" s="23" customFormat="1">
-      <c r="B6" s="21" t="s">
+      <c r="N7" s="95"/>
+    </row>
+    <row r="8" spans="1:14" s="16" customFormat="1">
+      <c r="B8" s="32"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="95"/>
+    </row>
+    <row r="9" spans="1:14" s="23" customFormat="1">
+      <c r="B9" s="21" t="s">
         <v>1362</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C9" s="60">
         <v>-2706.67</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D9" s="60">
         <v>-2706.8449999999998</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E9" s="60">
         <v>-2706.8449999999998</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F9" s="60">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G9" s="86">
         <v>0.66900000000000004</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I9" s="56" t="s">
         <v>1367</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J9" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K9" s="90">
         <v>0.224</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L9" s="90">
         <v>0.79900000000000004</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M9" s="60">
         <v>0.16875000000000001</v>
       </c>
-      <c r="N6" s="96"/>
-    </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="30">
-      <c r="A8" s="13" t="s">
+      <c r="N9" s="96"/>
+    </row>
+    <row r="10" spans="1:14" s="23" customFormat="1">
+      <c r="B10" s="21"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="86"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="96"/>
+    </row>
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="30">
+      <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>1365</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C12" s="58">
         <v>74722.289999999994</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D12" s="58">
         <v>7929.3675000000003</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E12" s="58">
         <v>-1612.7756999999999</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F12" s="58">
         <v>10.61</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G12" s="85">
         <v>6.3192999999999999E-2</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I12" s="54" t="s">
         <v>1368</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J12" s="58">
         <v>4612.9467070000001</v>
       </c>
-      <c r="K8" s="89">
+      <c r="K12" s="89">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L12" s="89">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M12" s="58">
         <v>0</v>
       </c>
-      <c r="N8" s="93" t="s">
+      <c r="N12" s="93" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="28" customFormat="1">
-      <c r="B9" s="26" t="s">
+    <row r="13" spans="1:14" s="13" customFormat="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="85"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="93"/>
+    </row>
+    <row r="14" spans="1:14" s="28" customFormat="1">
+      <c r="B14" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C14" s="78">
         <v>-1623.11</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D14" s="103">
         <v>-1624.67875</v>
       </c>
-      <c r="E9" s="103">
+      <c r="E14" s="103">
         <v>-1624.67875</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F14" s="78">
         <v>6.77</v>
       </c>
-      <c r="G9" s="87">
+      <c r="G14" s="87">
         <v>5.3823999999999997E-2</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H14" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I14" s="77" t="s">
         <v>1367</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J14" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="K9" s="91">
+      <c r="K14" s="91">
         <v>0.248</v>
       </c>
-      <c r="L9" s="91">
+      <c r="L14" s="91">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M9" s="78">
+      <c r="M14" s="78">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="18" customFormat="1">
-      <c r="B10" s="16" t="s">
+    <row r="15" spans="1:14" s="28" customFormat="1">
+      <c r="B15" s="26" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C15" s="78">
+        <v>-1623.37</v>
+      </c>
+      <c r="D15" s="103">
+        <v>-1624.7175</v>
+      </c>
+      <c r="E15" s="103">
+        <v>-1624.7175</v>
+      </c>
+      <c r="F15" s="78">
+        <v>5.43</v>
+      </c>
+      <c r="G15" s="87">
+        <v>5.8432999999999999E-2</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K15" s="91">
+        <v>0.252</v>
+      </c>
+      <c r="L15" s="91">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M15" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="18" customFormat="1">
+      <c r="B16" s="16" t="s">
         <v>1364</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C16" s="59">
         <v>-1614.56</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D16" s="59">
         <v>-1615.74875</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E16" s="59">
         <v>-1615.74875</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F16" s="59">
         <v>4.21</v>
       </c>
-      <c r="G10" s="104">
+      <c r="G16" s="104">
         <v>3.8321000000000001E-2</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>1367</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J16" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="K10" s="105">
+      <c r="K16" s="105">
         <v>0.25</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L16" s="105">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M16" s="59">
         <v>4.1250000000000002E-2</v>
       </c>
-      <c r="N10" s="106"/>
-    </row>
-    <row r="11" spans="1:14" s="18" customFormat="1">
-      <c r="B11" s="16" t="s">
+      <c r="N16" s="106"/>
+    </row>
+    <row r="17" spans="2:14" s="18" customFormat="1">
+      <c r="B17" s="16" t="s">
         <v>1389</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C17" s="59">
         <v>-1603.43</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D17" s="59">
         <v>-1606.2725</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E17" s="59">
         <v>-1606.27</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F17" s="59">
         <v>9.08</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G17" s="104">
         <v>4.5101000000000002E-2</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H17" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>1367</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J17" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K17" s="105">
         <v>0.25800000000000001</v>
       </c>
-      <c r="L11" s="105">
+      <c r="L17" s="105">
         <v>0.83599999999999997</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M17" s="59">
         <v>0.03</v>
       </c>
-      <c r="N11" s="106"/>
-    </row>
-    <row r="12" spans="1:14" s="23" customFormat="1" ht="30">
-      <c r="B12" s="21" t="s">
+      <c r="N17" s="106"/>
+    </row>
+    <row r="18" spans="2:14" s="18" customFormat="1">
+      <c r="B18" s="16" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C18" s="59">
+        <v>-1604.77</v>
+      </c>
+      <c r="D18" s="59">
+        <v>-1607.6487500000001</v>
+      </c>
+      <c r="E18" s="59">
+        <v>-1607.6487500000001</v>
+      </c>
+      <c r="F18" s="59">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G18" s="104">
+        <v>4.367E-2</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="105">
+        <v>0.254</v>
+      </c>
+      <c r="L18" s="105">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="M18" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="N18" s="106"/>
+    </row>
+    <row r="19" spans="2:14" s="23" customFormat="1" ht="30">
+      <c r="B19" s="21" t="s">
         <v>1366</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C19" s="60">
         <v>50167.29</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D19" s="60">
         <v>4856.5349999999999</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E19" s="60">
         <v>-1616.7271430000001</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F19" s="60">
         <v>7.46</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G19" s="86">
         <v>5.9514999999999998E-2</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H19" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I19" s="56" t="s">
         <v>1368</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J19" s="60">
         <v>3104.944</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K19" s="90">
         <v>0.249</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L19" s="90">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M19" s="60">
         <v>0.04</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N19" s="96" t="s">
         <v>1371</v>
       </c>
+    </row>
+    <row r="20" spans="2:14" s="23" customFormat="1">
+      <c r="B20" s="21" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C20" s="60">
+        <v>-1615.06</v>
+      </c>
+      <c r="D20" s="60">
+        <v>-1617.5360000000001</v>
+      </c>
+      <c r="E20" s="60">
+        <v>-1617.5360000000001</v>
+      </c>
+      <c r="F20" s="60">
+        <v>8.77</v>
+      </c>
+      <c r="G20" s="86">
+        <v>4.0053999999999999E-2</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J20" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K20" s="90">
+        <v>0.246</v>
+      </c>
+      <c r="L20" s="90">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M20" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="N20" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M3">
+  <conditionalFormatting sqref="M4:M5">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M5">
+  <conditionalFormatting sqref="M6:M8">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M6 M8:M12">
+  <conditionalFormatting sqref="M2:M10 M12:M20">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="1403">
   <si>
     <t>data set</t>
   </si>
@@ -30852,6 +30852,21 @@
   </si>
   <si>
     <t>weev_bodyFPexp_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_unpartFPexp_ss.nex</t>
+  </si>
+  <si>
+    <t>dirichlet(ratemultiplier) = 1.6%</t>
+  </si>
+  <si>
+    <t>dirichlet(ratemultiplier) = 0.1%</t>
+  </si>
+  <si>
+    <t>hyo_neotransFPexp_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_devFPexp_ss.nex</t>
   </si>
 </sst>
 </file>
@@ -35309,7 +35324,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35324,7 +35339,7 @@
     <col min="10" max="10" width="9.140625" style="61"/>
     <col min="11" max="12" width="9.140625" style="92"/>
     <col min="13" max="13" width="11.5703125" style="61" customWidth="1"/>
-    <col min="14" max="14" width="55.42578125" style="97" customWidth="1"/>
+    <col min="14" max="14" width="67.42578125" style="97" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="75">
@@ -35414,18 +35429,45 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="11"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="85"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="93"/>
+      <c r="B3" s="11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C3" s="58">
+        <v>-2692.39</v>
+      </c>
+      <c r="D3" s="58">
+        <v>-2692.80375</v>
+      </c>
+      <c r="E3" s="58">
+        <v>-2692.80375</v>
+      </c>
+      <c r="F3" s="58">
+        <v>3.39</v>
+      </c>
+      <c r="G3" s="85">
+        <v>4.3584999999999999E-2</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="K3" s="89">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="L3" s="89">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M3" s="58">
+        <v>0.40875</v>
+      </c>
+      <c r="N3" s="93" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="26" customFormat="1">
       <c r="B4" s="26" t="s">
@@ -35467,17 +35509,39 @@
       <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14" s="26" customFormat="1">
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="27"/>
+      <c r="C5" s="27">
+        <v>-2709.1</v>
+      </c>
+      <c r="D5" s="27">
+        <v>-2709.2562499999999</v>
+      </c>
+      <c r="E5" s="27">
+        <v>-2709.2562499999999</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1.89</v>
+      </c>
+      <c r="G5" s="74">
+        <v>9.1926999999999995E-2</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0.216</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="27">
+        <v>2.75E-2</v>
+      </c>
       <c r="N5" s="94"/>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1" ht="30">
@@ -35561,17 +35625,42 @@
       <c r="N7" s="95"/>
     </row>
     <row r="8" spans="1:14" s="16" customFormat="1">
-      <c r="B8" s="32"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="17"/>
+      <c r="B8" s="32" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C8" s="16">
+        <v>-2676.15</v>
+      </c>
+      <c r="D8" s="17">
+        <v>-2676.75</v>
+      </c>
+      <c r="E8" s="17">
+        <v>-2676.75</v>
+      </c>
+      <c r="F8" s="17">
+        <v>3.25</v>
+      </c>
+      <c r="G8" s="71">
+        <v>5.4052000000000003E-2</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0.16750000000000001</v>
+      </c>
       <c r="N8" s="95"/>
     </row>
     <row r="9" spans="1:14" s="23" customFormat="1">
@@ -35614,17 +35703,42 @@
       <c r="N9" s="96"/>
     </row>
     <row r="10" spans="1:14" s="23" customFormat="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="86"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="60"/>
+      <c r="B10" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C10" s="60">
+        <v>-2706.65</v>
+      </c>
+      <c r="D10" s="60">
+        <v>-2706.82375</v>
+      </c>
+      <c r="E10" s="60">
+        <v>-2706.82375</v>
+      </c>
+      <c r="F10" s="60">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G10" s="86">
+        <v>7.4943999999999997E-2</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="90">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L10" s="90">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M10" s="60">
+        <v>0.17125000000000001</v>
+      </c>
       <c r="N10" s="96"/>
     </row>
     <row r="12" spans="1:14" s="13" customFormat="1" ht="30">
@@ -35673,17 +35787,42 @@
     </row>
     <row r="13" spans="1:14" s="13" customFormat="1">
       <c r="B13" s="11"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="85"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="93"/>
+      <c r="C13" s="58">
+        <v>-1604.91</v>
+      </c>
+      <c r="D13" s="58">
+        <v>-1607.35625</v>
+      </c>
+      <c r="E13" s="58">
+        <v>-1607.35625</v>
+      </c>
+      <c r="F13" s="58">
+        <v>9.66</v>
+      </c>
+      <c r="G13" s="85">
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="K13" s="89">
+        <v>0.254</v>
+      </c>
+      <c r="L13" s="89">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M13" s="58">
+        <v>0.25624999999999998</v>
+      </c>
+      <c r="N13" s="93" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="28" customFormat="1">
       <c r="B14" s="26" t="s">
@@ -35878,7 +36017,7 @@
       </c>
       <c r="N18" s="106"/>
     </row>
-    <row r="19" spans="2:14" s="23" customFormat="1" ht="30">
+    <row r="19" spans="2:14" s="23" customFormat="1">
       <c r="B19" s="21" t="s">
         <v>1366</v>
       </c>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="1415">
   <si>
     <t>data set</t>
   </si>
@@ -30867,6 +30867,42 @@
   </si>
   <si>
     <t>hyo_devFPexp_ss.nex</t>
+  </si>
+  <si>
+    <t>unconstrained: exp(2.941)</t>
+  </si>
+  <si>
+    <t>unconstrained: exp(0.5)</t>
+  </si>
+  <si>
+    <t>hyo_bodyFPexp_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_unpartFPexp_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_unpartFPexpdownT_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_bodyFPexpdownT_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_devFPexpdownT_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_neotransFPexpdownT_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_unpartFPexpdownT_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_bodyFPexpdownT_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_neotransFPexpdownT_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_devFPexpdownT_ss.nex</t>
   </si>
 </sst>
 </file>
@@ -35321,10 +35357,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35469,60 +35505,40 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="26" customFormat="1">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:14" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="85"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="93"/>
+    </row>
+    <row r="5" spans="1:14" s="26" customFormat="1">
+      <c r="B5" s="26" t="s">
         <v>1360</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C5" s="27">
         <v>-2708.42</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D5" s="27">
         <v>-2708.7037500000001</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E5" s="27">
         <v>-2708.7</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F5" s="27">
         <v>2.13</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G5" s="74">
         <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J4" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="K4" s="29">
-        <v>0.216</v>
-      </c>
-      <c r="L4" s="29">
-        <v>0.8</v>
-      </c>
-      <c r="M4" s="27">
-        <v>3.6249999999999998E-2</v>
-      </c>
-      <c r="N4" s="94"/>
-    </row>
-    <row r="5" spans="1:14" s="26" customFormat="1">
-      <c r="C5" s="27">
-        <v>-2709.1</v>
-      </c>
-      <c r="D5" s="27">
-        <v>-2709.2562499999999</v>
-      </c>
-      <c r="E5" s="27">
-        <v>-2709.2562499999999</v>
-      </c>
-      <c r="F5" s="27">
-        <v>1.89</v>
-      </c>
-      <c r="G5" s="74">
-        <v>9.1926999999999995E-2</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>349</v>
@@ -35540,578 +35556,730 @@
         <v>0.8</v>
       </c>
       <c r="M5" s="27">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="N5" s="94"/>
+    </row>
+    <row r="6" spans="1:14" s="26" customFormat="1">
+      <c r="B6" s="26" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C6" s="27">
+        <v>-2709.1</v>
+      </c>
+      <c r="D6" s="27">
+        <v>-2709.2562499999999</v>
+      </c>
+      <c r="E6" s="27">
+        <v>-2709.2562499999999</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1.89</v>
+      </c>
+      <c r="G6" s="74">
+        <v>9.1926999999999995E-2</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0.216</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="27">
         <v>2.75E-2</v>
       </c>
-      <c r="N5" s="94"/>
-    </row>
-    <row r="6" spans="1:14" s="16" customFormat="1" ht="30">
-      <c r="B6" s="32" t="s">
+      <c r="N6" s="94"/>
+    </row>
+    <row r="7" spans="1:14" s="26" customFormat="1">
+      <c r="B7" s="26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="94"/>
+    </row>
+    <row r="8" spans="1:14" s="16" customFormat="1" ht="30">
+      <c r="B8" s="32" t="s">
         <v>1361</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C8" s="17">
         <v>59366.05</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D8" s="17">
         <v>5078.4487499999996</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E8" s="17">
         <v>-2677.22</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F8" s="17">
         <v>1.92</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G8" s="71">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I8" s="55" t="s">
         <v>1368</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J8" s="59">
         <v>3662.0295999999998</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K8" s="19">
         <v>0.221</v>
-      </c>
-      <c r="L6" s="19">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="N6" s="95" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="16" customFormat="1">
-      <c r="B7" s="32" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C7" s="16">
-        <v>-2676.92</v>
-      </c>
-      <c r="D7" s="17">
-        <v>-2677.3125</v>
-      </c>
-      <c r="E7" s="17">
-        <v>-2677.3125</v>
-      </c>
-      <c r="F7" s="17">
-        <v>2.8</v>
-      </c>
-      <c r="G7" s="71">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J7" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="N7" s="95"/>
-    </row>
-    <row r="8" spans="1:14" s="16" customFormat="1">
-      <c r="B8" s="32" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C8" s="16">
-        <v>-2676.15</v>
-      </c>
-      <c r="D8" s="17">
-        <v>-2676.75</v>
-      </c>
-      <c r="E8" s="17">
-        <v>-2676.75</v>
-      </c>
-      <c r="F8" s="17">
-        <v>3.25</v>
-      </c>
-      <c r="G8" s="71">
-        <v>5.4052000000000003E-2</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0.23100000000000001</v>
       </c>
       <c r="L8" s="19">
         <v>0.80700000000000005</v>
       </c>
       <c r="M8" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="N8" s="95" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="16" customFormat="1">
+      <c r="B9" s="32" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C9" s="16">
+        <v>-2676.92</v>
+      </c>
+      <c r="D9" s="17">
+        <v>-2677.3125</v>
+      </c>
+      <c r="E9" s="17">
+        <v>-2677.3125</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="G9" s="71">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="N9" s="95"/>
+    </row>
+    <row r="10" spans="1:14" s="16" customFormat="1">
+      <c r="B10" s="32" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C10" s="16">
+        <v>-2676.15</v>
+      </c>
+      <c r="D10" s="17">
+        <v>-2676.75</v>
+      </c>
+      <c r="E10" s="17">
+        <v>-2676.75</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3.25</v>
+      </c>
+      <c r="G10" s="71">
+        <v>5.4052000000000003E-2</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M10" s="17">
         <v>0.16750000000000001</v>
       </c>
-      <c r="N8" s="95"/>
-    </row>
-    <row r="9" spans="1:14" s="23" customFormat="1">
-      <c r="B9" s="21" t="s">
+      <c r="N10" s="95"/>
+    </row>
+    <row r="11" spans="1:14" s="16" customFormat="1">
+      <c r="B11" s="32" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="95"/>
+    </row>
+    <row r="12" spans="1:14" s="23" customFormat="1">
+      <c r="B12" s="21" t="s">
         <v>1362</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C12" s="60">
         <v>-2706.67</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D12" s="60">
         <v>-2706.8449999999998</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E12" s="60">
         <v>-2706.8449999999998</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F12" s="60">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G12" s="86">
         <v>0.66900000000000004</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H12" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I12" s="56" t="s">
         <v>1367</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J12" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K12" s="90">
         <v>0.224</v>
       </c>
-      <c r="L9" s="90">
+      <c r="L12" s="90">
         <v>0.79900000000000004</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M12" s="60">
         <v>0.16875000000000001</v>
       </c>
-      <c r="N9" s="96"/>
-    </row>
-    <row r="10" spans="1:14" s="23" customFormat="1">
-      <c r="B10" s="21" t="s">
+      <c r="N12" s="96"/>
+    </row>
+    <row r="13" spans="1:14" s="23" customFormat="1">
+      <c r="B13" s="21" t="s">
         <v>1402</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C13" s="60">
         <v>-2706.65</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D13" s="60">
         <v>-2706.82375</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E13" s="60">
         <v>-2706.82375</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F13" s="60">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G13" s="86">
         <v>7.4943999999999997E-2</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I13" s="56" t="s">
         <v>1367</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J13" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K13" s="90">
         <v>0.22500000000000001</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L13" s="90">
         <v>0.79900000000000004</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M13" s="60">
         <v>0.17125000000000001</v>
       </c>
-      <c r="N10" s="96"/>
-    </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="30">
-      <c r="A12" s="13" t="s">
+      <c r="N13" s="96"/>
+    </row>
+    <row r="14" spans="1:14" s="23" customFormat="1">
+      <c r="B14" s="21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="86"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="96"/>
+    </row>
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="30">
+      <c r="A16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>1365</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C16" s="58">
         <v>74722.289999999994</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D16" s="58">
         <v>7929.3675000000003</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E16" s="58">
         <v>-1612.7756999999999</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F16" s="58">
         <v>10.61</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G16" s="85">
         <v>6.3192999999999999E-2</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I16" s="54" t="s">
         <v>1368</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J16" s="58">
         <v>4612.9467070000001</v>
       </c>
-      <c r="K12" s="89">
+      <c r="K16" s="89">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L12" s="89">
+      <c r="L16" s="89">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M16" s="58">
         <v>0</v>
       </c>
-      <c r="N12" s="93" t="s">
+      <c r="N16" s="93" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="58">
+    <row r="17" spans="2:14" s="13" customFormat="1">
+      <c r="B17" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C17" s="58">
         <v>-1604.91</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D17" s="58">
         <v>-1607.35625</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E17" s="58">
         <v>-1607.35625</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F17" s="58">
         <v>9.66</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G17" s="85">
         <v>3.3149999999999999E-2</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I17" s="54" t="s">
         <v>1367</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J17" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K17" s="89">
         <v>0.254</v>
       </c>
-      <c r="L13" s="89">
+      <c r="L17" s="89">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M13" s="58">
+      <c r="M17" s="58">
         <v>0.25624999999999998</v>
       </c>
-      <c r="N13" s="93" t="s">
+      <c r="N17" s="93" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="28" customFormat="1">
-      <c r="B14" s="26" t="s">
+    <row r="18" spans="2:14" s="13" customFormat="1">
+      <c r="B18" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="85"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="93"/>
+    </row>
+    <row r="19" spans="2:14" s="28" customFormat="1">
+      <c r="B19" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C19" s="78">
         <v>-1623.11</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D19" s="103">
         <v>-1624.67875</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E19" s="103">
         <v>-1624.67875</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F19" s="78">
         <v>6.77</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G19" s="87">
         <v>5.3823999999999997E-2</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H19" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="I19" s="77" t="s">
         <v>1367</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J19" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="K14" s="91">
+      <c r="K19" s="91">
         <v>0.248</v>
       </c>
-      <c r="L14" s="91">
+      <c r="L19" s="91">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M14" s="78">
+      <c r="M19" s="78">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="28" customFormat="1">
-      <c r="B15" s="26" t="s">
+    <row r="20" spans="2:14" s="28" customFormat="1">
+      <c r="B20" s="26" t="s">
         <v>1397</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C20" s="78">
         <v>-1623.37</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D20" s="103">
         <v>-1624.7175</v>
       </c>
-      <c r="E15" s="103">
+      <c r="E20" s="103">
         <v>-1624.7175</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F20" s="78">
         <v>5.43</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G20" s="87">
         <v>5.8432999999999999E-2</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H20" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I20" s="77" t="s">
         <v>1367</v>
       </c>
-      <c r="J15" s="78" t="s">
+      <c r="J20" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="K15" s="91">
+      <c r="K20" s="91">
         <v>0.252</v>
       </c>
-      <c r="L15" s="91">
+      <c r="L20" s="91">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M15" s="78">
+      <c r="M20" s="78">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="18" customFormat="1">
-      <c r="B16" s="16" t="s">
+    <row r="21" spans="2:14" s="28" customFormat="1">
+      <c r="B21" s="26" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="87"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="78"/>
+    </row>
+    <row r="22" spans="2:14" s="18" customFormat="1">
+      <c r="B22" s="16" t="s">
         <v>1364</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C22" s="59">
         <v>-1614.56</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D22" s="59">
         <v>-1615.74875</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E22" s="59">
         <v>-1615.74875</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F22" s="59">
         <v>4.21</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G22" s="104">
         <v>3.8321000000000001E-2</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H22" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I22" s="18" t="s">
         <v>1367</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J22" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="K16" s="105">
+      <c r="K22" s="105">
         <v>0.25</v>
       </c>
-      <c r="L16" s="105">
+      <c r="L22" s="105">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M22" s="59">
         <v>4.1250000000000002E-2</v>
       </c>
-      <c r="N16" s="106"/>
-    </row>
-    <row r="17" spans="2:14" s="18" customFormat="1">
-      <c r="B17" s="16" t="s">
+      <c r="N22" s="106"/>
+    </row>
+    <row r="23" spans="2:14" s="18" customFormat="1">
+      <c r="B23" s="16" t="s">
         <v>1389</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C23" s="59">
         <v>-1603.43</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D23" s="59">
         <v>-1606.2725</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E23" s="59">
         <v>-1606.27</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F23" s="59">
         <v>9.08</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G23" s="104">
         <v>4.5101000000000002E-2</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H23" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I23" s="18" t="s">
         <v>1367</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J23" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="105">
+      <c r="K23" s="105">
         <v>0.25800000000000001</v>
       </c>
-      <c r="L17" s="105">
+      <c r="L23" s="105">
         <v>0.83599999999999997</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M23" s="59">
         <v>0.03</v>
       </c>
-      <c r="N17" s="106"/>
-    </row>
-    <row r="18" spans="2:14" s="18" customFormat="1">
-      <c r="B18" s="16" t="s">
+      <c r="N23" s="106"/>
+    </row>
+    <row r="24" spans="2:14" s="18" customFormat="1">
+      <c r="B24" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C24" s="59">
         <v>-1604.77</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D24" s="59">
         <v>-1607.6487500000001</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E24" s="59">
         <v>-1607.6487500000001</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F24" s="59">
         <v>9.3699999999999992</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G24" s="104">
         <v>4.367E-2</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H24" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I24" s="18" t="s">
         <v>1367</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J24" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="K18" s="105">
+      <c r="K24" s="105">
         <v>0.254</v>
       </c>
-      <c r="L18" s="105">
+      <c r="L24" s="105">
         <v>0.83599999999999997</v>
       </c>
-      <c r="M18" s="59">
+      <c r="M24" s="59">
         <v>0.03</v>
       </c>
-      <c r="N18" s="106"/>
-    </row>
-    <row r="19" spans="2:14" s="23" customFormat="1">
-      <c r="B19" s="21" t="s">
+      <c r="N24" s="106"/>
+    </row>
+    <row r="25" spans="2:14" s="18" customFormat="1">
+      <c r="B25" s="16" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="104"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="106"/>
+    </row>
+    <row r="26" spans="2:14" s="23" customFormat="1">
+      <c r="B26" s="21" t="s">
         <v>1366</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C26" s="60">
         <v>50167.29</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D26" s="60">
         <v>4856.5349999999999</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E26" s="60">
         <v>-1616.7271430000001</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F26" s="60">
         <v>7.46</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G26" s="86">
         <v>5.9514999999999998E-2</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H26" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I26" s="56" t="s">
         <v>1368</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J26" s="60">
         <v>3104.944</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K26" s="90">
         <v>0.249</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L26" s="90">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M19" s="60">
+      <c r="M26" s="60">
         <v>0.04</v>
       </c>
-      <c r="N19" s="96" t="s">
+      <c r="N26" s="96" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="23" customFormat="1">
-      <c r="B20" s="21" t="s">
+    <row r="27" spans="2:14" s="23" customFormat="1">
+      <c r="B27" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C27" s="60">
         <v>-1615.06</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D27" s="60">
         <v>-1617.5360000000001</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E27" s="60">
         <v>-1617.5360000000001</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F27" s="60">
         <v>8.77</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G27" s="86">
         <v>4.0053999999999999E-2</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I27" s="56" t="s">
         <v>1367</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J27" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K27" s="90">
         <v>0.246</v>
       </c>
-      <c r="L20" s="90">
+      <c r="L27" s="90">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M27" s="60">
         <v>0.04</v>
       </c>
-      <c r="N20" s="96"/>
+      <c r="N27" s="96"/>
+    </row>
+    <row r="28" spans="2:14" s="23" customFormat="1">
+      <c r="B28" s="21" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="86"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M4:M5">
+  <conditionalFormatting sqref="M5:M7">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M8">
+  <conditionalFormatting sqref="M8:M11">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10 M12:M20">
+  <conditionalFormatting sqref="M2:M14 M16:M28">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
@@ -36128,16 +36296,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="33"/>
-    <col min="2" max="2" width="23.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="33" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="6" width="12.85546875" style="33" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="33" bestFit="1" customWidth="1"/>
@@ -36258,312 +36426,359 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="49" customFormat="1" ht="45">
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="1:17" s="35" customFormat="1" ht="30" customHeight="1">
+      <c r="B3" s="35" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D3" s="35">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35">
+        <v>54</v>
+      </c>
+      <c r="F3" s="35">
+        <v>225</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H3" s="100">
+        <v>5000000</v>
+      </c>
+      <c r="I3" s="35">
+        <v>100</v>
+      </c>
+      <c r="J3" s="35">
+        <v>8</v>
+      </c>
+      <c r="K3" s="35">
+        <v>8</v>
+      </c>
+      <c r="L3" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="35">
+        <v>40</v>
+      </c>
+      <c r="O3" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="35" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="35" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1</v>
+      </c>
+      <c r="E4" s="35">
+        <v>54</v>
+      </c>
+      <c r="F4" s="35">
+        <v>225</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H4" s="100">
+        <v>5000000</v>
+      </c>
+      <c r="I4" s="35">
+        <v>100</v>
+      </c>
+      <c r="J4" s="35">
+        <v>8</v>
+      </c>
+      <c r="K4" s="35">
+        <v>8</v>
+      </c>
+      <c r="L4" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="35">
+        <v>40</v>
+      </c>
+      <c r="O4" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="49" customFormat="1" ht="45">
+      <c r="B5" s="49" t="s">
         <v>1360</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C5" s="50" t="s">
         <v>932</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D5" s="49">
         <v>8</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E5" s="49">
         <v>54</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F5" s="49">
         <v>225</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G5" s="49" t="s">
         <v>1385</v>
       </c>
-      <c r="H3" s="102">
+      <c r="H5" s="102">
         <v>5000000</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I5" s="49">
         <v>100</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J5" s="49">
         <v>8</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K5" s="49">
         <v>8</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L5" s="49">
         <v>0.25</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M5" s="49">
         <v>-1</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N5" s="49">
         <v>40</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O5" s="68">
         <v>0.1</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P5" s="50" t="s">
         <v>1380</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q5" s="49" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="38" customFormat="1" ht="30">
-      <c r="B4" s="38" t="s">
+    <row r="6" spans="1:17" s="49" customFormat="1" ht="45">
+      <c r="B6" s="49" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D6" s="49">
+        <v>8</v>
+      </c>
+      <c r="E6" s="49">
+        <v>54</v>
+      </c>
+      <c r="F6" s="49">
+        <v>225</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H6" s="102">
+        <v>5000000</v>
+      </c>
+      <c r="I6" s="49">
+        <v>100</v>
+      </c>
+      <c r="J6" s="49">
+        <v>8</v>
+      </c>
+      <c r="K6" s="49">
+        <v>8</v>
+      </c>
+      <c r="L6" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="49">
+        <v>40</v>
+      </c>
+      <c r="O6" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="49" customFormat="1" ht="45">
+      <c r="B7" s="49" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D7" s="49">
+        <v>8</v>
+      </c>
+      <c r="E7" s="49">
+        <v>54</v>
+      </c>
+      <c r="F7" s="49">
+        <v>225</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H7" s="102">
+        <v>5000000</v>
+      </c>
+      <c r="I7" s="49">
+        <v>200</v>
+      </c>
+      <c r="J7" s="49">
+        <v>8</v>
+      </c>
+      <c r="K7" s="49">
+        <v>8</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="49">
+        <v>40</v>
+      </c>
+      <c r="O7" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="38" customFormat="1" ht="30">
+      <c r="B8" s="38" t="s">
         <v>1361</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>1377</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D8" s="38">
         <v>2</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E8" s="38">
         <v>54</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F8" s="38">
         <v>225</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G8" s="38" t="s">
         <v>1385</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H8" s="99">
         <v>5000000</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I8" s="38">
         <v>100</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J8" s="38">
         <v>8</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K8" s="38">
         <v>8</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L8" s="38">
         <v>0.25</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M8" s="38">
         <v>-1</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N8" s="38">
         <v>40</v>
       </c>
-      <c r="O4" s="65">
+      <c r="O8" s="65">
         <v>0.1</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P8" s="39" t="s">
         <v>1386</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q8" s="38" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="38" customFormat="1" ht="45">
-      <c r="B5" s="38" t="s">
+    <row r="9" spans="1:17" s="38" customFormat="1" ht="45">
+      <c r="B9" s="38" t="s">
         <v>1390</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C9" s="39" t="s">
         <v>1377</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D9" s="38">
         <v>2</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E9" s="38">
         <v>54</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F9" s="38">
         <v>225</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G9" s="38" t="s">
         <v>1385</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H9" s="99">
         <v>5000000</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I9" s="38">
         <v>100</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J9" s="38">
         <v>8</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K9" s="38">
         <v>8</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L9" s="38">
         <v>0.25</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M9" s="38">
         <v>-1</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N9" s="38">
         <v>40</v>
       </c>
-      <c r="O5" s="65">
+      <c r="O9" s="65">
         <v>0.1</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P9" s="39" t="s">
         <v>1391</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q9" s="38" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="42" customFormat="1" ht="45">
-      <c r="B6" s="42" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D6" s="42">
-        <v>2</v>
-      </c>
-      <c r="E6" s="42">
-        <v>54</v>
-      </c>
-      <c r="F6" s="42">
-        <v>225</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H6" s="101">
-        <v>5000000</v>
-      </c>
-      <c r="I6" s="42">
-        <v>100</v>
-      </c>
-      <c r="J6" s="42">
-        <v>8</v>
-      </c>
-      <c r="K6" s="42">
-        <v>8</v>
-      </c>
-      <c r="L6" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="M6" s="42">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="42">
-        <v>40</v>
-      </c>
-      <c r="O6" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="43" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="35" customFormat="1" ht="45">
-      <c r="A8" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D8" s="35">
-        <v>1</v>
-      </c>
-      <c r="E8" s="35">
-        <v>103</v>
-      </c>
-      <c r="F8" s="35">
-        <v>115</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H8" s="100">
-        <v>5000000</v>
-      </c>
-      <c r="I8" s="35">
-        <v>100</v>
-      </c>
-      <c r="J8" s="35">
-        <v>8</v>
-      </c>
-      <c r="K8" s="35">
-        <v>8</v>
-      </c>
-      <c r="L8" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="M8" s="35">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="35">
-        <v>40</v>
-      </c>
-      <c r="O8" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q8" s="35" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="49" customFormat="1" ht="45">
-      <c r="B9" s="49" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>932</v>
-      </c>
-      <c r="D9" s="49">
-        <v>3</v>
-      </c>
-      <c r="E9" s="49">
-        <v>103</v>
-      </c>
-      <c r="F9" s="49">
-        <v>115</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H9" s="102">
-        <v>5000000</v>
-      </c>
-      <c r="I9" s="49">
-        <v>100</v>
-      </c>
-      <c r="J9" s="49">
-        <v>8</v>
-      </c>
-      <c r="K9" s="49">
-        <v>8</v>
-      </c>
-      <c r="L9" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="M9" s="49">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="49">
-        <v>40</v>
-      </c>
-      <c r="O9" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q9" s="49" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="38" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:17" s="38" customFormat="1" ht="45">
       <c r="B10" s="38" t="s">
-        <v>1364</v>
+        <v>1401</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>1377</v>
@@ -36572,10 +36787,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="38">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F10" s="38">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>1385</v>
@@ -36605,15 +36820,15 @@
         <v>0.1</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>1380</v>
+        <v>1391</v>
       </c>
       <c r="Q10" s="38" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="45">
       <c r="B11" s="38" t="s">
-        <v>1389</v>
+        <v>1410</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>1377</v>
@@ -36622,10 +36837,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="38">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F11" s="38">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>1385</v>
@@ -36652,18 +36867,18 @@
         <v>40</v>
       </c>
       <c r="O11" s="65">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="Q11" s="38" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="42" customFormat="1" ht="45">
       <c r="B12" s="42" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>1378</v>
@@ -36672,10 +36887,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="42">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F12" s="42">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>1385</v>
@@ -36709,6 +36924,759 @@
       </c>
       <c r="Q12" s="42" t="s">
         <v>1382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B13" s="42" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D13" s="42">
+        <v>2</v>
+      </c>
+      <c r="E13" s="42">
+        <v>54</v>
+      </c>
+      <c r="F13" s="42">
+        <v>225</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H13" s="101">
+        <v>5000000</v>
+      </c>
+      <c r="I13" s="42">
+        <v>100</v>
+      </c>
+      <c r="J13" s="42">
+        <v>8</v>
+      </c>
+      <c r="K13" s="42">
+        <v>8</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M13" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="42">
+        <v>40</v>
+      </c>
+      <c r="O13" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B14" s="42" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D14" s="42">
+        <v>2</v>
+      </c>
+      <c r="E14" s="42">
+        <v>54</v>
+      </c>
+      <c r="F14" s="42">
+        <v>225</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H14" s="101">
+        <v>5000000</v>
+      </c>
+      <c r="I14" s="42">
+        <v>200</v>
+      </c>
+      <c r="J14" s="42">
+        <v>8</v>
+      </c>
+      <c r="K14" s="42">
+        <v>8</v>
+      </c>
+      <c r="L14" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="42">
+        <v>40</v>
+      </c>
+      <c r="O14" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="35" customFormat="1" ht="45">
+      <c r="A16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35">
+        <v>103</v>
+      </c>
+      <c r="F16" s="35">
+        <v>115</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H16" s="100">
+        <v>5000000</v>
+      </c>
+      <c r="I16" s="35">
+        <v>100</v>
+      </c>
+      <c r="J16" s="35">
+        <v>8</v>
+      </c>
+      <c r="K16" s="35">
+        <v>8</v>
+      </c>
+      <c r="L16" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="35">
+        <v>40</v>
+      </c>
+      <c r="O16" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" s="35" customFormat="1" ht="45">
+      <c r="B17" s="35" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="35">
+        <v>103</v>
+      </c>
+      <c r="F17" s="35">
+        <v>115</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H17" s="100">
+        <v>5000000</v>
+      </c>
+      <c r="I17" s="35">
+        <v>100</v>
+      </c>
+      <c r="J17" s="35">
+        <v>8</v>
+      </c>
+      <c r="K17" s="35">
+        <v>8</v>
+      </c>
+      <c r="L17" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M17" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="35">
+        <v>40</v>
+      </c>
+      <c r="O17" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" s="35" customFormat="1" ht="45">
+      <c r="B18" s="35" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D18" s="35">
+        <v>1</v>
+      </c>
+      <c r="E18" s="35">
+        <v>103</v>
+      </c>
+      <c r="F18" s="35">
+        <v>115</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H18" s="100">
+        <v>5000000</v>
+      </c>
+      <c r="I18" s="35">
+        <v>200</v>
+      </c>
+      <c r="J18" s="35">
+        <v>8</v>
+      </c>
+      <c r="K18" s="35">
+        <v>8</v>
+      </c>
+      <c r="L18" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M18" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="35">
+        <v>40</v>
+      </c>
+      <c r="O18" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" s="49" customFormat="1" ht="45">
+      <c r="B19" s="49" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D19" s="49">
+        <v>3</v>
+      </c>
+      <c r="E19" s="49">
+        <v>103</v>
+      </c>
+      <c r="F19" s="49">
+        <v>115</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H19" s="102">
+        <v>5000000</v>
+      </c>
+      <c r="I19" s="49">
+        <v>100</v>
+      </c>
+      <c r="J19" s="49">
+        <v>8</v>
+      </c>
+      <c r="K19" s="49">
+        <v>8</v>
+      </c>
+      <c r="L19" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M19" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="49">
+        <v>40</v>
+      </c>
+      <c r="O19" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="P19" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q19" s="49" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" s="49" customFormat="1" ht="45">
+      <c r="B20" s="49" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D20" s="49">
+        <v>3</v>
+      </c>
+      <c r="E20" s="49">
+        <v>103</v>
+      </c>
+      <c r="F20" s="49">
+        <v>115</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H20" s="102">
+        <v>5000000</v>
+      </c>
+      <c r="I20" s="49">
+        <v>100</v>
+      </c>
+      <c r="J20" s="49">
+        <v>8</v>
+      </c>
+      <c r="K20" s="49">
+        <v>8</v>
+      </c>
+      <c r="L20" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M20" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="49">
+        <v>40</v>
+      </c>
+      <c r="O20" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="P20" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q20" s="49" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" s="49" customFormat="1" ht="45">
+      <c r="B21" s="49" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D21" s="49">
+        <v>3</v>
+      </c>
+      <c r="E21" s="49">
+        <v>103</v>
+      </c>
+      <c r="F21" s="49">
+        <v>115</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H21" s="102">
+        <v>5000000</v>
+      </c>
+      <c r="I21" s="49">
+        <v>200</v>
+      </c>
+      <c r="J21" s="49">
+        <v>8</v>
+      </c>
+      <c r="K21" s="49">
+        <v>8</v>
+      </c>
+      <c r="L21" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M21" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="49">
+        <v>40</v>
+      </c>
+      <c r="O21" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" s="38" customFormat="1" ht="30" customHeight="1">
+      <c r="B22" s="38" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D22" s="38">
+        <v>2</v>
+      </c>
+      <c r="E22" s="38">
+        <v>103</v>
+      </c>
+      <c r="F22" s="38">
+        <v>115</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H22" s="99">
+        <v>5000000</v>
+      </c>
+      <c r="I22" s="38">
+        <v>100</v>
+      </c>
+      <c r="J22" s="38">
+        <v>8</v>
+      </c>
+      <c r="K22" s="38">
+        <v>8</v>
+      </c>
+      <c r="L22" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M22" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="38">
+        <v>40</v>
+      </c>
+      <c r="O22" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" s="38" customFormat="1" ht="45">
+      <c r="B23" s="38" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D23" s="38">
+        <v>2</v>
+      </c>
+      <c r="E23" s="38">
+        <v>103</v>
+      </c>
+      <c r="F23" s="38">
+        <v>115</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H23" s="99">
+        <v>5000000</v>
+      </c>
+      <c r="I23" s="38">
+        <v>100</v>
+      </c>
+      <c r="J23" s="38">
+        <v>8</v>
+      </c>
+      <c r="K23" s="38">
+        <v>8</v>
+      </c>
+      <c r="L23" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="38">
+        <v>40</v>
+      </c>
+      <c r="O23" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" s="38" customFormat="1" ht="45">
+      <c r="B24" s="38" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D24" s="38">
+        <v>2</v>
+      </c>
+      <c r="E24" s="38">
+        <v>103</v>
+      </c>
+      <c r="F24" s="38">
+        <v>115</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H24" s="99">
+        <v>5000000</v>
+      </c>
+      <c r="I24" s="38">
+        <v>100</v>
+      </c>
+      <c r="J24" s="38">
+        <v>8</v>
+      </c>
+      <c r="K24" s="38">
+        <v>8</v>
+      </c>
+      <c r="L24" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M24" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="38">
+        <v>40</v>
+      </c>
+      <c r="O24" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" s="38" customFormat="1" ht="45">
+      <c r="B25" s="38" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D25" s="38">
+        <v>2</v>
+      </c>
+      <c r="E25" s="38">
+        <v>103</v>
+      </c>
+      <c r="F25" s="38">
+        <v>115</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H25" s="99">
+        <v>5000000</v>
+      </c>
+      <c r="I25" s="38">
+        <v>200</v>
+      </c>
+      <c r="J25" s="38">
+        <v>8</v>
+      </c>
+      <c r="K25" s="38">
+        <v>8</v>
+      </c>
+      <c r="L25" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M25" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="38">
+        <v>40</v>
+      </c>
+      <c r="O25" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" s="42" customFormat="1" ht="45">
+      <c r="B26" s="42" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D26" s="42">
+        <v>2</v>
+      </c>
+      <c r="E26" s="42">
+        <v>103</v>
+      </c>
+      <c r="F26" s="42">
+        <v>115</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H26" s="101">
+        <v>5000000</v>
+      </c>
+      <c r="I26" s="42">
+        <v>100</v>
+      </c>
+      <c r="J26" s="42">
+        <v>8</v>
+      </c>
+      <c r="K26" s="42">
+        <v>8</v>
+      </c>
+      <c r="L26" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="42">
+        <v>40</v>
+      </c>
+      <c r="O26" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" s="42" customFormat="1" ht="45">
+      <c r="B27" s="42" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D27" s="42">
+        <v>2</v>
+      </c>
+      <c r="E27" s="42">
+        <v>103</v>
+      </c>
+      <c r="F27" s="42">
+        <v>115</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H27" s="101">
+        <v>5000000</v>
+      </c>
+      <c r="I27" s="42">
+        <v>100</v>
+      </c>
+      <c r="J27" s="42">
+        <v>8</v>
+      </c>
+      <c r="K27" s="42">
+        <v>8</v>
+      </c>
+      <c r="L27" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M27" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="42">
+        <v>40</v>
+      </c>
+      <c r="O27" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="P27" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" s="42" customFormat="1" ht="45">
+      <c r="B28" s="42" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D28" s="42">
+        <v>2</v>
+      </c>
+      <c r="E28" s="42">
+        <v>103</v>
+      </c>
+      <c r="F28" s="42">
+        <v>115</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H28" s="101">
+        <v>5000000</v>
+      </c>
+      <c r="I28" s="42">
+        <v>200</v>
+      </c>
+      <c r="J28" s="42">
+        <v>8</v>
+      </c>
+      <c r="K28" s="42">
+        <v>8</v>
+      </c>
+      <c r="L28" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M28" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="42">
+        <v>40</v>
+      </c>
+      <c r="O28" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="P28" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>1404</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -35359,7 +35359,7 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="1416">
   <si>
     <t>data set</t>
   </si>
@@ -30903,6 +30903,9 @@
   </si>
   <si>
     <t>weev_devFPexpdownT_ss.nex</t>
+  </si>
+  <si>
+    <t>dirichlet(ratemultiplier) = 1.5%</t>
   </si>
 </sst>
 </file>
@@ -35360,12 +35363,12 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="61" customWidth="1"/>
     <col min="4" max="5" width="12.42578125" style="61" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="61" customWidth="1"/>
@@ -35509,17 +35512,42 @@
       <c r="B4" s="11" t="s">
         <v>1407</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="85"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="93"/>
+      <c r="C4" s="58">
+        <v>-2693.12</v>
+      </c>
+      <c r="D4" s="58">
+        <v>-2693.51</v>
+      </c>
+      <c r="E4" s="58">
+        <v>-2693.51</v>
+      </c>
+      <c r="F4" s="58">
+        <v>3.12</v>
+      </c>
+      <c r="G4" s="85">
+        <v>3.7599E-2</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="89">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L4" s="89">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="M4" s="58">
+        <v>0.67</v>
+      </c>
+      <c r="N4" s="93" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="26" customFormat="1">
       <c r="B5" s="26" t="s">
@@ -35607,10 +35635,18 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="G7" s="74">
+        <v>3.8260000000000002E-2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>336</v>
+      </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="27"/>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="1417">
   <si>
     <t>data set</t>
   </si>
@@ -30906,6 +30906,9 @@
   </si>
   <si>
     <t>dirichlet(ratemultiplier) = 1.5%</t>
+  </si>
+  <si>
+    <t>only pos value is in run 4</t>
   </si>
 </sst>
 </file>
@@ -31309,7 +31312,157 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -35328,25 +35481,25 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G11 G13:G1048576">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L44 L2:L24">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L50">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35363,12 +35516,12 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="61" customWidth="1"/>
     <col min="4" max="5" width="12.42578125" style="61" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="61" customWidth="1"/>
@@ -35631,26 +35784,42 @@
       <c r="B7" s="26" t="s">
         <v>1408</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="C7" s="27">
+        <v>-2705.05</v>
+      </c>
+      <c r="D7" s="27">
+        <v>-2708.4437499999999</v>
+      </c>
+      <c r="E7" s="27">
+        <v>-2709.2228570000002</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1.29</v>
+      </c>
       <c r="G7" s="74">
-        <v>3.8260000000000002E-2</v>
+        <v>5.9818999999999997E-2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J7" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="94"/>
+        <v>1368</v>
+      </c>
+      <c r="J7" s="78">
+        <v>4.0000999999999998</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0.216</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0.32624999999999998</v>
+      </c>
+      <c r="N7" s="94" t="s">
+        <v>1416</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="16" customFormat="1" ht="30">
       <c r="B8" s="32" t="s">
@@ -35775,16 +35944,39 @@
       <c r="B11" s="32" t="s">
         <v>1410</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="17"/>
+      <c r="C11" s="16">
+        <v>-2677.84</v>
+      </c>
+      <c r="D11" s="17">
+        <v>-2677.9724999999999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>-2677.9724999999999</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="G11" s="71">
+        <v>3.8260000000000002E-2</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.38</v>
+      </c>
       <c r="N11" s="95"/>
     </row>
     <row r="12" spans="1:14" s="23" customFormat="1">
@@ -35869,16 +36061,39 @@
       <c r="B14" s="21" t="s">
         <v>1409</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="86"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="60"/>
+      <c r="C14" s="60">
+        <v>-2706.46</v>
+      </c>
+      <c r="D14" s="60">
+        <v>-2706.5949999999998</v>
+      </c>
+      <c r="E14" s="60">
+        <v>-2706.5949999999998</v>
+      </c>
+      <c r="F14" s="60">
+        <v>1.38</v>
+      </c>
+      <c r="G14" s="86">
+        <v>5.7061000000000001E-2</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K14" s="90">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L14" s="90">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="60">
+        <v>0.40625</v>
+      </c>
       <c r="N14" s="96"/>
     </row>
     <row r="16" spans="1:14" s="13" customFormat="1" ht="30">
@@ -35970,17 +36185,42 @@
       <c r="B18" s="11" t="s">
         <v>1411</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="85"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="93"/>
+      <c r="C18" s="58">
+        <v>-1603.28</v>
+      </c>
+      <c r="D18" s="58">
+        <v>-1607.3175000000001</v>
+      </c>
+      <c r="E18" s="58">
+        <v>-1607.3175000000001</v>
+      </c>
+      <c r="F18" s="58">
+        <v>9.65</v>
+      </c>
+      <c r="G18" s="85">
+        <v>2.9517000000000002E-2</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" s="89">
+        <v>0.253</v>
+      </c>
+      <c r="L18" s="89">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M18" s="58">
+        <v>0.55874999999999997</v>
+      </c>
+      <c r="N18" s="93" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="19" spans="2:14" s="28" customFormat="1">
       <c r="B19" s="26" t="s">
@@ -36062,16 +36302,39 @@
       <c r="B21" s="26" t="s">
         <v>1412</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="87"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="78"/>
+      <c r="C21" s="78">
+        <v>-1624.3</v>
+      </c>
+      <c r="D21" s="103">
+        <v>-1624.68</v>
+      </c>
+      <c r="E21" s="103">
+        <v>-1624.68</v>
+      </c>
+      <c r="F21" s="78">
+        <v>2.77</v>
+      </c>
+      <c r="G21" s="87">
+        <v>4.5113E-2</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K21" s="91">
+        <v>0.253</v>
+      </c>
+      <c r="L21" s="91">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M21" s="78">
+        <v>0.20624999999999999</v>
+      </c>
     </row>
     <row r="22" spans="2:14" s="18" customFormat="1">
       <c r="B22" s="16" t="s">
@@ -36194,15 +36457,39 @@
       <c r="B25" s="16" t="s">
         <v>1413</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="104"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="59"/>
+      <c r="C25" s="59">
+        <v>-1603.02</v>
+      </c>
+      <c r="D25" s="59">
+        <v>-1605.8187499999999</v>
+      </c>
+      <c r="E25" s="59">
+        <v>-1605.8187499999999</v>
+      </c>
+      <c r="F25" s="59">
+        <v>7.05</v>
+      </c>
+      <c r="G25" s="104">
+        <v>3.4365E-2</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K25" s="105">
+        <v>0.248</v>
+      </c>
+      <c r="L25" s="105">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="M25" s="59">
+        <v>0.18</v>
+      </c>
       <c r="N25" s="106"/>
     </row>
     <row r="26" spans="2:14" s="23" customFormat="1">
@@ -36289,16 +36576,39 @@
       <c r="B28" s="21" t="s">
         <v>1414</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="86"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="60"/>
+      <c r="C28" s="60">
+        <v>-1615.59</v>
+      </c>
+      <c r="D28" s="60">
+        <v>-1617.7012500000001</v>
+      </c>
+      <c r="E28" s="60">
+        <v>-1617.4012499999999</v>
+      </c>
+      <c r="F28" s="60">
+        <v>7.83</v>
+      </c>
+      <c r="G28" s="86">
+        <v>3.2219999999999999E-2</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K28" s="90">
+        <v>0.248</v>
+      </c>
+      <c r="L28" s="90">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M28" s="60">
+        <v>0.22375</v>
+      </c>
       <c r="N28" s="96"/>
     </row>
   </sheetData>
@@ -36306,22 +36616,22 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="M5:M7">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M11">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M14 M16:M28">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -31312,157 +31312,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -35481,25 +35331,25 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G11 G13:G1048576">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",G1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L44 L2:L24">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L50">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36616,22 +36466,22 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="M5:M7">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M11">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M14 M16:M28">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1428">
   <si>
     <t>data set</t>
   </si>
@@ -30909,6 +30909,39 @@
   </si>
   <si>
     <t>only pos value is in run 4</t>
+  </si>
+  <si>
+    <t>Head2</t>
+  </si>
+  <si>
+    <t>Mandibles2</t>
+  </si>
+  <si>
+    <t>Maxillary articulatory lobes2</t>
+  </si>
+  <si>
+    <t>Maxillary palp2</t>
+  </si>
+  <si>
+    <t>Legs2</t>
+  </si>
+  <si>
+    <t>meanHomoplasy</t>
+  </si>
+  <si>
+    <t>homoplasy</t>
+  </si>
+  <si>
+    <t>weev_hom5_ss.nex</t>
+  </si>
+  <si>
+    <t>weev_hom4_ss.nex</t>
+  </si>
+  <si>
+    <t>hyo_hom7_ss.nex</t>
+  </si>
+  <si>
+    <t>Homoplasy</t>
   </si>
 </sst>
 </file>
@@ -30919,7 +30952,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30969,8 +31002,14 @@
       <color rgb="FF006FB7"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -31013,6 +31052,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -31035,7 +31080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -31305,8 +31350,52 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -33706,10 +33795,10 @@
       <c r="I1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="107"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="69" t="s">
         <v>976</v>
       </c>
@@ -35363,10 +35452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35415,10 +35504,10 @@
       <c r="J1" s="81" t="s">
         <v>959</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="K1" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="107"/>
+      <c r="L1" s="109"/>
       <c r="M1" s="81" t="s">
         <v>1375</v>
       </c>
@@ -35829,102 +35918,54 @@
       </c>
       <c r="N11" s="95"/>
     </row>
-    <row r="12" spans="1:14" s="23" customFormat="1">
-      <c r="B12" s="21" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C12" s="60">
-        <v>-2706.67</v>
-      </c>
-      <c r="D12" s="60">
-        <v>-2706.8449999999998</v>
-      </c>
-      <c r="E12" s="60">
-        <v>-2706.8449999999998</v>
-      </c>
-      <c r="F12" s="60">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="G12" s="86">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="K12" s="90">
-        <v>0.224</v>
-      </c>
-      <c r="L12" s="90">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="M12" s="60">
-        <v>0.16875000000000001</v>
-      </c>
-      <c r="N12" s="96"/>
-    </row>
-    <row r="13" spans="1:14" s="23" customFormat="1">
-      <c r="B13" s="21" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C13" s="60">
-        <v>-2706.65</v>
-      </c>
-      <c r="D13" s="60">
-        <v>-2706.82375</v>
-      </c>
-      <c r="E13" s="60">
-        <v>-2706.82375</v>
-      </c>
-      <c r="F13" s="60">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="G13" s="86">
-        <v>7.4943999999999997E-2</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="K13" s="90">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="L13" s="90">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="M13" s="60">
-        <v>0.17125000000000001</v>
-      </c>
-      <c r="N13" s="96"/>
+    <row r="12" spans="1:14" s="115" customFormat="1">
+      <c r="B12" s="120" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="125"/>
+    </row>
+    <row r="13" spans="1:14" s="115" customFormat="1">
+      <c r="B13" s="120"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="125"/>
     </row>
     <row r="14" spans="1:14" s="23" customFormat="1">
       <c r="B14" s="21" t="s">
-        <v>1409</v>
+        <v>1362</v>
       </c>
       <c r="C14" s="60">
-        <v>-2706.46</v>
+        <v>-2706.67</v>
       </c>
       <c r="D14" s="60">
-        <v>-2706.5949999999998</v>
+        <v>-2706.8449999999998</v>
       </c>
       <c r="E14" s="60">
-        <v>-2706.5949999999998</v>
+        <v>-2706.8449999999998</v>
       </c>
       <c r="F14" s="60">
-        <v>1.38</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G14" s="86">
-        <v>5.7061000000000001E-2</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>349</v>
@@ -35936,236 +35977,238 @@
         <v>336</v>
       </c>
       <c r="K14" s="90">
+        <v>0.224</v>
+      </c>
+      <c r="L14" s="90">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M14" s="60">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="N14" s="96"/>
+    </row>
+    <row r="15" spans="1:14" s="23" customFormat="1">
+      <c r="B15" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C15" s="60">
+        <v>-2706.65</v>
+      </c>
+      <c r="D15" s="60">
+        <v>-2706.82375</v>
+      </c>
+      <c r="E15" s="60">
+        <v>-2706.82375</v>
+      </c>
+      <c r="F15" s="60">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G15" s="86">
+        <v>7.4943999999999997E-2</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K15" s="90">
         <v>0.22500000000000001</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L15" s="90">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="M15" s="60">
+        <v>0.17125000000000001</v>
+      </c>
+      <c r="N15" s="96"/>
+    </row>
+    <row r="16" spans="1:14" s="23" customFormat="1">
+      <c r="B16" s="21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C16" s="60">
+        <v>-2706.46</v>
+      </c>
+      <c r="D16" s="60">
+        <v>-2706.5949999999998</v>
+      </c>
+      <c r="E16" s="60">
+        <v>-2706.5949999999998</v>
+      </c>
+      <c r="F16" s="60">
+        <v>1.38</v>
+      </c>
+      <c r="G16" s="86">
+        <v>5.7061000000000001E-2</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16" s="90">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L16" s="90">
         <v>0.8</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M16" s="60">
         <v>0.40625</v>
       </c>
-      <c r="N14" s="96"/>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="30">
-      <c r="A16" s="13" t="s">
+      <c r="N16" s="96"/>
+    </row>
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="30">
+      <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>1365</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C18" s="58">
         <v>74722.289999999994</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D18" s="58">
         <v>7929.3675000000003</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E18" s="58">
         <v>-1612.7756999999999</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F18" s="58">
         <v>10.61</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G18" s="85">
         <v>6.3192999999999999E-2</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I18" s="54" t="s">
         <v>1368</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J18" s="58">
         <v>4612.9467070000001</v>
       </c>
-      <c r="K16" s="89">
+      <c r="K18" s="89">
         <v>0.25700000000000001</v>
-      </c>
-      <c r="L16" s="89">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M16" s="58">
-        <v>0</v>
-      </c>
-      <c r="N16" s="93" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="13" customFormat="1">
-      <c r="B17" s="11" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C17" s="58">
-        <v>-1604.91</v>
-      </c>
-      <c r="D17" s="58">
-        <v>-1607.35625</v>
-      </c>
-      <c r="E17" s="58">
-        <v>-1607.35625</v>
-      </c>
-      <c r="F17" s="58">
-        <v>9.66</v>
-      </c>
-      <c r="G17" s="85">
-        <v>3.3149999999999999E-2</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="K17" s="89">
-        <v>0.254</v>
-      </c>
-      <c r="L17" s="89">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M17" s="58">
-        <v>0.25624999999999998</v>
-      </c>
-      <c r="N17" s="93" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="13" customFormat="1">
-      <c r="B18" s="11" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C18" s="58">
-        <v>-1603.28</v>
-      </c>
-      <c r="D18" s="58">
-        <v>-1607.3175000000001</v>
-      </c>
-      <c r="E18" s="58">
-        <v>-1607.3175000000001</v>
-      </c>
-      <c r="F18" s="58">
-        <v>9.65</v>
-      </c>
-      <c r="G18" s="85">
-        <v>2.9517000000000002E-2</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="I18" s="54" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="K18" s="89">
-        <v>0.253</v>
       </c>
       <c r="L18" s="89">
         <v>0.84699999999999998</v>
       </c>
       <c r="M18" s="58">
+        <v>0</v>
+      </c>
+      <c r="N18" s="93" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="13" customFormat="1">
+      <c r="B19" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C19" s="58">
+        <v>-1604.91</v>
+      </c>
+      <c r="D19" s="58">
+        <v>-1607.35625</v>
+      </c>
+      <c r="E19" s="58">
+        <v>-1607.35625</v>
+      </c>
+      <c r="F19" s="58">
+        <v>9.66</v>
+      </c>
+      <c r="G19" s="85">
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="K19" s="89">
+        <v>0.254</v>
+      </c>
+      <c r="L19" s="89">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M19" s="58">
+        <v>0.25624999999999998</v>
+      </c>
+      <c r="N19" s="93" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="13" customFormat="1">
+      <c r="B20" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C20" s="58">
+        <v>-1603.28</v>
+      </c>
+      <c r="D20" s="58">
+        <v>-1607.3175000000001</v>
+      </c>
+      <c r="E20" s="58">
+        <v>-1607.3175000000001</v>
+      </c>
+      <c r="F20" s="58">
+        <v>9.65</v>
+      </c>
+      <c r="G20" s="85">
+        <v>2.9517000000000002E-2</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="K20" s="89">
+        <v>0.253</v>
+      </c>
+      <c r="L20" s="89">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M20" s="58">
         <v>0.55874999999999997</v>
       </c>
-      <c r="N18" s="93" t="s">
+      <c r="N20" s="93" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="28" customFormat="1">
-      <c r="B19" s="26" t="s">
+    <row r="21" spans="1:14" s="28" customFormat="1">
+      <c r="B21" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C21" s="78">
         <v>-1623.11</v>
       </c>
-      <c r="D19" s="103">
+      <c r="D21" s="103">
         <v>-1624.67875</v>
       </c>
-      <c r="E19" s="103">
+      <c r="E21" s="103">
         <v>-1624.67875</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F21" s="78">
         <v>6.77</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G21" s="87">
         <v>5.3823999999999997E-2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="I19" s="77" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J19" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="K19" s="91">
-        <v>0.248</v>
-      </c>
-      <c r="L19" s="91">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M19" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="28" customFormat="1">
-      <c r="B20" s="26" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C20" s="78">
-        <v>-1623.37</v>
-      </c>
-      <c r="D20" s="103">
-        <v>-1624.7175</v>
-      </c>
-      <c r="E20" s="103">
-        <v>-1624.7175</v>
-      </c>
-      <c r="F20" s="78">
-        <v>5.43</v>
-      </c>
-      <c r="G20" s="87">
-        <v>5.8432999999999999E-2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="I20" s="77" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J20" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="K20" s="91">
-        <v>0.252</v>
-      </c>
-      <c r="L20" s="91">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="M20" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="28" customFormat="1">
-      <c r="B21" s="26" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C21" s="78">
-        <v>-1624.3</v>
-      </c>
-      <c r="D21" s="103">
-        <v>-1624.68</v>
-      </c>
-      <c r="E21" s="103">
-        <v>-1624.68</v>
-      </c>
-      <c r="F21" s="78">
-        <v>2.77</v>
-      </c>
-      <c r="G21" s="87">
-        <v>4.5113E-2</v>
       </c>
       <c r="H21" s="28" t="s">
         <v>349</v>
@@ -36177,111 +36220,109 @@
         <v>336</v>
       </c>
       <c r="K21" s="91">
+        <v>0.248</v>
+      </c>
+      <c r="L21" s="91">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M21" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="28" customFormat="1">
+      <c r="B22" s="26" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C22" s="78">
+        <v>-1623.37</v>
+      </c>
+      <c r="D22" s="103">
+        <v>-1624.7175</v>
+      </c>
+      <c r="E22" s="103">
+        <v>-1624.7175</v>
+      </c>
+      <c r="F22" s="78">
+        <v>5.43</v>
+      </c>
+      <c r="G22" s="87">
+        <v>5.8432999999999999E-2</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I22" s="77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K22" s="91">
+        <v>0.252</v>
+      </c>
+      <c r="L22" s="91">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M22" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="28" customFormat="1">
+      <c r="B23" s="26" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C23" s="78">
+        <v>-1624.3</v>
+      </c>
+      <c r="D23" s="103">
+        <v>-1624.68</v>
+      </c>
+      <c r="E23" s="103">
+        <v>-1624.68</v>
+      </c>
+      <c r="F23" s="78">
+        <v>2.77</v>
+      </c>
+      <c r="G23" s="87">
+        <v>4.5113E-2</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K23" s="91">
         <v>0.253</v>
       </c>
-      <c r="L21" s="91">
+      <c r="L23" s="91">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M21" s="78">
+      <c r="M23" s="78">
         <v>0.20624999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="18" customFormat="1">
-      <c r="B22" s="16" t="s">
+    <row r="24" spans="1:14" s="18" customFormat="1">
+      <c r="B24" s="16" t="s">
         <v>1364</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C24" s="59">
         <v>-1614.56</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D24" s="59">
         <v>-1615.74875</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E24" s="59">
         <v>-1615.74875</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F24" s="59">
         <v>4.21</v>
       </c>
-      <c r="G22" s="104">
+      <c r="G24" s="104">
         <v>3.8321000000000001E-2</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="K22" s="105">
-        <v>0.25</v>
-      </c>
-      <c r="L22" s="105">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M22" s="59">
-        <v>4.1250000000000002E-2</v>
-      </c>
-      <c r="N22" s="106"/>
-    </row>
-    <row r="23" spans="2:14" s="18" customFormat="1">
-      <c r="B23" s="16" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C23" s="59">
-        <v>-1603.43</v>
-      </c>
-      <c r="D23" s="59">
-        <v>-1606.2725</v>
-      </c>
-      <c r="E23" s="59">
-        <v>-1606.27</v>
-      </c>
-      <c r="F23" s="59">
-        <v>9.08</v>
-      </c>
-      <c r="G23" s="104">
-        <v>4.5101000000000002E-2</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="K23" s="105">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="L23" s="105">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="M23" s="59">
-        <v>0.03</v>
-      </c>
-      <c r="N23" s="106"/>
-    </row>
-    <row r="24" spans="2:14" s="18" customFormat="1">
-      <c r="B24" s="16" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C24" s="59">
-        <v>-1604.77</v>
-      </c>
-      <c r="D24" s="59">
-        <v>-1607.6487500000001</v>
-      </c>
-      <c r="E24" s="59">
-        <v>-1607.6487500000001</v>
-      </c>
-      <c r="F24" s="59">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="G24" s="104">
-        <v>4.367E-2</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>349</v>
@@ -36293,34 +36334,34 @@
         <v>336</v>
       </c>
       <c r="K24" s="105">
-        <v>0.254</v>
+        <v>0.25</v>
       </c>
       <c r="L24" s="105">
-        <v>0.83599999999999997</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="M24" s="59">
-        <v>0.03</v>
+        <v>4.1250000000000002E-2</v>
       </c>
       <c r="N24" s="106"/>
     </row>
-    <row r="25" spans="2:14" s="18" customFormat="1">
+    <row r="25" spans="1:14" s="18" customFormat="1">
       <c r="B25" s="16" t="s">
-        <v>1413</v>
+        <v>1389</v>
       </c>
       <c r="C25" s="59">
-        <v>-1603.02</v>
+        <v>-1603.43</v>
       </c>
       <c r="D25" s="59">
-        <v>-1605.8187499999999</v>
+        <v>-1606.2725</v>
       </c>
       <c r="E25" s="59">
-        <v>-1605.8187499999999</v>
+        <v>-1606.27</v>
       </c>
       <c r="F25" s="59">
-        <v>7.05</v>
+        <v>9.08</v>
       </c>
       <c r="G25" s="104">
-        <v>3.4365E-2</v>
+        <v>4.5101000000000002E-2</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>349</v>
@@ -36332,134 +36373,242 @@
         <v>336</v>
       </c>
       <c r="K25" s="105">
-        <v>0.248</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="L25" s="105">
         <v>0.83599999999999997</v>
       </c>
       <c r="M25" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="N25" s="106"/>
+    </row>
+    <row r="26" spans="1:14" s="18" customFormat="1">
+      <c r="B26" s="16" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C26" s="59">
+        <v>-1604.77</v>
+      </c>
+      <c r="D26" s="59">
+        <v>-1607.6487500000001</v>
+      </c>
+      <c r="E26" s="59">
+        <v>-1607.6487500000001</v>
+      </c>
+      <c r="F26" s="59">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G26" s="104">
+        <v>4.367E-2</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J26" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K26" s="105">
+        <v>0.254</v>
+      </c>
+      <c r="L26" s="105">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="M26" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="N26" s="106"/>
+    </row>
+    <row r="27" spans="1:14" s="18" customFormat="1">
+      <c r="B27" s="16" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C27" s="59">
+        <v>-1603.02</v>
+      </c>
+      <c r="D27" s="59">
+        <v>-1605.8187499999999</v>
+      </c>
+      <c r="E27" s="59">
+        <v>-1605.8187499999999</v>
+      </c>
+      <c r="F27" s="59">
+        <v>7.05</v>
+      </c>
+      <c r="G27" s="104">
+        <v>3.4365E-2</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J27" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="K27" s="105">
+        <v>0.248</v>
+      </c>
+      <c r="L27" s="105">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="M27" s="59">
         <v>0.18</v>
       </c>
-      <c r="N25" s="106"/>
-    </row>
-    <row r="26" spans="2:14" s="23" customFormat="1">
-      <c r="B26" s="21" t="s">
+      <c r="N27" s="106"/>
+    </row>
+    <row r="28" spans="1:14" s="114" customFormat="1">
+      <c r="B28" s="115" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="117"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="119"/>
+    </row>
+    <row r="29" spans="1:14" s="114" customFormat="1">
+      <c r="B29" s="115" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="117"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="119"/>
+    </row>
+    <row r="30" spans="1:14" s="23" customFormat="1">
+      <c r="B30" s="21" t="s">
         <v>1366</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C30" s="60">
         <v>50167.29</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D30" s="60">
         <v>4856.5349999999999</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E30" s="60">
         <v>-1616.7271430000001</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F30" s="60">
         <v>7.46</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G30" s="86">
         <v>5.9514999999999998E-2</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H30" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="I26" s="56" t="s">
+      <c r="I30" s="56" t="s">
         <v>1368</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J30" s="60">
         <v>3104.944</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K30" s="90">
         <v>0.249</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L30" s="90">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M30" s="60">
         <v>0.04</v>
       </c>
-      <c r="N26" s="96" t="s">
+      <c r="N30" s="96" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="23" customFormat="1">
-      <c r="B27" s="21" t="s">
+    <row r="31" spans="1:14" s="23" customFormat="1">
+      <c r="B31" s="21" t="s">
         <v>1395</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C31" s="60">
         <v>-1615.06</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D31" s="60">
         <v>-1617.5360000000001</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E31" s="60">
         <v>-1617.5360000000001</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F31" s="60">
         <v>8.77</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G31" s="86">
         <v>4.0053999999999999E-2</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H31" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I31" s="56" t="s">
         <v>1367</v>
       </c>
-      <c r="J27" s="60" t="s">
+      <c r="J31" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K31" s="90">
         <v>0.246</v>
       </c>
-      <c r="L27" s="90">
+      <c r="L31" s="90">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M27" s="60">
+      <c r="M31" s="60">
         <v>0.04</v>
       </c>
-      <c r="N27" s="96"/>
-    </row>
-    <row r="28" spans="2:14" s="23" customFormat="1">
-      <c r="B28" s="21" t="s">
+      <c r="N31" s="96"/>
+    </row>
+    <row r="32" spans="1:14" s="23" customFormat="1">
+      <c r="B32" s="21" t="s">
         <v>1414</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C32" s="60">
         <v>-1615.59</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D32" s="60">
         <v>-1617.7012500000001</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E32" s="60">
         <v>-1617.4012499999999</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F32" s="60">
         <v>7.83</v>
       </c>
-      <c r="G28" s="86">
+      <c r="G32" s="86">
         <v>3.2219999999999999E-2</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H32" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I32" s="56" t="s">
         <v>1367</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J32" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K32" s="90">
         <v>0.248</v>
       </c>
-      <c r="L28" s="90">
+      <c r="L32" s="90">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M32" s="60">
         <v>0.22375</v>
       </c>
-      <c r="N28" s="96"/>
+      <c r="N32" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36470,12 +36619,12 @@
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M11">
+  <conditionalFormatting sqref="M8:M13">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M14 M16:M28">
+  <conditionalFormatting sqref="M2:M16 M18:M32">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
@@ -36492,16 +36641,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="33"/>
-    <col min="2" max="2" width="26.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="33" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="6" width="12.85546875" style="33" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="33" bestFit="1" customWidth="1"/>
@@ -37072,109 +37221,65 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="42" customFormat="1" ht="45">
-      <c r="B12" s="42" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D12" s="42">
-        <v>2</v>
-      </c>
-      <c r="E12" s="42">
+    <row r="12" spans="1:17" s="110" customFormat="1" ht="45">
+      <c r="B12" s="110" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D12" s="110">
+        <v>7</v>
+      </c>
+      <c r="E12" s="110">
         <v>54</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="110">
         <v>225</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="110" t="s">
         <v>1385</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="112">
         <v>5000000</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="110">
         <v>100</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="110">
         <v>8</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="110">
         <v>8</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="110">
         <v>0.25</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="110">
         <v>-1</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="110">
         <v>40</v>
       </c>
-      <c r="O12" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="P12" s="43" t="s">
+      <c r="O12" s="113">
+        <v>0.05</v>
+      </c>
+      <c r="P12" s="111" t="s">
         <v>1380</v>
       </c>
-      <c r="Q12" s="42" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="42" customFormat="1" ht="45">
-      <c r="B13" s="42" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D13" s="42">
-        <v>2</v>
-      </c>
-      <c r="E13" s="42">
-        <v>54</v>
-      </c>
-      <c r="F13" s="42">
-        <v>225</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H13" s="101">
-        <v>5000000</v>
-      </c>
-      <c r="I13" s="42">
-        <v>100</v>
-      </c>
-      <c r="J13" s="42">
-        <v>8</v>
-      </c>
-      <c r="K13" s="42">
-        <v>8</v>
-      </c>
-      <c r="L13" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="M13" s="42">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="42">
-        <v>40</v>
-      </c>
-      <c r="O13" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="P13" s="43" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q13" s="42" t="s">
+      <c r="Q12" s="110" t="s">
         <v>1403</v>
       </c>
+    </row>
+    <row r="13" spans="1:17" s="110" customFormat="1">
+      <c r="C13" s="111"/>
+      <c r="H13" s="112"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="111"/>
     </row>
     <row r="14" spans="1:17" s="42" customFormat="1" ht="45">
       <c r="B14" s="42" t="s">
-        <v>1409</v>
+        <v>1362</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>1378</v>
@@ -37195,7 +37300,7 @@
         <v>5000000</v>
       </c>
       <c r="I14" s="42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J14" s="42">
         <v>8</v>
@@ -37213,121 +37318,121 @@
         <v>40</v>
       </c>
       <c r="O14" s="66">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P14" s="43" t="s">
         <v>1380</v>
       </c>
       <c r="Q14" s="42" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B15" s="42" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D15" s="42">
+        <v>2</v>
+      </c>
+      <c r="E15" s="42">
+        <v>54</v>
+      </c>
+      <c r="F15" s="42">
+        <v>225</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H15" s="101">
+        <v>5000000</v>
+      </c>
+      <c r="I15" s="42">
+        <v>100</v>
+      </c>
+      <c r="J15" s="42">
+        <v>8</v>
+      </c>
+      <c r="K15" s="42">
+        <v>8</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="42">
+        <v>40</v>
+      </c>
+      <c r="O15" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q15" s="42" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="35" customFormat="1" ht="45">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B16" s="42" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D16" s="42">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="E16" s="42">
+        <v>54</v>
+      </c>
+      <c r="F16" s="42">
+        <v>225</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H16" s="101">
+        <v>5000000</v>
+      </c>
+      <c r="I16" s="42">
+        <v>200</v>
+      </c>
+      <c r="J16" s="42">
+        <v>8</v>
+      </c>
+      <c r="K16" s="42">
+        <v>8</v>
+      </c>
+      <c r="L16" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="42">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="42">
+        <v>40</v>
+      </c>
+      <c r="O16" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="35" customFormat="1" ht="45">
+      <c r="A18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>1365</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1</v>
-      </c>
-      <c r="E16" s="35">
-        <v>103</v>
-      </c>
-      <c r="F16" s="35">
-        <v>115</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H16" s="100">
-        <v>5000000</v>
-      </c>
-      <c r="I16" s="35">
-        <v>100</v>
-      </c>
-      <c r="J16" s="35">
-        <v>8</v>
-      </c>
-      <c r="K16" s="35">
-        <v>8</v>
-      </c>
-      <c r="L16" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="M16" s="35">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="35">
-        <v>40</v>
-      </c>
-      <c r="O16" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" s="35" customFormat="1" ht="45">
-      <c r="B17" s="35" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1</v>
-      </c>
-      <c r="E17" s="35">
-        <v>103</v>
-      </c>
-      <c r="F17" s="35">
-        <v>115</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H17" s="100">
-        <v>5000000</v>
-      </c>
-      <c r="I17" s="35">
-        <v>100</v>
-      </c>
-      <c r="J17" s="35">
-        <v>8</v>
-      </c>
-      <c r="K17" s="35">
-        <v>8</v>
-      </c>
-      <c r="L17" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="M17" s="35">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="35">
-        <v>40</v>
-      </c>
-      <c r="O17" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q17" s="35" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" s="35" customFormat="1" ht="45">
-      <c r="B18" s="35" t="s">
-        <v>1411</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>1376</v>
@@ -37348,7 +37453,7 @@
         <v>5000000</v>
       </c>
       <c r="I18" s="35">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J18" s="35">
         <v>8</v>
@@ -37366,118 +37471,118 @@
         <v>40</v>
       </c>
       <c r="O18" s="64">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P18" s="36" t="s">
         <v>1380</v>
       </c>
       <c r="Q18" s="35" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="35" customFormat="1" ht="45">
+      <c r="B19" s="35" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35">
+        <v>103</v>
+      </c>
+      <c r="F19" s="35">
+        <v>115</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H19" s="100">
+        <v>5000000</v>
+      </c>
+      <c r="I19" s="35">
+        <v>100</v>
+      </c>
+      <c r="J19" s="35">
+        <v>8</v>
+      </c>
+      <c r="K19" s="35">
+        <v>8</v>
+      </c>
+      <c r="L19" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M19" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="35">
+        <v>40</v>
+      </c>
+      <c r="O19" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q19" s="35" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="49" customFormat="1" ht="45">
-      <c r="B19" s="49" t="s">
+    <row r="20" spans="1:17" s="35" customFormat="1" ht="45">
+      <c r="B20" s="35" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D20" s="35">
+        <v>1</v>
+      </c>
+      <c r="E20" s="35">
+        <v>103</v>
+      </c>
+      <c r="F20" s="35">
+        <v>115</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H20" s="100">
+        <v>5000000</v>
+      </c>
+      <c r="I20" s="35">
+        <v>200</v>
+      </c>
+      <c r="J20" s="35">
+        <v>8</v>
+      </c>
+      <c r="K20" s="35">
+        <v>8</v>
+      </c>
+      <c r="L20" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="M20" s="35">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="35">
+        <v>40</v>
+      </c>
+      <c r="O20" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q20" s="35" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="49" customFormat="1" ht="45">
+      <c r="B21" s="49" t="s">
         <v>1363</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>932</v>
-      </c>
-      <c r="D19" s="49">
-        <v>3</v>
-      </c>
-      <c r="E19" s="49">
-        <v>103</v>
-      </c>
-      <c r="F19" s="49">
-        <v>115</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H19" s="102">
-        <v>5000000</v>
-      </c>
-      <c r="I19" s="49">
-        <v>100</v>
-      </c>
-      <c r="J19" s="49">
-        <v>8</v>
-      </c>
-      <c r="K19" s="49">
-        <v>8</v>
-      </c>
-      <c r="L19" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="M19" s="49">
-        <v>-1</v>
-      </c>
-      <c r="N19" s="49">
-        <v>40</v>
-      </c>
-      <c r="O19" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="P19" s="50" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q19" s="49" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" s="49" customFormat="1" ht="45">
-      <c r="B20" s="49" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>932</v>
-      </c>
-      <c r="D20" s="49">
-        <v>3</v>
-      </c>
-      <c r="E20" s="49">
-        <v>103</v>
-      </c>
-      <c r="F20" s="49">
-        <v>115</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H20" s="102">
-        <v>5000000</v>
-      </c>
-      <c r="I20" s="49">
-        <v>100</v>
-      </c>
-      <c r="J20" s="49">
-        <v>8</v>
-      </c>
-      <c r="K20" s="49">
-        <v>8</v>
-      </c>
-      <c r="L20" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="M20" s="49">
-        <v>-1</v>
-      </c>
-      <c r="N20" s="49">
-        <v>40</v>
-      </c>
-      <c r="O20" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="P20" s="50" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q20" s="49" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" s="49" customFormat="1" ht="45">
-      <c r="B21" s="49" t="s">
-        <v>1412</v>
       </c>
       <c r="C21" s="50" t="s">
         <v>932</v>
@@ -37498,7 +37603,7 @@
         <v>5000000</v>
       </c>
       <c r="I21" s="49">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J21" s="49">
         <v>8</v>
@@ -37516,118 +37621,118 @@
         <v>40</v>
       </c>
       <c r="O21" s="68">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P21" s="50" t="s">
         <v>1380</v>
       </c>
       <c r="Q21" s="49" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="49" customFormat="1" ht="45">
+      <c r="B22" s="49" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D22" s="49">
+        <v>3</v>
+      </c>
+      <c r="E22" s="49">
+        <v>103</v>
+      </c>
+      <c r="F22" s="49">
+        <v>115</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H22" s="102">
+        <v>5000000</v>
+      </c>
+      <c r="I22" s="49">
+        <v>100</v>
+      </c>
+      <c r="J22" s="49">
+        <v>8</v>
+      </c>
+      <c r="K22" s="49">
+        <v>8</v>
+      </c>
+      <c r="L22" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M22" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="49">
+        <v>40</v>
+      </c>
+      <c r="O22" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="P22" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q22" s="49" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="22" spans="2:17" s="38" customFormat="1" ht="30" customHeight="1">
-      <c r="B22" s="38" t="s">
+    <row r="23" spans="1:17" s="49" customFormat="1" ht="45">
+      <c r="B23" s="49" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D23" s="49">
+        <v>3</v>
+      </c>
+      <c r="E23" s="49">
+        <v>103</v>
+      </c>
+      <c r="F23" s="49">
+        <v>115</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H23" s="102">
+        <v>5000000</v>
+      </c>
+      <c r="I23" s="49">
+        <v>200</v>
+      </c>
+      <c r="J23" s="49">
+        <v>8</v>
+      </c>
+      <c r="K23" s="49">
+        <v>8</v>
+      </c>
+      <c r="L23" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="49">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="49">
+        <v>40</v>
+      </c>
+      <c r="O23" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q23" s="49" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="38" customFormat="1" ht="30" customHeight="1">
+      <c r="B24" s="38" t="s">
         <v>1364</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D22" s="38">
-        <v>2</v>
-      </c>
-      <c r="E22" s="38">
-        <v>103</v>
-      </c>
-      <c r="F22" s="38">
-        <v>115</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H22" s="99">
-        <v>5000000</v>
-      </c>
-      <c r="I22" s="38">
-        <v>100</v>
-      </c>
-      <c r="J22" s="38">
-        <v>8</v>
-      </c>
-      <c r="K22" s="38">
-        <v>8</v>
-      </c>
-      <c r="L22" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="M22" s="38">
-        <v>-1</v>
-      </c>
-      <c r="N22" s="38">
-        <v>40</v>
-      </c>
-      <c r="O22" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>1380</v>
-      </c>
-      <c r="Q22" s="38" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" s="38" customFormat="1" ht="45">
-      <c r="B23" s="38" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D23" s="38">
-        <v>2</v>
-      </c>
-      <c r="E23" s="38">
-        <v>103</v>
-      </c>
-      <c r="F23" s="38">
-        <v>115</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>1385</v>
-      </c>
-      <c r="H23" s="99">
-        <v>5000000</v>
-      </c>
-      <c r="I23" s="38">
-        <v>100</v>
-      </c>
-      <c r="J23" s="38">
-        <v>8</v>
-      </c>
-      <c r="K23" s="38">
-        <v>8</v>
-      </c>
-      <c r="L23" s="38">
-        <v>0.25</v>
-      </c>
-      <c r="M23" s="38">
-        <v>-1</v>
-      </c>
-      <c r="N23" s="38">
-        <v>40</v>
-      </c>
-      <c r="O23" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>1388</v>
-      </c>
-      <c r="Q23" s="38" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" s="38" customFormat="1" ht="45">
-      <c r="B24" s="38" t="s">
-        <v>1396</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>1377</v>
@@ -37669,15 +37774,15 @@
         <v>0.1</v>
       </c>
       <c r="P24" s="39" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" s="38" customFormat="1" ht="45">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="38" customFormat="1" ht="45">
       <c r="B25" s="38" t="s">
-        <v>1413</v>
+        <v>1389</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>1377</v>
@@ -37698,7 +37803,7 @@
         <v>5000000</v>
       </c>
       <c r="I25" s="38">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J25" s="38">
         <v>8</v>
@@ -37716,162 +37821,362 @@
         <v>40</v>
       </c>
       <c r="O25" s="65">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P25" s="39" t="s">
         <v>1388</v>
       </c>
       <c r="Q25" s="38" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="38" customFormat="1" ht="45">
+      <c r="B26" s="38" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D26" s="38">
+        <v>2</v>
+      </c>
+      <c r="E26" s="38">
+        <v>103</v>
+      </c>
+      <c r="F26" s="38">
+        <v>115</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H26" s="99">
+        <v>5000000</v>
+      </c>
+      <c r="I26" s="38">
+        <v>100</v>
+      </c>
+      <c r="J26" s="38">
+        <v>8</v>
+      </c>
+      <c r="K26" s="38">
+        <v>8</v>
+      </c>
+      <c r="L26" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="38">
+        <v>40</v>
+      </c>
+      <c r="O26" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q26" s="38" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="26" spans="2:17" s="42" customFormat="1" ht="45">
-      <c r="B26" s="42" t="s">
+    <row r="27" spans="1:17" s="38" customFormat="1" ht="45">
+      <c r="B27" s="38" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D27" s="38">
+        <v>2</v>
+      </c>
+      <c r="E27" s="38">
+        <v>103</v>
+      </c>
+      <c r="F27" s="38">
+        <v>115</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H27" s="99">
+        <v>5000000</v>
+      </c>
+      <c r="I27" s="38">
+        <v>200</v>
+      </c>
+      <c r="J27" s="38">
+        <v>8</v>
+      </c>
+      <c r="K27" s="38">
+        <v>8</v>
+      </c>
+      <c r="L27" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="M27" s="38">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="38">
+        <v>40</v>
+      </c>
+      <c r="O27" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="110" customFormat="1" ht="45">
+      <c r="B28" s="110" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C28" s="111" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D28" s="110">
+        <v>5</v>
+      </c>
+      <c r="E28" s="110">
+        <v>103</v>
+      </c>
+      <c r="F28" s="110">
+        <v>115</v>
+      </c>
+      <c r="G28" s="110" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H28" s="112">
+        <v>5000000</v>
+      </c>
+      <c r="I28" s="110">
+        <v>200</v>
+      </c>
+      <c r="J28" s="110">
+        <v>8</v>
+      </c>
+      <c r="K28" s="110">
+        <v>8</v>
+      </c>
+      <c r="L28" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="M28" s="110">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="110">
+        <v>40</v>
+      </c>
+      <c r="O28" s="113">
+        <v>0.05</v>
+      </c>
+      <c r="P28" s="111" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q28" s="110" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="110" customFormat="1" ht="45">
+      <c r="B29" s="110" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C29" s="111" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D29" s="110">
+        <v>4</v>
+      </c>
+      <c r="E29" s="110">
+        <v>103</v>
+      </c>
+      <c r="F29" s="110">
+        <v>115</v>
+      </c>
+      <c r="G29" s="110" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H29" s="112">
+        <v>5000000</v>
+      </c>
+      <c r="I29" s="110">
+        <v>200</v>
+      </c>
+      <c r="J29" s="110">
+        <v>8</v>
+      </c>
+      <c r="K29" s="110">
+        <v>8</v>
+      </c>
+      <c r="L29" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="M29" s="110">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="110">
+        <v>40</v>
+      </c>
+      <c r="O29" s="113">
+        <v>0.05</v>
+      </c>
+      <c r="P29" s="111" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q29" s="110" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B30" s="42" t="s">
         <v>1366</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C30" s="43" t="s">
         <v>1378</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D30" s="42">
         <v>2</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E30" s="42">
         <v>103</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F30" s="42">
         <v>115</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G30" s="42" t="s">
         <v>1385</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H30" s="101">
         <v>5000000</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I30" s="42">
         <v>100</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J30" s="42">
         <v>8</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K30" s="42">
         <v>8</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L30" s="42">
         <v>0.25</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M30" s="42">
         <v>-1</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N30" s="42">
         <v>40</v>
       </c>
-      <c r="O26" s="66">
+      <c r="O30" s="66">
         <v>0.1</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="P30" s="43" t="s">
         <v>1380</v>
       </c>
-      <c r="Q26" s="42" t="s">
+      <c r="Q30" s="42" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="27" spans="2:17" s="42" customFormat="1" ht="45">
-      <c r="B27" s="42" t="s">
+    <row r="31" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B31" s="42" t="s">
         <v>1395</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C31" s="43" t="s">
         <v>1378</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D31" s="42">
         <v>2</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E31" s="42">
         <v>103</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F31" s="42">
         <v>115</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G31" s="42" t="s">
         <v>1385</v>
       </c>
-      <c r="H27" s="101">
+      <c r="H31" s="101">
         <v>5000000</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I31" s="42">
         <v>100</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J31" s="42">
         <v>8</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K31" s="42">
         <v>8</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L31" s="42">
         <v>0.25</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M31" s="42">
         <v>-1</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N31" s="42">
         <v>40</v>
       </c>
-      <c r="O27" s="66">
+      <c r="O31" s="66">
         <v>0.1</v>
       </c>
-      <c r="P27" s="43" t="s">
+      <c r="P31" s="43" t="s">
         <v>1380</v>
       </c>
-      <c r="Q27" s="42" t="s">
+      <c r="Q31" s="42" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="28" spans="2:17" s="42" customFormat="1" ht="45">
-      <c r="B28" s="42" t="s">
+    <row r="32" spans="1:17" s="42" customFormat="1" ht="45">
+      <c r="B32" s="42" t="s">
         <v>1414</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C32" s="43" t="s">
         <v>1378</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D32" s="42">
         <v>2</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E32" s="42">
         <v>103</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F32" s="42">
         <v>115</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G32" s="42" t="s">
         <v>1385</v>
       </c>
-      <c r="H28" s="101">
+      <c r="H32" s="101">
         <v>5000000</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I32" s="42">
         <v>200</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J32" s="42">
         <v>8</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K32" s="42">
         <v>8</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L32" s="42">
         <v>0.25</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M32" s="42">
         <v>-1</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N32" s="42">
         <v>40</v>
       </c>
-      <c r="O28" s="66">
+      <c r="O32" s="66">
         <v>0.05</v>
       </c>
-      <c r="P28" s="43" t="s">
+      <c r="P32" s="43" t="s">
         <v>1380</v>
       </c>
-      <c r="Q28" s="42" t="s">
+      <c r="Q32" s="42" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -41722,10 +42027,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="C214" workbookViewId="0">
+      <selection activeCell="E235" sqref="E235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41738,10 +42043,11 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -41766,8 +42072,11 @@
       <c r="H1" s="1" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -41792,8 +42101,11 @@
       <c r="H2" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="90">
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -41818,8 +42130,11 @@
       <c r="H3" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -41844,8 +42159,11 @@
       <c r="H4" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -41870,8 +42188,11 @@
       <c r="H5" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="45">
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -41896,8 +42217,11 @@
       <c r="H6" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -41922,8 +42246,11 @@
       <c r="H7" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="45">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -41948,8 +42275,11 @@
       <c r="H8" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -41974,8 +42304,11 @@
       <c r="H9" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30">
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -42000,8 +42333,11 @@
       <c r="H10" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="60">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -42026,8 +42362,11 @@
       <c r="H11" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="45">
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -42052,8 +42391,11 @@
       <c r="H12" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="30">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -42078,8 +42420,11 @@
       <c r="H13" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -42104,8 +42449,11 @@
       <c r="H14" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="30">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -42130,8 +42478,11 @@
       <c r="H15" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -42156,8 +42507,11 @@
       <c r="H16" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="60">
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -42182,8 +42536,11 @@
       <c r="H17" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="30">
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -42208,8 +42565,11 @@
       <c r="H18" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="30">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -42234,8 +42594,11 @@
       <c r="H19" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="30">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -42260,8 +42623,11 @@
       <c r="H20" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="76" customFormat="1" ht="30">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="76" customFormat="1" ht="30">
       <c r="A21" s="76">
         <v>20</v>
       </c>
@@ -42286,8 +42652,11 @@
       <c r="H21" s="76" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="45">
+      <c r="I21" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -42312,8 +42681,11 @@
       <c r="H22" s="76" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="30">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -42335,8 +42707,11 @@
       <c r="H23" s="76" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="30">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -42361,8 +42736,11 @@
       <c r="H24" s="76" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="30">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -42387,8 +42765,11 @@
       <c r="H25" s="76" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="45">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -42413,8 +42794,11 @@
       <c r="H26" s="76" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="60">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -42439,8 +42823,11 @@
       <c r="H27" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30">
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -42465,8 +42852,11 @@
       <c r="H28" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="30">
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -42491,8 +42881,11 @@
       <c r="H29" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -42517,8 +42910,11 @@
       <c r="H30" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -42543,8 +42939,11 @@
       <c r="H31" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="45">
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -42569,8 +42968,11 @@
       <c r="H32" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="30">
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -42595,8 +42997,11 @@
       <c r="H33" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="30">
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -42621,8 +43026,11 @@
       <c r="H34" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="60">
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="60">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -42647,8 +43055,11 @@
       <c r="H35" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -42673,8 +43084,11 @@
       <c r="H36" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="90">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="90">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -42699,8 +43113,11 @@
       <c r="H37" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="165">
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="165">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -42725,8 +43142,11 @@
       <c r="H38" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="45">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -42751,8 +43171,11 @@
       <c r="H39" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="30">
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -42777,8 +43200,11 @@
       <c r="H40" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="120">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="120">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -42803,8 +43229,11 @@
       <c r="H41" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="60">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -42829,8 +43258,11 @@
       <c r="H42" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="45">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -42855,8 +43287,11 @@
       <c r="H43" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="45">
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -42881,8 +43316,11 @@
       <c r="H44" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="45">
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -42907,8 +43345,11 @@
       <c r="H45" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="45">
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -42933,8 +43374,11 @@
       <c r="H46" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="45">
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -42959,8 +43403,11 @@
       <c r="H47" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="45">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -42985,8 +43432,11 @@
       <c r="H48" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="60">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="60">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -43011,8 +43461,11 @@
       <c r="H49" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="60">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -43037,8 +43490,11 @@
       <c r="H50" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="60">
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -43060,8 +43516,11 @@
       <c r="H51" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="45">
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -43086,8 +43545,11 @@
       <c r="H52" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="45">
+      <c r="I52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -43112,8 +43574,11 @@
       <c r="H53" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="45">
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -43138,8 +43603,11 @@
       <c r="H54" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="45">
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -43164,8 +43632,11 @@
       <c r="H55" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="30">
+      <c r="I55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -43190,8 +43661,11 @@
       <c r="H56" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="30">
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -43216,8 +43690,11 @@
       <c r="H57" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="30">
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -43242,8 +43719,11 @@
       <c r="H58" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="30">
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -43268,8 +43748,11 @@
       <c r="H59" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="30">
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -43294,8 +43777,11 @@
       <c r="H60" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="30">
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -43320,8 +43806,11 @@
       <c r="H61" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="30">
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -43346,8 +43835,11 @@
       <c r="H62" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="60">
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="60">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -43372,8 +43864,11 @@
       <c r="H63" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="45">
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -43398,8 +43893,11 @@
       <c r="H64" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="30">
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -43424,8 +43922,11 @@
       <c r="H65" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="30">
+      <c r="I65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -43450,8 +43951,11 @@
       <c r="H66" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="30">
+      <c r="I66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -43476,8 +43980,11 @@
       <c r="H67" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="60">
+      <c r="I67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="60">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -43502,8 +44009,11 @@
       <c r="H68" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="75">
+      <c r="I68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="75">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -43528,8 +44038,11 @@
       <c r="H69" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="30">
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -43554,8 +44067,11 @@
       <c r="H70" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="30">
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -43580,8 +44096,11 @@
       <c r="H71" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="30">
+      <c r="I71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -43603,8 +44122,11 @@
       <c r="H72" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="45">
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -43629,8 +44151,11 @@
       <c r="H73" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="60">
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="60">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -43655,8 +44180,11 @@
       <c r="H74" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="30">
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -43681,8 +44209,11 @@
       <c r="H75" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="60">
+      <c r="I75" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="60">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -43707,8 +44238,11 @@
       <c r="H76" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="30">
+      <c r="I76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -43733,8 +44267,11 @@
       <c r="H77" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="30">
+      <c r="I77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -43759,8 +44296,11 @@
       <c r="H78" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="105">
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="105">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -43785,8 +44325,11 @@
       <c r="H79" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="120">
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="120">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -43811,8 +44354,11 @@
       <c r="H80" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="45">
+      <c r="I80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -43837,8 +44383,11 @@
       <c r="H81" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="30">
+      <c r="I81" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -43863,8 +44412,11 @@
       <c r="H82" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="30">
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -43889,8 +44441,11 @@
       <c r="H83" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="45">
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -43915,8 +44470,11 @@
       <c r="H84" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="45">
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -43941,8 +44499,11 @@
       <c r="H85" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="105">
+      <c r="I85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="105">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -43967,8 +44528,11 @@
       <c r="H86" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="30">
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -43993,8 +44557,11 @@
       <c r="H87" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="60">
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="60">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -44019,8 +44586,11 @@
       <c r="H88" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="45">
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -44045,8 +44615,11 @@
       <c r="H89" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="30">
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -44071,8 +44644,11 @@
       <c r="H90" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="45">
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -44097,8 +44673,11 @@
       <c r="H91" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="60">
+      <c r="I91" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="60">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -44123,8 +44702,11 @@
       <c r="H92" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="75">
+      <c r="I92" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="75">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -44149,8 +44731,11 @@
       <c r="H93" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="60">
+      <c r="I93" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="60">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -44175,8 +44760,11 @@
       <c r="H94" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="30">
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -44201,8 +44789,11 @@
       <c r="H95" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="30">
+      <c r="I95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -44227,8 +44818,11 @@
       <c r="H96" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="45">
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -44253,8 +44847,11 @@
       <c r="H97" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="45">
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -44279,8 +44876,11 @@
       <c r="H98" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="45">
+      <c r="I98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -44305,8 +44905,11 @@
       <c r="H99" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="30">
+      <c r="I99" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -44331,8 +44934,11 @@
       <c r="H100" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="60">
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="60">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -44357,8 +44963,11 @@
       <c r="H101" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="30">
+      <c r="I101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -44383,8 +44992,11 @@
       <c r="H102" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="45">
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -44409,8 +45021,11 @@
       <c r="H103" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -44435,8 +45050,11 @@
       <c r="H104" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="45">
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -44461,8 +45079,11 @@
       <c r="H105" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="60">
+      <c r="I105" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="60">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -44487,8 +45108,11 @@
       <c r="H106" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="75">
+      <c r="I106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="75">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -44513,8 +45137,11 @@
       <c r="H107" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="75">
+      <c r="I107" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="75">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -44539,8 +45166,11 @@
       <c r="H108" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="60">
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="60">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -44565,8 +45195,11 @@
       <c r="H109" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="75">
+      <c r="I109" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="75">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -44591,8 +45224,11 @@
       <c r="H110" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="60">
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="60">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -44617,8 +45253,11 @@
       <c r="H111" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="45">
+      <c r="I111" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -44643,8 +45282,11 @@
       <c r="H112" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="75">
+      <c r="I112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="75">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -44669,8 +45311,11 @@
       <c r="H113" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="45">
+      <c r="I113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -44695,8 +45340,11 @@
       <c r="H114" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="75">
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="75">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -44721,8 +45369,11 @@
       <c r="H115" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="45">
+      <c r="I115" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -44747,8 +45398,11 @@
       <c r="H116" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="60">
+      <c r="I116" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="60">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -44770,8 +45424,11 @@
       <c r="H117" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="60">
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="60">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -44796,8 +45453,11 @@
       <c r="H118" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="75">
+      <c r="I118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="75">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -44822,8 +45482,11 @@
       <c r="H119" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="75">
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="75">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -44848,8 +45511,11 @@
       <c r="H120" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="135">
+      <c r="I120" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="135">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -44874,8 +45540,11 @@
       <c r="H121" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="45">
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -44900,8 +45569,11 @@
       <c r="H122" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="45">
+      <c r="I122" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -44926,8 +45598,11 @@
       <c r="H123" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="30">
+      <c r="I123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="30">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -44952,8 +45627,11 @@
       <c r="H124" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="30">
+      <c r="I124" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -44978,8 +45656,11 @@
       <c r="H125" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="30">
+      <c r="I125" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -45004,8 +45685,11 @@
       <c r="H126" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="30">
+      <c r="I126" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -45030,8 +45714,11 @@
       <c r="H127" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="30">
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="30">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -45056,8 +45743,11 @@
       <c r="H128" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="30">
+      <c r="I128" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -45079,8 +45769,11 @@
       <c r="H129" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="30">
+      <c r="I129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -45105,8 +45798,11 @@
       <c r="H130" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="45">
+      <c r="I130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -45131,8 +45827,11 @@
       <c r="H131" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="45">
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -45157,8 +45856,11 @@
       <c r="H132" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="105">
+      <c r="I132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="105">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -45183,8 +45885,11 @@
       <c r="H133" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="120">
+      <c r="I133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="120">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -45209,8 +45914,11 @@
       <c r="H134" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="45">
+      <c r="I134" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -45235,8 +45943,11 @@
       <c r="H135" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="45">
+      <c r="I135" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -45261,8 +45972,11 @@
       <c r="H136" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="75">
+      <c r="I136" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="75">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -45287,8 +46001,11 @@
       <c r="H137" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="135">
+      <c r="I137" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="135">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -45313,8 +46030,11 @@
       <c r="H138" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="210">
+      <c r="I138" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="210">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -45339,8 +46059,11 @@
       <c r="H139" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="30">
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -45365,8 +46088,11 @@
       <c r="H140" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="60">
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="60">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -45391,8 +46117,11 @@
       <c r="H141" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -45417,8 +46146,11 @@
       <c r="H142" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -45443,8 +46175,11 @@
       <c r="H143" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -45469,8 +46204,11 @@
       <c r="H144" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -45495,8 +46233,11 @@
       <c r="H145" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="30">
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -45521,8 +46262,11 @@
       <c r="H146" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="30">
+      <c r="I146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -45547,8 +46291,11 @@
       <c r="H147" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="60">
+      <c r="I147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="60">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -45573,8 +46320,11 @@
       <c r="H148" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="30">
+      <c r="I148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -45599,8 +46349,11 @@
       <c r="H149" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="30">
+      <c r="I149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -45625,8 +46378,11 @@
       <c r="H150" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="45">
+      <c r="I150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -45651,8 +46407,11 @@
       <c r="H151" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="30">
+      <c r="I151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -45677,8 +46436,11 @@
       <c r="H152" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="30">
+      <c r="I152" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="30">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -45700,8 +46462,11 @@
       <c r="H153" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="60">
+      <c r="I153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="60">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -45726,8 +46491,11 @@
       <c r="H154" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="45">
+      <c r="I154" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -45749,8 +46517,11 @@
       <c r="H155" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="30">
+      <c r="I155" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -45775,8 +46546,11 @@
       <c r="H156" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="45">
+      <c r="I156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -45801,8 +46575,11 @@
       <c r="H157" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="30">
+      <c r="I157" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -45827,8 +46604,11 @@
       <c r="H158" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="45">
+      <c r="I158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -45853,8 +46633,11 @@
       <c r="H159" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="30">
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -45879,8 +46662,11 @@
       <c r="H160" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="45">
+      <c r="I160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -45905,8 +46691,11 @@
       <c r="H161" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="45">
+      <c r="I161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -45931,8 +46720,11 @@
       <c r="H162" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="30">
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="30">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -45957,8 +46749,11 @@
       <c r="H163" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="30">
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -45983,8 +46778,11 @@
       <c r="H164" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="45">
+      <c r="I164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -46009,8 +46807,11 @@
       <c r="H165" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="30">
+      <c r="I165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="30">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -46035,8 +46836,11 @@
       <c r="H166" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="30">
+      <c r="I166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -46061,8 +46865,11 @@
       <c r="H167" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="30">
+      <c r="I167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="30">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -46087,8 +46894,11 @@
       <c r="H168" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="45">
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -46113,8 +46923,11 @@
       <c r="H169" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="60">
+      <c r="I169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="60">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -46139,8 +46952,11 @@
       <c r="H170" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="30">
+      <c r="I170" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -46165,8 +46981,11 @@
       <c r="H171" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="30">
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -46191,8 +47010,11 @@
       <c r="H172" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="30">
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -46217,8 +47039,11 @@
       <c r="H173" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="30">
+      <c r="I173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="30">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -46243,8 +47068,11 @@
       <c r="H174" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="30">
+      <c r="I174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -46269,8 +47097,11 @@
       <c r="H175" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" s="8" customFormat="1">
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="8" customFormat="1">
       <c r="A176" s="8">
         <v>175</v>
       </c>
@@ -46295,8 +47126,11 @@
       <c r="H176" s="8" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="30">
+      <c r="I176" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -46321,8 +47155,11 @@
       <c r="H177" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="45">
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -46347,8 +47184,11 @@
       <c r="H178" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="30">
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="30">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -46373,8 +47213,11 @@
       <c r="H179" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="30">
+      <c r="I179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -46399,8 +47242,11 @@
       <c r="H180" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="30">
+      <c r="I180" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="30">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -46425,8 +47271,11 @@
       <c r="H181" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="30">
+      <c r="I181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -46451,8 +47300,11 @@
       <c r="H182" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="30">
+      <c r="I182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -46477,8 +47329,11 @@
       <c r="H183" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="30">
+      <c r="I183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -46503,8 +47358,11 @@
       <c r="H184" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="30">
+      <c r="I184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -46529,8 +47387,11 @@
       <c r="H185" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="45">
+      <c r="I185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="45">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -46555,8 +47416,11 @@
       <c r="H186" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="30">
+      <c r="I186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="30">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -46581,8 +47445,11 @@
       <c r="H187" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="45">
+      <c r="I187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="45">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -46607,8 +47474,11 @@
       <c r="H188" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="30">
+      <c r="I188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -46633,8 +47503,11 @@
       <c r="H189" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="30">
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -46659,8 +47532,11 @@
       <c r="H190" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="30">
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="30">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -46685,8 +47561,11 @@
       <c r="H191" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="45">
+      <c r="I191" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="45">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -46711,8 +47590,11 @@
       <c r="H192" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="45">
+      <c r="I192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="45">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -46737,8 +47619,11 @@
       <c r="H193" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="30">
+      <c r="I193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="30">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -46763,8 +47648,11 @@
       <c r="H194" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" ht="30">
+      <c r="I194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -46789,8 +47677,11 @@
       <c r="H195" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="30">
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="30">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -46815,8 +47706,11 @@
       <c r="H196" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="45">
+      <c r="I196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="45">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -46841,8 +47735,11 @@
       <c r="H197" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="30">
+      <c r="I197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="30">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -46867,8 +47764,11 @@
       <c r="H198" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="30">
+      <c r="I198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -46893,8 +47793,11 @@
       <c r="H199" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="30">
+      <c r="I199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -46919,8 +47822,11 @@
       <c r="H200" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="30">
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -46945,8 +47851,11 @@
       <c r="H201" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="30">
+      <c r="I201" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -46971,8 +47880,11 @@
       <c r="H202" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="30">
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -46997,8 +47909,11 @@
       <c r="H203" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="30">
+      <c r="I203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -47023,8 +47938,11 @@
       <c r="H204" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="30">
+      <c r="I204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -47049,8 +47967,11 @@
       <c r="H205" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="30">
+      <c r="I205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="30">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -47075,8 +47996,11 @@
       <c r="H206" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="30">
+      <c r="I206" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -47101,8 +48025,11 @@
       <c r="H207" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="30">
+      <c r="I207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="30">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -47127,8 +48054,11 @@
       <c r="H208" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="30">
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -47153,8 +48083,11 @@
       <c r="H209" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="30">
+      <c r="I209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="30">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -47179,8 +48112,11 @@
       <c r="H210" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -47205,8 +48141,11 @@
       <c r="H211" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="30">
+      <c r="I211" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -47231,8 +48170,11 @@
       <c r="H212" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -47257,8 +48199,11 @@
       <c r="H213" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="30">
+      <c r="I213" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="30">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -47283,8 +48228,11 @@
       <c r="H214" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="30">
+      <c r="I214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -47309,8 +48257,11 @@
       <c r="H215" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" s="8" customFormat="1">
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="8" customFormat="1">
       <c r="A216" s="8">
         <v>215</v>
       </c>
@@ -47335,8 +48286,11 @@
       <c r="H216" s="8" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="30">
+      <c r="I216" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -47358,8 +48312,11 @@
       <c r="H217" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="30">
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -47384,8 +48341,11 @@
       <c r="H218" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -47410,8 +48370,11 @@
       <c r="H219" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -47436,8 +48399,11 @@
       <c r="H220" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="30">
+      <c r="I220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -47462,8 +48428,11 @@
       <c r="H221" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="30">
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -47488,8 +48457,11 @@
       <c r="H222" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" ht="30">
+      <c r="I222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -47514,8 +48486,11 @@
       <c r="H223" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" ht="30">
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="30">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -47540,8 +48515,11 @@
       <c r="H224" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" ht="45">
+      <c r="I224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="45">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -47566,8 +48544,11 @@
       <c r="H225" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="30">
+      <c r="I225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -47591,6 +48572,9 @@
       </c>
       <c r="H226" s="1" t="s">
         <v>936</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -47601,10 +48585,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47618,10 +48602,11 @@
     <col min="7" max="7" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="15.28515625" style="108" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -47649,8 +48634,11 @@
       <c r="I1" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+      <c r="J1" s="107" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -47675,8 +48663,11 @@
       <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="J2" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -47701,8 +48692,11 @@
       <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30">
+      <c r="J3" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -47727,8 +48721,11 @@
       <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -47753,8 +48750,11 @@
       <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30">
+      <c r="J5" s="107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -47776,8 +48776,11 @@
       <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -47799,8 +48802,11 @@
       <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="48.75" customHeight="1">
+      <c r="J7" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="48.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -47825,8 +48831,11 @@
       <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -47848,8 +48857,11 @@
       <c r="I9" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -47874,8 +48886,11 @@
       <c r="I10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="30">
+      <c r="J10" s="107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -47900,8 +48915,11 @@
       <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
+      <c r="J11" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -47923,8 +48941,11 @@
       <c r="I12" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="75">
+      <c r="J12" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -47952,8 +48973,11 @@
       <c r="I13" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
+      <c r="J13" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -47978,13 +49002,16 @@
       <c r="I14" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="30">
+      <c r="J14" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>1417</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>62</v>
@@ -48004,8 +49031,11 @@
       <c r="I15" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="30">
+      <c r="J15" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -48033,8 +49063,11 @@
       <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="30">
+      <c r="J16" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -48059,8 +49092,11 @@
       <c r="I17" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30">
+      <c r="J17" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -48088,8 +49124,11 @@
       <c r="I18" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -48114,8 +49153,11 @@
       <c r="I19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -48137,8 +49179,11 @@
       <c r="I20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="75">
+      <c r="J20" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -48163,8 +49208,11 @@
       <c r="I21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="30">
+      <c r="J21" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -48189,8 +49237,11 @@
       <c r="I22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="60">
+      <c r="J22" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -48218,8 +49269,11 @@
       <c r="I23" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="30">
+      <c r="J23" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -48247,8 +49301,11 @@
       <c r="I24" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -48273,13 +49330,16 @@
       <c r="I25" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>1418</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>89</v>
@@ -48299,8 +49359,11 @@
       <c r="I26" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -48322,13 +49385,16 @@
       <c r="I27" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="30">
+      <c r="J27" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>1419</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>92</v>
@@ -48345,8 +49411,11 @@
       <c r="I28" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="30">
+      <c r="J28" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -48371,8 +49440,11 @@
       <c r="I29" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -48394,13 +49466,16 @@
       <c r="I30" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+      <c r="J30" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>1420</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>97</v>
@@ -48417,8 +49492,11 @@
       <c r="I31" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -48443,8 +49521,11 @@
       <c r="I32" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="30">
+      <c r="J32" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -48466,13 +49547,16 @@
       <c r="I33" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>1421</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>103</v>
@@ -48489,8 +49573,11 @@
       <c r="I34" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -48515,8 +49602,11 @@
       <c r="I35" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
+      <c r="J35" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -48541,8 +49631,11 @@
       <c r="I36" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="30">
+      <c r="J36" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -48564,8 +49657,11 @@
       <c r="I37" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -48587,8 +49683,11 @@
       <c r="I38" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -48613,8 +49712,11 @@
       <c r="I39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="45">
+      <c r="J39" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -48642,8 +49744,11 @@
       <c r="I40" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="45">
+      <c r="J40" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -48671,8 +49776,11 @@
       <c r="I41" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -48697,8 +49805,11 @@
       <c r="I42" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -48720,8 +49831,11 @@
       <c r="I43" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="30">
+      <c r="J43" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -48746,8 +49860,11 @@
       <c r="I44" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -48769,8 +49886,11 @@
       <c r="I45" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="30">
+      <c r="J45" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -48795,8 +49915,11 @@
       <c r="I46" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="30">
+      <c r="J46" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -48821,8 +49944,11 @@
       <c r="I47" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="30">
+      <c r="J47" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -48844,8 +49970,11 @@
       <c r="I48" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -48867,8 +49996,11 @@
       <c r="I49" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="30">
+      <c r="J49" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -48890,8 +50022,11 @@
       <c r="I50" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="30">
+      <c r="J50" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -48913,8 +50048,11 @@
       <c r="I51" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -48936,8 +50074,11 @@
       <c r="I52" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="30">
+      <c r="J52" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -48959,8 +50100,11 @@
       <c r="I53" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="30">
+      <c r="J53" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -48985,8 +50129,11 @@
       <c r="I54" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -49008,8 +50155,11 @@
       <c r="I55" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -49031,8 +50181,11 @@
       <c r="I56" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="30">
+      <c r="J56" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -49057,8 +50210,11 @@
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="60">
+      <c r="J57" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="60">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -49086,8 +50242,11 @@
       <c r="I58" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="45">
+      <c r="J58" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -49112,8 +50271,11 @@
       <c r="I59" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="30">
+      <c r="J59" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -49138,8 +50300,11 @@
       <c r="I60" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="30">
+      <c r="J60" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -49164,8 +50329,11 @@
       <c r="I61" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="30">
+      <c r="J61" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -49187,8 +50355,11 @@
       <c r="I62" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="45">
+      <c r="J62" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -49213,8 +50384,11 @@
       <c r="I63" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="45">
+      <c r="J63" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -49242,8 +50416,11 @@
       <c r="I64" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="45">
+      <c r="J64" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -49268,8 +50445,11 @@
       <c r="I65" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="30">
+      <c r="J65" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -49291,8 +50471,11 @@
       <c r="I66" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="30">
+      <c r="J66" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -49314,8 +50497,11 @@
       <c r="I67" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="30">
+      <c r="J67" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="30">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -49337,8 +50523,11 @@
       <c r="I68" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="30">
+      <c r="J68" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="30">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -49360,8 +50549,11 @@
       <c r="I69" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="30">
+      <c r="J69" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="30">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -49386,8 +50578,11 @@
       <c r="I70" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="30">
+      <c r="J70" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="30">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -49415,8 +50610,11 @@
       <c r="I71" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="45">
+      <c r="J71" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -49444,8 +50642,11 @@
       <c r="I72" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="30">
+      <c r="J72" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -49467,8 +50668,11 @@
       <c r="I73" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="45">
+      <c r="J73" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -49493,8 +50697,11 @@
       <c r="I74" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="45">
+      <c r="J74" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -49519,8 +50726,11 @@
       <c r="I75" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="30">
+      <c r="J75" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -49545,8 +50755,11 @@
       <c r="I76" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="30">
+      <c r="J76" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -49568,8 +50781,11 @@
       <c r="I77" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -49591,8 +50807,11 @@
       <c r="I78" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="43.5" customHeight="1">
+      <c r="J78" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="43.5" customHeight="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -49614,8 +50833,11 @@
       <c r="I79" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -49640,8 +50862,11 @@
       <c r="I80" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="45">
+      <c r="J80" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -49666,8 +50891,11 @@
       <c r="I81" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="30">
+      <c r="J81" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="30">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -49689,8 +50917,11 @@
       <c r="I82" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="45">
+      <c r="J82" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -49718,8 +50949,11 @@
       <c r="I83" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="30">
+      <c r="J83" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="30">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -49744,8 +50978,11 @@
       <c r="I84" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -49767,8 +51004,11 @@
       <c r="I85" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="30">
+      <c r="J85" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -49790,8 +51030,11 @@
       <c r="I86" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="30">
+      <c r="J86" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -49816,8 +51059,11 @@
       <c r="I87" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="120">
+      <c r="J87" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="120">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -49845,8 +51091,11 @@
       <c r="I88" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="45">
+      <c r="J88" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -49868,8 +51117,11 @@
       <c r="I89" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="30">
+      <c r="J89" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -49891,8 +51143,11 @@
       <c r="I90" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="30">
+      <c r="J90" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -49920,8 +51175,11 @@
       <c r="I91" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="30">
+      <c r="J91" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="30">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -49943,8 +51201,11 @@
       <c r="I92" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -49969,8 +51230,11 @@
       <c r="I93" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -49995,8 +51259,11 @@
       <c r="I94" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="30">
+      <c r="J94" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="30">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -50021,8 +51288,11 @@
       <c r="I95" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -50047,8 +51317,11 @@
       <c r="I96" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="75">
+      <c r="J96" s="108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="75">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -50073,8 +51346,11 @@
       <c r="I97" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -50096,8 +51372,11 @@
       <c r="I98" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="30">
+      <c r="J98" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="30">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -50122,8 +51401,11 @@
       <c r="I99" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="105">
+      <c r="J99" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="105">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -50151,8 +51433,11 @@
       <c r="I100" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="30">
+      <c r="J100" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="30">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -50177,8 +51462,11 @@
       <c r="I101" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="75">
+      <c r="J101" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="75">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -50203,8 +51491,11 @@
       <c r="I102" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="45">
+      <c r="J102" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -50226,8 +51517,11 @@
       <c r="I103" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -50255,8 +51549,11 @@
       <c r="I104" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="30">
+      <c r="J104" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -50281,8 +51578,11 @@
       <c r="I105" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="30.75" customHeight="1">
+      <c r="J105" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="30.75" customHeight="1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -50307,8 +51607,11 @@
       <c r="I106" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="30">
+      <c r="J106" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="30">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -50333,8 +51636,11 @@
       <c r="I107" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="30">
+      <c r="J107" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="30">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -50359,8 +51665,11 @@
       <c r="I108" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="30">
+      <c r="J108" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="30">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -50385,8 +51694,11 @@
       <c r="I109" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="45">
+      <c r="J109" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -50411,8 +51723,11 @@
       <c r="I110" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="30">
+      <c r="J110" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="30">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -50437,8 +51752,11 @@
       <c r="I111" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -50463,8 +51781,11 @@
       <c r="I112" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="30">
+      <c r="J112" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="30">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -50489,8 +51810,11 @@
       <c r="I113" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="30">
+      <c r="J113" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="30">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -50515,8 +51839,11 @@
       <c r="I114" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="30">
+      <c r="J114" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="30">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -50541,8 +51868,11 @@
       <c r="I115" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="30">
+      <c r="J115" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="30">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -50566,6 +51896,9 @@
       </c>
       <c r="I116" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="J116" s="108">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="1432">
   <si>
     <t>data set</t>
   </si>
@@ -30942,6 +30942,18 @@
   </si>
   <si>
     <t>Homoplasy</t>
+  </si>
+  <si>
+    <t>Syllidae</t>
+  </si>
+  <si>
+    <t>syll_unpart_ss.nex</t>
+  </si>
+  <si>
+    <t>syll_hom_ss.nex</t>
+  </si>
+  <si>
+    <t>unconstrained: exp(0.196)</t>
   </si>
 </sst>
 </file>
@@ -31356,9 +31368,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -31396,6 +31405,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -33795,10 +33807,10 @@
       <c r="I1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="125" t="s">
         <v>358</v>
       </c>
-      <c r="K1" s="109"/>
+      <c r="K1" s="125"/>
       <c r="L1" s="69" t="s">
         <v>976</v>
       </c>
@@ -35452,10 +35464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35504,10 +35516,10 @@
       <c r="J1" s="81" t="s">
         <v>959</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="125" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="109"/>
+      <c r="L1" s="125"/>
       <c r="M1" s="81" t="s">
         <v>1375</v>
       </c>
@@ -35918,35 +35930,35 @@
       </c>
       <c r="N11" s="95"/>
     </row>
-    <row r="12" spans="1:14" s="115" customFormat="1">
-      <c r="B12" s="120" t="s">
+    <row r="12" spans="1:14" s="114" customFormat="1">
+      <c r="B12" s="119" t="s">
         <v>1426</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="125"/>
-    </row>
-    <row r="13" spans="1:14" s="115" customFormat="1">
-      <c r="B13" s="120"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="125"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="124"/>
+    </row>
+    <row r="13" spans="1:14" s="114" customFormat="1">
+      <c r="B13" s="119"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="124"/>
     </row>
     <row r="14" spans="1:14" s="23" customFormat="1">
       <c r="B14" s="21" t="s">
@@ -36461,35 +36473,35 @@
       </c>
       <c r="N27" s="106"/>
     </row>
-    <row r="28" spans="1:14" s="114" customFormat="1">
-      <c r="B28" s="115" t="s">
+    <row r="28" spans="1:14" s="113" customFormat="1">
+      <c r="B28" s="114" t="s">
         <v>1424</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="117"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="119"/>
-    </row>
-    <row r="29" spans="1:14" s="114" customFormat="1">
-      <c r="B29" s="115" t="s">
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="118"/>
+    </row>
+    <row r="29" spans="1:14" s="113" customFormat="1">
+      <c r="B29" s="114" t="s">
         <v>1425</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="117"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="119"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="118"/>
     </row>
     <row r="30" spans="1:14" s="23" customFormat="1">
       <c r="B30" s="21" t="s">
@@ -36609,6 +36621,19 @@
         <v>0.22375</v>
       </c>
       <c r="N32" s="96"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="2" t="s">
+        <v>1430</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36641,10 +36666,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37221,61 +37246,61 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="110" customFormat="1" ht="45">
-      <c r="B12" s="110" t="s">
+    <row r="12" spans="1:17" s="109" customFormat="1" ht="45">
+      <c r="B12" s="109" t="s">
         <v>1426</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="110" t="s">
         <v>1427</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="109">
         <v>7</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="109">
         <v>54</v>
       </c>
-      <c r="F12" s="110">
+      <c r="F12" s="109">
         <v>225</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="109" t="s">
         <v>1385</v>
       </c>
-      <c r="H12" s="112">
+      <c r="H12" s="111">
         <v>5000000</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="109">
         <v>100</v>
       </c>
-      <c r="J12" s="110">
+      <c r="J12" s="109">
         <v>8</v>
       </c>
-      <c r="K12" s="110">
+      <c r="K12" s="109">
         <v>8</v>
       </c>
-      <c r="L12" s="110">
+      <c r="L12" s="109">
         <v>0.25</v>
       </c>
-      <c r="M12" s="110">
+      <c r="M12" s="109">
         <v>-1</v>
       </c>
-      <c r="N12" s="110">
+      <c r="N12" s="109">
         <v>40</v>
       </c>
-      <c r="O12" s="113">
+      <c r="O12" s="112">
         <v>0.05</v>
       </c>
-      <c r="P12" s="111" t="s">
+      <c r="P12" s="110" t="s">
         <v>1380</v>
       </c>
-      <c r="Q12" s="110" t="s">
+      <c r="Q12" s="109" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="110" customFormat="1">
-      <c r="C13" s="111"/>
-      <c r="H13" s="112"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="111"/>
+    <row r="13" spans="1:17" s="109" customFormat="1">
+      <c r="C13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="42" customFormat="1" ht="45">
       <c r="B14" s="42" t="s">
@@ -37930,103 +37955,103 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="110" customFormat="1" ht="45">
-      <c r="B28" s="110" t="s">
+    <row r="28" spans="1:17" s="109" customFormat="1" ht="45">
+      <c r="B28" s="109" t="s">
         <v>1424</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="110" t="s">
         <v>1423</v>
       </c>
-      <c r="D28" s="110">
+      <c r="D28" s="109">
         <v>5</v>
       </c>
-      <c r="E28" s="110">
+      <c r="E28" s="109">
         <v>103</v>
       </c>
-      <c r="F28" s="110">
+      <c r="F28" s="109">
         <v>115</v>
       </c>
-      <c r="G28" s="110" t="s">
+      <c r="G28" s="109" t="s">
         <v>1385</v>
       </c>
-      <c r="H28" s="112">
+      <c r="H28" s="111">
         <v>5000000</v>
       </c>
-      <c r="I28" s="110">
+      <c r="I28" s="109">
         <v>200</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="109">
         <v>8</v>
       </c>
-      <c r="K28" s="110">
+      <c r="K28" s="109">
         <v>8</v>
       </c>
-      <c r="L28" s="110">
+      <c r="L28" s="109">
         <v>0.25</v>
       </c>
-      <c r="M28" s="110">
+      <c r="M28" s="109">
         <v>-1</v>
       </c>
-      <c r="N28" s="110">
+      <c r="N28" s="109">
         <v>40</v>
       </c>
-      <c r="O28" s="113">
+      <c r="O28" s="112">
         <v>0.05</v>
       </c>
-      <c r="P28" s="111" t="s">
+      <c r="P28" s="110" t="s">
         <v>1380</v>
       </c>
-      <c r="Q28" s="110" t="s">
+      <c r="Q28" s="109" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="110" customFormat="1" ht="45">
-      <c r="B29" s="110" t="s">
+    <row r="29" spans="1:17" s="109" customFormat="1" ht="45">
+      <c r="B29" s="109" t="s">
         <v>1425</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="110" t="s">
         <v>1423</v>
       </c>
-      <c r="D29" s="110">
+      <c r="D29" s="109">
         <v>4</v>
       </c>
-      <c r="E29" s="110">
+      <c r="E29" s="109">
         <v>103</v>
       </c>
-      <c r="F29" s="110">
+      <c r="F29" s="109">
         <v>115</v>
       </c>
-      <c r="G29" s="110" t="s">
+      <c r="G29" s="109" t="s">
         <v>1385</v>
       </c>
-      <c r="H29" s="112">
+      <c r="H29" s="111">
         <v>5000000</v>
       </c>
-      <c r="I29" s="110">
+      <c r="I29" s="109">
         <v>200</v>
       </c>
-      <c r="J29" s="110">
+      <c r="J29" s="109">
         <v>8</v>
       </c>
-      <c r="K29" s="110">
+      <c r="K29" s="109">
         <v>8</v>
       </c>
-      <c r="L29" s="110">
+      <c r="L29" s="109">
         <v>0.25</v>
       </c>
-      <c r="M29" s="110">
+      <c r="M29" s="109">
         <v>-1</v>
       </c>
-      <c r="N29" s="110">
+      <c r="N29" s="109">
         <v>40</v>
       </c>
-      <c r="O29" s="113">
+      <c r="O29" s="112">
         <v>0.05</v>
       </c>
-      <c r="P29" s="111" t="s">
+      <c r="P29" s="110" t="s">
         <v>1380</v>
       </c>
-      <c r="Q29" s="110" t="s">
+      <c r="Q29" s="109" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -38178,6 +38203,109 @@
       </c>
       <c r="Q32" s="42" t="s">
         <v>1404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="45">
+      <c r="A34" s="33" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D34" s="33">
+        <v>0</v>
+      </c>
+      <c r="E34" s="33">
+        <v>76</v>
+      </c>
+      <c r="F34" s="33">
+        <v>107</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H34" s="98">
+        <v>5000000</v>
+      </c>
+      <c r="I34" s="33">
+        <v>200</v>
+      </c>
+      <c r="J34" s="33">
+        <v>8</v>
+      </c>
+      <c r="K34" s="33">
+        <v>8</v>
+      </c>
+      <c r="L34" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="M34" s="33">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="33">
+        <v>40</v>
+      </c>
+      <c r="O34" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q34" s="33" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="45">
+      <c r="B35" s="33" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D35" s="33">
+        <v>5</v>
+      </c>
+      <c r="E35" s="33">
+        <v>76</v>
+      </c>
+      <c r="F35" s="33">
+        <v>107</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H35" s="98">
+        <v>5000000</v>
+      </c>
+      <c r="I35" s="33">
+        <v>200</v>
+      </c>
+      <c r="J35" s="33">
+        <v>8</v>
+      </c>
+      <c r="K35" s="33">
+        <v>8</v>
+      </c>
+      <c r="L35" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="M35" s="33">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="33">
+        <v>40</v>
+      </c>
+      <c r="O35" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1433">
   <si>
     <t>data set</t>
   </si>
@@ -30954,6 +30954,9 @@
   </si>
   <si>
     <t>unconstrained: exp(0.196)</t>
+  </si>
+  <si>
+    <t>dirichlet(ratemultiplier)=0.1%</t>
   </si>
 </sst>
 </file>
@@ -35466,8 +35469,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35934,16 +35937,39 @@
       <c r="B12" s="119" t="s">
         <v>1426</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="120"/>
+      <c r="C12" s="114">
+        <v>-2627.83</v>
+      </c>
+      <c r="D12" s="120">
+        <v>-2628.1174999999998</v>
+      </c>
+      <c r="E12" s="120">
+        <v>-2628.1174999999998</v>
+      </c>
+      <c r="F12" s="120">
+        <v>2.44</v>
+      </c>
+      <c r="G12" s="121">
+        <v>6.9766999999999996E-2</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="I12" s="122" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J12" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="K12" s="123">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="L12" s="123">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="M12" s="120">
+        <v>0.17249999999999999</v>
+      </c>
       <c r="N12" s="124"/>
     </row>
     <row r="13" spans="1:14" s="114" customFormat="1">
@@ -36477,30 +36503,78 @@
       <c r="B28" s="114" t="s">
         <v>1424</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="115"/>
+      <c r="C28" s="115">
+        <v>-1540.29</v>
+      </c>
+      <c r="D28" s="115">
+        <v>-1541.645</v>
+      </c>
+      <c r="E28" s="115">
+        <v>-1541.65</v>
+      </c>
+      <c r="F28" s="115">
+        <v>4.88</v>
+      </c>
+      <c r="G28" s="116">
+        <v>3.1563000000000001E-2</v>
+      </c>
+      <c r="H28" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="I28" s="113" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J28" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="K28" s="117">
+        <v>0.246</v>
+      </c>
+      <c r="L28" s="117">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="M28" s="115">
+        <v>0.1875</v>
+      </c>
       <c r="N28" s="118"/>
     </row>
     <row r="29" spans="1:14" s="113" customFormat="1">
       <c r="B29" s="114" t="s">
         <v>1425</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="115"/>
+      <c r="C29" s="115">
+        <v>-1540.29</v>
+      </c>
+      <c r="D29" s="115">
+        <v>-1541.77</v>
+      </c>
+      <c r="E29" s="115">
+        <v>-1541.77</v>
+      </c>
+      <c r="F29" s="115">
+        <v>4.88</v>
+      </c>
+      <c r="G29" s="116">
+        <v>3.0925000000000001E-2</v>
+      </c>
+      <c r="H29" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="I29" s="113" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J29" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="K29" s="117">
+        <v>0.246</v>
+      </c>
+      <c r="L29" s="117">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="M29" s="115">
+        <v>0.1875</v>
+      </c>
       <c r="N29" s="118"/>
     </row>
     <row r="30" spans="1:14" s="23" customFormat="1">
@@ -36622,18 +36696,88 @@
       </c>
       <c r="N32" s="96"/>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:14" s="13" customFormat="1">
+      <c r="A34" s="13" t="s">
         <v>1428</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="11" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="2" t="s">
+      <c r="C34" s="58">
+        <v>-2661.27</v>
+      </c>
+      <c r="D34" s="58">
+        <v>-2661.57</v>
+      </c>
+      <c r="E34" s="58">
+        <v>-2661.57</v>
+      </c>
+      <c r="F34" s="58">
+        <v>2.7</v>
+      </c>
+      <c r="G34" s="85">
+        <v>4.2689999999999999E-2</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J34" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="K34" s="89">
+        <v>0.254</v>
+      </c>
+      <c r="L34" s="89">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M34" s="58">
+        <v>0.61124999999999996</v>
+      </c>
+      <c r="N34" s="93" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="113" customFormat="1">
+      <c r="B35" s="114" t="s">
         <v>1430</v>
       </c>
+      <c r="C35" s="115">
+        <v>-2583.79</v>
+      </c>
+      <c r="D35" s="115">
+        <v>-2584.29</v>
+      </c>
+      <c r="E35" s="115">
+        <v>-2584.29</v>
+      </c>
+      <c r="F35" s="115">
+        <v>2.61</v>
+      </c>
+      <c r="G35" s="116">
+        <v>5.0677E-2</v>
+      </c>
+      <c r="H35" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="I35" s="122" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J35" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="K35" s="117">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L35" s="117">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M35" s="115">
+        <v>0.32</v>
+      </c>
+      <c r="N35" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36660,7 +36804,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36668,8 +36812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -512,9 +512,6 @@
     <t>weev_devFPexpdownT_ss.nex</t>
   </si>
   <si>
-    <t>dirichlet(ratemultiplier) = 1.5%</t>
-  </si>
-  <si>
     <t>only pos value is in run 4</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>prset applyto=(1) symdirihyperpr=fixed(1.0); prset applyto=(all) ratepr=variable</t>
+  </si>
+  <si>
+    <t>dirichlet(ratemultiplier) = 1.7%</t>
   </si>
 </sst>
 </file>
@@ -4993,8 +4993,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5144,19 +5144,19 @@
         <v>149</v>
       </c>
       <c r="C4" s="55">
-        <v>-2693.12</v>
+        <v>-2691.66</v>
       </c>
       <c r="D4" s="55">
-        <v>-2693.51</v>
+        <v>-2692.085</v>
       </c>
       <c r="E4" s="55">
-        <v>-2693.51</v>
+        <v>-2692.085</v>
       </c>
       <c r="F4" s="55">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="G4" s="79">
-        <v>3.7599E-2</v>
+        <v>4.0413999999999999E-2</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>44</v>
@@ -5171,13 +5171,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="L4" s="83">
-        <v>0.80500000000000005</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="M4" s="55">
-        <v>0.67</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="N4" s="87" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -5296,7 +5296,7 @@
         <v>0.32624999999999998</v>
       </c>
       <c r="N7" s="88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5459,7 +5459,7 @@
     </row>
     <row r="12" spans="1:14" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="106">
         <v>-2627.83</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="28" spans="1:14" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="107">
         <v>-1540.29</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="29" spans="1:14" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="107">
         <v>-1540.29</v>
@@ -6222,10 +6222,10 @@
     </row>
     <row r="34" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="C34" s="55">
         <v>-2661.27</v>
@@ -6261,12 +6261,12 @@
         <v>0.61124999999999996</v>
       </c>
       <c r="N34" s="87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="107">
         <v>-2583.79</v>
@@ -6336,8 +6336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6916,10 +6916,10 @@
     </row>
     <row r="12" spans="1:17" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="102" t="s">
         <v>162</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>163</v>
       </c>
       <c r="D12" s="101">
         <v>7</v>
@@ -7625,10 +7625,10 @@
     </row>
     <row r="28" spans="1:17" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="101">
         <v>5</v>
@@ -7675,10 +7675,10 @@
     </row>
     <row r="29" spans="1:17" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="101">
         <v>4</v>
@@ -7875,10 +7875,10 @@
     </row>
     <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="30" t="s">
         <v>164</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>118</v>
@@ -7923,12 +7923,12 @@
         <v>122</v>
       </c>
       <c r="Q34" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>54</v>
@@ -7973,15 +7973,15 @@
         <v>122</v>
       </c>
       <c r="Q35" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D36" s="30">
         <v>2</v>
@@ -8020,18 +8020,18 @@
         <v>0.05</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q36" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="30">
         <v>5</v>
@@ -8073,7 +8073,7 @@
         <v>122</v>
       </c>
       <c r="Q37" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="173">
   <si>
     <t>data set</t>
   </si>
@@ -643,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -935,6 +935,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4991,10 +4994,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6264,44 +6269,122 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="106" t="s">
+    <row r="35" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="74">
+        <v>-2738.2</v>
+      </c>
+      <c r="D35" s="74">
+        <v>-2738.5</v>
+      </c>
+      <c r="E35" s="74">
+        <v>-2738.5</v>
+      </c>
+      <c r="F35" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="G35" s="81">
+        <v>6.5934999999999994E-2</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="85">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="L35" s="85">
+        <v>0.8</v>
+      </c>
+      <c r="M35" s="74">
+        <v>0.33875</v>
+      </c>
+      <c r="N35" s="118"/>
+    </row>
+    <row r="36" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="56">
+        <v>-2684.5</v>
+      </c>
+      <c r="D36" s="56">
+        <v>-2684.67</v>
+      </c>
+      <c r="E36" s="56">
+        <v>-2684.67</v>
+      </c>
+      <c r="F36" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="98">
+        <v>5.0958999999999997E-2</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="99">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L36" s="99">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M36" s="56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N36" s="100"/>
+    </row>
+    <row r="37" spans="1:14" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="107">
+      <c r="C37" s="107">
         <v>-2583.79</v>
       </c>
-      <c r="D35" s="107">
+      <c r="D37" s="107">
         <v>-2584.29</v>
       </c>
-      <c r="E35" s="107">
+      <c r="E37" s="107">
         <v>-2584.29</v>
       </c>
-      <c r="F35" s="107">
+      <c r="F37" s="107">
         <v>2.61</v>
       </c>
-      <c r="G35" s="108">
+      <c r="G37" s="108">
         <v>5.0677E-2</v>
       </c>
-      <c r="H35" s="105" t="s">
+      <c r="H37" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="114" t="s">
+      <c r="I37" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="J35" s="107" t="s">
+      <c r="J37" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="109">
+      <c r="K37" s="109">
         <v>0.23699999999999999</v>
       </c>
-      <c r="L35" s="109">
+      <c r="L37" s="109">
         <v>0.80800000000000005</v>
       </c>
-      <c r="M35" s="107">
+      <c r="M37" s="107">
         <v>0.32</v>
       </c>
-      <c r="N35" s="110"/>
+      <c r="N37" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6336,8 +6419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7873,206 +7956,206 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:17" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="32">
         <v>0</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="32">
         <v>76</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="32">
         <v>107</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="92">
+      <c r="H34" s="94">
         <v>5000000</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="32">
         <v>200</v>
       </c>
-      <c r="J34" s="30">
-        <v>8</v>
-      </c>
-      <c r="K34" s="30">
-        <v>8</v>
-      </c>
-      <c r="L34" s="30">
+      <c r="J34" s="32">
+        <v>8</v>
+      </c>
+      <c r="K34" s="32">
+        <v>8</v>
+      </c>
+      <c r="L34" s="32">
         <v>0.25</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="32">
         <v>-1</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="32">
         <v>40</v>
       </c>
-      <c r="O34" s="60">
+      <c r="O34" s="61">
         <v>0.05</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="Q34" s="30" t="s">
+      <c r="Q34" s="32" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+    <row r="35" spans="1:17" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="46">
         <v>4</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="46">
         <v>76</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="46">
         <v>107</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="H35" s="92">
+      <c r="H35" s="96">
         <v>5000000</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="46">
         <v>200</v>
       </c>
-      <c r="J35" s="30">
-        <v>8</v>
-      </c>
-      <c r="K35" s="30">
-        <v>8</v>
-      </c>
-      <c r="L35" s="30">
+      <c r="J35" s="46">
+        <v>8</v>
+      </c>
+      <c r="K35" s="46">
+        <v>8</v>
+      </c>
+      <c r="L35" s="46">
         <v>0.25</v>
       </c>
-      <c r="M35" s="30">
+      <c r="M35" s="46">
         <v>-1</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="46">
         <v>40</v>
       </c>
-      <c r="O35" s="60">
+      <c r="O35" s="65">
         <v>0.05</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="Q35" s="30" t="s">
+      <c r="Q35" s="46" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="30" t="s">
+    <row r="36" spans="1:17" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="35">
         <v>2</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="35">
         <v>76</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="35">
         <v>107</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="92">
+      <c r="H36" s="93">
         <v>5000000</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="35">
         <v>200</v>
       </c>
-      <c r="J36" s="30">
-        <v>8</v>
-      </c>
-      <c r="K36" s="30">
-        <v>8</v>
-      </c>
-      <c r="L36" s="30">
+      <c r="J36" s="35">
+        <v>8</v>
+      </c>
+      <c r="K36" s="35">
+        <v>8</v>
+      </c>
+      <c r="L36" s="35">
         <v>0.25</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="35">
         <v>-1</v>
       </c>
-      <c r="N36" s="30">
+      <c r="N36" s="35">
         <v>40</v>
       </c>
-      <c r="O36" s="60">
+      <c r="O36" s="62">
         <v>0.05</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="Q36" s="30" t="s">
+      <c r="Q36" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="30" t="s">
+    <row r="37" spans="1:17" s="101" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="101">
         <v>5</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="101">
         <v>76</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="101">
         <v>107</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="92">
+      <c r="H37" s="103">
         <v>5000000</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="101">
         <v>200</v>
       </c>
-      <c r="J37" s="30">
-        <v>8</v>
-      </c>
-      <c r="K37" s="30">
-        <v>8</v>
-      </c>
-      <c r="L37" s="30">
+      <c r="J37" s="101">
+        <v>8</v>
+      </c>
+      <c r="K37" s="101">
+        <v>8</v>
+      </c>
+      <c r="L37" s="101">
         <v>0.25</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="101">
         <v>-1</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="101">
         <v>40</v>
       </c>
-      <c r="O37" s="60">
+      <c r="O37" s="104">
         <v>0.05</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="Q37" s="30" t="s">
+      <c r="Q37" s="101" t="s">
         <v>166</v>
       </c>
     </row>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -933,11 +933,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3337,10 +3337,10 @@
       <c r="I1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="66" t="s">
         <v>92</v>
       </c>
@@ -5048,10 +5048,10 @@
       <c r="J1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="117" t="s">
+      <c r="K1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="117"/>
+      <c r="L1" s="118"/>
       <c r="M1" s="75" t="s">
         <v>117</v>
       </c>
@@ -6306,7 +6306,7 @@
       <c r="M35" s="74">
         <v>0.33875</v>
       </c>
-      <c r="N35" s="118"/>
+      <c r="N35" s="117"/>
     </row>
     <row r="36" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
@@ -6419,7 +6419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Run outputs" sheetId="3" r:id="rId2"/>
     <sheet name="FromPrior Outputs" sheetId="7" r:id="rId3"/>
     <sheet name="FromPrior Parameters" sheetId="8" r:id="rId4"/>
+    <sheet name="Homoplasy mutations" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="178">
   <si>
     <t>data set</t>
   </si>
@@ -558,6 +559,21 @@
   </si>
   <si>
     <t>dirichlet(ratemultiplier) = 1.7%</t>
+  </si>
+  <si>
+    <t>syllidae</t>
+  </si>
+  <si>
+    <t>syll_hom1.nex</t>
+  </si>
+  <si>
+    <t>from prior</t>
+  </si>
+  <si>
+    <t>4 partitions</t>
+  </si>
+  <si>
+    <t>ranked by homoplasy</t>
   </si>
 </sst>
 </file>
@@ -6419,7 +6435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -8162,4 +8178,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="206">
   <si>
     <t>data set</t>
   </si>
@@ -574,6 +574,90 @@
   </si>
   <si>
     <t>ranked by homoplasy</t>
+  </si>
+  <si>
+    <t>Scolebythidae</t>
+  </si>
+  <si>
+    <t>sco_homk3.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=3</t>
+  </si>
+  <si>
+    <t>sco_homk2.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=2</t>
+  </si>
+  <si>
+    <t>16;</t>
+  </si>
+  <si>
+    <t>9;</t>
+  </si>
+  <si>
+    <t>12;</t>
+  </si>
+  <si>
+    <t>21;</t>
+  </si>
+  <si>
+    <t>charset partD =</t>
+  </si>
+  <si>
+    <t>charset partC =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charset partB = </t>
+  </si>
+  <si>
+    <t>charset partA =</t>
+  </si>
+  <si>
+    <t>charset partB =</t>
+  </si>
+  <si>
+    <t>sco_homk1.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=1</t>
+  </si>
+  <si>
+    <t>sco_homk0_5.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=0.5</t>
+  </si>
+  <si>
+    <t>sco_homk0_25.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=0.25</t>
+  </si>
+  <si>
+    <t>sco_homk4.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=4</t>
+  </si>
+  <si>
+    <t>sco_homk8.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=8</t>
+  </si>
+  <si>
+    <t>sco_homk16.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=16</t>
+  </si>
+  <si>
+    <t>sco_homk32.nex</t>
+  </si>
+  <si>
+    <t>homoplasy k=32</t>
   </si>
 </sst>
 </file>
@@ -8182,21 +8266,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -8213,7 +8298,706 @@
         <v>177</v>
       </c>
     </row>
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="91">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="91">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="91">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>27</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="91">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="214">
   <si>
     <t>data set</t>
   </si>
@@ -654,10 +654,34 @@
     <t>homoplasy k=16</t>
   </si>
   <si>
-    <t>sco_homk32.nex</t>
-  </si>
-  <si>
     <t>homoplasy k=32</t>
+  </si>
+  <si>
+    <t>cea_homk3.nex</t>
+  </si>
+  <si>
+    <t>cea_homk2.nex</t>
+  </si>
+  <si>
+    <t>cea_homk1.nex</t>
+  </si>
+  <si>
+    <t>cea_homk0_5.nex</t>
+  </si>
+  <si>
+    <t>cea_homk4.nex</t>
+  </si>
+  <si>
+    <t>cea_homk8.nex</t>
+  </si>
+  <si>
+    <t>cea_homk16.nex</t>
+  </si>
+  <si>
+    <t>cea_homk0_25.nex</t>
+  </si>
+  <si>
+    <t>cea_homk32.nex</t>
   </si>
 </sst>
 </file>
@@ -743,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1038,6 +1062,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8266,10 +8293,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:BL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8278,7 +8305,9 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="57" width="4" style="91" bestFit="1" customWidth="1"/>
+    <col min="58" max="64" width="9.140625" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8317,22 +8346,22 @@
       <c r="F5" s="91">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="91">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="91">
         <v>11</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="91">
         <v>14</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="91">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="91">
         <v>16</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="91">
         <v>17</v>
       </c>
     </row>
@@ -8343,22 +8372,22 @@
       <c r="F6" s="91">
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="91">
         <v>24</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="91">
         <v>25</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="91">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="91">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="91">
         <v>8</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="91">
         <v>9</v>
       </c>
     </row>
@@ -8369,22 +8398,22 @@
       <c r="F7" s="91">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="91">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="91">
         <v>18</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="91">
         <v>22</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="91">
         <v>26</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="91">
         <v>27</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="91">
         <v>3</v>
       </c>
     </row>
@@ -8395,19 +8424,19 @@
       <c r="F8" s="91">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="91">
         <v>19</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="91">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="91">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="91">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="91">
         <v>21</v>
       </c>
     </row>
@@ -8424,25 +8453,25 @@
       <c r="E9" t="s">
         <v>190</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="91">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="91">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="91">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="91">
         <v>11</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="91">
         <v>14</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="91">
         <v>15</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="91" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8450,25 +8479,25 @@
       <c r="E10" t="s">
         <v>189</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="91">
         <v>17</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="91">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="91">
         <v>24</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="91">
         <v>25</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="91">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="91">
         <v>4</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="91" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8476,25 +8505,25 @@
       <c r="E11" t="s">
         <v>188</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="91">
         <v>18</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="91">
         <v>22</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="91">
         <v>26</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="91">
         <v>27</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="91">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="91">
         <v>5</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="91" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8502,22 +8531,22 @@
       <c r="E12" t="s">
         <v>187</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="91">
         <v>13</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="91">
         <v>19</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="91">
         <v>20</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="91">
         <v>7</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="91">
         <v>10</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="91" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8534,25 +8563,25 @@
       <c r="E13" t="s">
         <v>190</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="91">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="91">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="91">
         <v>8</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="91">
         <v>11</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="91">
         <v>14</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="91">
         <v>15</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="91" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8560,25 +8589,25 @@
       <c r="E14" t="s">
         <v>189</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="91">
         <v>17</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="91">
         <v>23</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="91">
         <v>24</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="91">
         <v>25</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="91">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="91">
         <v>4</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="91" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8586,25 +8615,25 @@
       <c r="E15" t="s">
         <v>188</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="91">
         <v>18</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="91">
         <v>22</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="91">
         <v>26</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="91">
         <v>27</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="91">
         <v>3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="91">
         <v>5</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="91" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8612,22 +8641,22 @@
       <c r="E16" t="s">
         <v>187</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="91">
         <v>13</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="91">
         <v>19</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="91">
         <v>20</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="91">
         <v>7</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="91">
         <v>10</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="91" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8644,25 +8673,25 @@
       <c r="E17" t="s">
         <v>190</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="91">
         <v>2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="91">
         <v>6</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="91">
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="91">
         <v>11</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="91">
         <v>14</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="91">
         <v>15</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="91" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8670,25 +8699,25 @@
       <c r="E18" t="s">
         <v>189</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="91">
         <v>17</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="91">
         <v>23</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="91">
         <v>24</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="91">
         <v>25</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="91">
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="91">
         <v>4</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="91" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8696,25 +8725,25 @@
       <c r="E19" t="s">
         <v>188</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="91">
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="91">
         <v>22</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="91">
         <v>26</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="91">
         <v>27</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="91">
         <v>3</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="91">
         <v>5</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="91" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8722,22 +8751,22 @@
       <c r="E20" t="s">
         <v>187</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="91">
         <v>13</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="91">
         <v>19</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="91">
         <v>20</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="91">
         <v>7</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="91">
         <v>10</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="91" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8754,25 +8783,25 @@
       <c r="E21" t="s">
         <v>190</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="91">
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="91">
         <v>6</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="91">
         <v>8</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="91">
         <v>11</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="91">
         <v>14</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="91">
         <v>15</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="91" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8780,25 +8809,25 @@
       <c r="E22" t="s">
         <v>189</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="91">
         <v>17</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="91">
         <v>23</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="91">
         <v>24</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="91">
         <v>25</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="91">
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="91">
         <v>4</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="91" t="s">
         <v>184</v>
       </c>
     </row>
@@ -8806,25 +8835,25 @@
       <c r="E23" t="s">
         <v>188</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="91">
         <v>18</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="91">
         <v>22</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="91">
         <v>26</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="91">
         <v>27</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="91">
         <v>3</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="91">
         <v>5</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="91" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8832,22 +8861,22 @@
       <c r="E24" t="s">
         <v>187</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="91">
         <v>13</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="91">
         <v>19</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="91">
         <v>20</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="91">
         <v>7</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="91">
         <v>10</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="91" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8909,7 +8938,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>202</v>
       </c>
@@ -8923,27 +8952,27 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
         <v>176</v>
@@ -8951,28 +8980,643 @@
       <c r="E37" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="91">
+        <v>6</v>
+      </c>
+      <c r="G37" s="91">
+        <v>8</v>
+      </c>
+      <c r="H37" s="91">
+        <v>9</v>
+      </c>
+      <c r="I37" s="91">
+        <v>10</v>
+      </c>
+      <c r="J37" s="91">
+        <v>11</v>
+      </c>
+      <c r="K37" s="91">
+        <v>12</v>
+      </c>
+      <c r="L37" s="91">
+        <v>14</v>
+      </c>
+      <c r="M37" s="91">
+        <v>16</v>
+      </c>
+      <c r="N37" s="91">
+        <v>17</v>
+      </c>
+      <c r="O37" s="91">
+        <v>19</v>
+      </c>
+      <c r="P37" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="91">
+        <v>23</v>
+      </c>
+      <c r="R37" s="91">
+        <v>24</v>
+      </c>
+      <c r="S37" s="91">
+        <v>25</v>
+      </c>
+      <c r="T37" s="91">
+        <v>26</v>
+      </c>
+      <c r="U37" s="91">
+        <v>27</v>
+      </c>
+      <c r="V37" s="91">
+        <v>28</v>
+      </c>
+      <c r="W37" s="91">
+        <v>29</v>
+      </c>
+      <c r="X37" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y37" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z37" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA37" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB37" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC37" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD37" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE37" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF37" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG37" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH37" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI37" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ37" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK37" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL37" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM37" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN37" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO37" s="91">
+        <v>60</v>
+      </c>
+      <c r="AP37" s="91">
+        <v>62</v>
+      </c>
+      <c r="AQ37" s="91">
+        <v>64</v>
+      </c>
+      <c r="AR37" s="91">
+        <v>66</v>
+      </c>
+      <c r="AS37" s="91">
+        <v>67</v>
+      </c>
+      <c r="AT37" s="91">
+        <v>68</v>
+      </c>
+      <c r="AU37" s="91">
+        <v>71</v>
+      </c>
+      <c r="AV37" s="91">
+        <v>72</v>
+      </c>
+      <c r="AW37" s="91">
+        <v>74</v>
+      </c>
+      <c r="AX37" s="91">
+        <v>75</v>
+      </c>
+      <c r="AY37" s="91">
+        <v>77</v>
+      </c>
+      <c r="AZ37" s="91">
+        <v>80</v>
+      </c>
+      <c r="BA37" s="91">
+        <v>83</v>
+      </c>
+      <c r="BB37" s="91">
+        <v>86</v>
+      </c>
+      <c r="BC37" s="91">
+        <v>90</v>
+      </c>
+      <c r="BD37" s="91">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="91">
+        <v>96</v>
+      </c>
+      <c r="G38" s="91">
+        <v>102</v>
+      </c>
+      <c r="H38" s="91">
+        <v>107</v>
+      </c>
+      <c r="I38" s="91">
+        <v>108</v>
+      </c>
+      <c r="J38" s="91">
+        <v>109</v>
+      </c>
+      <c r="K38" s="91">
+        <v>111</v>
+      </c>
+      <c r="L38" s="91">
+        <v>112</v>
+      </c>
+      <c r="M38" s="91">
+        <v>117</v>
+      </c>
+      <c r="N38" s="91">
+        <v>118</v>
+      </c>
+      <c r="O38" s="91">
+        <v>120</v>
+      </c>
+      <c r="P38" s="91">
+        <v>121</v>
+      </c>
+      <c r="Q38" s="91">
+        <v>126</v>
+      </c>
+      <c r="R38" s="91">
+        <v>128</v>
+      </c>
+      <c r="S38" s="91">
+        <v>129</v>
+      </c>
+      <c r="T38" s="91">
+        <v>131</v>
+      </c>
+      <c r="U38" s="91">
+        <v>132</v>
+      </c>
+      <c r="V38" s="91">
+        <v>133</v>
+      </c>
+      <c r="W38" s="91">
+        <v>137</v>
+      </c>
+      <c r="X38" s="91">
+        <v>138</v>
+      </c>
+      <c r="Y38" s="91">
+        <v>139</v>
+      </c>
+      <c r="Z38" s="91">
+        <v>141</v>
+      </c>
+      <c r="AA38" s="91">
+        <v>142</v>
+      </c>
+      <c r="AB38" s="91">
+        <v>146</v>
+      </c>
+      <c r="AC38" s="91">
+        <v>151</v>
+      </c>
+      <c r="AD38" s="91">
+        <v>152</v>
+      </c>
+      <c r="AE38" s="91">
+        <v>154</v>
+      </c>
+      <c r="AF38" s="91">
+        <v>155</v>
+      </c>
+      <c r="AG38" s="91">
+        <v>156</v>
+      </c>
+      <c r="AH38" s="91">
+        <v>160</v>
+      </c>
+      <c r="AI38" s="91">
+        <v>161</v>
+      </c>
+      <c r="AJ38" s="91">
+        <v>163</v>
+      </c>
+      <c r="AK38" s="91">
+        <v>164</v>
+      </c>
+      <c r="AL38" s="91">
+        <v>166</v>
+      </c>
+      <c r="AM38" s="91">
+        <v>167</v>
+      </c>
+      <c r="AN38" s="91">
+        <v>168</v>
+      </c>
+      <c r="AO38" s="91">
+        <v>169</v>
+      </c>
+      <c r="AP38" s="91">
+        <v>172</v>
+      </c>
+      <c r="AQ38" s="91">
+        <v>174</v>
+      </c>
+      <c r="AR38" s="91">
+        <v>175</v>
+      </c>
+      <c r="AS38" s="91">
+        <v>176</v>
+      </c>
+      <c r="AT38" s="91">
+        <v>177</v>
+      </c>
+      <c r="AU38" s="91">
+        <v>179</v>
+      </c>
+      <c r="AV38" s="91">
+        <v>181</v>
+      </c>
+      <c r="AW38" s="91">
+        <v>184</v>
+      </c>
+      <c r="AX38" s="91">
+        <v>188</v>
+      </c>
+      <c r="AY38" s="91">
+        <v>189</v>
+      </c>
+      <c r="AZ38" s="91">
+        <v>190</v>
+      </c>
+      <c r="BA38" s="91">
+        <v>192</v>
+      </c>
+      <c r="BB38" s="91">
+        <v>193</v>
+      </c>
+      <c r="BC38" s="91">
+        <v>194</v>
+      </c>
+      <c r="BD38" s="91">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="91">
+        <v>196</v>
+      </c>
+      <c r="G39" s="91">
+        <v>199</v>
+      </c>
+      <c r="H39" s="91">
+        <v>201</v>
+      </c>
+      <c r="I39" s="91">
+        <v>202</v>
+      </c>
+      <c r="J39" s="91">
+        <v>203</v>
+      </c>
+      <c r="K39" s="91">
+        <v>204</v>
+      </c>
+      <c r="L39" s="91">
+        <v>3</v>
+      </c>
+      <c r="M39" s="91">
+        <v>13</v>
+      </c>
+      <c r="N39" s="91">
+        <v>15</v>
+      </c>
+      <c r="O39" s="91">
+        <v>18</v>
+      </c>
+      <c r="P39" s="91">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="91">
+        <v>22</v>
+      </c>
+      <c r="R39" s="91">
+        <v>30</v>
+      </c>
+      <c r="S39" s="91">
+        <v>32</v>
+      </c>
+      <c r="T39" s="91">
+        <v>33</v>
+      </c>
+      <c r="U39" s="91">
+        <v>38</v>
+      </c>
+      <c r="V39" s="91">
+        <v>39</v>
+      </c>
+      <c r="W39" s="91">
+        <v>42</v>
+      </c>
+      <c r="X39" s="91">
+        <v>44</v>
+      </c>
+      <c r="Y39" s="91">
+        <v>48</v>
+      </c>
+      <c r="Z39" s="91">
+        <v>56</v>
+      </c>
+      <c r="AA39" s="91">
+        <v>58</v>
+      </c>
+      <c r="AB39" s="91">
+        <v>61</v>
+      </c>
+      <c r="AC39" s="91">
+        <v>63</v>
+      </c>
+      <c r="AD39" s="91">
+        <v>65</v>
+      </c>
+      <c r="AE39" s="91">
+        <v>69</v>
+      </c>
+      <c r="AF39" s="91">
+        <v>70</v>
+      </c>
+      <c r="AG39" s="91">
+        <v>73</v>
+      </c>
+      <c r="AH39" s="91">
+        <v>78</v>
+      </c>
+      <c r="AI39" s="91">
+        <v>81</v>
+      </c>
+      <c r="AJ39" s="91">
+        <v>84</v>
+      </c>
+      <c r="AK39" s="91">
+        <v>87</v>
+      </c>
+      <c r="AL39" s="91">
+        <v>88</v>
+      </c>
+      <c r="AM39" s="91">
+        <v>89</v>
+      </c>
+      <c r="AN39" s="91">
+        <v>91</v>
+      </c>
+      <c r="AO39" s="91">
+        <v>92</v>
+      </c>
+      <c r="AP39" s="91">
+        <v>94</v>
+      </c>
+      <c r="AQ39" s="91">
+        <v>95</v>
+      </c>
+      <c r="AR39" s="91">
+        <v>99</v>
+      </c>
+      <c r="AS39" s="91">
+        <v>100</v>
+      </c>
+      <c r="AT39" s="91">
+        <v>101</v>
+      </c>
+      <c r="AU39" s="91">
+        <v>104</v>
+      </c>
+      <c r="AV39" s="91">
+        <v>110</v>
+      </c>
+      <c r="AW39" s="91">
+        <v>115</v>
+      </c>
+      <c r="AX39" s="91">
+        <v>116</v>
+      </c>
+      <c r="AY39" s="91">
+        <v>122</v>
+      </c>
+      <c r="AZ39" s="91">
+        <v>123</v>
+      </c>
+      <c r="BA39" s="91">
+        <v>124</v>
+      </c>
+      <c r="BB39" s="91">
+        <v>125</v>
+      </c>
+      <c r="BC39" s="91">
+        <v>130</v>
+      </c>
+      <c r="BD39" s="91">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="91">
+        <v>136</v>
+      </c>
+      <c r="G40" s="91">
+        <v>143</v>
+      </c>
+      <c r="H40" s="91">
+        <v>144</v>
+      </c>
+      <c r="I40" s="91">
+        <v>145</v>
+      </c>
+      <c r="J40" s="91">
+        <v>147</v>
+      </c>
+      <c r="K40" s="91">
+        <v>153</v>
+      </c>
+      <c r="L40" s="91">
+        <v>158</v>
+      </c>
+      <c r="M40" s="91">
+        <v>165</v>
+      </c>
+      <c r="N40" s="91">
+        <v>170</v>
+      </c>
+      <c r="O40" s="91">
+        <v>171</v>
+      </c>
+      <c r="P40" s="91">
+        <v>173</v>
+      </c>
+      <c r="Q40" s="91">
+        <v>178</v>
+      </c>
+      <c r="R40" s="91">
+        <v>180</v>
+      </c>
+      <c r="S40" s="91">
+        <v>182</v>
+      </c>
+      <c r="T40" s="91">
+        <v>183</v>
+      </c>
+      <c r="U40" s="91">
+        <v>186</v>
+      </c>
+      <c r="V40" s="91">
+        <v>197</v>
+      </c>
+      <c r="W40" s="91">
+        <v>1</v>
+      </c>
+      <c r="X40" s="91">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="91">
+        <v>4</v>
+      </c>
+      <c r="Z40" s="91">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="91">
+        <v>53</v>
+      </c>
+      <c r="AB40" s="91">
+        <v>85</v>
+      </c>
+      <c r="AC40" s="91">
+        <v>97</v>
+      </c>
+      <c r="AD40" s="91">
+        <v>98</v>
+      </c>
+      <c r="AE40" s="91">
+        <v>105</v>
+      </c>
+      <c r="AF40" s="91">
+        <v>113</v>
+      </c>
+      <c r="AG40" s="91">
+        <v>114</v>
+      </c>
+      <c r="AH40" s="91">
+        <v>119</v>
+      </c>
+      <c r="AI40" s="91">
+        <v>127</v>
+      </c>
+      <c r="AJ40" s="91">
+        <v>134</v>
+      </c>
+      <c r="AK40" s="91">
+        <v>140</v>
+      </c>
+      <c r="AL40" s="91">
+        <v>148</v>
+      </c>
+      <c r="AM40" s="91">
+        <v>149</v>
+      </c>
+      <c r="AN40" s="91">
+        <v>150</v>
+      </c>
+      <c r="AO40" s="91">
+        <v>157</v>
+      </c>
+      <c r="AP40" s="91">
+        <v>159</v>
+      </c>
+      <c r="AQ40" s="91">
+        <v>162</v>
+      </c>
+      <c r="AR40" s="91">
+        <v>185</v>
+      </c>
+      <c r="AS40" s="91">
+        <v>187</v>
+      </c>
+      <c r="AT40" s="91">
+        <v>191</v>
+      </c>
+      <c r="AU40" s="91">
+        <v>198</v>
+      </c>
+      <c r="AV40" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW40" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX40" s="91">
+        <v>79</v>
+      </c>
+      <c r="AY40" s="91">
+        <v>205</v>
+      </c>
+      <c r="AZ40" s="91">
+        <v>76</v>
+      </c>
+      <c r="BA40" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB40" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC40" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD40" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE40" s="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
         <v>176</v>
@@ -8980,20 +9624,5143 @@
       <c r="E41" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="91">
+        <v>6</v>
+      </c>
+      <c r="G41" s="91">
+        <v>8</v>
+      </c>
+      <c r="H41" s="91">
+        <v>9</v>
+      </c>
+      <c r="I41" s="91">
+        <v>10</v>
+      </c>
+      <c r="J41" s="91">
+        <v>11</v>
+      </c>
+      <c r="K41" s="91">
+        <v>12</v>
+      </c>
+      <c r="L41" s="91">
+        <v>14</v>
+      </c>
+      <c r="M41" s="91">
+        <v>16</v>
+      </c>
+      <c r="N41" s="91">
+        <v>17</v>
+      </c>
+      <c r="O41" s="91">
+        <v>19</v>
+      </c>
+      <c r="P41" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="91">
+        <v>23</v>
+      </c>
+      <c r="R41" s="91">
+        <v>24</v>
+      </c>
+      <c r="S41" s="91">
+        <v>25</v>
+      </c>
+      <c r="T41" s="91">
+        <v>26</v>
+      </c>
+      <c r="U41" s="91">
+        <v>27</v>
+      </c>
+      <c r="V41" s="91">
+        <v>28</v>
+      </c>
+      <c r="W41" s="91">
+        <v>29</v>
+      </c>
+      <c r="X41" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y41" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z41" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA41" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB41" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC41" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD41" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE41" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF41" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG41" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH41" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI41" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ41" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK41" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL41" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM41" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN41" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO41" s="91">
+        <v>60</v>
+      </c>
+      <c r="AP41" s="91">
+        <v>62</v>
+      </c>
+      <c r="AQ41" s="91">
+        <v>64</v>
+      </c>
+      <c r="AR41" s="91">
+        <v>66</v>
+      </c>
+      <c r="AS41" s="91">
+        <v>67</v>
+      </c>
+      <c r="AT41" s="91">
+        <v>68</v>
+      </c>
+      <c r="AU41" s="91">
+        <v>71</v>
+      </c>
+      <c r="AV41" s="91">
+        <v>72</v>
+      </c>
+      <c r="AW41" s="91">
+        <v>74</v>
+      </c>
+      <c r="AX41" s="91">
+        <v>75</v>
+      </c>
+      <c r="AY41" s="91">
+        <v>77</v>
+      </c>
+      <c r="AZ41" s="91">
+        <v>80</v>
+      </c>
+      <c r="BA41" s="91">
+        <v>83</v>
+      </c>
+      <c r="BB41" s="91">
+        <v>86</v>
+      </c>
+      <c r="BC41" s="91">
+        <v>90</v>
+      </c>
+      <c r="BD41" s="91">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="91">
+        <v>96</v>
+      </c>
+      <c r="G42" s="91">
+        <v>102</v>
+      </c>
+      <c r="H42" s="91">
+        <v>107</v>
+      </c>
+      <c r="I42" s="91">
+        <v>108</v>
+      </c>
+      <c r="J42" s="91">
+        <v>109</v>
+      </c>
+      <c r="K42" s="91">
+        <v>111</v>
+      </c>
+      <c r="L42" s="91">
+        <v>112</v>
+      </c>
+      <c r="M42" s="91">
+        <v>117</v>
+      </c>
+      <c r="N42" s="91">
+        <v>118</v>
+      </c>
+      <c r="O42" s="91">
+        <v>120</v>
+      </c>
+      <c r="P42" s="91">
+        <v>121</v>
+      </c>
+      <c r="Q42" s="91">
+        <v>126</v>
+      </c>
+      <c r="R42" s="91">
+        <v>128</v>
+      </c>
+      <c r="S42" s="91">
+        <v>129</v>
+      </c>
+      <c r="T42" s="91">
+        <v>131</v>
+      </c>
+      <c r="U42" s="91">
+        <v>132</v>
+      </c>
+      <c r="V42" s="91">
+        <v>133</v>
+      </c>
+      <c r="W42" s="91">
+        <v>137</v>
+      </c>
+      <c r="X42" s="91">
+        <v>138</v>
+      </c>
+      <c r="Y42" s="91">
+        <v>139</v>
+      </c>
+      <c r="Z42" s="91">
+        <v>141</v>
+      </c>
+      <c r="AA42" s="91">
+        <v>142</v>
+      </c>
+      <c r="AB42" s="91">
+        <v>146</v>
+      </c>
+      <c r="AC42" s="91">
+        <v>151</v>
+      </c>
+      <c r="AD42" s="91">
+        <v>152</v>
+      </c>
+      <c r="AE42" s="91">
+        <v>154</v>
+      </c>
+      <c r="AF42" s="91">
+        <v>155</v>
+      </c>
+      <c r="AG42" s="91">
+        <v>156</v>
+      </c>
+      <c r="AH42" s="91">
+        <v>160</v>
+      </c>
+      <c r="AI42" s="91">
+        <v>161</v>
+      </c>
+      <c r="AJ42" s="91">
+        <v>163</v>
+      </c>
+      <c r="AK42" s="91">
+        <v>164</v>
+      </c>
+      <c r="AL42" s="91">
+        <v>166</v>
+      </c>
+      <c r="AM42" s="91">
+        <v>167</v>
+      </c>
+      <c r="AN42" s="91">
+        <v>168</v>
+      </c>
+      <c r="AO42" s="91">
+        <v>169</v>
+      </c>
+      <c r="AP42" s="91">
+        <v>172</v>
+      </c>
+      <c r="AQ42" s="91">
+        <v>174</v>
+      </c>
+      <c r="AR42" s="91">
+        <v>175</v>
+      </c>
+      <c r="AS42" s="91">
+        <v>176</v>
+      </c>
+      <c r="AT42" s="91">
+        <v>177</v>
+      </c>
+      <c r="AU42" s="91">
+        <v>179</v>
+      </c>
+      <c r="AV42" s="91">
+        <v>181</v>
+      </c>
+      <c r="AW42" s="91">
+        <v>184</v>
+      </c>
+      <c r="AX42" s="91">
+        <v>188</v>
+      </c>
+      <c r="AY42" s="91">
+        <v>189</v>
+      </c>
+      <c r="AZ42" s="91">
+        <v>190</v>
+      </c>
+      <c r="BA42" s="91">
+        <v>192</v>
+      </c>
+      <c r="BB42" s="91">
+        <v>193</v>
+      </c>
+      <c r="BC42" s="91">
+        <v>194</v>
+      </c>
+      <c r="BD42" s="91">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="91">
+        <v>196</v>
+      </c>
+      <c r="G43" s="91">
+        <v>199</v>
+      </c>
+      <c r="H43" s="91">
+        <v>201</v>
+      </c>
+      <c r="I43" s="91">
+        <v>202</v>
+      </c>
+      <c r="J43" s="91">
+        <v>203</v>
+      </c>
+      <c r="K43" s="91">
+        <v>204</v>
+      </c>
+      <c r="L43" s="91">
+        <v>3</v>
+      </c>
+      <c r="M43" s="91">
+        <v>13</v>
+      </c>
+      <c r="N43" s="91">
+        <v>15</v>
+      </c>
+      <c r="O43" s="91">
+        <v>18</v>
+      </c>
+      <c r="P43" s="91">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="91">
+        <v>22</v>
+      </c>
+      <c r="R43" s="91">
+        <v>30</v>
+      </c>
+      <c r="S43" s="91">
+        <v>32</v>
+      </c>
+      <c r="T43" s="91">
+        <v>33</v>
+      </c>
+      <c r="U43" s="91">
+        <v>38</v>
+      </c>
+      <c r="V43" s="91">
+        <v>39</v>
+      </c>
+      <c r="W43" s="91">
+        <v>42</v>
+      </c>
+      <c r="X43" s="91">
+        <v>44</v>
+      </c>
+      <c r="Y43" s="91">
+        <v>48</v>
+      </c>
+      <c r="Z43" s="91">
+        <v>56</v>
+      </c>
+      <c r="AA43" s="91">
+        <v>58</v>
+      </c>
+      <c r="AB43" s="91">
+        <v>61</v>
+      </c>
+      <c r="AC43" s="91">
+        <v>63</v>
+      </c>
+      <c r="AD43" s="91">
+        <v>65</v>
+      </c>
+      <c r="AE43" s="91">
+        <v>69</v>
+      </c>
+      <c r="AF43" s="91">
+        <v>70</v>
+      </c>
+      <c r="AG43" s="91">
+        <v>73</v>
+      </c>
+      <c r="AH43" s="91">
+        <v>78</v>
+      </c>
+      <c r="AI43" s="91">
+        <v>81</v>
+      </c>
+      <c r="AJ43" s="91">
+        <v>84</v>
+      </c>
+      <c r="AK43" s="91">
+        <v>87</v>
+      </c>
+      <c r="AL43" s="91">
+        <v>88</v>
+      </c>
+      <c r="AM43" s="91">
+        <v>89</v>
+      </c>
+      <c r="AN43" s="91">
+        <v>91</v>
+      </c>
+      <c r="AO43" s="91">
+        <v>92</v>
+      </c>
+      <c r="AP43" s="91">
+        <v>94</v>
+      </c>
+      <c r="AQ43" s="91">
+        <v>95</v>
+      </c>
+      <c r="AR43" s="91">
+        <v>99</v>
+      </c>
+      <c r="AS43" s="91">
+        <v>100</v>
+      </c>
+      <c r="AT43" s="91">
+        <v>101</v>
+      </c>
+      <c r="AU43" s="91">
+        <v>104</v>
+      </c>
+      <c r="AV43" s="91">
+        <v>110</v>
+      </c>
+      <c r="AW43" s="91">
+        <v>115</v>
+      </c>
+      <c r="AX43" s="91">
+        <v>116</v>
+      </c>
+      <c r="AY43" s="91">
+        <v>122</v>
+      </c>
+      <c r="AZ43" s="91">
+        <v>123</v>
+      </c>
+      <c r="BA43" s="91">
+        <v>124</v>
+      </c>
+      <c r="BB43" s="91">
+        <v>125</v>
+      </c>
+      <c r="BC43" s="91">
+        <v>130</v>
+      </c>
+      <c r="BD43" s="91">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>187</v>
+      </c>
+      <c r="F44" s="91">
+        <v>136</v>
+      </c>
+      <c r="G44" s="91">
+        <v>143</v>
+      </c>
+      <c r="H44" s="91">
+        <v>144</v>
+      </c>
+      <c r="I44" s="91">
+        <v>145</v>
+      </c>
+      <c r="J44" s="91">
+        <v>147</v>
+      </c>
+      <c r="K44" s="91">
+        <v>153</v>
+      </c>
+      <c r="L44" s="91">
+        <v>158</v>
+      </c>
+      <c r="M44" s="91">
+        <v>165</v>
+      </c>
+      <c r="N44" s="91">
+        <v>170</v>
+      </c>
+      <c r="O44" s="91">
+        <v>171</v>
+      </c>
+      <c r="P44" s="91">
+        <v>173</v>
+      </c>
+      <c r="Q44" s="91">
+        <v>178</v>
+      </c>
+      <c r="R44" s="91">
+        <v>180</v>
+      </c>
+      <c r="S44" s="91">
+        <v>182</v>
+      </c>
+      <c r="T44" s="91">
+        <v>183</v>
+      </c>
+      <c r="U44" s="91">
+        <v>186</v>
+      </c>
+      <c r="V44" s="91">
+        <v>197</v>
+      </c>
+      <c r="W44" s="91">
+        <v>1</v>
+      </c>
+      <c r="X44" s="91">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="91">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="91">
+        <v>7</v>
+      </c>
+      <c r="AA44" s="91">
+        <v>53</v>
+      </c>
+      <c r="AB44" s="91">
+        <v>85</v>
+      </c>
+      <c r="AC44" s="91">
+        <v>97</v>
+      </c>
+      <c r="AD44" s="91">
+        <v>98</v>
+      </c>
+      <c r="AE44" s="91">
+        <v>105</v>
+      </c>
+      <c r="AF44" s="91">
+        <v>113</v>
+      </c>
+      <c r="AG44" s="91">
+        <v>114</v>
+      </c>
+      <c r="AH44" s="91">
+        <v>119</v>
+      </c>
+      <c r="AI44" s="91">
+        <v>127</v>
+      </c>
+      <c r="AJ44" s="91">
+        <v>134</v>
+      </c>
+      <c r="AK44" s="91">
+        <v>140</v>
+      </c>
+      <c r="AL44" s="91">
+        <v>148</v>
+      </c>
+      <c r="AM44" s="91">
+        <v>149</v>
+      </c>
+      <c r="AN44" s="91">
+        <v>150</v>
+      </c>
+      <c r="AO44" s="91">
+        <v>157</v>
+      </c>
+      <c r="AP44" s="91">
+        <v>159</v>
+      </c>
+      <c r="AQ44" s="91">
+        <v>162</v>
+      </c>
+      <c r="AR44" s="91">
+        <v>185</v>
+      </c>
+      <c r="AS44" s="91">
+        <v>187</v>
+      </c>
+      <c r="AT44" s="91">
+        <v>191</v>
+      </c>
+      <c r="AU44" s="91">
+        <v>198</v>
+      </c>
+      <c r="AV44" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW44" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX44" s="91">
+        <v>79</v>
+      </c>
+      <c r="AY44" s="91">
+        <v>205</v>
+      </c>
+      <c r="AZ44" s="91">
+        <v>76</v>
+      </c>
+      <c r="BA44" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB44" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC44" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD44" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE44" s="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="91">
+        <v>6</v>
+      </c>
+      <c r="G45" s="91">
+        <v>8</v>
+      </c>
+      <c r="H45" s="91">
+        <v>9</v>
+      </c>
+      <c r="I45" s="91">
+        <v>10</v>
+      </c>
+      <c r="J45" s="91">
+        <v>11</v>
+      </c>
+      <c r="K45" s="91">
+        <v>12</v>
+      </c>
+      <c r="L45" s="91">
+        <v>14</v>
+      </c>
+      <c r="M45" s="91">
+        <v>16</v>
+      </c>
+      <c r="N45" s="91">
+        <v>17</v>
+      </c>
+      <c r="O45" s="91">
+        <v>19</v>
+      </c>
+      <c r="P45" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="91">
+        <v>23</v>
+      </c>
+      <c r="R45" s="91">
+        <v>24</v>
+      </c>
+      <c r="S45" s="91">
+        <v>25</v>
+      </c>
+      <c r="T45" s="91">
+        <v>26</v>
+      </c>
+      <c r="U45" s="91">
+        <v>27</v>
+      </c>
+      <c r="V45" s="91">
+        <v>28</v>
+      </c>
+      <c r="W45" s="91">
+        <v>29</v>
+      </c>
+      <c r="X45" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y45" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z45" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA45" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB45" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC45" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD45" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE45" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF45" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG45" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH45" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI45" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ45" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK45" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL45" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM45" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN45" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO45" s="91">
+        <v>62</v>
+      </c>
+      <c r="AP45" s="91">
+        <v>64</v>
+      </c>
+      <c r="AQ45" s="91">
+        <v>66</v>
+      </c>
+      <c r="AR45" s="91">
+        <v>67</v>
+      </c>
+      <c r="AS45" s="91">
+        <v>68</v>
+      </c>
+      <c r="AT45" s="91">
+        <v>71</v>
+      </c>
+      <c r="AU45" s="91">
+        <v>72</v>
+      </c>
+      <c r="AV45" s="91">
+        <v>75</v>
+      </c>
+      <c r="AW45" s="91">
+        <v>77</v>
+      </c>
+      <c r="AX45" s="91">
+        <v>80</v>
+      </c>
+      <c r="AY45" s="91">
+        <v>83</v>
+      </c>
+      <c r="AZ45" s="91">
+        <v>86</v>
+      </c>
+      <c r="BA45" s="91">
+        <v>90</v>
+      </c>
+      <c r="BB45" s="91">
+        <v>93</v>
+      </c>
+      <c r="BC45" s="91">
+        <v>96</v>
+      </c>
+      <c r="BD45" s="91">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="91">
+        <v>107</v>
+      </c>
+      <c r="G46" s="91">
+        <v>108</v>
+      </c>
+      <c r="H46" s="91">
+        <v>109</v>
+      </c>
+      <c r="I46" s="91">
+        <v>111</v>
+      </c>
+      <c r="J46" s="91">
+        <v>112</v>
+      </c>
+      <c r="K46" s="91">
+        <v>117</v>
+      </c>
+      <c r="L46" s="91">
+        <v>118</v>
+      </c>
+      <c r="M46" s="91">
+        <v>120</v>
+      </c>
+      <c r="N46" s="91">
+        <v>121</v>
+      </c>
+      <c r="O46" s="91">
+        <v>126</v>
+      </c>
+      <c r="P46" s="91">
+        <v>128</v>
+      </c>
+      <c r="Q46" s="91">
+        <v>129</v>
+      </c>
+      <c r="R46" s="91">
+        <v>131</v>
+      </c>
+      <c r="S46" s="91">
+        <v>132</v>
+      </c>
+      <c r="T46" s="91">
+        <v>133</v>
+      </c>
+      <c r="U46" s="91">
+        <v>137</v>
+      </c>
+      <c r="V46" s="91">
+        <v>138</v>
+      </c>
+      <c r="W46" s="91">
+        <v>139</v>
+      </c>
+      <c r="X46" s="91">
+        <v>141</v>
+      </c>
+      <c r="Y46" s="91">
+        <v>142</v>
+      </c>
+      <c r="Z46" s="91">
+        <v>144</v>
+      </c>
+      <c r="AA46" s="91">
+        <v>146</v>
+      </c>
+      <c r="AB46" s="91">
+        <v>151</v>
+      </c>
+      <c r="AC46" s="91">
+        <v>152</v>
+      </c>
+      <c r="AD46" s="91">
+        <v>154</v>
+      </c>
+      <c r="AE46" s="91">
+        <v>155</v>
+      </c>
+      <c r="AF46" s="91">
+        <v>156</v>
+      </c>
+      <c r="AG46" s="91">
+        <v>160</v>
+      </c>
+      <c r="AH46" s="91">
+        <v>161</v>
+      </c>
+      <c r="AI46" s="91">
+        <v>163</v>
+      </c>
+      <c r="AJ46" s="91">
+        <v>164</v>
+      </c>
+      <c r="AK46" s="91">
+        <v>166</v>
+      </c>
+      <c r="AL46" s="91">
+        <v>167</v>
+      </c>
+      <c r="AM46" s="91">
+        <v>168</v>
+      </c>
+      <c r="AN46" s="91">
+        <v>169</v>
+      </c>
+      <c r="AO46" s="91">
+        <v>172</v>
+      </c>
+      <c r="AP46" s="91">
+        <v>174</v>
+      </c>
+      <c r="AQ46" s="91">
+        <v>175</v>
+      </c>
+      <c r="AR46" s="91">
+        <v>176</v>
+      </c>
+      <c r="AS46" s="91">
+        <v>177</v>
+      </c>
+      <c r="AT46" s="91">
+        <v>179</v>
+      </c>
+      <c r="AU46" s="91">
+        <v>181</v>
+      </c>
+      <c r="AV46" s="91">
+        <v>184</v>
+      </c>
+      <c r="AW46" s="91">
+        <v>188</v>
+      </c>
+      <c r="AX46" s="91">
+        <v>189</v>
+      </c>
+      <c r="AY46" s="91">
+        <v>190</v>
+      </c>
+      <c r="AZ46" s="91">
+        <v>192</v>
+      </c>
+      <c r="BA46" s="91">
+        <v>193</v>
+      </c>
+      <c r="BB46" s="91">
+        <v>194</v>
+      </c>
+      <c r="BC46" s="91">
+        <v>195</v>
+      </c>
+      <c r="BD46" s="91">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="91">
+        <v>199</v>
+      </c>
+      <c r="G47" s="91">
+        <v>201</v>
+      </c>
+      <c r="H47" s="91">
+        <v>202</v>
+      </c>
+      <c r="I47" s="91">
+        <v>203</v>
+      </c>
+      <c r="J47" s="91">
+        <v>204</v>
+      </c>
+      <c r="K47" s="91">
+        <v>56</v>
+      </c>
+      <c r="L47" s="91">
+        <v>60</v>
+      </c>
+      <c r="M47" s="91">
+        <v>74</v>
+      </c>
+      <c r="N47" s="91">
+        <v>135</v>
+      </c>
+      <c r="O47" s="91">
+        <v>3</v>
+      </c>
+      <c r="P47" s="91">
+        <v>13</v>
+      </c>
+      <c r="Q47" s="91">
+        <v>15</v>
+      </c>
+      <c r="R47" s="91">
+        <v>18</v>
+      </c>
+      <c r="S47" s="91">
+        <v>20</v>
+      </c>
+      <c r="T47" s="91">
+        <v>22</v>
+      </c>
+      <c r="U47" s="91">
+        <v>30</v>
+      </c>
+      <c r="V47" s="91">
+        <v>32</v>
+      </c>
+      <c r="W47" s="91">
+        <v>33</v>
+      </c>
+      <c r="X47" s="91">
+        <v>38</v>
+      </c>
+      <c r="Y47" s="91">
+        <v>39</v>
+      </c>
+      <c r="Z47" s="91">
+        <v>42</v>
+      </c>
+      <c r="AA47" s="91">
+        <v>44</v>
+      </c>
+      <c r="AB47" s="91">
+        <v>48</v>
+      </c>
+      <c r="AC47" s="91">
+        <v>58</v>
+      </c>
+      <c r="AD47" s="91">
+        <v>61</v>
+      </c>
+      <c r="AE47" s="91">
+        <v>63</v>
+      </c>
+      <c r="AF47" s="91">
+        <v>65</v>
+      </c>
+      <c r="AG47" s="91">
+        <v>69</v>
+      </c>
+      <c r="AH47" s="91">
+        <v>70</v>
+      </c>
+      <c r="AI47" s="91">
+        <v>73</v>
+      </c>
+      <c r="AJ47" s="91">
+        <v>78</v>
+      </c>
+      <c r="AK47" s="91">
+        <v>81</v>
+      </c>
+      <c r="AL47" s="91">
+        <v>84</v>
+      </c>
+      <c r="AM47" s="91">
+        <v>87</v>
+      </c>
+      <c r="AN47" s="91">
+        <v>88</v>
+      </c>
+      <c r="AO47" s="91">
+        <v>89</v>
+      </c>
+      <c r="AP47" s="91">
+        <v>91</v>
+      </c>
+      <c r="AQ47" s="91">
+        <v>92</v>
+      </c>
+      <c r="AR47" s="91">
+        <v>95</v>
+      </c>
+      <c r="AS47" s="91">
+        <v>100</v>
+      </c>
+      <c r="AT47" s="91">
+        <v>101</v>
+      </c>
+      <c r="AU47" s="91">
+        <v>104</v>
+      </c>
+      <c r="AV47" s="91">
+        <v>110</v>
+      </c>
+      <c r="AW47" s="91">
+        <v>115</v>
+      </c>
+      <c r="AX47" s="91">
+        <v>116</v>
+      </c>
+      <c r="AY47" s="91">
+        <v>122</v>
+      </c>
+      <c r="AZ47" s="91">
+        <v>123</v>
+      </c>
+      <c r="BA47" s="91">
+        <v>124</v>
+      </c>
+      <c r="BB47" s="91">
+        <v>125</v>
+      </c>
+      <c r="BC47" s="91">
+        <v>130</v>
+      </c>
+      <c r="BD47" s="91">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="91">
+        <v>143</v>
+      </c>
+      <c r="G48" s="91">
+        <v>145</v>
+      </c>
+      <c r="H48" s="91">
+        <v>147</v>
+      </c>
+      <c r="I48" s="91">
+        <v>153</v>
+      </c>
+      <c r="J48" s="91">
+        <v>158</v>
+      </c>
+      <c r="K48" s="91">
+        <v>165</v>
+      </c>
+      <c r="L48" s="91">
+        <v>170</v>
+      </c>
+      <c r="M48" s="91">
+        <v>171</v>
+      </c>
+      <c r="N48" s="91">
+        <v>173</v>
+      </c>
+      <c r="O48" s="91">
+        <v>178</v>
+      </c>
+      <c r="P48" s="91">
+        <v>180</v>
+      </c>
+      <c r="Q48" s="91">
+        <v>182</v>
+      </c>
+      <c r="R48" s="91">
+        <v>183</v>
+      </c>
+      <c r="S48" s="91">
+        <v>186</v>
+      </c>
+      <c r="T48" s="91">
+        <v>197</v>
+      </c>
+      <c r="U48" s="91">
+        <v>1</v>
+      </c>
+      <c r="V48" s="91">
+        <v>2</v>
+      </c>
+      <c r="W48" s="91">
+        <v>4</v>
+      </c>
+      <c r="X48" s="91">
+        <v>7</v>
+      </c>
+      <c r="Y48" s="91">
+        <v>53</v>
+      </c>
+      <c r="Z48" s="91">
+        <v>85</v>
+      </c>
+      <c r="AA48" s="91">
+        <v>94</v>
+      </c>
+      <c r="AB48" s="91">
+        <v>97</v>
+      </c>
+      <c r="AC48" s="91">
+        <v>98</v>
+      </c>
+      <c r="AD48" s="91">
+        <v>99</v>
+      </c>
+      <c r="AE48" s="91">
+        <v>105</v>
+      </c>
+      <c r="AF48" s="91">
+        <v>113</v>
+      </c>
+      <c r="AG48" s="91">
+        <v>114</v>
+      </c>
+      <c r="AH48" s="91">
+        <v>119</v>
+      </c>
+      <c r="AI48" s="91">
+        <v>127</v>
+      </c>
+      <c r="AJ48" s="91">
+        <v>134</v>
+      </c>
+      <c r="AK48" s="91">
+        <v>140</v>
+      </c>
+      <c r="AL48" s="91">
+        <v>148</v>
+      </c>
+      <c r="AM48" s="91">
+        <v>149</v>
+      </c>
+      <c r="AN48" s="91">
+        <v>150</v>
+      </c>
+      <c r="AO48" s="91">
+        <v>157</v>
+      </c>
+      <c r="AP48" s="91">
+        <v>159</v>
+      </c>
+      <c r="AQ48" s="91">
+        <v>162</v>
+      </c>
+      <c r="AR48" s="91">
+        <v>185</v>
+      </c>
+      <c r="AS48" s="91">
+        <v>187</v>
+      </c>
+      <c r="AT48" s="91">
+        <v>191</v>
+      </c>
+      <c r="AU48" s="91">
+        <v>198</v>
+      </c>
+      <c r="AV48" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW48" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX48" s="91">
+        <v>205</v>
+      </c>
+      <c r="AY48" s="91">
+        <v>76</v>
+      </c>
+      <c r="AZ48" s="91">
+        <v>79</v>
+      </c>
+      <c r="BA48" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB48" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC48" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD48" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE48" s="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="91">
+        <v>6</v>
+      </c>
+      <c r="G49" s="91">
+        <v>8</v>
+      </c>
+      <c r="H49" s="91">
+        <v>9</v>
+      </c>
+      <c r="I49" s="91">
+        <v>10</v>
+      </c>
+      <c r="J49" s="91">
+        <v>11</v>
+      </c>
+      <c r="K49" s="91">
+        <v>12</v>
+      </c>
+      <c r="L49" s="91">
+        <v>14</v>
+      </c>
+      <c r="M49" s="91">
+        <v>16</v>
+      </c>
+      <c r="N49" s="91">
+        <v>17</v>
+      </c>
+      <c r="O49" s="91">
+        <v>19</v>
+      </c>
+      <c r="P49" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="91">
+        <v>23</v>
+      </c>
+      <c r="R49" s="91">
+        <v>24</v>
+      </c>
+      <c r="S49" s="91">
+        <v>25</v>
+      </c>
+      <c r="T49" s="91">
+        <v>26</v>
+      </c>
+      <c r="U49" s="91">
+        <v>27</v>
+      </c>
+      <c r="V49" s="91">
+        <v>28</v>
+      </c>
+      <c r="W49" s="91">
+        <v>29</v>
+      </c>
+      <c r="X49" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y49" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z49" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA49" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB49" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC49" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD49" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE49" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF49" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG49" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH49" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI49" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ49" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK49" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL49" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM49" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN49" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO49" s="91">
+        <v>62</v>
+      </c>
+      <c r="AP49" s="91">
+        <v>64</v>
+      </c>
+      <c r="AQ49" s="91">
+        <v>66</v>
+      </c>
+      <c r="AR49" s="91">
+        <v>67</v>
+      </c>
+      <c r="AS49" s="91">
+        <v>68</v>
+      </c>
+      <c r="AT49" s="91">
+        <v>71</v>
+      </c>
+      <c r="AU49" s="91">
+        <v>72</v>
+      </c>
+      <c r="AV49" s="91">
+        <v>75</v>
+      </c>
+      <c r="AW49" s="91">
+        <v>77</v>
+      </c>
+      <c r="AX49" s="91">
+        <v>80</v>
+      </c>
+      <c r="AY49" s="91">
+        <v>83</v>
+      </c>
+      <c r="AZ49" s="91">
+        <v>86</v>
+      </c>
+      <c r="BA49" s="91">
+        <v>90</v>
+      </c>
+      <c r="BB49" s="91">
+        <v>93</v>
+      </c>
+      <c r="BC49" s="91">
+        <v>96</v>
+      </c>
+      <c r="BD49" s="91">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="91">
+        <v>107</v>
+      </c>
+      <c r="G50" s="91">
+        <v>108</v>
+      </c>
+      <c r="H50" s="91">
+        <v>109</v>
+      </c>
+      <c r="I50" s="91">
+        <v>111</v>
+      </c>
+      <c r="J50" s="91">
+        <v>112</v>
+      </c>
+      <c r="K50" s="91">
+        <v>117</v>
+      </c>
+      <c r="L50" s="91">
+        <v>118</v>
+      </c>
+      <c r="M50" s="91">
+        <v>120</v>
+      </c>
+      <c r="N50" s="91">
+        <v>121</v>
+      </c>
+      <c r="O50" s="91">
+        <v>126</v>
+      </c>
+      <c r="P50" s="91">
+        <v>128</v>
+      </c>
+      <c r="Q50" s="91">
+        <v>129</v>
+      </c>
+      <c r="R50" s="91">
+        <v>131</v>
+      </c>
+      <c r="S50" s="91">
+        <v>132</v>
+      </c>
+      <c r="T50" s="91">
+        <v>133</v>
+      </c>
+      <c r="U50" s="91">
+        <v>137</v>
+      </c>
+      <c r="V50" s="91">
+        <v>138</v>
+      </c>
+      <c r="W50" s="91">
+        <v>139</v>
+      </c>
+      <c r="X50" s="91">
+        <v>141</v>
+      </c>
+      <c r="Y50" s="91">
+        <v>142</v>
+      </c>
+      <c r="Z50" s="91">
+        <v>144</v>
+      </c>
+      <c r="AA50" s="91">
+        <v>146</v>
+      </c>
+      <c r="AB50" s="91">
+        <v>151</v>
+      </c>
+      <c r="AC50" s="91">
+        <v>152</v>
+      </c>
+      <c r="AD50" s="91">
+        <v>154</v>
+      </c>
+      <c r="AE50" s="91">
+        <v>155</v>
+      </c>
+      <c r="AF50" s="91">
+        <v>156</v>
+      </c>
+      <c r="AG50" s="91">
+        <v>160</v>
+      </c>
+      <c r="AH50" s="91">
+        <v>161</v>
+      </c>
+      <c r="AI50" s="91">
+        <v>163</v>
+      </c>
+      <c r="AJ50" s="91">
+        <v>164</v>
+      </c>
+      <c r="AK50" s="91">
+        <v>166</v>
+      </c>
+      <c r="AL50" s="91">
+        <v>167</v>
+      </c>
+      <c r="AM50" s="91">
+        <v>168</v>
+      </c>
+      <c r="AN50" s="91">
+        <v>169</v>
+      </c>
+      <c r="AO50" s="91">
+        <v>172</v>
+      </c>
+      <c r="AP50" s="91">
+        <v>174</v>
+      </c>
+      <c r="AQ50" s="91">
+        <v>175</v>
+      </c>
+      <c r="AR50" s="91">
+        <v>176</v>
+      </c>
+      <c r="AS50" s="91">
+        <v>177</v>
+      </c>
+      <c r="AT50" s="91">
+        <v>179</v>
+      </c>
+      <c r="AU50" s="91">
+        <v>181</v>
+      </c>
+      <c r="AV50" s="91">
+        <v>184</v>
+      </c>
+      <c r="AW50" s="91">
+        <v>188</v>
+      </c>
+      <c r="AX50" s="91">
+        <v>189</v>
+      </c>
+      <c r="AY50" s="91">
+        <v>190</v>
+      </c>
+      <c r="AZ50" s="91">
+        <v>192</v>
+      </c>
+      <c r="BA50" s="91">
+        <v>193</v>
+      </c>
+      <c r="BB50" s="91">
+        <v>194</v>
+      </c>
+      <c r="BC50" s="91">
+        <v>195</v>
+      </c>
+      <c r="BD50" s="91">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" s="91">
+        <v>199</v>
+      </c>
+      <c r="G51" s="91">
+        <v>201</v>
+      </c>
+      <c r="H51" s="91">
+        <v>202</v>
+      </c>
+      <c r="I51" s="91">
+        <v>203</v>
+      </c>
+      <c r="J51" s="91">
+        <v>204</v>
+      </c>
+      <c r="K51" s="91">
+        <v>56</v>
+      </c>
+      <c r="L51" s="91">
+        <v>60</v>
+      </c>
+      <c r="M51" s="91">
+        <v>74</v>
+      </c>
+      <c r="N51" s="91">
+        <v>135</v>
+      </c>
+      <c r="O51" s="91">
+        <v>3</v>
+      </c>
+      <c r="P51" s="91">
+        <v>13</v>
+      </c>
+      <c r="Q51" s="91">
+        <v>15</v>
+      </c>
+      <c r="R51" s="91">
+        <v>18</v>
+      </c>
+      <c r="S51" s="91">
+        <v>20</v>
+      </c>
+      <c r="T51" s="91">
+        <v>22</v>
+      </c>
+      <c r="U51" s="91">
+        <v>30</v>
+      </c>
+      <c r="V51" s="91">
+        <v>32</v>
+      </c>
+      <c r="W51" s="91">
+        <v>33</v>
+      </c>
+      <c r="X51" s="91">
+        <v>38</v>
+      </c>
+      <c r="Y51" s="91">
+        <v>39</v>
+      </c>
+      <c r="Z51" s="91">
+        <v>42</v>
+      </c>
+      <c r="AA51" s="91">
+        <v>44</v>
+      </c>
+      <c r="AB51" s="91">
+        <v>48</v>
+      </c>
+      <c r="AC51" s="91">
+        <v>58</v>
+      </c>
+      <c r="AD51" s="91">
+        <v>61</v>
+      </c>
+      <c r="AE51" s="91">
+        <v>63</v>
+      </c>
+      <c r="AF51" s="91">
+        <v>65</v>
+      </c>
+      <c r="AG51" s="91">
+        <v>69</v>
+      </c>
+      <c r="AH51" s="91">
+        <v>70</v>
+      </c>
+      <c r="AI51" s="91">
+        <v>73</v>
+      </c>
+      <c r="AJ51" s="91">
+        <v>78</v>
+      </c>
+      <c r="AK51" s="91">
+        <v>81</v>
+      </c>
+      <c r="AL51" s="91">
+        <v>84</v>
+      </c>
+      <c r="AM51" s="91">
+        <v>87</v>
+      </c>
+      <c r="AN51" s="91">
+        <v>88</v>
+      </c>
+      <c r="AO51" s="91">
+        <v>89</v>
+      </c>
+      <c r="AP51" s="91">
+        <v>91</v>
+      </c>
+      <c r="AQ51" s="91">
+        <v>92</v>
+      </c>
+      <c r="AR51" s="91">
+        <v>95</v>
+      </c>
+      <c r="AS51" s="91">
+        <v>100</v>
+      </c>
+      <c r="AT51" s="91">
+        <v>101</v>
+      </c>
+      <c r="AU51" s="91">
+        <v>104</v>
+      </c>
+      <c r="AV51" s="91">
+        <v>110</v>
+      </c>
+      <c r="AW51" s="91">
+        <v>115</v>
+      </c>
+      <c r="AX51" s="91">
+        <v>116</v>
+      </c>
+      <c r="AY51" s="91">
+        <v>122</v>
+      </c>
+      <c r="AZ51" s="91">
+        <v>123</v>
+      </c>
+      <c r="BA51" s="91">
+        <v>124</v>
+      </c>
+      <c r="BB51" s="91">
+        <v>125</v>
+      </c>
+      <c r="BC51" s="91">
+        <v>130</v>
+      </c>
+      <c r="BD51" s="91">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="91">
+        <v>143</v>
+      </c>
+      <c r="G52" s="91">
+        <v>145</v>
+      </c>
+      <c r="H52" s="91">
+        <v>147</v>
+      </c>
+      <c r="I52" s="91">
+        <v>153</v>
+      </c>
+      <c r="J52" s="91">
+        <v>158</v>
+      </c>
+      <c r="K52" s="91">
+        <v>165</v>
+      </c>
+      <c r="L52" s="91">
+        <v>170</v>
+      </c>
+      <c r="M52" s="91">
+        <v>171</v>
+      </c>
+      <c r="N52" s="91">
+        <v>173</v>
+      </c>
+      <c r="O52" s="91">
+        <v>178</v>
+      </c>
+      <c r="P52" s="91">
+        <v>180</v>
+      </c>
+      <c r="Q52" s="91">
+        <v>182</v>
+      </c>
+      <c r="R52" s="91">
+        <v>183</v>
+      </c>
+      <c r="S52" s="91">
+        <v>186</v>
+      </c>
+      <c r="T52" s="91">
+        <v>197</v>
+      </c>
+      <c r="U52" s="91">
+        <v>1</v>
+      </c>
+      <c r="V52" s="91">
+        <v>2</v>
+      </c>
+      <c r="W52" s="91">
+        <v>4</v>
+      </c>
+      <c r="X52" s="91">
+        <v>7</v>
+      </c>
+      <c r="Y52" s="91">
+        <v>53</v>
+      </c>
+      <c r="Z52" s="91">
+        <v>85</v>
+      </c>
+      <c r="AA52" s="91">
+        <v>94</v>
+      </c>
+      <c r="AB52" s="91">
+        <v>97</v>
+      </c>
+      <c r="AC52" s="91">
+        <v>98</v>
+      </c>
+      <c r="AD52" s="91">
+        <v>99</v>
+      </c>
+      <c r="AE52" s="91">
+        <v>105</v>
+      </c>
+      <c r="AF52" s="91">
+        <v>113</v>
+      </c>
+      <c r="AG52" s="91">
+        <v>114</v>
+      </c>
+      <c r="AH52" s="91">
+        <v>119</v>
+      </c>
+      <c r="AI52" s="91">
+        <v>127</v>
+      </c>
+      <c r="AJ52" s="91">
+        <v>134</v>
+      </c>
+      <c r="AK52" s="91">
+        <v>140</v>
+      </c>
+      <c r="AL52" s="91">
+        <v>148</v>
+      </c>
+      <c r="AM52" s="91">
+        <v>149</v>
+      </c>
+      <c r="AN52" s="91">
+        <v>150</v>
+      </c>
+      <c r="AO52" s="91">
+        <v>157</v>
+      </c>
+      <c r="AP52" s="91">
+        <v>159</v>
+      </c>
+      <c r="AQ52" s="91">
+        <v>162</v>
+      </c>
+      <c r="AR52" s="91">
+        <v>185</v>
+      </c>
+      <c r="AS52" s="91">
+        <v>187</v>
+      </c>
+      <c r="AT52" s="91">
+        <v>191</v>
+      </c>
+      <c r="AU52" s="91">
+        <v>198</v>
+      </c>
+      <c r="AV52" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW52" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX52" s="91">
+        <v>205</v>
+      </c>
+      <c r="AY52" s="91">
+        <v>76</v>
+      </c>
+      <c r="AZ52" s="91">
+        <v>79</v>
+      </c>
+      <c r="BA52" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB52" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC52" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD52" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE52" s="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="91">
+        <v>6</v>
+      </c>
+      <c r="G53" s="91">
+        <v>8</v>
+      </c>
+      <c r="H53" s="91">
+        <v>9</v>
+      </c>
+      <c r="I53" s="91">
+        <v>10</v>
+      </c>
+      <c r="J53" s="91">
+        <v>11</v>
+      </c>
+      <c r="K53" s="91">
+        <v>12</v>
+      </c>
+      <c r="L53" s="91">
+        <v>14</v>
+      </c>
+      <c r="M53" s="91">
+        <v>16</v>
+      </c>
+      <c r="N53" s="91">
+        <v>17</v>
+      </c>
+      <c r="O53" s="91">
+        <v>19</v>
+      </c>
+      <c r="P53" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q53" s="91">
+        <v>23</v>
+      </c>
+      <c r="R53" s="91">
+        <v>24</v>
+      </c>
+      <c r="S53" s="91">
+        <v>25</v>
+      </c>
+      <c r="T53" s="91">
+        <v>26</v>
+      </c>
+      <c r="U53" s="91">
+        <v>27</v>
+      </c>
+      <c r="V53" s="91">
+        <v>28</v>
+      </c>
+      <c r="W53" s="91">
+        <v>29</v>
+      </c>
+      <c r="X53" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y53" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z53" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA53" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB53" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC53" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD53" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE53" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF53" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG53" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH53" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI53" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ53" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK53" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL53" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM53" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN53" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO53" s="91">
+        <v>62</v>
+      </c>
+      <c r="AP53" s="91">
+        <v>64</v>
+      </c>
+      <c r="AQ53" s="91">
+        <v>66</v>
+      </c>
+      <c r="AR53" s="91">
+        <v>67</v>
+      </c>
+      <c r="AS53" s="91">
+        <v>68</v>
+      </c>
+      <c r="AT53" s="91">
+        <v>71</v>
+      </c>
+      <c r="AU53" s="91">
+        <v>72</v>
+      </c>
+      <c r="AV53" s="91">
+        <v>75</v>
+      </c>
+      <c r="AW53" s="91">
+        <v>77</v>
+      </c>
+      <c r="AX53" s="91">
+        <v>80</v>
+      </c>
+      <c r="AY53" s="91">
+        <v>83</v>
+      </c>
+      <c r="AZ53" s="91">
+        <v>86</v>
+      </c>
+      <c r="BA53" s="91">
+        <v>90</v>
+      </c>
+      <c r="BB53" s="91">
+        <v>93</v>
+      </c>
+      <c r="BC53" s="91">
+        <v>96</v>
+      </c>
+      <c r="BD53" s="91">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="91">
+        <v>107</v>
+      </c>
+      <c r="G54" s="91">
+        <v>108</v>
+      </c>
+      <c r="H54" s="91">
+        <v>109</v>
+      </c>
+      <c r="I54" s="91">
+        <v>111</v>
+      </c>
+      <c r="J54" s="91">
+        <v>112</v>
+      </c>
+      <c r="K54" s="91">
+        <v>117</v>
+      </c>
+      <c r="L54" s="91">
+        <v>118</v>
+      </c>
+      <c r="M54" s="91">
+        <v>120</v>
+      </c>
+      <c r="N54" s="91">
+        <v>121</v>
+      </c>
+      <c r="O54" s="91">
+        <v>126</v>
+      </c>
+      <c r="P54" s="91">
+        <v>128</v>
+      </c>
+      <c r="Q54" s="91">
+        <v>129</v>
+      </c>
+      <c r="R54" s="91">
+        <v>131</v>
+      </c>
+      <c r="S54" s="91">
+        <v>132</v>
+      </c>
+      <c r="T54" s="91">
+        <v>133</v>
+      </c>
+      <c r="U54" s="91">
+        <v>137</v>
+      </c>
+      <c r="V54" s="91">
+        <v>138</v>
+      </c>
+      <c r="W54" s="91">
+        <v>139</v>
+      </c>
+      <c r="X54" s="91">
+        <v>141</v>
+      </c>
+      <c r="Y54" s="91">
+        <v>142</v>
+      </c>
+      <c r="Z54" s="91">
+        <v>144</v>
+      </c>
+      <c r="AA54" s="91">
+        <v>146</v>
+      </c>
+      <c r="AB54" s="91">
+        <v>151</v>
+      </c>
+      <c r="AC54" s="91">
+        <v>152</v>
+      </c>
+      <c r="AD54" s="91">
+        <v>154</v>
+      </c>
+      <c r="AE54" s="91">
+        <v>155</v>
+      </c>
+      <c r="AF54" s="91">
+        <v>156</v>
+      </c>
+      <c r="AG54" s="91">
+        <v>160</v>
+      </c>
+      <c r="AH54" s="91">
+        <v>161</v>
+      </c>
+      <c r="AI54" s="91">
+        <v>163</v>
+      </c>
+      <c r="AJ54" s="91">
+        <v>164</v>
+      </c>
+      <c r="AK54" s="91">
+        <v>166</v>
+      </c>
+      <c r="AL54" s="91">
+        <v>167</v>
+      </c>
+      <c r="AM54" s="91">
+        <v>168</v>
+      </c>
+      <c r="AN54" s="91">
+        <v>169</v>
+      </c>
+      <c r="AO54" s="91">
+        <v>172</v>
+      </c>
+      <c r="AP54" s="91">
+        <v>174</v>
+      </c>
+      <c r="AQ54" s="91">
+        <v>175</v>
+      </c>
+      <c r="AR54" s="91">
+        <v>176</v>
+      </c>
+      <c r="AS54" s="91">
+        <v>177</v>
+      </c>
+      <c r="AT54" s="91">
+        <v>179</v>
+      </c>
+      <c r="AU54" s="91">
+        <v>181</v>
+      </c>
+      <c r="AV54" s="91">
+        <v>184</v>
+      </c>
+      <c r="AW54" s="91">
+        <v>188</v>
+      </c>
+      <c r="AX54" s="91">
+        <v>189</v>
+      </c>
+      <c r="AY54" s="91">
+        <v>190</v>
+      </c>
+      <c r="AZ54" s="91">
+        <v>192</v>
+      </c>
+      <c r="BA54" s="91">
+        <v>193</v>
+      </c>
+      <c r="BB54" s="91">
+        <v>194</v>
+      </c>
+      <c r="BC54" s="91">
+        <v>195</v>
+      </c>
+      <c r="BD54" s="91">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="91">
+        <v>199</v>
+      </c>
+      <c r="G55" s="91">
+        <v>201</v>
+      </c>
+      <c r="H55" s="91">
+        <v>202</v>
+      </c>
+      <c r="I55" s="91">
+        <v>203</v>
+      </c>
+      <c r="J55" s="91">
+        <v>204</v>
+      </c>
+      <c r="K55" s="91">
+        <v>56</v>
+      </c>
+      <c r="L55" s="91">
+        <v>60</v>
+      </c>
+      <c r="M55" s="91">
+        <v>74</v>
+      </c>
+      <c r="N55" s="91">
+        <v>135</v>
+      </c>
+      <c r="O55" s="91">
+        <v>3</v>
+      </c>
+      <c r="P55" s="91">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="91">
+        <v>15</v>
+      </c>
+      <c r="R55" s="91">
+        <v>18</v>
+      </c>
+      <c r="S55" s="91">
+        <v>20</v>
+      </c>
+      <c r="T55" s="91">
+        <v>22</v>
+      </c>
+      <c r="U55" s="91">
+        <v>30</v>
+      </c>
+      <c r="V55" s="91">
+        <v>32</v>
+      </c>
+      <c r="W55" s="91">
+        <v>33</v>
+      </c>
+      <c r="X55" s="91">
+        <v>38</v>
+      </c>
+      <c r="Y55" s="91">
+        <v>39</v>
+      </c>
+      <c r="Z55" s="91">
+        <v>42</v>
+      </c>
+      <c r="AA55" s="91">
+        <v>44</v>
+      </c>
+      <c r="AB55" s="91">
+        <v>48</v>
+      </c>
+      <c r="AC55" s="91">
+        <v>58</v>
+      </c>
+      <c r="AD55" s="91">
+        <v>61</v>
+      </c>
+      <c r="AE55" s="91">
+        <v>63</v>
+      </c>
+      <c r="AF55" s="91">
+        <v>65</v>
+      </c>
+      <c r="AG55" s="91">
+        <v>69</v>
+      </c>
+      <c r="AH55" s="91">
+        <v>70</v>
+      </c>
+      <c r="AI55" s="91">
+        <v>73</v>
+      </c>
+      <c r="AJ55" s="91">
+        <v>78</v>
+      </c>
+      <c r="AK55" s="91">
+        <v>81</v>
+      </c>
+      <c r="AL55" s="91">
+        <v>84</v>
+      </c>
+      <c r="AM55" s="91">
+        <v>87</v>
+      </c>
+      <c r="AN55" s="91">
+        <v>88</v>
+      </c>
+      <c r="AO55" s="91">
+        <v>89</v>
+      </c>
+      <c r="AP55" s="91">
+        <v>91</v>
+      </c>
+      <c r="AQ55" s="91">
+        <v>92</v>
+      </c>
+      <c r="AR55" s="91">
+        <v>95</v>
+      </c>
+      <c r="AS55" s="91">
+        <v>100</v>
+      </c>
+      <c r="AT55" s="91">
+        <v>101</v>
+      </c>
+      <c r="AU55" s="91">
+        <v>104</v>
+      </c>
+      <c r="AV55" s="91">
+        <v>110</v>
+      </c>
+      <c r="AW55" s="91">
+        <v>115</v>
+      </c>
+      <c r="AX55" s="91">
+        <v>116</v>
+      </c>
+      <c r="AY55" s="91">
+        <v>122</v>
+      </c>
+      <c r="AZ55" s="91">
+        <v>123</v>
+      </c>
+      <c r="BA55" s="91">
+        <v>124</v>
+      </c>
+      <c r="BB55" s="91">
+        <v>125</v>
+      </c>
+      <c r="BC55" s="91">
+        <v>130</v>
+      </c>
+      <c r="BD55" s="91">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="91">
+        <v>143</v>
+      </c>
+      <c r="G56" s="91">
+        <v>145</v>
+      </c>
+      <c r="H56" s="91">
+        <v>147</v>
+      </c>
+      <c r="I56" s="91">
+        <v>153</v>
+      </c>
+      <c r="J56" s="91">
+        <v>158</v>
+      </c>
+      <c r="K56" s="91">
+        <v>165</v>
+      </c>
+      <c r="L56" s="91">
+        <v>170</v>
+      </c>
+      <c r="M56" s="91">
+        <v>171</v>
+      </c>
+      <c r="N56" s="91">
+        <v>173</v>
+      </c>
+      <c r="O56" s="91">
+        <v>178</v>
+      </c>
+      <c r="P56" s="91">
+        <v>180</v>
+      </c>
+      <c r="Q56" s="91">
+        <v>182</v>
+      </c>
+      <c r="R56" s="91">
+        <v>183</v>
+      </c>
+      <c r="S56" s="91">
+        <v>186</v>
+      </c>
+      <c r="T56" s="91">
+        <v>197</v>
+      </c>
+      <c r="U56" s="91">
+        <v>1</v>
+      </c>
+      <c r="V56" s="91">
+        <v>2</v>
+      </c>
+      <c r="W56" s="91">
+        <v>4</v>
+      </c>
+      <c r="X56" s="91">
+        <v>7</v>
+      </c>
+      <c r="Y56" s="91">
+        <v>53</v>
+      </c>
+      <c r="Z56" s="91">
+        <v>85</v>
+      </c>
+      <c r="AA56" s="91">
+        <v>94</v>
+      </c>
+      <c r="AB56" s="91">
+        <v>97</v>
+      </c>
+      <c r="AC56" s="91">
+        <v>98</v>
+      </c>
+      <c r="AD56" s="91">
+        <v>99</v>
+      </c>
+      <c r="AE56" s="91">
+        <v>105</v>
+      </c>
+      <c r="AF56" s="91">
+        <v>113</v>
+      </c>
+      <c r="AG56" s="91">
+        <v>114</v>
+      </c>
+      <c r="AH56" s="91">
+        <v>119</v>
+      </c>
+      <c r="AI56" s="91">
+        <v>127</v>
+      </c>
+      <c r="AJ56" s="91">
+        <v>134</v>
+      </c>
+      <c r="AK56" s="91">
+        <v>140</v>
+      </c>
+      <c r="AL56" s="91">
+        <v>148</v>
+      </c>
+      <c r="AM56" s="91">
+        <v>149</v>
+      </c>
+      <c r="AN56" s="91">
+        <v>150</v>
+      </c>
+      <c r="AO56" s="91">
+        <v>157</v>
+      </c>
+      <c r="AP56" s="91">
+        <v>159</v>
+      </c>
+      <c r="AQ56" s="91">
+        <v>162</v>
+      </c>
+      <c r="AR56" s="91">
+        <v>185</v>
+      </c>
+      <c r="AS56" s="91">
+        <v>187</v>
+      </c>
+      <c r="AT56" s="91">
+        <v>191</v>
+      </c>
+      <c r="AU56" s="91">
+        <v>198</v>
+      </c>
+      <c r="AV56" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW56" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX56" s="91">
+        <v>205</v>
+      </c>
+      <c r="AY56" s="91">
+        <v>76</v>
+      </c>
+      <c r="AZ56" s="91">
+        <v>79</v>
+      </c>
+      <c r="BA56" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB56" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC56" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD56" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE56" s="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="91">
+        <v>6</v>
+      </c>
+      <c r="G57" s="91">
+        <v>8</v>
+      </c>
+      <c r="H57" s="91">
+        <v>9</v>
+      </c>
+      <c r="I57" s="91">
+        <v>10</v>
+      </c>
+      <c r="J57" s="91">
+        <v>11</v>
+      </c>
+      <c r="K57" s="91">
+        <v>12</v>
+      </c>
+      <c r="L57" s="91">
+        <v>14</v>
+      </c>
+      <c r="M57" s="91">
+        <v>16</v>
+      </c>
+      <c r="N57" s="91">
+        <v>17</v>
+      </c>
+      <c r="O57" s="91">
+        <v>19</v>
+      </c>
+      <c r="P57" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="91">
+        <v>23</v>
+      </c>
+      <c r="R57" s="91">
+        <v>24</v>
+      </c>
+      <c r="S57" s="91">
+        <v>25</v>
+      </c>
+      <c r="T57" s="91">
+        <v>26</v>
+      </c>
+      <c r="U57" s="91">
+        <v>27</v>
+      </c>
+      <c r="V57" s="91">
+        <v>28</v>
+      </c>
+      <c r="W57" s="91">
+        <v>29</v>
+      </c>
+      <c r="X57" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y57" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z57" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA57" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB57" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC57" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD57" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE57" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF57" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG57" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH57" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI57" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ57" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK57" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL57" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM57" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN57" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO57" s="91">
+        <v>60</v>
+      </c>
+      <c r="AP57" s="91">
+        <v>62</v>
+      </c>
+      <c r="AQ57" s="91">
+        <v>64</v>
+      </c>
+      <c r="AR57" s="91">
+        <v>66</v>
+      </c>
+      <c r="AS57" s="91">
+        <v>67</v>
+      </c>
+      <c r="AT57" s="91">
+        <v>68</v>
+      </c>
+      <c r="AU57" s="91">
+        <v>71</v>
+      </c>
+      <c r="AV57" s="91">
+        <v>72</v>
+      </c>
+      <c r="AW57" s="91">
+        <v>74</v>
+      </c>
+      <c r="AX57" s="91">
+        <v>75</v>
+      </c>
+      <c r="AY57" s="91">
+        <v>77</v>
+      </c>
+      <c r="AZ57" s="91">
+        <v>80</v>
+      </c>
+      <c r="BA57" s="91">
+        <v>83</v>
+      </c>
+      <c r="BB57" s="91">
+        <v>86</v>
+      </c>
+      <c r="BC57" s="91">
+        <v>90</v>
+      </c>
+      <c r="BD57" s="91">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="91">
+        <v>96</v>
+      </c>
+      <c r="G58" s="91">
+        <v>102</v>
+      </c>
+      <c r="H58" s="91">
+        <v>107</v>
+      </c>
+      <c r="I58" s="91">
+        <v>108</v>
+      </c>
+      <c r="J58" s="91">
+        <v>109</v>
+      </c>
+      <c r="K58" s="91">
+        <v>111</v>
+      </c>
+      <c r="L58" s="91">
+        <v>112</v>
+      </c>
+      <c r="M58" s="91">
+        <v>117</v>
+      </c>
+      <c r="N58" s="91">
+        <v>118</v>
+      </c>
+      <c r="O58" s="91">
+        <v>120</v>
+      </c>
+      <c r="P58" s="91">
+        <v>121</v>
+      </c>
+      <c r="Q58" s="91">
+        <v>126</v>
+      </c>
+      <c r="R58" s="91">
+        <v>128</v>
+      </c>
+      <c r="S58" s="91">
+        <v>129</v>
+      </c>
+      <c r="T58" s="91">
+        <v>131</v>
+      </c>
+      <c r="U58" s="91">
+        <v>132</v>
+      </c>
+      <c r="V58" s="91">
+        <v>133</v>
+      </c>
+      <c r="W58" s="91">
+        <v>137</v>
+      </c>
+      <c r="X58" s="91">
+        <v>138</v>
+      </c>
+      <c r="Y58" s="91">
+        <v>139</v>
+      </c>
+      <c r="Z58" s="91">
+        <v>141</v>
+      </c>
+      <c r="AA58" s="91">
+        <v>142</v>
+      </c>
+      <c r="AB58" s="91">
+        <v>146</v>
+      </c>
+      <c r="AC58" s="91">
+        <v>151</v>
+      </c>
+      <c r="AD58" s="91">
+        <v>152</v>
+      </c>
+      <c r="AE58" s="91">
+        <v>154</v>
+      </c>
+      <c r="AF58" s="91">
+        <v>155</v>
+      </c>
+      <c r="AG58" s="91">
+        <v>156</v>
+      </c>
+      <c r="AH58" s="91">
+        <v>160</v>
+      </c>
+      <c r="AI58" s="91">
+        <v>161</v>
+      </c>
+      <c r="AJ58" s="91">
+        <v>163</v>
+      </c>
+      <c r="AK58" s="91">
+        <v>164</v>
+      </c>
+      <c r="AL58" s="91">
+        <v>166</v>
+      </c>
+      <c r="AM58" s="91">
+        <v>167</v>
+      </c>
+      <c r="AN58" s="91">
+        <v>168</v>
+      </c>
+      <c r="AO58" s="91">
+        <v>169</v>
+      </c>
+      <c r="AP58" s="91">
+        <v>172</v>
+      </c>
+      <c r="AQ58" s="91">
+        <v>174</v>
+      </c>
+      <c r="AR58" s="91">
+        <v>175</v>
+      </c>
+      <c r="AS58" s="91">
+        <v>176</v>
+      </c>
+      <c r="AT58" s="91">
+        <v>177</v>
+      </c>
+      <c r="AU58" s="91">
+        <v>179</v>
+      </c>
+      <c r="AV58" s="91">
+        <v>181</v>
+      </c>
+      <c r="AW58" s="91">
+        <v>184</v>
+      </c>
+      <c r="AX58" s="91">
+        <v>188</v>
+      </c>
+      <c r="AY58" s="91">
+        <v>189</v>
+      </c>
+      <c r="AZ58" s="91">
+        <v>190</v>
+      </c>
+      <c r="BA58" s="91">
+        <v>192</v>
+      </c>
+      <c r="BB58" s="91">
+        <v>193</v>
+      </c>
+      <c r="BC58" s="91">
+        <v>194</v>
+      </c>
+      <c r="BD58" s="91">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" s="91">
+        <v>196</v>
+      </c>
+      <c r="G59" s="91">
+        <v>199</v>
+      </c>
+      <c r="H59" s="91">
+        <v>201</v>
+      </c>
+      <c r="I59" s="91">
+        <v>202</v>
+      </c>
+      <c r="J59" s="91">
+        <v>203</v>
+      </c>
+      <c r="K59" s="91">
+        <v>204</v>
+      </c>
+      <c r="L59" s="91">
+        <v>3</v>
+      </c>
+      <c r="M59" s="91">
+        <v>13</v>
+      </c>
+      <c r="N59" s="91">
+        <v>15</v>
+      </c>
+      <c r="O59" s="91">
+        <v>18</v>
+      </c>
+      <c r="P59" s="91">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="91">
+        <v>22</v>
+      </c>
+      <c r="R59" s="91">
+        <v>30</v>
+      </c>
+      <c r="S59" s="91">
+        <v>32</v>
+      </c>
+      <c r="T59" s="91">
+        <v>33</v>
+      </c>
+      <c r="U59" s="91">
+        <v>38</v>
+      </c>
+      <c r="V59" s="91">
+        <v>39</v>
+      </c>
+      <c r="W59" s="91">
+        <v>42</v>
+      </c>
+      <c r="X59" s="91">
+        <v>44</v>
+      </c>
+      <c r="Y59" s="91">
+        <v>48</v>
+      </c>
+      <c r="Z59" s="91">
+        <v>56</v>
+      </c>
+      <c r="AA59" s="91">
+        <v>58</v>
+      </c>
+      <c r="AB59" s="91">
+        <v>61</v>
+      </c>
+      <c r="AC59" s="91">
+        <v>63</v>
+      </c>
+      <c r="AD59" s="91">
+        <v>65</v>
+      </c>
+      <c r="AE59" s="91">
+        <v>69</v>
+      </c>
+      <c r="AF59" s="91">
+        <v>70</v>
+      </c>
+      <c r="AG59" s="91">
+        <v>73</v>
+      </c>
+      <c r="AH59" s="91">
+        <v>78</v>
+      </c>
+      <c r="AI59" s="91">
+        <v>81</v>
+      </c>
+      <c r="AJ59" s="91">
+        <v>84</v>
+      </c>
+      <c r="AK59" s="91">
+        <v>87</v>
+      </c>
+      <c r="AL59" s="91">
+        <v>88</v>
+      </c>
+      <c r="AM59" s="91">
+        <v>89</v>
+      </c>
+      <c r="AN59" s="91">
+        <v>91</v>
+      </c>
+      <c r="AO59" s="91">
+        <v>92</v>
+      </c>
+      <c r="AP59" s="91">
+        <v>94</v>
+      </c>
+      <c r="AQ59" s="91">
+        <v>95</v>
+      </c>
+      <c r="AR59" s="91">
+        <v>99</v>
+      </c>
+      <c r="AS59" s="91">
+        <v>100</v>
+      </c>
+      <c r="AT59" s="91">
+        <v>101</v>
+      </c>
+      <c r="AU59" s="91">
+        <v>104</v>
+      </c>
+      <c r="AV59" s="91">
+        <v>110</v>
+      </c>
+      <c r="AW59" s="91">
+        <v>115</v>
+      </c>
+      <c r="AX59" s="91">
+        <v>116</v>
+      </c>
+      <c r="AY59" s="91">
+        <v>122</v>
+      </c>
+      <c r="AZ59" s="91">
+        <v>123</v>
+      </c>
+      <c r="BA59" s="91">
+        <v>124</v>
+      </c>
+      <c r="BB59" s="91">
+        <v>125</v>
+      </c>
+      <c r="BC59" s="91">
+        <v>130</v>
+      </c>
+      <c r="BD59" s="91">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="91">
+        <v>136</v>
+      </c>
+      <c r="G60" s="91">
+        <v>143</v>
+      </c>
+      <c r="H60" s="91">
+        <v>144</v>
+      </c>
+      <c r="I60" s="91">
+        <v>145</v>
+      </c>
+      <c r="J60" s="91">
+        <v>147</v>
+      </c>
+      <c r="K60" s="91">
+        <v>153</v>
+      </c>
+      <c r="L60" s="91">
+        <v>158</v>
+      </c>
+      <c r="M60" s="91">
+        <v>165</v>
+      </c>
+      <c r="N60" s="91">
+        <v>170</v>
+      </c>
+      <c r="O60" s="91">
+        <v>171</v>
+      </c>
+      <c r="P60" s="91">
+        <v>173</v>
+      </c>
+      <c r="Q60" s="91">
+        <v>178</v>
+      </c>
+      <c r="R60" s="91">
+        <v>180</v>
+      </c>
+      <c r="S60" s="91">
+        <v>182</v>
+      </c>
+      <c r="T60" s="91">
+        <v>183</v>
+      </c>
+      <c r="U60" s="91">
+        <v>186</v>
+      </c>
+      <c r="V60" s="91">
+        <v>197</v>
+      </c>
+      <c r="W60" s="91">
+        <v>1</v>
+      </c>
+      <c r="X60" s="91">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="91">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="91">
+        <v>7</v>
+      </c>
+      <c r="AA60" s="91">
+        <v>53</v>
+      </c>
+      <c r="AB60" s="91">
+        <v>85</v>
+      </c>
+      <c r="AC60" s="91">
+        <v>97</v>
+      </c>
+      <c r="AD60" s="91">
+        <v>98</v>
+      </c>
+      <c r="AE60" s="91">
+        <v>105</v>
+      </c>
+      <c r="AF60" s="91">
+        <v>113</v>
+      </c>
+      <c r="AG60" s="91">
+        <v>114</v>
+      </c>
+      <c r="AH60" s="91">
+        <v>119</v>
+      </c>
+      <c r="AI60" s="91">
+        <v>127</v>
+      </c>
+      <c r="AJ60" s="91">
+        <v>134</v>
+      </c>
+      <c r="AK60" s="91">
+        <v>140</v>
+      </c>
+      <c r="AL60" s="91">
+        <v>148</v>
+      </c>
+      <c r="AM60" s="91">
+        <v>149</v>
+      </c>
+      <c r="AN60" s="91">
+        <v>150</v>
+      </c>
+      <c r="AO60" s="91">
+        <v>157</v>
+      </c>
+      <c r="AP60" s="91">
+        <v>159</v>
+      </c>
+      <c r="AQ60" s="91">
+        <v>162</v>
+      </c>
+      <c r="AR60" s="91">
+        <v>185</v>
+      </c>
+      <c r="AS60" s="91">
+        <v>187</v>
+      </c>
+      <c r="AT60" s="91">
+        <v>191</v>
+      </c>
+      <c r="AU60" s="91">
+        <v>198</v>
+      </c>
+      <c r="AV60" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW60" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX60" s="91">
+        <v>79</v>
+      </c>
+      <c r="AY60" s="91">
+        <v>205</v>
+      </c>
+      <c r="AZ60" s="91">
+        <v>76</v>
+      </c>
+      <c r="BA60" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB60" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC60" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD60" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE60" s="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="91">
+        <v>6</v>
+      </c>
+      <c r="G61" s="91">
+        <v>8</v>
+      </c>
+      <c r="H61" s="91">
+        <v>9</v>
+      </c>
+      <c r="I61" s="91">
+        <v>10</v>
+      </c>
+      <c r="J61" s="91">
+        <v>11</v>
+      </c>
+      <c r="K61" s="91">
+        <v>12</v>
+      </c>
+      <c r="L61" s="91">
+        <v>14</v>
+      </c>
+      <c r="M61" s="91">
+        <v>16</v>
+      </c>
+      <c r="N61" s="91">
+        <v>17</v>
+      </c>
+      <c r="O61" s="91">
+        <v>19</v>
+      </c>
+      <c r="P61" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="91">
+        <v>23</v>
+      </c>
+      <c r="R61" s="91">
+        <v>24</v>
+      </c>
+      <c r="S61" s="91">
+        <v>25</v>
+      </c>
+      <c r="T61" s="91">
+        <v>26</v>
+      </c>
+      <c r="U61" s="91">
+        <v>27</v>
+      </c>
+      <c r="V61" s="91">
+        <v>28</v>
+      </c>
+      <c r="W61" s="91">
+        <v>29</v>
+      </c>
+      <c r="X61" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y61" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z61" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA61" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB61" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC61" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD61" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE61" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF61" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG61" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH61" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI61" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ61" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK61" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL61" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM61" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN61" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO61" s="91">
+        <v>60</v>
+      </c>
+      <c r="AP61" s="91">
+        <v>62</v>
+      </c>
+      <c r="AQ61" s="91">
+        <v>64</v>
+      </c>
+      <c r="AR61" s="91">
+        <v>66</v>
+      </c>
+      <c r="AS61" s="91">
+        <v>67</v>
+      </c>
+      <c r="AT61" s="91">
+        <v>68</v>
+      </c>
+      <c r="AU61" s="91">
+        <v>71</v>
+      </c>
+      <c r="AV61" s="91">
+        <v>72</v>
+      </c>
+      <c r="AW61" s="91">
+        <v>74</v>
+      </c>
+      <c r="AX61" s="91">
+        <v>75</v>
+      </c>
+      <c r="AY61" s="91">
+        <v>77</v>
+      </c>
+      <c r="AZ61" s="91">
+        <v>80</v>
+      </c>
+      <c r="BA61" s="91">
+        <v>83</v>
+      </c>
+      <c r="BB61" s="91">
+        <v>86</v>
+      </c>
+      <c r="BC61" s="91">
+        <v>90</v>
+      </c>
+      <c r="BD61" s="91">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="91">
+        <v>96</v>
+      </c>
+      <c r="G62" s="91">
+        <v>102</v>
+      </c>
+      <c r="H62" s="91">
+        <v>107</v>
+      </c>
+      <c r="I62" s="91">
+        <v>108</v>
+      </c>
+      <c r="J62" s="91">
+        <v>109</v>
+      </c>
+      <c r="K62" s="91">
+        <v>111</v>
+      </c>
+      <c r="L62" s="91">
+        <v>112</v>
+      </c>
+      <c r="M62" s="91">
+        <v>117</v>
+      </c>
+      <c r="N62" s="91">
+        <v>118</v>
+      </c>
+      <c r="O62" s="91">
+        <v>120</v>
+      </c>
+      <c r="P62" s="91">
+        <v>121</v>
+      </c>
+      <c r="Q62" s="91">
+        <v>126</v>
+      </c>
+      <c r="R62" s="91">
+        <v>128</v>
+      </c>
+      <c r="S62" s="91">
+        <v>129</v>
+      </c>
+      <c r="T62" s="91">
+        <v>131</v>
+      </c>
+      <c r="U62" s="91">
+        <v>132</v>
+      </c>
+      <c r="V62" s="91">
+        <v>133</v>
+      </c>
+      <c r="W62" s="91">
+        <v>137</v>
+      </c>
+      <c r="X62" s="91">
+        <v>138</v>
+      </c>
+      <c r="Y62" s="91">
+        <v>139</v>
+      </c>
+      <c r="Z62" s="91">
+        <v>141</v>
+      </c>
+      <c r="AA62" s="91">
+        <v>142</v>
+      </c>
+      <c r="AB62" s="91">
+        <v>146</v>
+      </c>
+      <c r="AC62" s="91">
+        <v>151</v>
+      </c>
+      <c r="AD62" s="91">
+        <v>152</v>
+      </c>
+      <c r="AE62" s="91">
+        <v>154</v>
+      </c>
+      <c r="AF62" s="91">
+        <v>155</v>
+      </c>
+      <c r="AG62" s="91">
+        <v>156</v>
+      </c>
+      <c r="AH62" s="91">
+        <v>160</v>
+      </c>
+      <c r="AI62" s="91">
+        <v>161</v>
+      </c>
+      <c r="AJ62" s="91">
+        <v>163</v>
+      </c>
+      <c r="AK62" s="91">
+        <v>164</v>
+      </c>
+      <c r="AL62" s="91">
+        <v>166</v>
+      </c>
+      <c r="AM62" s="91">
+        <v>167</v>
+      </c>
+      <c r="AN62" s="91">
+        <v>168</v>
+      </c>
+      <c r="AO62" s="91">
+        <v>169</v>
+      </c>
+      <c r="AP62" s="91">
+        <v>172</v>
+      </c>
+      <c r="AQ62" s="91">
+        <v>174</v>
+      </c>
+      <c r="AR62" s="91">
+        <v>175</v>
+      </c>
+      <c r="AS62" s="91">
+        <v>176</v>
+      </c>
+      <c r="AT62" s="91">
+        <v>177</v>
+      </c>
+      <c r="AU62" s="91">
+        <v>179</v>
+      </c>
+      <c r="AV62" s="91">
+        <v>181</v>
+      </c>
+      <c r="AW62" s="91">
+        <v>184</v>
+      </c>
+      <c r="AX62" s="91">
+        <v>188</v>
+      </c>
+      <c r="AY62" s="91">
+        <v>189</v>
+      </c>
+      <c r="AZ62" s="91">
+        <v>190</v>
+      </c>
+      <c r="BA62" s="91">
+        <v>193</v>
+      </c>
+      <c r="BB62" s="91">
+        <v>194</v>
+      </c>
+      <c r="BC62" s="91">
+        <v>195</v>
+      </c>
+      <c r="BD62" s="91">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="119">
+        <v>199</v>
+      </c>
+      <c r="G63" s="91">
+        <v>201</v>
+      </c>
+      <c r="H63" s="91">
+        <v>202</v>
+      </c>
+      <c r="I63" s="91">
+        <v>203</v>
+      </c>
+      <c r="J63" s="91">
+        <v>204</v>
+      </c>
+      <c r="K63" s="91">
+        <v>3</v>
+      </c>
+      <c r="L63" s="91">
+        <v>13</v>
+      </c>
+      <c r="M63" s="91">
+        <v>15</v>
+      </c>
+      <c r="N63" s="91">
+        <v>18</v>
+      </c>
+      <c r="O63" s="91">
+        <v>20</v>
+      </c>
+      <c r="P63" s="91">
+        <v>22</v>
+      </c>
+      <c r="Q63" s="91">
+        <v>30</v>
+      </c>
+      <c r="R63" s="91">
+        <v>32</v>
+      </c>
+      <c r="S63" s="91">
+        <v>33</v>
+      </c>
+      <c r="T63" s="91">
+        <v>38</v>
+      </c>
+      <c r="U63" s="91">
+        <v>39</v>
+      </c>
+      <c r="V63" s="91">
+        <v>42</v>
+      </c>
+      <c r="W63" s="91">
+        <v>44</v>
+      </c>
+      <c r="X63" s="91">
+        <v>48</v>
+      </c>
+      <c r="Y63" s="91">
+        <v>56</v>
+      </c>
+      <c r="Z63" s="91">
+        <v>58</v>
+      </c>
+      <c r="AA63" s="91">
+        <v>61</v>
+      </c>
+      <c r="AB63" s="91">
+        <v>63</v>
+      </c>
+      <c r="AC63" s="91">
+        <v>65</v>
+      </c>
+      <c r="AD63" s="91">
+        <v>69</v>
+      </c>
+      <c r="AE63" s="91">
+        <v>70</v>
+      </c>
+      <c r="AF63" s="91">
+        <v>73</v>
+      </c>
+      <c r="AG63" s="91">
+        <v>78</v>
+      </c>
+      <c r="AH63" s="91">
+        <v>81</v>
+      </c>
+      <c r="AI63" s="91">
+        <v>84</v>
+      </c>
+      <c r="AJ63" s="91">
+        <v>87</v>
+      </c>
+      <c r="AK63" s="91">
+        <v>88</v>
+      </c>
+      <c r="AL63" s="91">
+        <v>89</v>
+      </c>
+      <c r="AM63" s="91">
+        <v>91</v>
+      </c>
+      <c r="AN63" s="91">
+        <v>92</v>
+      </c>
+      <c r="AO63" s="91">
+        <v>94</v>
+      </c>
+      <c r="AP63" s="91">
+        <v>95</v>
+      </c>
+      <c r="AQ63" s="91">
+        <v>99</v>
+      </c>
+      <c r="AR63" s="91">
+        <v>100</v>
+      </c>
+      <c r="AS63" s="91">
+        <v>101</v>
+      </c>
+      <c r="AT63" s="91">
+        <v>104</v>
+      </c>
+      <c r="AU63" s="91">
+        <v>110</v>
+      </c>
+      <c r="AV63" s="91">
+        <v>115</v>
+      </c>
+      <c r="AW63" s="91">
+        <v>116</v>
+      </c>
+      <c r="AX63" s="91">
+        <v>122</v>
+      </c>
+      <c r="AY63" s="91">
+        <v>123</v>
+      </c>
+      <c r="AZ63" s="91">
+        <v>124</v>
+      </c>
+      <c r="BA63" s="91">
+        <v>125</v>
+      </c>
+      <c r="BB63" s="91">
+        <v>130</v>
+      </c>
+      <c r="BC63" s="91">
+        <v>135</v>
+      </c>
+      <c r="BD63" s="91">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="91">
+        <v>143</v>
+      </c>
+      <c r="G64" s="91">
+        <v>144</v>
+      </c>
+      <c r="H64" s="91">
+        <v>145</v>
+      </c>
+      <c r="I64" s="91">
+        <v>147</v>
+      </c>
+      <c r="J64" s="91">
+        <v>153</v>
+      </c>
+      <c r="K64" s="91">
+        <v>158</v>
+      </c>
+      <c r="L64" s="91">
+        <v>165</v>
+      </c>
+      <c r="M64" s="91">
+        <v>170</v>
+      </c>
+      <c r="N64" s="91">
+        <v>171</v>
+      </c>
+      <c r="O64" s="91">
+        <v>173</v>
+      </c>
+      <c r="P64" s="91">
+        <v>178</v>
+      </c>
+      <c r="Q64" s="91">
+        <v>180</v>
+      </c>
+      <c r="R64" s="91">
+        <v>182</v>
+      </c>
+      <c r="S64" s="91">
+        <v>183</v>
+      </c>
+      <c r="T64" s="91">
+        <v>186</v>
+      </c>
+      <c r="U64" s="91">
+        <v>192</v>
+      </c>
+      <c r="V64" s="91">
+        <v>197</v>
+      </c>
+      <c r="W64" s="91">
+        <v>198</v>
+      </c>
+      <c r="X64" s="91">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z64" s="91">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="91">
+        <v>7</v>
+      </c>
+      <c r="AB64" s="91">
+        <v>53</v>
+      </c>
+      <c r="AC64" s="91">
+        <v>85</v>
+      </c>
+      <c r="AD64" s="91">
+        <v>97</v>
+      </c>
+      <c r="AE64" s="91">
+        <v>98</v>
+      </c>
+      <c r="AF64" s="91">
+        <v>105</v>
+      </c>
+      <c r="AG64" s="91">
+        <v>113</v>
+      </c>
+      <c r="AH64" s="91">
+        <v>114</v>
+      </c>
+      <c r="AI64" s="91">
+        <v>119</v>
+      </c>
+      <c r="AJ64" s="91">
+        <v>127</v>
+      </c>
+      <c r="AK64" s="91">
+        <v>134</v>
+      </c>
+      <c r="AL64" s="91">
+        <v>140</v>
+      </c>
+      <c r="AM64" s="91">
+        <v>148</v>
+      </c>
+      <c r="AN64" s="91">
+        <v>149</v>
+      </c>
+      <c r="AO64" s="91">
+        <v>150</v>
+      </c>
+      <c r="AP64" s="91">
+        <v>157</v>
+      </c>
+      <c r="AQ64" s="91">
+        <v>159</v>
+      </c>
+      <c r="AR64" s="91">
+        <v>162</v>
+      </c>
+      <c r="AS64" s="91">
+        <v>185</v>
+      </c>
+      <c r="AT64" s="91">
+        <v>187</v>
+      </c>
+      <c r="AU64" s="91">
+        <v>191</v>
+      </c>
+      <c r="AV64" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW64" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX64" s="91">
+        <v>79</v>
+      </c>
+      <c r="AY64" s="91">
+        <v>205</v>
+      </c>
+      <c r="AZ64" s="91">
+        <v>76</v>
+      </c>
+      <c r="BA64" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB64" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC64" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD64" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE64" s="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" s="91">
+        <v>6</v>
+      </c>
+      <c r="G65" s="91">
+        <v>8</v>
+      </c>
+      <c r="H65" s="91">
+        <v>9</v>
+      </c>
+      <c r="I65" s="91">
+        <v>10</v>
+      </c>
+      <c r="J65" s="91">
+        <v>11</v>
+      </c>
+      <c r="K65" s="91">
+        <v>12</v>
+      </c>
+      <c r="L65" s="91">
+        <v>14</v>
+      </c>
+      <c r="M65" s="91">
+        <v>16</v>
+      </c>
+      <c r="N65" s="91">
+        <v>17</v>
+      </c>
+      <c r="O65" s="91">
+        <v>19</v>
+      </c>
+      <c r="P65" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="91">
+        <v>23</v>
+      </c>
+      <c r="R65" s="91">
+        <v>24</v>
+      </c>
+      <c r="S65" s="91">
+        <v>25</v>
+      </c>
+      <c r="T65" s="91">
+        <v>26</v>
+      </c>
+      <c r="U65" s="91">
+        <v>27</v>
+      </c>
+      <c r="V65" s="91">
+        <v>28</v>
+      </c>
+      <c r="W65" s="91">
+        <v>29</v>
+      </c>
+      <c r="X65" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y65" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z65" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA65" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB65" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC65" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD65" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE65" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF65" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG65" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH65" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI65" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ65" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK65" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL65" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM65" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN65" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO65" s="91">
+        <v>60</v>
+      </c>
+      <c r="AP65" s="91">
+        <v>62</v>
+      </c>
+      <c r="AQ65" s="91">
+        <v>64</v>
+      </c>
+      <c r="AR65" s="91">
+        <v>66</v>
+      </c>
+      <c r="AS65" s="91">
+        <v>67</v>
+      </c>
+      <c r="AT65" s="91">
+        <v>68</v>
+      </c>
+      <c r="AU65" s="91">
+        <v>71</v>
+      </c>
+      <c r="AV65" s="91">
+        <v>72</v>
+      </c>
+      <c r="AW65" s="91">
+        <v>74</v>
+      </c>
+      <c r="AX65" s="91">
+        <v>75</v>
+      </c>
+      <c r="AY65" s="91">
+        <v>77</v>
+      </c>
+      <c r="AZ65" s="91">
+        <v>80</v>
+      </c>
+      <c r="BA65" s="91">
+        <v>83</v>
+      </c>
+      <c r="BB65" s="91">
+        <v>86</v>
+      </c>
+      <c r="BC65" s="91">
+        <v>90</v>
+      </c>
+      <c r="BD65" s="91">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="91">
+        <v>96</v>
+      </c>
+      <c r="G66" s="91">
+        <v>102</v>
+      </c>
+      <c r="H66" s="91">
+        <v>107</v>
+      </c>
+      <c r="I66" s="91">
+        <v>108</v>
+      </c>
+      <c r="J66" s="91">
+        <v>109</v>
+      </c>
+      <c r="K66" s="91">
+        <v>111</v>
+      </c>
+      <c r="L66" s="91">
+        <v>112</v>
+      </c>
+      <c r="M66" s="91">
+        <v>117</v>
+      </c>
+      <c r="N66" s="91">
+        <v>118</v>
+      </c>
+      <c r="O66" s="91">
+        <v>120</v>
+      </c>
+      <c r="P66" s="91">
+        <v>121</v>
+      </c>
+      <c r="Q66" s="91">
+        <v>126</v>
+      </c>
+      <c r="R66" s="91">
+        <v>128</v>
+      </c>
+      <c r="S66" s="91">
+        <v>129</v>
+      </c>
+      <c r="T66" s="91">
+        <v>131</v>
+      </c>
+      <c r="U66" s="91">
+        <v>132</v>
+      </c>
+      <c r="V66" s="91">
+        <v>133</v>
+      </c>
+      <c r="W66" s="91">
+        <v>137</v>
+      </c>
+      <c r="X66" s="91">
+        <v>138</v>
+      </c>
+      <c r="Y66" s="91">
+        <v>139</v>
+      </c>
+      <c r="Z66" s="91">
+        <v>141</v>
+      </c>
+      <c r="AA66" s="91">
+        <v>142</v>
+      </c>
+      <c r="AB66" s="91">
+        <v>146</v>
+      </c>
+      <c r="AC66" s="91">
+        <v>151</v>
+      </c>
+      <c r="AD66" s="91">
+        <v>152</v>
+      </c>
+      <c r="AE66" s="91">
+        <v>154</v>
+      </c>
+      <c r="AF66" s="91">
+        <v>155</v>
+      </c>
+      <c r="AG66" s="91">
+        <v>156</v>
+      </c>
+      <c r="AH66" s="91">
+        <v>160</v>
+      </c>
+      <c r="AI66" s="91">
+        <v>161</v>
+      </c>
+      <c r="AJ66" s="91">
+        <v>163</v>
+      </c>
+      <c r="AK66" s="91">
+        <v>164</v>
+      </c>
+      <c r="AL66" s="91">
+        <v>166</v>
+      </c>
+      <c r="AM66" s="91">
+        <v>167</v>
+      </c>
+      <c r="AN66" s="91">
+        <v>168</v>
+      </c>
+      <c r="AO66" s="91">
+        <v>169</v>
+      </c>
+      <c r="AP66" s="91">
+        <v>172</v>
+      </c>
+      <c r="AQ66" s="91">
+        <v>174</v>
+      </c>
+      <c r="AR66" s="91">
+        <v>175</v>
+      </c>
+      <c r="AS66" s="91">
+        <v>176</v>
+      </c>
+      <c r="AT66" s="91">
+        <v>177</v>
+      </c>
+      <c r="AU66" s="91">
+        <v>179</v>
+      </c>
+      <c r="AV66" s="91">
+        <v>181</v>
+      </c>
+      <c r="AW66" s="91">
+        <v>184</v>
+      </c>
+      <c r="AX66" s="91">
+        <v>188</v>
+      </c>
+      <c r="AY66" s="91">
+        <v>189</v>
+      </c>
+      <c r="AZ66" s="91">
+        <v>190</v>
+      </c>
+      <c r="BA66" s="91">
+        <v>193</v>
+      </c>
+      <c r="BB66" s="91">
+        <v>194</v>
+      </c>
+      <c r="BC66" s="91">
+        <v>195</v>
+      </c>
+      <c r="BD66" s="91">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="91">
+        <v>199</v>
+      </c>
+      <c r="G67" s="91">
+        <v>201</v>
+      </c>
+      <c r="H67" s="91">
+        <v>202</v>
+      </c>
+      <c r="I67" s="91">
+        <v>203</v>
+      </c>
+      <c r="J67" s="91">
+        <v>204</v>
+      </c>
+      <c r="K67" s="91">
+        <v>3</v>
+      </c>
+      <c r="L67" s="91">
+        <v>13</v>
+      </c>
+      <c r="M67" s="91">
+        <v>15</v>
+      </c>
+      <c r="N67" s="91">
+        <v>18</v>
+      </c>
+      <c r="O67" s="91">
+        <v>20</v>
+      </c>
+      <c r="P67" s="91">
+        <v>22</v>
+      </c>
+      <c r="Q67" s="91">
+        <v>30</v>
+      </c>
+      <c r="R67" s="91">
+        <v>32</v>
+      </c>
+      <c r="S67" s="91">
+        <v>33</v>
+      </c>
+      <c r="T67" s="91">
+        <v>38</v>
+      </c>
+      <c r="U67" s="91">
+        <v>39</v>
+      </c>
+      <c r="V67" s="91">
+        <v>42</v>
+      </c>
+      <c r="W67" s="91">
+        <v>44</v>
+      </c>
+      <c r="X67" s="91">
+        <v>48</v>
+      </c>
+      <c r="Y67" s="91">
+        <v>56</v>
+      </c>
+      <c r="Z67" s="91">
+        <v>58</v>
+      </c>
+      <c r="AA67" s="91">
+        <v>61</v>
+      </c>
+      <c r="AB67" s="91">
+        <v>63</v>
+      </c>
+      <c r="AC67" s="91">
+        <v>65</v>
+      </c>
+      <c r="AD67" s="91">
+        <v>69</v>
+      </c>
+      <c r="AE67" s="91">
+        <v>70</v>
+      </c>
+      <c r="AF67" s="91">
+        <v>73</v>
+      </c>
+      <c r="AG67" s="91">
+        <v>78</v>
+      </c>
+      <c r="AH67" s="91">
+        <v>81</v>
+      </c>
+      <c r="AI67" s="91">
+        <v>84</v>
+      </c>
+      <c r="AJ67" s="91">
+        <v>87</v>
+      </c>
+      <c r="AK67" s="91">
+        <v>88</v>
+      </c>
+      <c r="AL67" s="91">
+        <v>89</v>
+      </c>
+      <c r="AM67" s="91">
+        <v>91</v>
+      </c>
+      <c r="AN67" s="91">
+        <v>92</v>
+      </c>
+      <c r="AO67" s="91">
+        <v>94</v>
+      </c>
+      <c r="AP67" s="91">
+        <v>95</v>
+      </c>
+      <c r="AQ67" s="91">
+        <v>99</v>
+      </c>
+      <c r="AR67" s="91">
+        <v>100</v>
+      </c>
+      <c r="AS67" s="91">
+        <v>101</v>
+      </c>
+      <c r="AT67" s="91">
+        <v>104</v>
+      </c>
+      <c r="AU67" s="91">
+        <v>110</v>
+      </c>
+      <c r="AV67" s="91">
+        <v>115</v>
+      </c>
+      <c r="AW67" s="91">
+        <v>116</v>
+      </c>
+      <c r="AX67" s="91">
+        <v>122</v>
+      </c>
+      <c r="AY67" s="91">
+        <v>123</v>
+      </c>
+      <c r="AZ67" s="91">
+        <v>124</v>
+      </c>
+      <c r="BA67" s="91">
+        <v>125</v>
+      </c>
+      <c r="BB67" s="91">
+        <v>130</v>
+      </c>
+      <c r="BC67" s="91">
+        <v>135</v>
+      </c>
+      <c r="BD67" s="91">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="91">
+        <v>143</v>
+      </c>
+      <c r="G68" s="91">
+        <v>144</v>
+      </c>
+      <c r="H68" s="91">
+        <v>145</v>
+      </c>
+      <c r="I68" s="91">
+        <v>147</v>
+      </c>
+      <c r="J68" s="91">
+        <v>153</v>
+      </c>
+      <c r="K68" s="91">
+        <v>158</v>
+      </c>
+      <c r="L68" s="91">
+        <v>165</v>
+      </c>
+      <c r="M68" s="91">
+        <v>170</v>
+      </c>
+      <c r="N68" s="91">
+        <v>171</v>
+      </c>
+      <c r="O68" s="91">
+        <v>173</v>
+      </c>
+      <c r="P68" s="91">
+        <v>178</v>
+      </c>
+      <c r="Q68" s="91">
+        <v>180</v>
+      </c>
+      <c r="R68" s="91">
+        <v>182</v>
+      </c>
+      <c r="S68" s="91">
+        <v>183</v>
+      </c>
+      <c r="T68" s="91">
+        <v>186</v>
+      </c>
+      <c r="U68" s="91">
+        <v>192</v>
+      </c>
+      <c r="V68" s="91">
+        <v>197</v>
+      </c>
+      <c r="W68" s="91">
+        <v>198</v>
+      </c>
+      <c r="X68" s="91">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z68" s="91">
+        <v>4</v>
+      </c>
+      <c r="AA68" s="91">
+        <v>7</v>
+      </c>
+      <c r="AB68" s="91">
+        <v>53</v>
+      </c>
+      <c r="AC68" s="91">
+        <v>85</v>
+      </c>
+      <c r="AD68" s="91">
+        <v>97</v>
+      </c>
+      <c r="AE68" s="91">
+        <v>98</v>
+      </c>
+      <c r="AF68" s="91">
+        <v>105</v>
+      </c>
+      <c r="AG68" s="91">
+        <v>113</v>
+      </c>
+      <c r="AH68" s="91">
+        <v>114</v>
+      </c>
+      <c r="AI68" s="91">
+        <v>119</v>
+      </c>
+      <c r="AJ68" s="91">
+        <v>127</v>
+      </c>
+      <c r="AK68" s="91">
+        <v>134</v>
+      </c>
+      <c r="AL68" s="91">
+        <v>140</v>
+      </c>
+      <c r="AM68" s="91">
+        <v>148</v>
+      </c>
+      <c r="AN68" s="91">
+        <v>149</v>
+      </c>
+      <c r="AO68" s="91">
+        <v>150</v>
+      </c>
+      <c r="AP68" s="91">
+        <v>157</v>
+      </c>
+      <c r="AQ68" s="91">
+        <v>159</v>
+      </c>
+      <c r="AR68" s="91">
+        <v>162</v>
+      </c>
+      <c r="AS68" s="91">
+        <v>185</v>
+      </c>
+      <c r="AT68" s="91">
+        <v>187</v>
+      </c>
+      <c r="AU68" s="91">
+        <v>191</v>
+      </c>
+      <c r="AV68" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW68" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX68" s="91">
+        <v>79</v>
+      </c>
+      <c r="AY68" s="91">
+        <v>205</v>
+      </c>
+      <c r="AZ68" s="91">
+        <v>76</v>
+      </c>
+      <c r="BA68" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB68" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC68" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD68" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE68" s="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="91">
+        <v>6</v>
+      </c>
+      <c r="G69" s="91">
+        <v>8</v>
+      </c>
+      <c r="H69" s="91">
+        <v>9</v>
+      </c>
+      <c r="I69" s="91">
+        <v>10</v>
+      </c>
+      <c r="J69" s="91">
+        <v>11</v>
+      </c>
+      <c r="K69" s="91">
+        <v>12</v>
+      </c>
+      <c r="L69" s="91">
+        <v>14</v>
+      </c>
+      <c r="M69" s="91">
+        <v>16</v>
+      </c>
+      <c r="N69" s="91">
+        <v>17</v>
+      </c>
+      <c r="O69" s="91">
+        <v>19</v>
+      </c>
+      <c r="P69" s="91">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="91">
+        <v>23</v>
+      </c>
+      <c r="R69" s="91">
+        <v>24</v>
+      </c>
+      <c r="S69" s="91">
+        <v>25</v>
+      </c>
+      <c r="T69" s="91">
+        <v>26</v>
+      </c>
+      <c r="U69" s="91">
+        <v>27</v>
+      </c>
+      <c r="V69" s="91">
+        <v>28</v>
+      </c>
+      <c r="W69" s="91">
+        <v>29</v>
+      </c>
+      <c r="X69" s="91">
+        <v>31</v>
+      </c>
+      <c r="Y69" s="91">
+        <v>34</v>
+      </c>
+      <c r="Z69" s="91">
+        <v>35</v>
+      </c>
+      <c r="AA69" s="91">
+        <v>36</v>
+      </c>
+      <c r="AB69" s="91">
+        <v>37</v>
+      </c>
+      <c r="AC69" s="91">
+        <v>40</v>
+      </c>
+      <c r="AD69" s="91">
+        <v>41</v>
+      </c>
+      <c r="AE69" s="91">
+        <v>45</v>
+      </c>
+      <c r="AF69" s="91">
+        <v>46</v>
+      </c>
+      <c r="AG69" s="91">
+        <v>47</v>
+      </c>
+      <c r="AH69" s="91">
+        <v>49</v>
+      </c>
+      <c r="AI69" s="91">
+        <v>50</v>
+      </c>
+      <c r="AJ69" s="91">
+        <v>51</v>
+      </c>
+      <c r="AK69" s="91">
+        <v>52</v>
+      </c>
+      <c r="AL69" s="91">
+        <v>54</v>
+      </c>
+      <c r="AM69" s="91">
+        <v>55</v>
+      </c>
+      <c r="AN69" s="91">
+        <v>57</v>
+      </c>
+      <c r="AO69" s="91">
+        <v>60</v>
+      </c>
+      <c r="AP69" s="91">
+        <v>62</v>
+      </c>
+      <c r="AQ69" s="91">
+        <v>64</v>
+      </c>
+      <c r="AR69" s="91">
+        <v>66</v>
+      </c>
+      <c r="AS69" s="91">
+        <v>67</v>
+      </c>
+      <c r="AT69" s="91">
+        <v>68</v>
+      </c>
+      <c r="AU69" s="91">
+        <v>71</v>
+      </c>
+      <c r="AV69" s="91">
+        <v>72</v>
+      </c>
+      <c r="AW69" s="91">
+        <v>74</v>
+      </c>
+      <c r="AX69" s="91">
+        <v>75</v>
+      </c>
+      <c r="AY69" s="91">
+        <v>77</v>
+      </c>
+      <c r="AZ69" s="91">
+        <v>80</v>
+      </c>
+      <c r="BA69" s="91">
+        <v>83</v>
+      </c>
+      <c r="BB69" s="91">
+        <v>86</v>
+      </c>
+      <c r="BC69" s="91">
+        <v>90</v>
+      </c>
+      <c r="BD69" s="91">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="91">
+        <v>96</v>
+      </c>
+      <c r="G70" s="91">
+        <v>102</v>
+      </c>
+      <c r="H70" s="91">
+        <v>107</v>
+      </c>
+      <c r="I70" s="91">
+        <v>108</v>
+      </c>
+      <c r="J70" s="91">
+        <v>109</v>
+      </c>
+      <c r="K70" s="91">
+        <v>111</v>
+      </c>
+      <c r="L70" s="91">
+        <v>112</v>
+      </c>
+      <c r="M70" s="91">
+        <v>117</v>
+      </c>
+      <c r="N70" s="91">
+        <v>118</v>
+      </c>
+      <c r="O70" s="91">
+        <v>120</v>
+      </c>
+      <c r="P70" s="91">
+        <v>121</v>
+      </c>
+      <c r="Q70" s="91">
+        <v>126</v>
+      </c>
+      <c r="R70" s="91">
+        <v>128</v>
+      </c>
+      <c r="S70" s="91">
+        <v>129</v>
+      </c>
+      <c r="T70" s="91">
+        <v>131</v>
+      </c>
+      <c r="U70" s="91">
+        <v>132</v>
+      </c>
+      <c r="V70" s="91">
+        <v>133</v>
+      </c>
+      <c r="W70" s="91">
+        <v>137</v>
+      </c>
+      <c r="X70" s="91">
+        <v>138</v>
+      </c>
+      <c r="Y70" s="91">
+        <v>139</v>
+      </c>
+      <c r="Z70" s="91">
+        <v>141</v>
+      </c>
+      <c r="AA70" s="91">
+        <v>142</v>
+      </c>
+      <c r="AB70" s="91">
+        <v>146</v>
+      </c>
+      <c r="AC70" s="91">
+        <v>151</v>
+      </c>
+      <c r="AD70" s="91">
+        <v>152</v>
+      </c>
+      <c r="AE70" s="91">
+        <v>154</v>
+      </c>
+      <c r="AF70" s="91">
+        <v>155</v>
+      </c>
+      <c r="AG70" s="91">
+        <v>156</v>
+      </c>
+      <c r="AH70" s="91">
+        <v>160</v>
+      </c>
+      <c r="AI70" s="91">
+        <v>161</v>
+      </c>
+      <c r="AJ70" s="91">
+        <v>163</v>
+      </c>
+      <c r="AK70" s="91">
+        <v>164</v>
+      </c>
+      <c r="AL70" s="91">
+        <v>166</v>
+      </c>
+      <c r="AM70" s="91">
+        <v>167</v>
+      </c>
+      <c r="AN70" s="91">
+        <v>168</v>
+      </c>
+      <c r="AO70" s="91">
+        <v>169</v>
+      </c>
+      <c r="AP70" s="91">
+        <v>172</v>
+      </c>
+      <c r="AQ70" s="91">
+        <v>174</v>
+      </c>
+      <c r="AR70" s="91">
+        <v>175</v>
+      </c>
+      <c r="AS70" s="91">
+        <v>176</v>
+      </c>
+      <c r="AT70" s="91">
+        <v>177</v>
+      </c>
+      <c r="AU70" s="91">
+        <v>179</v>
+      </c>
+      <c r="AV70" s="91">
+        <v>181</v>
+      </c>
+      <c r="AW70" s="91">
+        <v>184</v>
+      </c>
+      <c r="AX70" s="91">
+        <v>188</v>
+      </c>
+      <c r="AY70" s="91">
+        <v>189</v>
+      </c>
+      <c r="AZ70" s="91">
+        <v>190</v>
+      </c>
+      <c r="BA70" s="91">
+        <v>193</v>
+      </c>
+      <c r="BB70" s="91">
+        <v>194</v>
+      </c>
+      <c r="BC70" s="91">
+        <v>195</v>
+      </c>
+      <c r="BD70" s="91">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" s="91">
+        <v>199</v>
+      </c>
+      <c r="G71" s="91">
+        <v>201</v>
+      </c>
+      <c r="H71" s="91">
+        <v>202</v>
+      </c>
+      <c r="I71" s="91">
+        <v>203</v>
+      </c>
+      <c r="J71" s="91">
+        <v>204</v>
+      </c>
+      <c r="K71" s="91">
+        <v>3</v>
+      </c>
+      <c r="L71" s="91">
+        <v>13</v>
+      </c>
+      <c r="M71" s="91">
+        <v>15</v>
+      </c>
+      <c r="N71" s="91">
+        <v>18</v>
+      </c>
+      <c r="O71" s="91">
+        <v>20</v>
+      </c>
+      <c r="P71" s="91">
+        <v>22</v>
+      </c>
+      <c r="Q71" s="91">
+        <v>30</v>
+      </c>
+      <c r="R71" s="91">
+        <v>32</v>
+      </c>
+      <c r="S71" s="91">
+        <v>33</v>
+      </c>
+      <c r="T71" s="91">
+        <v>38</v>
+      </c>
+      <c r="U71" s="91">
+        <v>39</v>
+      </c>
+      <c r="V71" s="91">
+        <v>42</v>
+      </c>
+      <c r="W71" s="91">
+        <v>44</v>
+      </c>
+      <c r="X71" s="91">
+        <v>48</v>
+      </c>
+      <c r="Y71" s="91">
+        <v>56</v>
+      </c>
+      <c r="Z71" s="91">
+        <v>58</v>
+      </c>
+      <c r="AA71" s="91">
+        <v>61</v>
+      </c>
+      <c r="AB71" s="91">
+        <v>63</v>
+      </c>
+      <c r="AC71" s="91">
+        <v>65</v>
+      </c>
+      <c r="AD71" s="91">
+        <v>69</v>
+      </c>
+      <c r="AE71" s="91">
+        <v>70</v>
+      </c>
+      <c r="AF71" s="91">
+        <v>73</v>
+      </c>
+      <c r="AG71" s="91">
+        <v>78</v>
+      </c>
+      <c r="AH71" s="91">
+        <v>81</v>
+      </c>
+      <c r="AI71" s="91">
+        <v>84</v>
+      </c>
+      <c r="AJ71" s="91">
+        <v>87</v>
+      </c>
+      <c r="AK71" s="91">
+        <v>88</v>
+      </c>
+      <c r="AL71" s="91">
+        <v>89</v>
+      </c>
+      <c r="AM71" s="91">
+        <v>91</v>
+      </c>
+      <c r="AN71" s="91">
+        <v>92</v>
+      </c>
+      <c r="AO71" s="91">
+        <v>94</v>
+      </c>
+      <c r="AP71" s="91">
+        <v>95</v>
+      </c>
+      <c r="AQ71" s="91">
+        <v>99</v>
+      </c>
+      <c r="AR71" s="91">
+        <v>100</v>
+      </c>
+      <c r="AS71" s="91">
+        <v>101</v>
+      </c>
+      <c r="AT71" s="91">
+        <v>104</v>
+      </c>
+      <c r="AU71" s="91">
+        <v>110</v>
+      </c>
+      <c r="AV71" s="91">
+        <v>115</v>
+      </c>
+      <c r="AW71" s="91">
+        <v>116</v>
+      </c>
+      <c r="AX71" s="91">
+        <v>122</v>
+      </c>
+      <c r="AY71" s="91">
+        <v>123</v>
+      </c>
+      <c r="AZ71" s="91">
+        <v>124</v>
+      </c>
+      <c r="BA71" s="91">
+        <v>125</v>
+      </c>
+      <c r="BB71" s="91">
+        <v>130</v>
+      </c>
+      <c r="BC71" s="91">
+        <v>135</v>
+      </c>
+      <c r="BD71" s="91">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="91">
+        <v>143</v>
+      </c>
+      <c r="G72" s="91">
+        <v>144</v>
+      </c>
+      <c r="H72" s="91">
+        <v>145</v>
+      </c>
+      <c r="I72" s="91">
+        <v>147</v>
+      </c>
+      <c r="J72" s="91">
+        <v>153</v>
+      </c>
+      <c r="K72" s="91">
+        <v>158</v>
+      </c>
+      <c r="L72" s="91">
+        <v>165</v>
+      </c>
+      <c r="M72" s="91">
+        <v>170</v>
+      </c>
+      <c r="N72" s="91">
+        <v>171</v>
+      </c>
+      <c r="O72" s="91">
+        <v>173</v>
+      </c>
+      <c r="P72" s="91">
+        <v>178</v>
+      </c>
+      <c r="Q72" s="91">
+        <v>180</v>
+      </c>
+      <c r="R72" s="91">
+        <v>182</v>
+      </c>
+      <c r="S72" s="91">
+        <v>183</v>
+      </c>
+      <c r="T72" s="91">
+        <v>186</v>
+      </c>
+      <c r="U72" s="91">
+        <v>192</v>
+      </c>
+      <c r="V72" s="91">
+        <v>197</v>
+      </c>
+      <c r="W72" s="91">
+        <v>198</v>
+      </c>
+      <c r="X72" s="91">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z72" s="91">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="91">
+        <v>7</v>
+      </c>
+      <c r="AB72" s="91">
+        <v>53</v>
+      </c>
+      <c r="AC72" s="91">
+        <v>85</v>
+      </c>
+      <c r="AD72" s="91">
+        <v>97</v>
+      </c>
+      <c r="AE72" s="91">
+        <v>98</v>
+      </c>
+      <c r="AF72" s="91">
+        <v>105</v>
+      </c>
+      <c r="AG72" s="91">
+        <v>113</v>
+      </c>
+      <c r="AH72" s="91">
+        <v>114</v>
+      </c>
+      <c r="AI72" s="91">
+        <v>119</v>
+      </c>
+      <c r="AJ72" s="91">
+        <v>127</v>
+      </c>
+      <c r="AK72" s="91">
+        <v>134</v>
+      </c>
+      <c r="AL72" s="91">
+        <v>140</v>
+      </c>
+      <c r="AM72" s="91">
+        <v>148</v>
+      </c>
+      <c r="AN72" s="91">
+        <v>149</v>
+      </c>
+      <c r="AO72" s="91">
+        <v>150</v>
+      </c>
+      <c r="AP72" s="91">
+        <v>157</v>
+      </c>
+      <c r="AQ72" s="91">
+        <v>159</v>
+      </c>
+      <c r="AR72" s="91">
+        <v>162</v>
+      </c>
+      <c r="AS72" s="91">
+        <v>185</v>
+      </c>
+      <c r="AT72" s="91">
+        <v>187</v>
+      </c>
+      <c r="AU72" s="91">
+        <v>191</v>
+      </c>
+      <c r="AV72" s="91">
+        <v>5</v>
+      </c>
+      <c r="AW72" s="91">
+        <v>43</v>
+      </c>
+      <c r="AX72" s="91">
+        <v>79</v>
+      </c>
+      <c r="AY72" s="91">
+        <v>205</v>
+      </c>
+      <c r="AZ72" s="91">
+        <v>76</v>
+      </c>
+      <c r="BA72" s="91">
+        <v>82</v>
+      </c>
+      <c r="BB72" s="91">
+        <v>103</v>
+      </c>
+      <c r="BC72" s="91">
+        <v>106</v>
+      </c>
+      <c r="BD72" s="91">
+        <v>59</v>
+      </c>
+      <c r="BE72" s="91">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -1270,11 +1270,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3674,10 +3674,10 @@
       <c r="I1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="121"/>
+      <c r="K1" s="122"/>
       <c r="L1" s="66" t="s">
         <v>92</v>
       </c>
@@ -5385,10 +5385,10 @@
       <c r="J1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="121" t="s">
+      <c r="K1" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="121"/>
+      <c r="L1" s="122"/>
       <c r="M1" s="75" t="s">
         <v>117</v>
       </c>
@@ -8505,8 +8505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14976,7 +14976,7 @@
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1832725</v>
+        <v>1834789</v>
       </c>
       <c r="B75" t="s">
         <v>203</v>
@@ -15629,7 +15629,7 @@
     </row>
     <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1832758</v>
+        <v>1835069</v>
       </c>
       <c r="B79" t="s">
         <v>222</v>
@@ -15798,7 +15798,7 @@
       </c>
     </row>
     <row r="80" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C80" s="122"/>
+      <c r="C80" s="121"/>
       <c r="F80" t="s">
         <v>216</v>
       </c>
@@ -15957,7 +15957,7 @@
       </c>
     </row>
     <row r="81" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C81" s="122"/>
+      <c r="C81" s="121"/>
       <c r="F81" t="s">
         <v>217</v>
       </c>
@@ -16116,7 +16116,7 @@
       </c>
     </row>
     <row r="82" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C82" s="122"/>
+      <c r="C82" s="121"/>
       <c r="F82" t="s">
         <v>218</v>
       </c>
@@ -16451,7 +16451,7 @@
       </c>
     </row>
     <row r="84" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C84" s="122"/>
+      <c r="C84" s="121"/>
       <c r="F84" t="s">
         <v>216</v>
       </c>
@@ -16610,7 +16610,7 @@
       </c>
     </row>
     <row r="85" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C85" s="122"/>
+      <c r="C85" s="121"/>
       <c r="F85" t="s">
         <v>217</v>
       </c>
@@ -16769,7 +16769,7 @@
       </c>
     </row>
     <row r="86" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C86" s="122"/>
+      <c r="C86" s="121"/>
       <c r="F86" t="s">
         <v>218</v>
       </c>
@@ -16932,12 +16932,12 @@
     </row>
     <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1832786</v>
+        <v>1835153</v>
       </c>
       <c r="B87" t="s">
         <v>228</v>
       </c>
-      <c r="C87" s="122" t="s">
+      <c r="C87" s="121" t="s">
         <v>229</v>
       </c>
       <c r="D87">
@@ -17104,7 +17104,7 @@
       </c>
     </row>
     <row r="88" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C88" s="122"/>
+      <c r="C88" s="121"/>
       <c r="F88" t="s">
         <v>216</v>
       </c>
@@ -17263,7 +17263,7 @@
       </c>
     </row>
     <row r="89" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C89" s="122"/>
+      <c r="C89" s="121"/>
       <c r="F89" t="s">
         <v>217</v>
       </c>
@@ -17422,7 +17422,7 @@
       </c>
     </row>
     <row r="90" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C90" s="122"/>
+      <c r="C90" s="121"/>
       <c r="F90" t="s">
         <v>218</v>
       </c>
@@ -17585,12 +17585,12 @@
     </row>
     <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1832787</v>
+        <v>1834794</v>
       </c>
       <c r="B91" t="s">
         <v>231</v>
       </c>
-      <c r="C91" s="122" t="s">
+      <c r="C91" s="121" t="s">
         <v>232</v>
       </c>
       <c r="D91">
@@ -17757,7 +17757,7 @@
       </c>
     </row>
     <row r="92" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C92" s="122"/>
+      <c r="C92" s="121"/>
       <c r="F92" t="s">
         <v>216</v>
       </c>
@@ -17916,7 +17916,7 @@
       </c>
     </row>
     <row r="93" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C93" s="122"/>
+      <c r="C93" s="121"/>
       <c r="F93" t="s">
         <v>217</v>
       </c>
@@ -18075,7 +18075,7 @@
       </c>
     </row>
     <row r="94" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C94" s="122"/>
+      <c r="C94" s="121"/>
       <c r="F94" t="s">
         <v>218</v>
       </c>
@@ -18238,12 +18238,12 @@
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1832794</v>
+        <v>1834810</v>
       </c>
       <c r="B95" t="s">
         <v>234</v>
       </c>
-      <c r="C95" s="122" t="s">
+      <c r="C95" s="121" t="s">
         <v>235</v>
       </c>
       <c r="D95">
@@ -18410,7 +18410,7 @@
       </c>
     </row>
     <row r="96" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C96" s="122"/>
+      <c r="C96" s="121"/>
       <c r="F96" t="s">
         <v>216</v>
       </c>
@@ -18569,7 +18569,7 @@
       </c>
     </row>
     <row r="97" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C97" s="122"/>
+      <c r="C97" s="121"/>
       <c r="F97" t="s">
         <v>217</v>
       </c>
@@ -18728,7 +18728,7 @@
       </c>
     </row>
     <row r="98" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C98" s="122"/>
+      <c r="C98" s="121"/>
       <c r="F98" t="s">
         <v>218</v>
       </c>
@@ -18891,12 +18891,12 @@
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1832795</v>
+        <v>1834839</v>
       </c>
       <c r="B99" t="s">
         <v>237</v>
       </c>
-      <c r="C99" s="122" t="s">
+      <c r="C99" s="121" t="s">
         <v>238</v>
       </c>
       <c r="D99">
@@ -19063,7 +19063,7 @@
       </c>
     </row>
     <row r="100" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C100" s="122"/>
+      <c r="C100" s="121"/>
       <c r="F100" t="s">
         <v>216</v>
       </c>
@@ -19222,7 +19222,7 @@
       </c>
     </row>
     <row r="101" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C101" s="122"/>
+      <c r="C101" s="121"/>
       <c r="F101" t="s">
         <v>217</v>
       </c>
@@ -19381,7 +19381,7 @@
       </c>
     </row>
     <row r="102" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C102" s="122"/>
+      <c r="C102" s="121"/>
       <c r="F102" t="s">
         <v>218</v>
       </c>
@@ -19544,12 +19544,12 @@
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1832796</v>
+        <v>1834840</v>
       </c>
       <c r="B103" t="s">
         <v>240</v>
       </c>
-      <c r="C103" s="122" t="s">
+      <c r="C103" s="121" t="s">
         <v>241</v>
       </c>
       <c r="D103">
@@ -19716,7 +19716,7 @@
       </c>
     </row>
     <row r="104" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C104" s="122"/>
+      <c r="C104" s="121"/>
       <c r="F104" t="s">
         <v>216</v>
       </c>
@@ -19875,7 +19875,7 @@
       </c>
     </row>
     <row r="105" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C105" s="122"/>
+      <c r="C105" s="121"/>
       <c r="F105" t="s">
         <v>217</v>
       </c>
@@ -20034,7 +20034,7 @@
       </c>
     </row>
     <row r="106" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C106" s="122"/>
+      <c r="C106" s="121"/>
       <c r="F106" t="s">
         <v>218</v>
       </c>
@@ -20202,7 +20202,7 @@
       <c r="B107" t="s">
         <v>243</v>
       </c>
-      <c r="C107" s="122" t="s">
+      <c r="C107" s="121" t="s">
         <v>244</v>
       </c>
       <c r="D107">
@@ -20214,31 +20214,31 @@
       <c r="F107" t="s">
         <v>215</v>
       </c>
-      <c r="G107" s="122">
+      <c r="G107" s="121">
         <v>62</v>
       </c>
-      <c r="H107" s="122">
+      <c r="H107" s="121">
         <v>59</v>
       </c>
-      <c r="I107" s="122">
+      <c r="I107" s="121">
         <v>144</v>
       </c>
-      <c r="J107" s="122">
+      <c r="J107" s="121">
         <v>191</v>
       </c>
-      <c r="K107" s="122">
+      <c r="K107" s="121">
         <v>82</v>
       </c>
-      <c r="L107" s="122">
+      <c r="L107" s="121">
         <v>114</v>
       </c>
-      <c r="M107" s="122">
+      <c r="M107" s="121">
         <v>141</v>
       </c>
-      <c r="N107" s="122">
+      <c r="N107" s="121">
         <v>195</v>
       </c>
-      <c r="O107" s="122">
+      <c r="O107" s="121">
         <v>197</v>
       </c>
       <c r="P107" s="119">
@@ -20369,35 +20369,35 @@
       </c>
     </row>
     <row r="108" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="C108" s="122"/>
+      <c r="C108" s="121"/>
       <c r="F108" t="s">
         <v>216</v>
       </c>
-      <c r="G108" s="122">
+      <c r="G108" s="121">
         <v>97</v>
       </c>
-      <c r="H108" s="122">
+      <c r="H108" s="121">
         <v>102</v>
       </c>
-      <c r="I108" s="122">
+      <c r="I108" s="121">
         <v>140</v>
       </c>
-      <c r="J108" s="122">
+      <c r="J108" s="121">
         <v>149</v>
       </c>
-      <c r="K108" s="122">
+      <c r="K108" s="121">
         <v>165</v>
       </c>
-      <c r="L108" s="122">
+      <c r="L108" s="121">
         <v>180</v>
       </c>
-      <c r="M108" s="122">
+      <c r="M108" s="121">
         <v>196</v>
       </c>
-      <c r="N108" s="122">
+      <c r="N108" s="121">
         <v>200</v>
       </c>
-      <c r="O108" s="122">
+      <c r="O108" s="121">
         <v>202</v>
       </c>
       <c r="P108" s="119">
@@ -20531,31 +20531,31 @@
       <c r="F109" t="s">
         <v>217</v>
       </c>
-      <c r="G109" s="122">
+      <c r="G109" s="121">
         <v>71</v>
       </c>
-      <c r="H109" s="122">
+      <c r="H109" s="121">
         <v>73</v>
       </c>
-      <c r="I109" s="122">
+      <c r="I109" s="121">
         <v>75</v>
       </c>
-      <c r="J109" s="122">
+      <c r="J109" s="121">
         <v>81</v>
       </c>
-      <c r="K109" s="122">
+      <c r="K109" s="121">
         <v>84</v>
       </c>
-      <c r="L109" s="122">
+      <c r="L109" s="121">
         <v>85</v>
       </c>
-      <c r="M109" s="122">
+      <c r="M109" s="121">
         <v>89</v>
       </c>
-      <c r="N109" s="122">
+      <c r="N109" s="121">
         <v>90</v>
       </c>
-      <c r="O109" s="122">
+      <c r="O109" s="121">
         <v>92</v>
       </c>
       <c r="P109" s="119">
@@ -20689,31 +20689,31 @@
       <c r="F110" t="s">
         <v>218</v>
       </c>
-      <c r="G110" s="122">
+      <c r="G110" s="121">
         <v>49</v>
       </c>
-      <c r="H110" s="122">
+      <c r="H110" s="121">
         <v>54</v>
       </c>
-      <c r="I110" s="122">
+      <c r="I110" s="121">
         <v>64</v>
       </c>
-      <c r="J110" s="122">
+      <c r="J110" s="121">
         <v>66</v>
       </c>
-      <c r="K110" s="122">
+      <c r="K110" s="121">
         <v>68</v>
       </c>
-      <c r="L110" s="122">
+      <c r="L110" s="121">
         <v>74</v>
       </c>
-      <c r="M110" s="122">
+      <c r="M110" s="121">
         <v>86</v>
       </c>
-      <c r="N110" s="122">
+      <c r="N110" s="121">
         <v>93</v>
       </c>
-      <c r="O110" s="122">
+      <c r="O110" s="121">
         <v>96</v>
       </c>
       <c r="P110" s="119">

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -8505,8 +8505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14975,9 +14975,6 @@
       </c>
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1834789</v>
-      </c>
       <c r="B75" t="s">
         <v>203</v>
       </c>
@@ -20848,7 +20845,7 @@
     </row>
     <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1832797</v>
+        <v>1832798</v>
       </c>
       <c r="B111" t="s">
         <v>246</v>
@@ -23448,9 +23445,6 @@
       </c>
     </row>
     <row r="127" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1833527</v>
-      </c>
       <c r="B127" t="s">
         <v>256</v>
       </c>
@@ -23780,7 +23774,7 @@
       </c>
       <c r="BM128"/>
     </row>
-    <row r="129" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>217</v>
       </c>
@@ -23939,7 +23933,7 @@
       </c>
       <c r="BM129"/>
     </row>
-    <row r="130" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
         <v>218</v>
       </c>
@@ -24101,10 +24095,7 @@
       </c>
       <c r="BM130"/>
     </row>
-    <row r="131" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1833528</v>
-      </c>
+    <row r="131" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>258</v>
       </c>
@@ -24275,7 +24266,7 @@
       </c>
       <c r="BM131"/>
     </row>
-    <row r="132" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
         <v>216</v>
       </c>
@@ -24435,7 +24426,7 @@
       <c r="BL132"/>
       <c r="BM132"/>
     </row>
-    <row r="133" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
         <v>217</v>
       </c>
@@ -24595,7 +24586,7 @@
       <c r="BL133"/>
       <c r="BM133"/>
     </row>
-    <row r="134" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
         <v>218</v>
       </c>
@@ -24758,10 +24749,7 @@
       <c r="BL134"/>
       <c r="BM134"/>
     </row>
-    <row r="135" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1833529</v>
-      </c>
+    <row r="135" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>260</v>
       </c>
@@ -24934,7 +24922,7 @@
       <c r="BL135"/>
       <c r="BM135"/>
     </row>
-    <row r="136" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
         <v>216</v>
       </c>
@@ -25095,7 +25083,7 @@
       <c r="BL136"/>
       <c r="BM136"/>
     </row>
-    <row r="137" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
         <v>217</v>
       </c>
@@ -25256,7 +25244,7 @@
       <c r="BL137"/>
       <c r="BM137"/>
     </row>
-    <row r="138" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
         <v>218</v>
       </c>
@@ -25420,10 +25408,7 @@
       <c r="BL138"/>
       <c r="BM138"/>
     </row>
-    <row r="139" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1833530</v>
-      </c>
+    <row r="139" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>262</v>
       </c>
@@ -25596,7 +25581,7 @@
       <c r="BL139"/>
       <c r="BM139"/>
     </row>
-    <row r="140" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
         <v>216</v>
       </c>
@@ -25757,7 +25742,7 @@
       <c r="BL140"/>
       <c r="BM140"/>
     </row>
-    <row r="141" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
         <v>217</v>
       </c>
@@ -25918,7 +25903,7 @@
       <c r="BL141"/>
       <c r="BM141"/>
     </row>
-    <row r="142" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
         <v>218</v>
       </c>
@@ -26082,10 +26067,7 @@
       <c r="BL142"/>
       <c r="BM142"/>
     </row>
-    <row r="143" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1833531</v>
-      </c>
+    <row r="143" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>264</v>
       </c>
@@ -26258,7 +26240,7 @@
       <c r="BL143"/>
       <c r="BM143"/>
     </row>
-    <row r="144" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
         <v>216</v>
       </c>
@@ -26419,7 +26401,7 @@
       <c r="BL144"/>
       <c r="BM144"/>
     </row>
-    <row r="145" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
         <v>217</v>
       </c>
@@ -26580,7 +26562,7 @@
       <c r="BL145"/>
       <c r="BM145"/>
     </row>
-    <row r="146" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>218</v>
       </c>
@@ -26744,10 +26726,7 @@
       <c r="BL146"/>
       <c r="BM146"/>
     </row>
-    <row r="147" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1833532</v>
-      </c>
+    <row r="147" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>266</v>
       </c>
@@ -26920,7 +26899,7 @@
       <c r="BL147"/>
       <c r="BM147"/>
     </row>
-    <row r="148" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
         <v>216</v>
       </c>
@@ -27082,7 +27061,7 @@
       <c r="BL148"/>
       <c r="BM148"/>
     </row>
-    <row r="149" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
         <v>217</v>
       </c>
@@ -27244,7 +27223,7 @@
       <c r="BL149"/>
       <c r="BM149"/>
     </row>
-    <row r="150" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:65" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
         <v>218</v>
       </c>
@@ -27409,70 +27388,70 @@
       <c r="BL150"/>
       <c r="BM150"/>
     </row>
-    <row r="151" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI151"/>
       <c r="BJ151"/>
       <c r="BK151"/>
       <c r="BL151"/>
       <c r="BM151"/>
     </row>
-    <row r="152" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI152"/>
       <c r="BJ152"/>
       <c r="BK152"/>
       <c r="BL152"/>
       <c r="BM152"/>
     </row>
-    <row r="153" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI153"/>
       <c r="BJ153"/>
       <c r="BK153"/>
       <c r="BL153"/>
       <c r="BM153"/>
     </row>
-    <row r="154" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI154"/>
       <c r="BJ154"/>
       <c r="BK154"/>
       <c r="BL154"/>
       <c r="BM154"/>
     </row>
-    <row r="155" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI155"/>
       <c r="BJ155"/>
       <c r="BK155"/>
       <c r="BL155"/>
       <c r="BM155"/>
     </row>
-    <row r="156" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI156"/>
       <c r="BJ156"/>
       <c r="BK156"/>
       <c r="BL156"/>
       <c r="BM156"/>
     </row>
-    <row r="157" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI157"/>
       <c r="BJ157"/>
       <c r="BK157"/>
       <c r="BL157"/>
       <c r="BM157"/>
     </row>
-    <row r="158" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI158"/>
       <c r="BJ158"/>
       <c r="BK158"/>
       <c r="BL158"/>
       <c r="BM158"/>
     </row>
-    <row r="159" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI159"/>
       <c r="BJ159"/>
       <c r="BK159"/>
       <c r="BL159"/>
       <c r="BM159"/>
     </row>
-    <row r="160" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:65" x14ac:dyDescent="0.25">
       <c r="BI160"/>
       <c r="BJ160"/>
       <c r="BK160"/>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -8505,8 +8505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1835069</v>
+        <v>1837122</v>
       </c>
       <c r="B79" t="s">
         <v>222</v>
@@ -16928,9 +16928,6 @@
       </c>
     </row>
     <row r="87" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1835153</v>
-      </c>
       <c r="B87" t="s">
         <v>228</v>
       </c>
@@ -18235,7 +18232,7 @@
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1834810</v>
+        <v>1837135</v>
       </c>
       <c r="B95" t="s">
         <v>234</v>
@@ -18888,7 +18885,7 @@
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1834839</v>
+        <v>1837138</v>
       </c>
       <c r="B99" t="s">
         <v>237</v>
@@ -20194,7 +20191,7 @@
     </row>
     <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1832797</v>
+        <v>1837540</v>
       </c>
       <c r="B107" t="s">
         <v>243</v>
@@ -20845,7 +20842,7 @@
     </row>
     <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1832798</v>
+        <v>1837670</v>
       </c>
       <c r="B111" t="s">
         <v>246</v>
@@ -23445,6 +23442,9 @@
       </c>
     </row>
     <row r="127" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1837671</v>
+      </c>
       <c r="B127" t="s">
         <v>256</v>
       </c>
@@ -26401,7 +26401,7 @@
       <c r="BL144"/>
       <c r="BM144"/>
     </row>
-    <row r="145" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
         <v>217</v>
       </c>
@@ -26562,7 +26562,7 @@
       <c r="BL145"/>
       <c r="BM145"/>
     </row>
-    <row r="146" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>218</v>
       </c>
@@ -26726,7 +26726,10 @@
       <c r="BL146"/>
       <c r="BM146"/>
     </row>
-    <row r="147" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1837150</v>
+      </c>
       <c r="B147" t="s">
         <v>266</v>
       </c>
@@ -26899,7 +26902,7 @@
       <c r="BL147"/>
       <c r="BM147"/>
     </row>
-    <row r="148" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
         <v>216</v>
       </c>
@@ -27061,7 +27064,7 @@
       <c r="BL148"/>
       <c r="BM148"/>
     </row>
-    <row r="149" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
         <v>217</v>
       </c>
@@ -27223,7 +27226,7 @@
       <c r="BL149"/>
       <c r="BM149"/>
     </row>
-    <row r="150" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
         <v>218</v>
       </c>
@@ -27388,70 +27391,70 @@
       <c r="BL150"/>
       <c r="BM150"/>
     </row>
-    <row r="151" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI151"/>
       <c r="BJ151"/>
       <c r="BK151"/>
       <c r="BL151"/>
       <c r="BM151"/>
     </row>
-    <row r="152" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI152"/>
       <c r="BJ152"/>
       <c r="BK152"/>
       <c r="BL152"/>
       <c r="BM152"/>
     </row>
-    <row r="153" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI153"/>
       <c r="BJ153"/>
       <c r="BK153"/>
       <c r="BL153"/>
       <c r="BM153"/>
     </row>
-    <row r="154" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI154"/>
       <c r="BJ154"/>
       <c r="BK154"/>
       <c r="BL154"/>
       <c r="BM154"/>
     </row>
-    <row r="155" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI155"/>
       <c r="BJ155"/>
       <c r="BK155"/>
       <c r="BL155"/>
       <c r="BM155"/>
     </row>
-    <row r="156" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI156"/>
       <c r="BJ156"/>
       <c r="BK156"/>
       <c r="BL156"/>
       <c r="BM156"/>
     </row>
-    <row r="157" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI157"/>
       <c r="BJ157"/>
       <c r="BK157"/>
       <c r="BL157"/>
       <c r="BM157"/>
     </row>
-    <row r="158" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI158"/>
       <c r="BJ158"/>
       <c r="BK158"/>
       <c r="BL158"/>
       <c r="BM158"/>
     </row>
-    <row r="159" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI159"/>
       <c r="BJ159"/>
       <c r="BK159"/>
       <c r="BL159"/>
       <c r="BM159"/>
     </row>
-    <row r="160" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:65" x14ac:dyDescent="0.25">
       <c r="BI160"/>
       <c r="BJ160"/>
       <c r="BK160"/>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="276">
   <si>
     <t>data set</t>
   </si>
@@ -866,6 +866,9 @@
   <si>
     <t>exp(0.219)</t>
   </si>
+  <si>
+    <t>restart append</t>
+  </si>
 </sst>
 </file>
 
@@ -875,7 +878,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,8 +905,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +963,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -965,10 +992,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1276,8 +1305,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -8505,8 +8538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15625,8 +15658,8 @@
       </c>
     </row>
     <row r="79" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1837122</v>
+      <c r="A79" s="123">
+        <v>1840378</v>
       </c>
       <c r="B79" t="s">
         <v>222</v>
@@ -16275,7 +16308,7 @@
       </c>
     </row>
     <row r="83" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="124">
         <v>1832644</v>
       </c>
       <c r="B83" t="s">
@@ -17578,8 +17611,8 @@
       </c>
     </row>
     <row r="91" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1834794</v>
+      <c r="A91" t="s">
+        <v>275</v>
       </c>
       <c r="B91" t="s">
         <v>231</v>
@@ -18231,7 +18264,7 @@
       </c>
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="123">
         <v>1837135</v>
       </c>
       <c r="B95" t="s">
@@ -18884,7 +18917,7 @@
       </c>
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="123">
         <v>1837138</v>
       </c>
       <c r="B99" t="s">
@@ -19537,8 +19570,8 @@
       </c>
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1834840</v>
+      <c r="A103" t="s">
+        <v>275</v>
       </c>
       <c r="B103" t="s">
         <v>240</v>
@@ -20190,7 +20223,7 @@
       </c>
     </row>
     <row r="107" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="123">
         <v>1837540</v>
       </c>
       <c r="B107" t="s">
@@ -20841,7 +20874,7 @@
       </c>
     </row>
     <row r="111" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="123">
         <v>1837670</v>
       </c>
       <c r="B111" t="s">
@@ -23442,7 +23475,7 @@
       </c>
     </row>
     <row r="127" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="123">
         <v>1837671</v>
       </c>
       <c r="B127" t="s">

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -1302,11 +1302,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3707,10 +3707,10 @@
       <c r="I1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="122"/>
+      <c r="K1" s="124"/>
       <c r="L1" s="66" t="s">
         <v>92</v>
       </c>
@@ -5418,10 +5418,10 @@
       <c r="J1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="122" t="s">
+      <c r="K1" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="122"/>
+      <c r="L1" s="124"/>
       <c r="M1" s="75" t="s">
         <v>117</v>
       </c>
@@ -8538,8 +8538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15008,6 +15008,9 @@
       </c>
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A75" s="122">
+        <v>1842499</v>
+      </c>
       <c r="B75" t="s">
         <v>203</v>
       </c>
@@ -15658,9 +15661,7 @@
       </c>
     </row>
     <row r="79" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A79" s="123">
-        <v>1840378</v>
-      </c>
+      <c r="A79" s="122"/>
       <c r="B79" t="s">
         <v>222</v>
       </c>
@@ -16308,7 +16309,7 @@
       </c>
     </row>
     <row r="83" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A83" s="124">
+      <c r="A83" s="123">
         <v>1832644</v>
       </c>
       <c r="B83" t="s">
@@ -16961,6 +16962,7 @@
       </c>
     </row>
     <row r="87" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A87" s="122"/>
       <c r="B87" t="s">
         <v>228</v>
       </c>
@@ -18264,7 +18266,7 @@
       </c>
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A95" s="123">
+      <c r="A95" s="122">
         <v>1837135</v>
       </c>
       <c r="B95" t="s">
@@ -18917,7 +18919,7 @@
       </c>
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A99" s="123">
+      <c r="A99" s="122">
         <v>1837138</v>
       </c>
       <c r="B99" t="s">
@@ -20223,7 +20225,7 @@
       </c>
     </row>
     <row r="107" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A107" s="123">
+      <c r="A107" s="122">
         <v>1837540</v>
       </c>
       <c r="B107" t="s">
@@ -20874,7 +20876,7 @@
       </c>
     </row>
     <row r="111" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A111" s="123">
+      <c r="A111" s="122">
         <v>1837670</v>
       </c>
       <c r="B111" t="s">
@@ -21524,7 +21526,7 @@
       </c>
     </row>
     <row r="115" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="122">
         <v>1833524</v>
       </c>
       <c r="B115" t="s">
@@ -22174,7 +22176,7 @@
       </c>
     </row>
     <row r="119" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="122">
         <v>1833525</v>
       </c>
       <c r="B119" t="s">
@@ -22824,7 +22826,7 @@
       </c>
     </row>
     <row r="123" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="122">
         <v>1833526</v>
       </c>
       <c r="B123" t="s">
@@ -23475,7 +23477,7 @@
       </c>
     </row>
     <row r="127" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A127" s="123">
+      <c r="A127" s="122">
         <v>1837671</v>
       </c>
       <c r="B127" t="s">
@@ -23807,7 +23809,7 @@
       </c>
       <c r="BM128"/>
     </row>
-    <row r="129" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>217</v>
       </c>
@@ -23966,7 +23968,7 @@
       </c>
       <c r="BM129"/>
     </row>
-    <row r="130" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
         <v>218</v>
       </c>
@@ -24128,7 +24130,8 @@
       </c>
       <c r="BM130"/>
     </row>
-    <row r="131" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A131" s="122"/>
       <c r="B131" t="s">
         <v>258</v>
       </c>
@@ -24299,7 +24302,7 @@
       </c>
       <c r="BM131"/>
     </row>
-    <row r="132" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
         <v>216</v>
       </c>
@@ -24459,7 +24462,7 @@
       <c r="BL132"/>
       <c r="BM132"/>
     </row>
-    <row r="133" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
         <v>217</v>
       </c>
@@ -24619,7 +24622,7 @@
       <c r="BL133"/>
       <c r="BM133"/>
     </row>
-    <row r="134" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
         <v>218</v>
       </c>
@@ -24782,7 +24785,8 @@
       <c r="BL134"/>
       <c r="BM134"/>
     </row>
-    <row r="135" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A135" s="122"/>
       <c r="B135" t="s">
         <v>260</v>
       </c>
@@ -24955,7 +24959,7 @@
       <c r="BL135"/>
       <c r="BM135"/>
     </row>
-    <row r="136" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
         <v>216</v>
       </c>
@@ -25116,7 +25120,7 @@
       <c r="BL136"/>
       <c r="BM136"/>
     </row>
-    <row r="137" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
         <v>217</v>
       </c>
@@ -25277,7 +25281,7 @@
       <c r="BL137"/>
       <c r="BM137"/>
     </row>
-    <row r="138" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
         <v>218</v>
       </c>
@@ -25441,7 +25445,8 @@
       <c r="BL138"/>
       <c r="BM138"/>
     </row>
-    <row r="139" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A139" s="122"/>
       <c r="B139" t="s">
         <v>262</v>
       </c>
@@ -25614,7 +25619,7 @@
       <c r="BL139"/>
       <c r="BM139"/>
     </row>
-    <row r="140" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
         <v>216</v>
       </c>
@@ -25775,7 +25780,7 @@
       <c r="BL140"/>
       <c r="BM140"/>
     </row>
-    <row r="141" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
         <v>217</v>
       </c>
@@ -25936,7 +25941,7 @@
       <c r="BL141"/>
       <c r="BM141"/>
     </row>
-    <row r="142" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
         <v>218</v>
       </c>
@@ -26100,7 +26105,8 @@
       <c r="BL142"/>
       <c r="BM142"/>
     </row>
-    <row r="143" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A143" s="122"/>
       <c r="B143" t="s">
         <v>264</v>
       </c>
@@ -26273,7 +26279,7 @@
       <c r="BL143"/>
       <c r="BM143"/>
     </row>
-    <row r="144" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:65" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
         <v>216</v>
       </c>
@@ -26760,8 +26766,8 @@
       <c r="BM146"/>
     </row>
     <row r="147" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1837150</v>
+      <c r="A147" s="122">
+        <v>1842500</v>
       </c>
       <c r="B147" t="s">
         <v>266</v>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -8538,8 +8538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15008,9 +15008,7 @@
       </c>
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A75" s="122">
-        <v>1842499</v>
-      </c>
+      <c r="A75" s="122"/>
       <c r="B75" t="s">
         <v>203</v>
       </c>
@@ -26766,9 +26764,7 @@
       <c r="BM146"/>
     </row>
     <row r="147" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A147" s="122">
-        <v>1842500</v>
-      </c>
+      <c r="A147" s="122"/>
       <c r="B147" t="s">
         <v>266</v>
       </c>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dxsb43\GitHub\Partitioning_Strategies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\local\dxsb43\GitHub\Partitioning_Strategies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8538,8 +8538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15008,7 +15008,9 @@
       </c>
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A75" s="122"/>
+      <c r="A75" s="122">
+        <v>1917516</v>
+      </c>
       <c r="B75" t="s">
         <v>203</v>
       </c>
@@ -15179,6 +15181,9 @@
       </c>
     </row>
     <row r="76" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1917647</v>
+      </c>
       <c r="C76" s="119"/>
       <c r="F76" t="s">
         <v>216</v>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="275">
   <si>
     <t>data set</t>
   </si>
@@ -865,9 +865,6 @@
   </si>
   <si>
     <t>exp(0.219)</t>
-  </si>
-  <si>
-    <t>restart append</t>
   </si>
 </sst>
 </file>
@@ -8538,8 +8535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15008,8 +15005,8 @@
       </c>
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A75" s="122">
-        <v>1917516</v>
+      <c r="A75" s="123">
+        <v>1917793</v>
       </c>
       <c r="B75" t="s">
         <v>203</v>
@@ -15181,9 +15178,6 @@
       </c>
     </row>
     <row r="76" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1917647</v>
-      </c>
       <c r="C76" s="119"/>
       <c r="F76" t="s">
         <v>216</v>
@@ -15664,7 +15658,9 @@
       </c>
     </row>
     <row r="79" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A79" s="122"/>
+      <c r="A79" s="123">
+        <v>1917796</v>
+      </c>
       <c r="B79" t="s">
         <v>222</v>
       </c>
@@ -16965,7 +16961,9 @@
       </c>
     </row>
     <row r="87" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A87" s="122"/>
+      <c r="A87" s="122">
+        <v>1922647</v>
+      </c>
       <c r="B87" t="s">
         <v>228</v>
       </c>
@@ -17616,8 +17614,8 @@
       </c>
     </row>
     <row r="91" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>275</v>
+      <c r="A91" s="123">
+        <v>1917798</v>
       </c>
       <c r="B91" t="s">
         <v>231</v>
@@ -18269,8 +18267,8 @@
       </c>
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A95" s="122">
-        <v>1837135</v>
+      <c r="A95" s="123">
+        <v>1917799</v>
       </c>
       <c r="B95" t="s">
         <v>234</v>
@@ -18922,8 +18920,8 @@
       </c>
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A99" s="122">
-        <v>1837138</v>
+      <c r="A99" s="123">
+        <v>1917800</v>
       </c>
       <c r="B99" t="s">
         <v>237</v>
@@ -19575,8 +19573,8 @@
       </c>
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>275</v>
+      <c r="A103" s="123">
+        <v>1917801</v>
       </c>
       <c r="B103" t="s">
         <v>240</v>
@@ -20229,7 +20227,7 @@
     </row>
     <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107" s="122">
-        <v>1837540</v>
+        <v>1922649</v>
       </c>
       <c r="B107" t="s">
         <v>243</v>
@@ -20880,7 +20878,7 @@
     </row>
     <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111" s="122">
-        <v>1837670</v>
+        <v>1922651</v>
       </c>
       <c r="B111" t="s">
         <v>246</v>
@@ -21530,7 +21528,7 @@
     </row>
     <row r="115" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A115" s="122">
-        <v>1833524</v>
+        <v>1922679</v>
       </c>
       <c r="B115" t="s">
         <v>249</v>
@@ -22180,7 +22178,7 @@
     </row>
     <row r="119" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A119" s="122">
-        <v>1833525</v>
+        <v>1922680</v>
       </c>
       <c r="B119" t="s">
         <v>251</v>
@@ -22830,7 +22828,7 @@
     </row>
     <row r="123" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A123" s="122">
-        <v>1833526</v>
+        <v>1922681</v>
       </c>
       <c r="B123" t="s">
         <v>254</v>
@@ -23481,7 +23479,7 @@
     </row>
     <row r="127" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A127" s="122">
-        <v>1837671</v>
+        <v>1922682</v>
       </c>
       <c r="B127" t="s">
         <v>256</v>
@@ -24134,7 +24132,9 @@
       <c r="BM130"/>
     </row>
     <row r="131" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A131" s="122"/>
+      <c r="A131" s="122">
+        <v>1922686</v>
+      </c>
       <c r="B131" t="s">
         <v>258</v>
       </c>
@@ -24789,7 +24789,9 @@
       <c r="BM134"/>
     </row>
     <row r="135" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A135" s="122"/>
+      <c r="A135" s="122">
+        <v>1922687</v>
+      </c>
       <c r="B135" t="s">
         <v>260</v>
       </c>
@@ -25449,7 +25451,9 @@
       <c r="BM138"/>
     </row>
     <row r="139" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A139" s="122"/>
+      <c r="A139" s="122">
+        <v>1922689</v>
+      </c>
       <c r="B139" t="s">
         <v>262</v>
       </c>
@@ -26109,7 +26113,9 @@
       <c r="BM142"/>
     </row>
     <row r="143" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A143" s="122"/>
+      <c r="A143" s="122">
+        <v>1922690</v>
+      </c>
       <c r="B143" t="s">
         <v>264</v>
       </c>
@@ -26769,7 +26775,9 @@
       <c r="BM146"/>
     </row>
     <row r="147" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A147" s="122"/>
+      <c r="A147" s="122">
+        <v>1922694</v>
+      </c>
       <c r="B147" t="s">
         <v>266</v>
       </c>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Run outputs" sheetId="3" r:id="rId2"/>
     <sheet name="FromPrior Outputs" sheetId="7" r:id="rId3"/>
     <sheet name="FromPrior Parameters" sheetId="8" r:id="rId4"/>
-    <sheet name="Homoplasy mutations" sheetId="9" r:id="rId5"/>
+    <sheet name="HomMut CEA" sheetId="9" r:id="rId5"/>
+    <sheet name="HomMut OZL" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -875,7 +876,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,15 +910,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,11 +959,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -989,12 +978,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1299,15 +1287,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -3704,10 +3690,10 @@
       <c r="I1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="124" t="s">
+      <c r="J1" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="124"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="66" t="s">
         <v>92</v>
       </c>
@@ -5415,10 +5401,10 @@
       <c r="J1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="124"/>
+      <c r="L1" s="123"/>
       <c r="M1" s="75" t="s">
         <v>117</v>
       </c>
@@ -8535,8 +8521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15005,7 +14991,7 @@
       </c>
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A75" s="123">
+      <c r="A75" s="122">
         <v>1917793</v>
       </c>
       <c r="B75" t="s">
@@ -15658,7 +15644,7 @@
       </c>
     </row>
     <row r="79" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A79" s="123">
+      <c r="A79" s="122">
         <v>1917796</v>
       </c>
       <c r="B79" t="s">
@@ -16308,7 +16294,7 @@
       </c>
     </row>
     <row r="83" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A83" s="123">
+      <c r="A83" s="122">
         <v>1832644</v>
       </c>
       <c r="B83" t="s">
@@ -17614,7 +17600,7 @@
       </c>
     </row>
     <row r="91" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A91" s="123">
+      <c r="A91" s="122">
         <v>1917798</v>
       </c>
       <c r="B91" t="s">
@@ -18267,7 +18253,7 @@
       </c>
     </row>
     <row r="95" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A95" s="123">
+      <c r="A95" s="122">
         <v>1917799</v>
       </c>
       <c r="B95" t="s">
@@ -18920,7 +18906,7 @@
       </c>
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A99" s="123">
+      <c r="A99" s="122">
         <v>1917800</v>
       </c>
       <c r="B99" t="s">
@@ -19573,7 +19559,7 @@
       </c>
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A103" s="123">
+      <c r="A103" s="122">
         <v>1917801</v>
       </c>
       <c r="B103" t="s">
@@ -27750,4 +27736,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="409">
   <si>
     <t>data set</t>
   </si>
@@ -1267,6 +1267,9 @@
   <si>
     <t>CEA_TBR_chain</t>
   </si>
+  <si>
+    <t>OZL_TBR_chain</t>
+  </si>
 </sst>
 </file>
 
@@ -8946,8 +8949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM310"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E311" sqref="E311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46959,7 +46962,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="122">
         <v>2078605</v>
       </c>
       <c r="B294" t="s">
@@ -46970,7 +46973,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="122">
         <v>2078609</v>
       </c>
       <c r="B295" t="s">
@@ -46981,8 +46984,8 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>2078610</v>
+      <c r="A296" s="122">
+        <v>2098676</v>
       </c>
       <c r="B296" t="s">
         <v>405</v>
@@ -46992,7 +46995,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="122">
         <v>2078611</v>
       </c>
       <c r="B297" t="s">
@@ -47003,7 +47006,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="122">
         <v>2078612</v>
       </c>
       <c r="B298" t="s">
@@ -47014,6 +47017,9 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="125">
+        <v>2115873</v>
+      </c>
       <c r="B300" t="s">
         <v>406</v>
       </c>
@@ -47022,6 +47028,9 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="125">
+        <v>2115874</v>
+      </c>
       <c r="B301" t="s">
         <v>406</v>
       </c>
@@ -47030,6 +47039,9 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="125">
+        <v>2115875</v>
+      </c>
       <c r="B302" t="s">
         <v>406</v>
       </c>
@@ -47038,6 +47050,9 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="125">
+        <v>2115876</v>
+      </c>
       <c r="B303" t="s">
         <v>406</v>
       </c>
@@ -47046,6 +47061,9 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="125">
+        <v>2115877</v>
+      </c>
       <c r="B304" t="s">
         <v>406</v>
       </c>
@@ -47053,7 +47071,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="125">
+        <v>2115878</v>
+      </c>
       <c r="B306" t="s">
         <v>407</v>
       </c>
@@ -47061,7 +47082,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="125">
+        <v>2115879</v>
+      </c>
       <c r="B307" t="s">
         <v>407</v>
       </c>
@@ -47069,7 +47093,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="125">
+        <v>2115880</v>
+      </c>
       <c r="B308" t="s">
         <v>407</v>
       </c>
@@ -47077,7 +47104,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="125">
+        <v>2115881</v>
+      </c>
       <c r="B309" t="s">
         <v>407</v>
       </c>
@@ -47085,7 +47115,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="125">
+        <v>2115882</v>
+      </c>
       <c r="B310" t="s">
         <v>407</v>
       </c>
@@ -47101,10 +47134,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO158"/>
+  <dimension ref="A1:BO164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154:A158"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74963,7 +74996,7 @@
       </c>
     </row>
     <row r="148" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A148" s="125">
+      <c r="A148" s="122">
         <v>2065917</v>
       </c>
       <c r="B148" t="s">
@@ -74974,7 +75007,7 @@
       </c>
     </row>
     <row r="149" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A149" s="125">
+      <c r="A149" s="122">
         <v>2078584</v>
       </c>
       <c r="B149" t="s">
@@ -74985,7 +75018,7 @@
       </c>
     </row>
     <row r="150" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A150" s="125">
+      <c r="A150" s="122">
         <v>2078585</v>
       </c>
       <c r="B150" t="s">
@@ -74996,7 +75029,7 @@
       </c>
     </row>
     <row r="151" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A151" s="125">
+      <c r="A151" s="122">
         <v>2078586</v>
       </c>
       <c r="B151" t="s">
@@ -75007,7 +75040,7 @@
       </c>
     </row>
     <row r="152" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A152" s="125">
+      <c r="A152" s="122">
         <v>2078587</v>
       </c>
       <c r="B152" t="s">
@@ -75018,8 +75051,8 @@
       </c>
     </row>
     <row r="154" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A154" s="125">
-        <v>2078588</v>
+      <c r="A154" s="122">
+        <v>2098678</v>
       </c>
       <c r="B154" t="s">
         <v>404</v>
@@ -75029,8 +75062,8 @@
       </c>
     </row>
     <row r="155" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A155" s="125">
-        <v>2078590</v>
+      <c r="A155" s="122">
+        <v>2098679</v>
       </c>
       <c r="B155" t="s">
         <v>404</v>
@@ -75040,8 +75073,8 @@
       </c>
     </row>
     <row r="156" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A156" s="125">
-        <v>2078592</v>
+      <c r="A156" s="122">
+        <v>2098680</v>
       </c>
       <c r="B156" t="s">
         <v>404</v>
@@ -75051,8 +75084,8 @@
       </c>
     </row>
     <row r="157" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A157" s="125">
-        <v>2078593</v>
+      <c r="A157" s="122">
+        <v>2098681</v>
       </c>
       <c r="B157" t="s">
         <v>404</v>
@@ -75062,13 +75095,68 @@
       </c>
     </row>
     <row r="158" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A158" s="125">
-        <v>2078594</v>
+      <c r="A158" s="122">
+        <v>2098682</v>
       </c>
       <c r="B158" t="s">
         <v>404</v>
       </c>
       <c r="C158" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A160" s="125">
+        <v>2115903</v>
+      </c>
+      <c r="B160" t="s">
+        <v>408</v>
+      </c>
+      <c r="C160" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="125">
+        <v>2115904</v>
+      </c>
+      <c r="B161" t="s">
+        <v>408</v>
+      </c>
+      <c r="C161" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="125">
+        <v>2115905</v>
+      </c>
+      <c r="B162" t="s">
+        <v>408</v>
+      </c>
+      <c r="C162" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="125">
+        <v>2115906</v>
+      </c>
+      <c r="B163" t="s">
+        <v>408</v>
+      </c>
+      <c r="C163" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="125">
+        <v>2115907</v>
+      </c>
+      <c r="B164" t="s">
+        <v>408</v>
+      </c>
+      <c r="C164" t="s">
         <v>403</v>
       </c>
     </row>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -8950,7 +8950,7 @@
   <dimension ref="A1:BM310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E311" sqref="E311"/>
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47018,7 +47018,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="125">
-        <v>2115873</v>
+        <v>2139472</v>
       </c>
       <c r="B300" t="s">
         <v>406</v>
@@ -47029,7 +47029,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="125">
-        <v>2115874</v>
+        <v>2139473</v>
       </c>
       <c r="B301" t="s">
         <v>406</v>
@@ -47040,7 +47040,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="125">
-        <v>2115875</v>
+        <v>2139474</v>
       </c>
       <c r="B302" t="s">
         <v>406</v>
@@ -47051,7 +47051,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="125">
-        <v>2115876</v>
+        <v>2139475</v>
       </c>
       <c r="B303" t="s">
         <v>406</v>
@@ -47062,7 +47062,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="125">
-        <v>2115877</v>
+        <v>2139476</v>
       </c>
       <c r="B304" t="s">
         <v>406</v>
@@ -47072,9 +47072,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="125">
-        <v>2115878</v>
-      </c>
+      <c r="A306" s="125"/>
       <c r="B306" t="s">
         <v>407</v>
       </c>
@@ -47083,9 +47081,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="125">
-        <v>2115879</v>
-      </c>
+      <c r="A307" s="125"/>
       <c r="B307" t="s">
         <v>407</v>
       </c>
@@ -47094,9 +47090,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="125">
-        <v>2115880</v>
-      </c>
+      <c r="A308" s="125"/>
       <c r="B308" t="s">
         <v>407</v>
       </c>
@@ -47105,9 +47099,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="125">
-        <v>2115881</v>
-      </c>
+      <c r="A309" s="125"/>
       <c r="B309" t="s">
         <v>407</v>
       </c>
@@ -47116,9 +47108,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="125">
-        <v>2115882</v>
-      </c>
+      <c r="A310" s="125"/>
       <c r="B310" t="s">
         <v>407</v>
       </c>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="414">
   <si>
     <t>data set</t>
   </si>
@@ -1270,6 +1270,21 @@
   <si>
     <t>OZL_TBR_chain</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>OZL_TBRch</t>
+  </si>
+  <si>
+    <t>SCO_random</t>
+  </si>
+  <si>
+    <t>SCO_TBR_chain</t>
+  </si>
+  <si>
+    <t>SCO_NNI_chain</t>
+  </si>
 </sst>
 </file>
 
@@ -8949,8 +8964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E304" sqref="E304"/>
+    <sheetView topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47017,7 +47032,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="125">
+      <c r="A300" s="122">
         <v>2139472</v>
       </c>
       <c r="B300" t="s">
@@ -47028,7 +47043,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="125">
+      <c r="A301" s="122">
         <v>2139473</v>
       </c>
       <c r="B301" t="s">
@@ -47039,7 +47054,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="125">
+      <c r="A302" s="122">
         <v>2139474</v>
       </c>
       <c r="B302" t="s">
@@ -47050,7 +47065,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="125">
+      <c r="A303" s="122">
         <v>2139475</v>
       </c>
       <c r="B303" t="s">
@@ -47061,7 +47076,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="125">
+      <c r="A304" s="122">
         <v>2139476</v>
       </c>
       <c r="B304" t="s">
@@ -47126,8 +47141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO164"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75096,19 +75111,19 @@
       </c>
     </row>
     <row r="160" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A160" s="125">
-        <v>2115903</v>
+      <c r="A160" s="122" t="s">
+        <v>409</v>
       </c>
       <c r="B160" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C160" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="125">
-        <v>2115904</v>
+      <c r="A161" s="122">
+        <v>2153102</v>
       </c>
       <c r="B161" t="s">
         <v>408</v>
@@ -75118,8 +75133,8 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="125">
-        <v>2115905</v>
+      <c r="A162" s="122">
+        <v>2153103</v>
       </c>
       <c r="B162" t="s">
         <v>408</v>
@@ -75129,8 +75144,8 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="125">
-        <v>2115906</v>
+      <c r="A163" s="122">
+        <v>2158237</v>
       </c>
       <c r="B163" t="s">
         <v>408</v>
@@ -75140,8 +75155,8 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="125">
-        <v>2115907</v>
+      <c r="A164" s="122">
+        <v>2158239</v>
       </c>
       <c r="B164" t="s">
         <v>408</v>
@@ -75158,10 +75173,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77496,6 +77511,156 @@
         <v>24</v>
       </c>
     </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="122">
+        <v>2172801</v>
+      </c>
+      <c r="B88" t="s">
+        <v>411</v>
+      </c>
+      <c r="C88" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="122">
+        <v>2172802</v>
+      </c>
+      <c r="B89" t="s">
+        <v>411</v>
+      </c>
+      <c r="C89" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="122">
+        <v>2172803</v>
+      </c>
+      <c r="B90" t="s">
+        <v>411</v>
+      </c>
+      <c r="C90" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="122">
+        <v>2172804</v>
+      </c>
+      <c r="B91" t="s">
+        <v>411</v>
+      </c>
+      <c r="C91" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="122">
+        <v>2172805</v>
+      </c>
+      <c r="B92" t="s">
+        <v>411</v>
+      </c>
+      <c r="C92" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="125">
+        <v>2173906</v>
+      </c>
+      <c r="B94" t="s">
+        <v>412</v>
+      </c>
+      <c r="C94" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="125">
+        <v>2173907</v>
+      </c>
+      <c r="B95" t="s">
+        <v>412</v>
+      </c>
+      <c r="C95" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="125">
+        <v>2173908</v>
+      </c>
+      <c r="B96" t="s">
+        <v>412</v>
+      </c>
+      <c r="C96" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="125">
+        <v>2173909</v>
+      </c>
+      <c r="B97" t="s">
+        <v>412</v>
+      </c>
+      <c r="C97" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="125">
+        <v>2173910</v>
+      </c>
+      <c r="B98" t="s">
+        <v>412</v>
+      </c>
+      <c r="C98" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>413</v>
+      </c>
+      <c r="C100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>413</v>
+      </c>
+      <c r="C101" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>413</v>
+      </c>
+      <c r="C102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>413</v>
+      </c>
+      <c r="C104" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -75176,7 +75176,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="O93" sqref="O93"/>
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77567,7 +77567,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="125">
+      <c r="A94" s="122">
         <v>2173906</v>
       </c>
       <c r="B94" t="s">
@@ -77578,7 +77578,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="125">
+      <c r="A95" s="122">
         <v>2173907</v>
       </c>
       <c r="B95" t="s">
@@ -77589,7 +77589,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="125">
+      <c r="A96" s="122">
         <v>2173908</v>
       </c>
       <c r="B96" t="s">
@@ -77600,7 +77600,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="125">
+      <c r="A97" s="122">
         <v>2173909</v>
       </c>
       <c r="B97" t="s">
@@ -77611,7 +77611,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="125">
+      <c r="A98" s="122">
         <v>2173910</v>
       </c>
       <c r="B98" t="s">
@@ -77622,6 +77622,9 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="125">
+        <v>2174494</v>
+      </c>
       <c r="B100" t="s">
         <v>413</v>
       </c>
@@ -77630,6 +77633,9 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="125">
+        <v>2174495</v>
+      </c>
       <c r="B101" t="s">
         <v>413</v>
       </c>
@@ -77638,6 +77644,9 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="125">
+        <v>2174496</v>
+      </c>
       <c r="B102" t="s">
         <v>413</v>
       </c>
@@ -77646,6 +77655,9 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="125">
+        <v>2174497</v>
+      </c>
       <c r="B103" t="s">
         <v>413</v>
       </c>
@@ -77654,6 +77666,9 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="125">
+        <v>2174498</v>
+      </c>
       <c r="B104" t="s">
         <v>413</v>
       </c>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="HomMut CEA" sheetId="9" r:id="rId5"/>
     <sheet name="HomMut OZL" sheetId="10" r:id="rId6"/>
     <sheet name="HomMut SCO" sheetId="11" r:id="rId7"/>
+    <sheet name="HomMut SYL" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="418">
   <si>
     <t>data set</t>
   </si>
@@ -1285,6 +1286,18 @@
   <si>
     <t>SCO_NNI_chain</t>
   </si>
+  <si>
+    <t>SYL_NNI_chain</t>
+  </si>
+  <si>
+    <t>with fitted expVal</t>
+  </si>
+  <si>
+    <t>SYL_random</t>
+  </si>
+  <si>
+    <t>SYL_TBR_chain</t>
+  </si>
 </sst>
 </file>
 
@@ -75175,8 +75188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77511,6 +77524,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>415</v>
+      </c>
+    </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="122">
         <v>2172801</v>
@@ -77520,6 +77538,9 @@
       </c>
       <c r="C88" t="s">
         <v>399</v>
+      </c>
+      <c r="E88" s="125">
+        <v>2183706</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -77532,6 +77553,9 @@
       <c r="C89" t="s">
         <v>400</v>
       </c>
+      <c r="E89" s="125">
+        <v>2183707</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="122">
@@ -77543,6 +77567,9 @@
       <c r="C90" t="s">
         <v>401</v>
       </c>
+      <c r="E90" s="125">
+        <v>2183708</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="122">
@@ -77554,6 +77581,9 @@
       <c r="C91" t="s">
         <v>402</v>
       </c>
+      <c r="E91" s="125">
+        <v>2183709</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="122">
@@ -77565,6 +77595,9 @@
       <c r="C92" t="s">
         <v>403</v>
       </c>
+      <c r="E92" s="125">
+        <v>2183710</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
@@ -77576,6 +77609,9 @@
       <c r="C94" t="s">
         <v>399</v>
       </c>
+      <c r="E94" s="125">
+        <v>2183696</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="122">
@@ -77587,6 +77623,9 @@
       <c r="C95" t="s">
         <v>400</v>
       </c>
+      <c r="E95" s="125">
+        <v>2183697</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="122">
@@ -77598,8 +77637,11 @@
       <c r="C96" t="s">
         <v>401</v>
       </c>
+      <c r="E96" s="125">
+        <v>2183698</v>
+      </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="122">
         <v>2173909</v>
       </c>
@@ -77609,8 +77651,11 @@
       <c r="C97" t="s">
         <v>402</v>
       </c>
+      <c r="E97" s="125">
+        <v>2183699</v>
+      </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="122">
         <v>2173910</v>
       </c>
@@ -77620,9 +77665,12 @@
       <c r="C98" t="s">
         <v>403</v>
       </c>
+      <c r="E98" s="125">
+        <v>2183700</v>
+      </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="125">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="122">
         <v>2174494</v>
       </c>
       <c r="B100" t="s">
@@ -77631,9 +77679,12 @@
       <c r="C100" t="s">
         <v>399</v>
       </c>
+      <c r="E100" s="125">
+        <v>2183705</v>
+      </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="125">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="122">
         <v>2174495</v>
       </c>
       <c r="B101" t="s">
@@ -77642,9 +77693,12 @@
       <c r="C101" t="s">
         <v>400</v>
       </c>
+      <c r="E101" s="125">
+        <v>2183704</v>
+      </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="125">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="122">
         <v>2174496</v>
       </c>
       <c r="B102" t="s">
@@ -77653,9 +77707,12 @@
       <c r="C102" t="s">
         <v>401</v>
       </c>
+      <c r="E102" s="125">
+        <v>2183703</v>
+      </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="125">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="122">
         <v>2174497</v>
       </c>
       <c r="B103" t="s">
@@ -77664,15 +77721,174 @@
       <c r="C103" t="s">
         <v>402</v>
       </c>
+      <c r="E103" s="125">
+        <v>2183702</v>
+      </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="125">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="122">
         <v>2174498</v>
       </c>
       <c r="B104" t="s">
         <v>413</v>
       </c>
       <c r="C104" t="s">
+        <v>403</v>
+      </c>
+      <c r="E104" s="125">
+        <v>2183701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="125">
+        <v>2183716</v>
+      </c>
+      <c r="B3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="125">
+        <v>2183717</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="125">
+        <v>2183718</v>
+      </c>
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="125">
+        <v>2183719</v>
+      </c>
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="125">
+        <v>2183720</v>
+      </c>
+      <c r="B7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" t="s">
         <v>403</v>
       </c>
     </row>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="426">
   <si>
     <t>data set</t>
   </si>
@@ -1298,6 +1298,30 @@
   <si>
     <t>SYL_TBR_chain</t>
   </si>
+  <si>
+    <t>got to</t>
+  </si>
+  <si>
+    <t>rerun</t>
+  </si>
+  <si>
+    <t>94 to 100</t>
+  </si>
+  <si>
+    <t>75 to 80</t>
+  </si>
+  <si>
+    <t>55 to 60</t>
+  </si>
+  <si>
+    <t>35 to 40</t>
+  </si>
+  <si>
+    <t>15 to 20</t>
+  </si>
+  <si>
+    <t>with sump</t>
+  </si>
 </sst>
 </file>
 
@@ -47154,8 +47178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO164"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75013,6 +75037,11 @@
         <v>223</v>
       </c>
     </row>
+    <row r="147" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="E147" s="123" t="s">
+        <v>425</v>
+      </c>
+    </row>
     <row r="148" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A148" s="122">
         <v>2065917</v>
@@ -75133,8 +75162,11 @@
       <c r="C160" t="s">
         <v>399</v>
       </c>
+      <c r="E160" s="122">
+        <v>2193855</v>
+      </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="122">
         <v>2153102</v>
       </c>
@@ -75144,8 +75176,11 @@
       <c r="C161" t="s">
         <v>400</v>
       </c>
+      <c r="E161" s="125">
+        <v>2195709</v>
+      </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="122">
         <v>2153103</v>
       </c>
@@ -75155,8 +75190,11 @@
       <c r="C162" t="s">
         <v>401</v>
       </c>
+      <c r="E162" s="125">
+        <v>2195710</v>
+      </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="122">
         <v>2158237</v>
       </c>
@@ -75166,8 +75204,11 @@
       <c r="C163" t="s">
         <v>402</v>
       </c>
+      <c r="E163" s="125">
+        <v>2195711</v>
+      </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="122">
         <v>2158239</v>
       </c>
@@ -75176,6 +75217,9 @@
       </c>
       <c r="C164" t="s">
         <v>403</v>
+      </c>
+      <c r="E164" s="125">
+        <v>2195712</v>
       </c>
     </row>
   </sheetData>
@@ -75189,7 +75233,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77539,7 +77583,7 @@
       <c r="C88" t="s">
         <v>399</v>
       </c>
-      <c r="E88" s="125">
+      <c r="E88" s="122">
         <v>2183706</v>
       </c>
     </row>
@@ -77553,7 +77597,7 @@
       <c r="C89" t="s">
         <v>400</v>
       </c>
-      <c r="E89" s="125">
+      <c r="E89" s="122">
         <v>2183707</v>
       </c>
     </row>
@@ -77567,7 +77611,7 @@
       <c r="C90" t="s">
         <v>401</v>
       </c>
-      <c r="E90" s="125">
+      <c r="E90" s="122">
         <v>2183708</v>
       </c>
     </row>
@@ -77581,7 +77625,7 @@
       <c r="C91" t="s">
         <v>402</v>
       </c>
-      <c r="E91" s="125">
+      <c r="E91" s="122">
         <v>2183709</v>
       </c>
     </row>
@@ -77595,7 +77639,7 @@
       <c r="C92" t="s">
         <v>403</v>
       </c>
-      <c r="E92" s="125">
+      <c r="E92" s="122">
         <v>2183710</v>
       </c>
     </row>
@@ -77609,7 +77653,7 @@
       <c r="C94" t="s">
         <v>399</v>
       </c>
-      <c r="E94" s="125">
+      <c r="E94" s="122">
         <v>2183696</v>
       </c>
     </row>
@@ -77623,7 +77667,7 @@
       <c r="C95" t="s">
         <v>400</v>
       </c>
-      <c r="E95" s="125">
+      <c r="E95" s="122">
         <v>2183697</v>
       </c>
     </row>
@@ -77637,7 +77681,7 @@
       <c r="C96" t="s">
         <v>401</v>
       </c>
-      <c r="E96" s="125">
+      <c r="E96" s="122">
         <v>2183698</v>
       </c>
     </row>
@@ -77651,7 +77695,7 @@
       <c r="C97" t="s">
         <v>402</v>
       </c>
-      <c r="E97" s="125">
+      <c r="E97" s="122">
         <v>2183699</v>
       </c>
     </row>
@@ -77665,7 +77709,7 @@
       <c r="C98" t="s">
         <v>403</v>
       </c>
-      <c r="E98" s="125">
+      <c r="E98" s="122">
         <v>2183700</v>
       </c>
     </row>
@@ -77679,7 +77723,7 @@
       <c r="C100" t="s">
         <v>399</v>
       </c>
-      <c r="E100" s="125">
+      <c r="E100" s="122">
         <v>2183705</v>
       </c>
     </row>
@@ -77693,7 +77737,7 @@
       <c r="C101" t="s">
         <v>400</v>
       </c>
-      <c r="E101" s="125">
+      <c r="E101" s="122">
         <v>2183704</v>
       </c>
     </row>
@@ -77707,8 +77751,8 @@
       <c r="C102" t="s">
         <v>401</v>
       </c>
-      <c r="E102" s="125">
-        <v>2183703</v>
+      <c r="E102" s="122">
+        <v>2193506</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -77721,7 +77765,7 @@
       <c r="C103" t="s">
         <v>402</v>
       </c>
-      <c r="E103" s="125">
+      <c r="E103" s="122">
         <v>2183702</v>
       </c>
     </row>
@@ -77735,7 +77779,7 @@
       <c r="C104" t="s">
         <v>403</v>
       </c>
-      <c r="E104" s="125">
+      <c r="E104" s="122">
         <v>2183701</v>
       </c>
     </row>
@@ -77746,10 +77790,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77757,8 +77801,16 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="125">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="122">
         <v>2183716</v>
       </c>
       <c r="B3" t="s">
@@ -77767,9 +77819,18 @@
       <c r="C3" t="s">
         <v>399</v>
       </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" s="122">
+        <v>2193509</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="125">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="122">
         <v>2183717</v>
       </c>
       <c r="B4" t="s">
@@ -77778,9 +77839,18 @@
       <c r="C4" t="s">
         <v>400</v>
       </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="122">
+        <v>2193510</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="125">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="122">
         <v>2183718</v>
       </c>
       <c r="B5" t="s">
@@ -77789,9 +77859,18 @@
       <c r="C5" t="s">
         <v>401</v>
       </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="122">
+        <v>2193511</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="125">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="122">
         <v>2183719</v>
       </c>
       <c r="B6" t="s">
@@ -77800,9 +77879,18 @@
       <c r="C6" t="s">
         <v>402</v>
       </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="122">
+        <v>2193512</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="125">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="122">
         <v>2183720</v>
       </c>
       <c r="B7" t="s">
@@ -77811,8 +77899,20 @@
       <c r="C7" t="s">
         <v>403</v>
       </c>
+      <c r="D7">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F7" s="122">
+        <v>2193513</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="125">
+        <v>2193797</v>
+      </c>
       <c r="B9" t="s">
         <v>416</v>
       </c>
@@ -77820,7 +77920,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="125">
+        <v>2193798</v>
+      </c>
       <c r="B10" t="s">
         <v>416</v>
       </c>
@@ -77828,7 +77931,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="125">
+        <v>2193799</v>
+      </c>
       <c r="B11" t="s">
         <v>416</v>
       </c>
@@ -77836,7 +77942,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="125">
+        <v>2193800</v>
+      </c>
       <c r="B12" t="s">
         <v>416</v>
       </c>
@@ -77844,7 +77953,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="125">
+        <v>2193801</v>
+      </c>
       <c r="B13" t="s">
         <v>416</v>
       </c>
@@ -77852,7 +77964,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>417</v>
       </c>
@@ -77860,7 +77972,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>417</v>
       </c>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="681" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HomMut OZL" sheetId="10" r:id="rId6"/>
     <sheet name="HomMut SCO" sheetId="11" r:id="rId7"/>
     <sheet name="HomMut SYL" sheetId="12" r:id="rId8"/>
+    <sheet name="HomMut THER" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47178,8 +47179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75177,7 +75178,7 @@
         <v>400</v>
       </c>
       <c r="E161" s="125">
-        <v>2195709</v>
+        <v>2195800</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -75191,7 +75192,7 @@
         <v>401</v>
       </c>
       <c r="E162" s="125">
-        <v>2195710</v>
+        <v>2195801</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -75205,7 +75206,7 @@
         <v>402</v>
       </c>
       <c r="E163" s="125">
-        <v>2195711</v>
+        <v>2195802</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -75219,7 +75220,7 @@
         <v>403</v>
       </c>
       <c r="E164" s="125">
-        <v>2195712</v>
+        <v>2195803</v>
       </c>
     </row>
   </sheetData>
@@ -77793,7 +77794,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77910,7 +77911,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="125">
+      <c r="A9" s="122">
         <v>2193797</v>
       </c>
       <c r="B9" t="s">
@@ -77921,7 +77922,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="125">
+      <c r="A10" s="122">
         <v>2193798</v>
       </c>
       <c r="B10" t="s">
@@ -77932,7 +77933,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="125">
+      <c r="A11" s="122">
         <v>2193799</v>
       </c>
       <c r="B11" t="s">
@@ -77943,7 +77944,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="125">
+      <c r="A12" s="122">
         <v>2193800</v>
       </c>
       <c r="B12" t="s">
@@ -77954,7 +77955,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="125">
+      <c r="A13" s="122">
         <v>2193801</v>
       </c>
       <c r="B13" t="s">
@@ -77965,6 +77966,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="125">
+        <v>2199526</v>
+      </c>
       <c r="B15" t="s">
         <v>417</v>
       </c>
@@ -77973,6 +77977,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="125">
+        <v>2199529</v>
+      </c>
       <c r="B16" t="s">
         <v>417</v>
       </c>
@@ -77980,7 +77987,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="125">
+        <v>2199530</v>
+      </c>
       <c r="B17" t="s">
         <v>417</v>
       </c>
@@ -77988,7 +77998,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="125">
+        <v>2199532</v>
+      </c>
       <c r="B18" t="s">
         <v>417</v>
       </c>
@@ -77996,7 +78009,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="125">
+        <v>2199536</v>
+      </c>
       <c r="B19" t="s">
         <v>417</v>
       </c>
@@ -78007,4 +78023,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="432">
   <si>
     <t>data set</t>
   </si>
@@ -1323,6 +1323,24 @@
   <si>
     <t>with sump</t>
   </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>65,70, 75,80</t>
+  </si>
+  <si>
+    <t>85,90,95,100</t>
+  </si>
+  <si>
+    <t>45,50,55,60</t>
+  </si>
+  <si>
+    <t>25,30,35,40</t>
+  </si>
+  <si>
+    <t>remainder</t>
+  </si>
 </sst>
 </file>
 
@@ -9002,7 +9020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM310"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
@@ -47177,10 +47195,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO164"/>
+  <dimension ref="A1:BO165"/>
   <sheetViews>
     <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47188,6 +47206,7 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -75039,8 +75058,11 @@
       </c>
     </row>
     <row r="147" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="E147" s="123" t="s">
+      <c r="D147" s="123" t="s">
         <v>425</v>
+      </c>
+      <c r="F147" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:66" x14ac:dyDescent="0.25">
@@ -75163,11 +75185,11 @@
       <c r="C160" t="s">
         <v>399</v>
       </c>
-      <c r="E160" s="122">
+      <c r="D160" s="122">
         <v>2193855</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="122">
         <v>2153102</v>
       </c>
@@ -75177,11 +75199,14 @@
       <c r="C161" t="s">
         <v>400</v>
       </c>
-      <c r="E161" s="125">
+      <c r="D161" s="122">
         <v>2195800</v>
       </c>
+      <c r="F161" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="122">
         <v>2153103</v>
       </c>
@@ -75191,11 +75216,14 @@
       <c r="C162" t="s">
         <v>401</v>
       </c>
-      <c r="E162" s="125">
+      <c r="D162" s="122">
         <v>2195801</v>
       </c>
+      <c r="F162" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="122">
         <v>2158237</v>
       </c>
@@ -75205,11 +75233,14 @@
       <c r="C163" t="s">
         <v>402</v>
       </c>
-      <c r="E163" s="125">
+      <c r="D163" s="122">
         <v>2195802</v>
       </c>
+      <c r="F163" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="122">
         <v>2158239</v>
       </c>
@@ -75219,8 +75250,19 @@
       <c r="C164" t="s">
         <v>403</v>
       </c>
-      <c r="E164" s="125">
+      <c r="D164" s="122">
         <v>2195803</v>
+      </c>
+      <c r="F164" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>431</v>
+      </c>
+      <c r="D165" s="125">
+        <v>2200541</v>
       </c>
     </row>
   </sheetData>
@@ -78029,7 +78071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -9020,7 +9020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
@@ -47197,8 +47197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO165"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154:D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75130,6 +75130,9 @@
       <c r="C154" t="s">
         <v>399</v>
       </c>
+      <c r="D154" s="125">
+        <v>2226775</v>
+      </c>
     </row>
     <row r="155" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A155" s="122">
@@ -75141,6 +75144,9 @@
       <c r="C155" t="s">
         <v>400</v>
       </c>
+      <c r="D155" s="125">
+        <v>2226776</v>
+      </c>
     </row>
     <row r="156" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A156" s="122">
@@ -75152,6 +75158,9 @@
       <c r="C156" t="s">
         <v>401</v>
       </c>
+      <c r="D156" s="125">
+        <v>2226777</v>
+      </c>
     </row>
     <row r="157" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A157" s="122">
@@ -75163,6 +75172,9 @@
       <c r="C157" t="s">
         <v>402</v>
       </c>
+      <c r="D157" s="125">
+        <v>2226778</v>
+      </c>
     </row>
     <row r="158" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A158" s="122">
@@ -75173,6 +75185,9 @@
       </c>
       <c r="C158" t="s">
         <v>403</v>
+      </c>
+      <c r="D158" s="125">
+        <v>2226779</v>
       </c>
     </row>
     <row r="160" spans="1:66" x14ac:dyDescent="0.25">
@@ -77833,10 +77848,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78008,7 +78023,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="125">
+      <c r="A15" s="122">
         <v>2199526</v>
       </c>
       <c r="B15" t="s">
@@ -78019,7 +78034,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="125">
+      <c r="A16" s="122">
         <v>2199529</v>
       </c>
       <c r="B16" t="s">
@@ -78029,8 +78044,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="125">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="122">
         <v>2199530</v>
       </c>
       <c r="B17" t="s">
@@ -78040,8 +78055,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="125">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="122">
         <v>2199532</v>
       </c>
       <c r="B18" t="s">
@@ -78051,8 +78066,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="125">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="122">
         <v>2199536</v>
       </c>
       <c r="B19" t="s">
@@ -78060,6 +78075,14 @@
       </c>
       <c r="C19" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>54</v>
+      </c>
+      <c r="D20" s="125">
+        <v>2211462</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -47197,8 +47197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154:D158"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75075,6 +75075,9 @@
       <c r="C148" s="58" t="s">
         <v>399</v>
       </c>
+      <c r="D148" s="125">
+        <v>2227015</v>
+      </c>
     </row>
     <row r="149" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A149" s="122">
@@ -75086,6 +75089,9 @@
       <c r="C149" t="s">
         <v>400</v>
       </c>
+      <c r="D149" s="125">
+        <v>2227017</v>
+      </c>
     </row>
     <row r="150" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A150" s="122">
@@ -75097,6 +75103,9 @@
       <c r="C150" t="s">
         <v>401</v>
       </c>
+      <c r="D150" s="125">
+        <v>2227019</v>
+      </c>
     </row>
     <row r="151" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A151" s="122">
@@ -75108,6 +75117,9 @@
       <c r="C151" t="s">
         <v>402</v>
       </c>
+      <c r="D151" s="125">
+        <v>2227020</v>
+      </c>
     </row>
     <row r="152" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A152" s="122">
@@ -75119,6 +75131,9 @@
       <c r="C152" t="s">
         <v>403</v>
       </c>
+      <c r="D152" s="125">
+        <v>2227021</v>
+      </c>
     </row>
     <row r="154" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A154" s="122">
@@ -75130,8 +75145,8 @@
       <c r="C154" t="s">
         <v>399</v>
       </c>
-      <c r="D154" s="125">
-        <v>2226775</v>
+      <c r="D154" s="122">
+        <v>2226926</v>
       </c>
     </row>
     <row r="155" spans="1:66" x14ac:dyDescent="0.25">
@@ -75144,8 +75159,8 @@
       <c r="C155" t="s">
         <v>400</v>
       </c>
-      <c r="D155" s="125">
-        <v>2226776</v>
+      <c r="D155" s="122">
+        <v>2226927</v>
       </c>
     </row>
     <row r="156" spans="1:66" x14ac:dyDescent="0.25">
@@ -75158,8 +75173,8 @@
       <c r="C156" t="s">
         <v>401</v>
       </c>
-      <c r="D156" s="125">
-        <v>2226777</v>
+      <c r="D156" s="122">
+        <v>2226928</v>
       </c>
     </row>
     <row r="157" spans="1:66" x14ac:dyDescent="0.25">
@@ -75172,8 +75187,8 @@
       <c r="C157" t="s">
         <v>402</v>
       </c>
-      <c r="D157" s="125">
-        <v>2226778</v>
+      <c r="D157" s="122">
+        <v>2226929</v>
       </c>
     </row>
     <row r="158" spans="1:66" x14ac:dyDescent="0.25">
@@ -75186,8 +75201,8 @@
       <c r="C158" t="s">
         <v>403</v>
       </c>
-      <c r="D158" s="125">
-        <v>2226779</v>
+      <c r="D158" s="122">
+        <v>2226930</v>
       </c>
     </row>
     <row r="160" spans="1:66" x14ac:dyDescent="0.25">
@@ -75276,7 +75291,7 @@
       <c r="C165" t="s">
         <v>431</v>
       </c>
-      <c r="D165" s="125">
+      <c r="D165" s="122">
         <v>2200541</v>
       </c>
     </row>
@@ -77848,10 +77863,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77967,6 +77982,14 @@
         <v>2193513</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>54</v>
+      </c>
+      <c r="F8" s="122">
+        <v>2211462</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="122">
         <v>2193797</v>
@@ -78044,7 +78067,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="122">
         <v>2199530</v>
       </c>
@@ -78055,7 +78078,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="122">
         <v>2199532</v>
       </c>
@@ -78066,7 +78089,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="122">
         <v>2199536</v>
       </c>
@@ -78075,14 +78098,6 @@
       </c>
       <c r="C19" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>54</v>
-      </c>
-      <c r="D20" s="125">
-        <v>2211462</v>
       </c>
     </row>
   </sheetData>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9330" tabRatio="746" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Run parameters" sheetId="1" r:id="rId1"/>
@@ -9020,7 +9020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM310"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
@@ -47197,8 +47197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75075,7 +75075,7 @@
       <c r="C148" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="D148" s="125">
+      <c r="D148" s="122">
         <v>2227015</v>
       </c>
     </row>
@@ -75089,7 +75089,7 @@
       <c r="C149" t="s">
         <v>400</v>
       </c>
-      <c r="D149" s="125">
+      <c r="D149" s="122">
         <v>2227017</v>
       </c>
     </row>
@@ -75103,7 +75103,7 @@
       <c r="C150" t="s">
         <v>401</v>
       </c>
-      <c r="D150" s="125">
+      <c r="D150" s="122">
         <v>2227019</v>
       </c>
     </row>
@@ -75117,7 +75117,7 @@
       <c r="C151" t="s">
         <v>402</v>
       </c>
-      <c r="D151" s="125">
+      <c r="D151" s="122">
         <v>2227020</v>
       </c>
     </row>
@@ -75131,7 +75131,7 @@
       <c r="C152" t="s">
         <v>403</v>
       </c>
-      <c r="D152" s="125">
+      <c r="D152" s="122">
         <v>2227021</v>
       </c>
     </row>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9021,7 +9021,7 @@
   <dimension ref="A1:BM310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+      <selection activeCell="I306" sqref="I306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47033,8 +47033,8 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="122">
-        <v>2078605</v>
+      <c r="A294" s="125">
+        <v>2231203</v>
       </c>
       <c r="B294" t="s">
         <v>405</v>
@@ -47044,8 +47044,8 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="122">
-        <v>2078609</v>
+      <c r="A295" s="125">
+        <v>2231204</v>
       </c>
       <c r="B295" t="s">
         <v>405</v>
@@ -47055,8 +47055,8 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="122">
-        <v>2098676</v>
+      <c r="A296" s="125">
+        <v>2231205</v>
       </c>
       <c r="B296" t="s">
         <v>405</v>
@@ -47066,8 +47066,8 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="122">
-        <v>2078611</v>
+      <c r="A297" s="125">
+        <v>2231206</v>
       </c>
       <c r="B297" t="s">
         <v>405</v>
@@ -47077,8 +47077,8 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="122">
-        <v>2078612</v>
+      <c r="A298" s="125">
+        <v>2231207</v>
       </c>
       <c r="B298" t="s">
         <v>405</v>
@@ -47088,8 +47088,8 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="122">
-        <v>2139472</v>
+      <c r="A300" s="125">
+        <v>2231208</v>
       </c>
       <c r="B300" t="s">
         <v>406</v>
@@ -47099,8 +47099,8 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="122">
-        <v>2139473</v>
+      <c r="A301" s="125">
+        <v>2231209</v>
       </c>
       <c r="B301" t="s">
         <v>406</v>
@@ -47110,8 +47110,8 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="122">
-        <v>2139474</v>
+      <c r="A302" s="125">
+        <v>2231210</v>
       </c>
       <c r="B302" t="s">
         <v>406</v>
@@ -47121,8 +47121,8 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="122">
-        <v>2139475</v>
+      <c r="A303" s="125">
+        <v>2231211</v>
       </c>
       <c r="B303" t="s">
         <v>406</v>
@@ -47132,8 +47132,8 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="122">
-        <v>2139476</v>
+      <c r="A304" s="125">
+        <v>2231212</v>
       </c>
       <c r="B304" t="s">
         <v>406</v>

--- a/RunParameters.xlsx
+++ b/RunParameters.xlsx
@@ -9021,7 +9021,7 @@
   <dimension ref="A1:BM310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I306" sqref="I306"/>
+      <selection activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47033,7 +47033,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="125">
+      <c r="A294" s="122">
         <v>2231203</v>
       </c>
       <c r="B294" t="s">
@@ -47044,7 +47044,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="125">
+      <c r="A295" s="122">
         <v>2231204</v>
       </c>
       <c r="B295" t="s">
@@ -47055,7 +47055,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="125">
+      <c r="A296" s="122">
         <v>2231205</v>
       </c>
       <c r="B296" t="s">
@@ -47066,7 +47066,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="125">
+      <c r="A297" s="122">
         <v>2231206</v>
       </c>
       <c r="B297" t="s">
@@ -47077,7 +47077,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="125">
+      <c r="A298" s="122">
         <v>2231207</v>
       </c>
       <c r="B298" t="s">
@@ -47088,7 +47088,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="125">
+      <c r="A300" s="122">
         <v>2231208</v>
       </c>
       <c r="B300" t="s">
@@ -47099,7 +47099,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="125">
+      <c r="A301" s="122">
         <v>2231209</v>
       </c>
       <c r="B301" t="s">
@@ -47110,7 +47110,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="125">
+      <c r="A302" s="122">
         <v>2231210</v>
       </c>
       <c r="B302" t="s">
@@ -47121,7 +47121,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="125">
+      <c r="A303" s="122">
         <v>2231211</v>
       </c>
       <c r="B303" t="s">
@@ -47143,7 +47143,9 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="125"/>
+      <c r="A306" s="125">
+        <v>2233386</v>
+      </c>
       <c r="B306" t="s">
         <v>407</v>
       </c>
@@ -47152,7 +47154,9 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="125"/>
+      <c r="A307" s="125">
+        <v>2233387</v>
+      </c>
       <c r="B307" t="s">
         <v>407</v>
       </c>
@@ -47161,7 +47165,9 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="125"/>
+      <c r="A308" s="125">
+        <v>2233388</v>
+      </c>
       <c r="B308" t="s">
         <v>407</v>
       </c>
@@ -47170,7 +47176,9 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="125"/>
+      <c r="A309" s="125">
+        <v>2233389</v>
+      </c>
       <c r="B309" t="s">
         <v>407</v>
       </c>
@@ -47179,7 +47187,9 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="125"/>
+      <c r="A310" s="125">
+        <v>2233390</v>
+      </c>
       <c r="B310" t="s">
         <v>407</v>
       </c>
